--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,11 +13,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="438" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="610" uniqueCount="117">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>300555</t>
+  </si>
+  <si>
+    <t>300561</t>
+  </si>
+  <si>
+    <t>300572</t>
+  </si>
+  <si>
+    <t>300577</t>
+  </si>
+  <si>
+    <t>300593</t>
+  </si>
+  <si>
+    <t>300715</t>
+  </si>
+  <si>
+    <t>300717</t>
+  </si>
+  <si>
+    <t>300748</t>
+  </si>
+  <si>
+    <t>300755</t>
+  </si>
+  <si>
+    <t>300760</t>
+  </si>
+  <si>
+    <t>300764</t>
+  </si>
+  <si>
+    <t>300788</t>
+  </si>
+  <si>
+    <t>300790</t>
+  </si>
+  <si>
+    <t>300796</t>
+  </si>
+  <si>
     <t>800102</t>
   </si>
   <si>
@@ -171,33 +213,102 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>alprazolam</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>non-specific organic acids</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
+    <t>meclonazepam</t>
+  </si>
+  <si>
+    <t>phenethylbromide</t>
+  </si>
+  <si>
+    <t>N-ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>3,4-MDMA</t>
+  </si>
+  <si>
+    <t>noscapine</t>
+  </si>
+  <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
+    <t>meconin</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
     <t>tropacocaine</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
   </si>
   <si>
@@ -207,61 +318,22 @@
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>inositol</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>buspirone</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
-    <t>3,4-MDMA</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
     <t>clonazepam</t>
   </si>
   <si>
     <t>caffeine</t>
-  </si>
-  <si>
-    <t>N-ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>alprazolam</t>
   </si>
   <si>
     <t>flubromazolam</t>
@@ -339,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -350,19 +422,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -370,16 +442,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1">
-        <v>44936</v>
+        <v>44803</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -390,16 +462,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1">
-        <v>44935</v>
+        <v>44803</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -410,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1">
-        <v>44935</v>
+        <v>44803</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -427,19 +499,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1">
-        <v>44931</v>
+        <v>44803</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -447,19 +519,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1">
-        <v>44931</v>
+        <v>44803</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -470,16 +542,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1">
-        <v>44931</v>
+        <v>44803</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -487,19 +559,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1">
-        <v>44931</v>
+        <v>44803</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -507,19 +579,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1">
-        <v>44931</v>
+        <v>44803</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -527,19 +599,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1">
-        <v>44931</v>
+        <v>44803</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -547,19 +619,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1">
-        <v>44931</v>
+        <v>44854</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -567,19 +639,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1">
-        <v>44935</v>
+        <v>44854</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -590,16 +662,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1">
-        <v>44930</v>
+        <v>44854</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -610,16 +682,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1">
-        <v>44930</v>
+        <v>44854</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -630,16 +702,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1">
-        <v>44930</v>
+        <v>44854</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -647,19 +719,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1">
-        <v>44935</v>
+        <v>44854</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -667,19 +739,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1">
-        <v>44935</v>
+        <v>44854</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -687,19 +759,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -707,19 +779,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E19" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -727,19 +799,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -747,19 +819,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1">
-        <v>44930</v>
+        <v>44845</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -767,19 +839,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E22" s="1">
-        <v>44935</v>
+        <v>44845</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -787,19 +859,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1">
-        <v>44935</v>
+        <v>44845</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -807,19 +879,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E24" s="1">
-        <v>44935</v>
+        <v>44845</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -827,19 +899,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1">
-        <v>44930</v>
+        <v>44840</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -847,19 +919,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E26" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -867,19 +939,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E27" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -887,19 +959,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E28" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -907,19 +979,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E29" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -927,19 +999,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E30" s="1">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -947,19 +1019,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E31" s="1">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -967,19 +1039,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E32" s="1">
-        <v>44935</v>
+        <v>44840</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -987,19 +1059,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E33" s="1">
-        <v>44935</v>
+        <v>44840</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1007,19 +1079,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E34" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -1027,19 +1099,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E35" s="1">
-        <v>44935</v>
+        <v>44839</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -1047,19 +1119,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E36" s="1">
-        <v>44935</v>
+        <v>44839</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -1067,19 +1139,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1">
-        <v>44932</v>
+        <v>44839</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -1087,19 +1159,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1">
-        <v>44931</v>
+        <v>44839</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -1107,19 +1179,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1">
-        <v>44931</v>
+        <v>44839</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -1127,19 +1199,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E40" s="1">
-        <v>44931</v>
+        <v>44839</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -1147,19 +1219,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E41" s="1">
-        <v>44931</v>
+        <v>44839</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -1167,19 +1239,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E42" s="1">
-        <v>44930</v>
+        <v>44839</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -1187,19 +1259,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E43" s="1">
-        <v>44930</v>
+        <v>44840</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -1207,19 +1279,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E44" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -1227,19 +1299,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E45" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
@@ -1247,16 +1319,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E46" s="1">
         <v>44935</v>
@@ -1267,19 +1339,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E47" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -1287,19 +1359,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E48" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -1307,19 +1379,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E49" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -1327,19 +1399,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E50" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -1347,19 +1419,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E51" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -1367,19 +1439,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E52" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -1387,19 +1459,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E53" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -1407,19 +1479,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E54" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -1427,19 +1499,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E55" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
@@ -1447,19 +1519,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E56" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -1467,19 +1539,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E57" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -1487,19 +1559,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E58" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -1507,16 +1579,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E59" s="1">
         <v>44935</v>
@@ -1527,19 +1599,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E60" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -1547,19 +1619,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E61" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -1567,19 +1639,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E62" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
@@ -1587,19 +1659,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E63" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -1607,19 +1679,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E64" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -1627,16 +1699,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E65" s="1">
         <v>44935</v>
@@ -1647,19 +1719,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E66" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
@@ -1667,19 +1739,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E67" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
@@ -1687,16 +1759,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E68" s="1">
         <v>44930</v>
@@ -1707,16 +1779,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E69" s="1">
         <v>44930</v>
@@ -1727,19 +1799,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E70" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
@@ -1747,19 +1819,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E71" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -1767,19 +1839,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E72" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
@@ -1787,19 +1859,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E73" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
@@ -1807,19 +1879,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E74" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -1827,19 +1899,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E75" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
@@ -1847,19 +1919,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E76" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
@@ -1867,19 +1939,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E77" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -1887,19 +1959,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E78" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
@@ -1907,16 +1979,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E79" s="1">
         <v>44935</v>
@@ -1927,19 +1999,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E80" s="1">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
@@ -1947,19 +2019,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E81" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -1967,19 +2039,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E82" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -1987,19 +2059,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E83" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -2007,19 +2079,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E84" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
@@ -2027,19 +2099,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E85" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
@@ -2047,19 +2119,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E86" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
@@ -2067,19 +2139,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E87" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
@@ -2087,19 +2159,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E88" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
@@ -2107,19 +2179,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E89" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
@@ -2127,19 +2199,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E90" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
@@ -2147,19 +2219,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E91" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
@@ -2167,19 +2239,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E92" s="1">
-        <v>44939</v>
+        <v>44935</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
@@ -2187,19 +2259,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E93" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
@@ -2207,19 +2279,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E94" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
@@ -2227,19 +2299,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E95" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
@@ -2247,19 +2319,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E96" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
@@ -2267,16 +2339,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E97" s="1">
         <v>44936</v>
@@ -2287,19 +2359,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E98" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
@@ -2307,19 +2379,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E99" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
@@ -2327,19 +2399,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E100" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
@@ -2347,19 +2419,19 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E101" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
@@ -2367,19 +2439,19 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E102" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
@@ -2387,16 +2459,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E103" s="1">
         <v>44936</v>
@@ -2407,19 +2479,19 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D104" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E104" s="1">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
@@ -2427,16 +2499,16 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E105" s="1">
         <v>44936</v>
@@ -2447,16 +2519,16 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E106" s="1">
         <v>44936</v>
@@ -2467,19 +2539,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E107" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
@@ -2487,16 +2559,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C108" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E108" s="1">
         <v>44935</v>
@@ -2507,21 +2579,881 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" t="s">
+        <v>114</v>
+      </c>
+      <c r="E109" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" t="s">
+        <v>111</v>
+      </c>
+      <c r="D112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44931</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
         <v>49</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B116" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" t="s">
+        <v>111</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E117" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" t="s">
+        <v>111</v>
+      </c>
+      <c r="D118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" t="s">
+        <v>114</v>
+      </c>
+      <c r="E119" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D122" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" t="s">
+        <v>111</v>
+      </c>
+      <c r="D123" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126" t="s">
+        <v>114</v>
+      </c>
+      <c r="E126" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" t="s">
+        <v>114</v>
+      </c>
+      <c r="E128" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" t="s">
+        <v>114</v>
+      </c>
+      <c r="E129" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
         <v>53</v>
       </c>
-      <c r="C109" t="s">
-        <v>88</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="B130" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" t="s">
+        <v>111</v>
+      </c>
+      <c r="D130" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>54</v>
+      </c>
+      <c r="B132" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" t="s">
+        <v>111</v>
+      </c>
+      <c r="D132" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" t="s">
+        <v>111</v>
+      </c>
+      <c r="D133" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>54</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" t="s">
+        <v>112</v>
+      </c>
+      <c r="D134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" t="s">
+        <v>112</v>
+      </c>
+      <c r="D135" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" s="1">
+        <v>44939</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D136" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" t="s">
+        <v>80</v>
+      </c>
+      <c r="C137" t="s">
+        <v>112</v>
+      </c>
+      <c r="D137" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="s">
+        <v>111</v>
+      </c>
+      <c r="D138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>57</v>
+      </c>
+      <c r="B140" t="s">
+        <v>71</v>
+      </c>
+      <c r="C140" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141" t="s">
+        <v>114</v>
+      </c>
+      <c r="E141" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" t="s">
+        <v>108</v>
+      </c>
+      <c r="C142" t="s">
+        <v>111</v>
+      </c>
+      <c r="D142" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" t="s">
+        <v>109</v>
+      </c>
+      <c r="C143" t="s">
+        <v>111</v>
+      </c>
+      <c r="D143" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>59</v>
+      </c>
+      <c r="B144" t="s">
+        <v>73</v>
+      </c>
+      <c r="C144" t="s">
+        <v>111</v>
+      </c>
+      <c r="D144" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>59</v>
+      </c>
+      <c r="B145" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145" t="s">
+        <v>114</v>
+      </c>
+      <c r="E145" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" t="s">
+        <v>71</v>
+      </c>
+      <c r="C146" t="s">
+        <v>111</v>
+      </c>
+      <c r="D146" t="s">
+        <v>114</v>
+      </c>
+      <c r="E146" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" t="s">
+        <v>111</v>
+      </c>
+      <c r="D147" t="s">
+        <v>114</v>
+      </c>
+      <c r="E147" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>61</v>
+      </c>
+      <c r="B148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" t="s">
+        <v>114</v>
+      </c>
+      <c r="E148" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+      <c r="B149" t="s">
+        <v>84</v>
+      </c>
+      <c r="C149" t="s">
+        <v>111</v>
+      </c>
+      <c r="D149" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" t="s">
+        <v>65</v>
+      </c>
+      <c r="C150" t="s">
+        <v>111</v>
+      </c>
+      <c r="D150" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" t="s">
+        <v>111</v>
+      </c>
+      <c r="D151" t="s">
+        <v>114</v>
+      </c>
+      <c r="E151" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>63</v>
+      </c>
+      <c r="B152" t="s">
         <v>90</v>
       </c>
-      <c r="E109" s="1">
+      <c r="C152" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" t="s">
+        <v>114</v>
+      </c>
+      <c r="E152" s="1">
         <v>44935</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F152" s="2">
         <v>1</v>
       </c>
     </row>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="610" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="611" uniqueCount="118">
   <si>
     <t>sampleid</t>
   </si>
@@ -213,45 +213,45 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>inositol</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>clonazolam</t>
+  </si>
+  <si>
+    <t>non-specific organic acids</t>
   </si>
   <si>
     <t>sucrose</t>
   </si>
   <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
-    <t>clonazolam</t>
+    <t>meclonazepam</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
@@ -261,60 +261,60 @@
     <t>xylazine</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>meconin</t>
+  </si>
+  <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
-    <t>meconin</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
     <t>tropacocaine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
     <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
   </si>
   <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
@@ -339,12 +339,12 @@
     <t>flubromazolam</t>
   </si>
   <si>
+    <t>2C-H</t>
+  </si>
+  <si>
     <t>2C-B</t>
   </si>
   <si>
-    <t>2C-H</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>confirmatory</t>
+  </si>
+  <si>
+    <t>peak</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,6 +439,9 @@
       <c r="F1" t="s">
         <v>116</v>
       </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -455,6 +461,9 @@
       </c>
       <c r="F2" s="2">
         <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.2999999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -476,6 +485,9 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
+      <c r="G3" s="2">
+        <v>8.5299999999999994</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -485,7 +497,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>114</v>
@@ -496,6 +508,7 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -516,6 +529,7 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -525,7 +539,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>114</v>
@@ -535,6 +549,9 @@
       </c>
       <c r="F6" s="2">
         <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.9199999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -556,6 +573,9 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
+      <c r="G7" s="2">
+        <v>10.359999999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -576,6 +596,9 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
+      <c r="G8" s="2">
+        <v>8.3699999999999992</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -596,6 +619,9 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
+      <c r="G9" s="2">
+        <v>9.2300000000000004</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -616,13 +642,16 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
+      <c r="G10" s="2">
+        <v>5.8099999999999996</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
@@ -635,6 +664,9 @@
       </c>
       <c r="F11" s="2">
         <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9.2400000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -656,6 +688,9 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
+      <c r="G12" s="2">
+        <v>12.33</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -676,13 +711,16 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
+      <c r="G13" s="2">
+        <v>7.2999999999999998</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -695,6 +733,9 @@
       </c>
       <c r="F14" s="2">
         <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.9399999999999995</v>
       </c>
     </row>
     <row r="15">
@@ -702,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
@@ -715,6 +756,9 @@
       </c>
       <c r="F15" s="2">
         <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>9.7400000000000002</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
@@ -735,6 +779,9 @@
       </c>
       <c r="F16" s="2">
         <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.4800000000000004</v>
       </c>
     </row>
     <row r="17">
@@ -742,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>111</v>
@@ -755,6 +802,9 @@
       </c>
       <c r="F17" s="2">
         <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.6600000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -762,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
         <v>114</v>
@@ -776,13 +826,14 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>111</v>
@@ -795,6 +846,9 @@
       </c>
       <c r="F19" s="2">
         <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>9.0999999999999996</v>
       </c>
     </row>
     <row r="20">
@@ -802,10 +856,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>114</v>
@@ -815,6 +869,9 @@
       </c>
       <c r="F20" s="2">
         <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10.25</v>
       </c>
     </row>
     <row r="21">
@@ -822,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
         <v>111</v>
@@ -835,6 +892,9 @@
       </c>
       <c r="F21" s="2">
         <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6.1100000000000003</v>
       </c>
     </row>
     <row r="22">
@@ -842,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
@@ -855,6 +915,9 @@
       </c>
       <c r="F22" s="2">
         <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8.3699999999999992</v>
       </c>
     </row>
     <row r="23">
@@ -862,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
@@ -875,6 +938,9 @@
       </c>
       <c r="F23" s="2">
         <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>8.4900000000000002</v>
       </c>
     </row>
     <row r="24">
@@ -882,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>111</v>
@@ -895,6 +961,9 @@
       </c>
       <c r="F24" s="2">
         <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9.2699999999999996</v>
       </c>
     </row>
     <row r="25">
@@ -916,16 +985,19 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
+      <c r="G25" s="2">
+        <v>3.2799999999999998</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
         <v>114</v>
@@ -936,13 +1008,14 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
         <v>111</v>
@@ -955,6 +1028,9 @@
       </c>
       <c r="F27" s="2">
         <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="28">
@@ -962,10 +1038,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>114</v>
@@ -975,6 +1051,9 @@
       </c>
       <c r="F28" s="2">
         <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7.3099999999999996</v>
       </c>
     </row>
     <row r="29">
@@ -982,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
         <v>112</v>
@@ -996,13 +1075,14 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>112</v>
@@ -1016,13 +1096,14 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
+      <c r="G30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>112</v>
@@ -1036,6 +1117,7 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1056,6 +1138,7 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
+      <c r="G32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1076,6 +1159,9 @@
       <c r="F33" s="2">
         <v>1</v>
       </c>
+      <c r="G33" s="2">
+        <v>5.1200000000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1096,6 +1182,9 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
+      <c r="G34" s="2">
+        <v>5.4699999999999998</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1105,7 +1194,7 @@
         <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>114</v>
@@ -1115,6 +1204,9 @@
       </c>
       <c r="F35" s="2">
         <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>8.6099999999999994</v>
       </c>
     </row>
     <row r="36">
@@ -1136,16 +1228,17 @@
       <c r="F36" s="2">
         <v>1</v>
       </c>
+      <c r="G36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
         <v>114</v>
@@ -1156,13 +1249,14 @@
       <c r="F37" s="2">
         <v>1</v>
       </c>
+      <c r="G37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
@@ -1176,6 +1270,7 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
+      <c r="G38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1196,16 +1291,17 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
+      <c r="G39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>114</v>
@@ -1215,6 +1311,9 @@
       </c>
       <c r="F40" s="2">
         <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="41">
@@ -1222,10 +1321,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
@@ -1236,13 +1335,14 @@
       <c r="F41" s="2">
         <v>1</v>
       </c>
+      <c r="G41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>111</v>
@@ -1255,6 +1355,9 @@
       </c>
       <c r="F42" s="2">
         <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>8.5399999999999991</v>
       </c>
     </row>
     <row r="43">
@@ -1276,6 +1379,9 @@
       <c r="F43" s="2">
         <v>1</v>
       </c>
+      <c r="G43" s="2">
+        <v>11.029999999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1296,6 +1402,9 @@
       <c r="F44" s="2">
         <v>1</v>
       </c>
+      <c r="G44" s="2">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1316,16 +1425,19 @@
       <c r="F45" s="2">
         <v>1</v>
       </c>
+      <c r="G45" s="2">
+        <v>3.6099999999999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
         <v>114</v>
@@ -1336,16 +1448,17 @@
       <c r="F46" s="2">
         <v>1</v>
       </c>
+      <c r="G46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
         <v>114</v>
@@ -1355,6 +1468,9 @@
       </c>
       <c r="F47" s="2">
         <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6.8600000000000003</v>
       </c>
     </row>
     <row r="48">
@@ -1376,6 +1492,7 @@
       <c r="F48" s="2">
         <v>1</v>
       </c>
+      <c r="G48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1385,7 +1502,7 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
         <v>114</v>
@@ -1395,6 +1512,9 @@
       </c>
       <c r="F49" s="2">
         <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8.1500000000000004</v>
       </c>
     </row>
     <row r="50">
@@ -1416,6 +1536,9 @@
       <c r="F50" s="2">
         <v>1</v>
       </c>
+      <c r="G50" s="2">
+        <v>6.1200000000000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1436,6 +1559,7 @@
       <c r="F51" s="2">
         <v>1</v>
       </c>
+      <c r="G51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1456,6 +1580,7 @@
       <c r="F52" s="2">
         <v>1</v>
       </c>
+      <c r="G52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1476,6 +1601,7 @@
       <c r="F53" s="2">
         <v>1</v>
       </c>
+      <c r="G53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1485,7 +1611,7 @@
         <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
@@ -1496,6 +1622,7 @@
       <c r="F54" s="2">
         <v>1</v>
       </c>
+      <c r="G54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1516,6 +1643,9 @@
       <c r="F55" s="2">
         <v>1</v>
       </c>
+      <c r="G55" s="2">
+        <v>3.6400000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1525,7 +1655,7 @@
         <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
         <v>114</v>
@@ -1535,6 +1665,9 @@
       </c>
       <c r="F56" s="2">
         <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>6.54</v>
       </c>
     </row>
     <row r="57">
@@ -1545,7 +1678,7 @@
         <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
         <v>114</v>
@@ -1556,6 +1689,7 @@
       <c r="F57" s="2">
         <v>1</v>
       </c>
+      <c r="G57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1576,13 +1710,14 @@
       <c r="F58" s="2">
         <v>1</v>
       </c>
+      <c r="G58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
         <v>111</v>
@@ -1595,6 +1730,9 @@
       </c>
       <c r="F59" s="2">
         <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>6.8600000000000003</v>
       </c>
     </row>
     <row r="60">
@@ -1616,13 +1754,14 @@
       <c r="F60" s="2">
         <v>1</v>
       </c>
+      <c r="G60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>111</v>
@@ -1635,6 +1774,9 @@
       </c>
       <c r="F61" s="2">
         <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>9.3200000000000003</v>
       </c>
     </row>
     <row r="62">
@@ -1642,10 +1784,10 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
         <v>114</v>
@@ -1655,6 +1797,9 @@
       </c>
       <c r="F62" s="2">
         <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>9.8300000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1665,7 +1810,7 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
         <v>114</v>
@@ -1676,6 +1821,7 @@
       <c r="F63" s="2">
         <v>1</v>
       </c>
+      <c r="G63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1696,13 +1842,16 @@
       <c r="F64" s="2">
         <v>1</v>
       </c>
+      <c r="G64" s="2">
+        <v>3.6200000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
@@ -1716,13 +1865,14 @@
       <c r="F65" s="2">
         <v>1</v>
       </c>
+      <c r="G65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>112</v>
@@ -1736,13 +1886,14 @@
       <c r="F66" s="2">
         <v>1</v>
       </c>
+      <c r="G66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
         <v>111</v>
@@ -1755,6 +1906,9 @@
       </c>
       <c r="F67" s="2">
         <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8.1400000000000006</v>
       </c>
     </row>
     <row r="68">
@@ -1776,6 +1930,9 @@
       <c r="F68" s="2">
         <v>1</v>
       </c>
+      <c r="G68" s="2">
+        <v>3.6200000000000001</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -1796,16 +1953,19 @@
       <c r="F69" s="2">
         <v>1</v>
       </c>
+      <c r="G69" s="2">
+        <v>9.1099999999999994</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
         <v>114</v>
@@ -1815,6 +1975,9 @@
       </c>
       <c r="F70" s="2">
         <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>10.25</v>
       </c>
     </row>
     <row r="71">
@@ -1822,7 +1985,7 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
         <v>111</v>
@@ -1835,6 +1998,9 @@
       </c>
       <c r="F71" s="2">
         <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>6.1500000000000004</v>
       </c>
     </row>
     <row r="72">
@@ -1842,10 +2008,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D72" t="s">
         <v>114</v>
@@ -1856,13 +2022,14 @@
       <c r="F72" s="2">
         <v>1</v>
       </c>
+      <c r="G72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>111</v>
@@ -1875,6 +2042,9 @@
       </c>
       <c r="F73" s="2">
         <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>10.25</v>
       </c>
     </row>
     <row r="74">
@@ -1896,16 +2066,19 @@
       <c r="F74" s="2">
         <v>1</v>
       </c>
+      <c r="G74" s="2">
+        <v>15.119999999999999</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
         <v>114</v>
@@ -1916,16 +2089,17 @@
       <c r="F75" s="2">
         <v>1</v>
       </c>
+      <c r="G75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
         <v>114</v>
@@ -1935,6 +2109,9 @@
       </c>
       <c r="F76" s="2">
         <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>6.8600000000000003</v>
       </c>
     </row>
     <row r="77">
@@ -1942,7 +2119,7 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
         <v>111</v>
@@ -1955,6 +2132,9 @@
       </c>
       <c r="F77" s="2">
         <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>5.0499999999999998</v>
       </c>
     </row>
     <row r="78">
@@ -1976,13 +2156,16 @@
       <c r="F78" s="2">
         <v>1</v>
       </c>
+      <c r="G78" s="2">
+        <v>10.23</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
         <v>111</v>
@@ -1995,6 +2178,9 @@
       </c>
       <c r="F79" s="2">
         <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>9.0899999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -2002,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>111</v>
@@ -2015,6 +2201,9 @@
       </c>
       <c r="F80" s="2">
         <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>14.130000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -2036,16 +2225,17 @@
       <c r="F81" s="2">
         <v>1</v>
       </c>
+      <c r="G81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
         <v>114</v>
@@ -2056,16 +2246,17 @@
       <c r="F82" s="2">
         <v>1</v>
       </c>
+      <c r="G82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
         <v>114</v>
@@ -2075,6 +2266,9 @@
       </c>
       <c r="F83" s="2">
         <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>5.2199999999999998</v>
       </c>
     </row>
     <row r="84">
@@ -2096,16 +2290,19 @@
       <c r="F84" s="2">
         <v>1</v>
       </c>
+      <c r="G84" s="2">
+        <v>5.4699999999999998</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
         <v>114</v>
@@ -2116,6 +2313,7 @@
       <c r="F85" s="2">
         <v>1</v>
       </c>
+      <c r="G85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -2136,13 +2334,16 @@
       <c r="F86" s="2">
         <v>1</v>
       </c>
+      <c r="G86" s="2">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
         <v>111</v>
@@ -2155,6 +2356,9 @@
       </c>
       <c r="F87" s="2">
         <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>9.3599999999999994</v>
       </c>
     </row>
     <row r="88">
@@ -2162,10 +2366,10 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
         <v>114</v>
@@ -2175,6 +2379,9 @@
       </c>
       <c r="F88" s="2">
         <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>9.2799999999999994</v>
       </c>
     </row>
     <row r="89">
@@ -2182,7 +2389,7 @@
         <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
         <v>111</v>
@@ -2195,6 +2402,9 @@
       </c>
       <c r="F89" s="2">
         <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -2216,13 +2426,16 @@
       <c r="F90" s="2">
         <v>1</v>
       </c>
+      <c r="G90" s="2">
+        <v>12.65</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
         <v>112</v>
@@ -2236,13 +2449,14 @@
       <c r="F91" s="2">
         <v>1</v>
       </c>
+      <c r="G91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
         <v>111</v>
@@ -2255,6 +2469,9 @@
       </c>
       <c r="F92" s="2">
         <v>1</v>
+      </c>
+      <c r="G92" s="2">
+        <v>8.1400000000000006</v>
       </c>
     </row>
     <row r="93">
@@ -2276,13 +2493,16 @@
       <c r="F93" s="2">
         <v>1</v>
       </c>
+      <c r="G93" s="2">
+        <v>3.6099999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
         <v>111</v>
@@ -2295,6 +2515,9 @@
       </c>
       <c r="F94" s="2">
         <v>1</v>
+      </c>
+      <c r="G94" s="2">
+        <v>8.0800000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -2302,7 +2525,7 @@
         <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>112</v>
@@ -2316,13 +2539,14 @@
       <c r="F95" s="2">
         <v>1</v>
       </c>
+      <c r="G95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>112</v>
@@ -2336,13 +2560,14 @@
       <c r="F96" s="2">
         <v>1</v>
       </c>
+      <c r="G96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
@@ -2355,6 +2580,9 @@
       </c>
       <c r="F97" s="2">
         <v>1</v>
+      </c>
+      <c r="G97" s="2">
+        <v>6.04</v>
       </c>
     </row>
     <row r="98">
@@ -2365,7 +2593,7 @@
         <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
         <v>114</v>
@@ -2375,6 +2603,9 @@
       </c>
       <c r="F98" s="2">
         <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>10.470000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2382,10 +2613,10 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
         <v>114</v>
@@ -2396,16 +2627,17 @@
       <c r="F99" s="2">
         <v>1</v>
       </c>
+      <c r="G99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
         <v>114</v>
@@ -2415,6 +2647,9 @@
       </c>
       <c r="F100" s="2">
         <v>1</v>
+      </c>
+      <c r="G100" s="2">
+        <v>6.8600000000000003</v>
       </c>
     </row>
     <row r="101">
@@ -2422,10 +2657,10 @@
         <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s">
         <v>114</v>
@@ -2436,13 +2671,14 @@
       <c r="F101" s="2">
         <v>1</v>
       </c>
+      <c r="G101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
         <v>111</v>
@@ -2455,6 +2691,9 @@
       </c>
       <c r="F102" s="2">
         <v>1</v>
+      </c>
+      <c r="G102" s="2">
+        <v>10.25</v>
       </c>
     </row>
     <row r="103">
@@ -2462,7 +2701,7 @@
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C103" t="s">
         <v>112</v>
@@ -2476,13 +2715,14 @@
       <c r="F103" s="2">
         <v>1</v>
       </c>
+      <c r="G103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -2495,6 +2735,9 @@
       </c>
       <c r="F104" s="2">
         <v>1</v>
+      </c>
+      <c r="G104" s="2">
+        <v>9.7799999999999994</v>
       </c>
     </row>
     <row r="105">
@@ -2502,7 +2745,7 @@
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -2516,13 +2759,14 @@
       <c r="F105" s="2">
         <v>1</v>
       </c>
+      <c r="G105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
         <v>111</v>
@@ -2535,6 +2779,9 @@
       </c>
       <c r="F106" s="2">
         <v>1</v>
+      </c>
+      <c r="G106" s="2">
+        <v>9.2799999999999994</v>
       </c>
     </row>
     <row r="107">
@@ -2556,13 +2803,16 @@
       <c r="F107" s="2">
         <v>1</v>
       </c>
+      <c r="G107" s="2">
+        <v>11.029999999999999</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C108" t="s">
         <v>111</v>
@@ -2575,6 +2825,9 @@
       </c>
       <c r="F108" s="2">
         <v>1</v>
+      </c>
+      <c r="G108" s="2">
+        <v>10.23</v>
       </c>
     </row>
     <row r="109">
@@ -2596,6 +2849,9 @@
       <c r="F109" s="2">
         <v>1</v>
       </c>
+      <c r="G109" s="2">
+        <v>3.6200000000000001</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -2616,16 +2872,19 @@
       <c r="F110" s="2">
         <v>1</v>
       </c>
+      <c r="G110" s="2">
+        <v>12.81</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D111" t="s">
         <v>114</v>
@@ -2635,6 +2894,9 @@
       </c>
       <c r="F111" s="2">
         <v>1</v>
+      </c>
+      <c r="G111" s="2">
+        <v>6.8700000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -2642,10 +2904,10 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D112" t="s">
         <v>114</v>
@@ -2656,13 +2918,14 @@
       <c r="F112" s="2">
         <v>1</v>
       </c>
+      <c r="G112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
@@ -2675,6 +2938,9 @@
       </c>
       <c r="F113" s="2">
         <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>3.6200000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -2682,7 +2948,7 @@
         <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C114" t="s">
         <v>111</v>
@@ -2695,6 +2961,9 @@
       </c>
       <c r="F114" s="2">
         <v>1</v>
+      </c>
+      <c r="G114" s="2">
+        <v>6.75</v>
       </c>
     </row>
     <row r="115">
@@ -2716,16 +2985,19 @@
       <c r="F115" s="2">
         <v>1</v>
       </c>
+      <c r="G115" s="2">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D116" t="s">
         <v>114</v>
@@ -2735,6 +3007,9 @@
       </c>
       <c r="F116" s="2">
         <v>1</v>
+      </c>
+      <c r="G116" s="2">
+        <v>7.3700000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -2742,7 +3017,7 @@
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C117" t="s">
         <v>111</v>
@@ -2755,6 +3030,9 @@
       </c>
       <c r="F117" s="2">
         <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>6.2699999999999996</v>
       </c>
     </row>
     <row r="118">
@@ -2762,10 +3040,10 @@
         <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D118" t="s">
         <v>114</v>
@@ -2776,16 +3054,17 @@
       <c r="F118" s="2">
         <v>1</v>
       </c>
+      <c r="G118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
         <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
         <v>114</v>
@@ -2796,13 +3075,14 @@
       <c r="F119" s="2">
         <v>1</v>
       </c>
+      <c r="G119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
         <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C120" t="s">
         <v>111</v>
@@ -2815,6 +3095,9 @@
       </c>
       <c r="F120" s="2">
         <v>1</v>
+      </c>
+      <c r="G120" s="2">
+        <v>10.300000000000001</v>
       </c>
     </row>
     <row r="121">
@@ -2822,10 +3105,10 @@
         <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D121" t="s">
         <v>114</v>
@@ -2835,6 +3118,9 @@
       </c>
       <c r="F121" s="2">
         <v>1</v>
+      </c>
+      <c r="G121" s="2">
+        <v>9.1400000000000006</v>
       </c>
     </row>
     <row r="122">
@@ -2856,13 +3142,16 @@
       <c r="F122" s="2">
         <v>1</v>
       </c>
+      <c r="G122" s="2">
+        <v>6.3600000000000003</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
         <v>111</v>
@@ -2875,6 +3164,9 @@
       </c>
       <c r="F123" s="2">
         <v>1</v>
+      </c>
+      <c r="G123" s="2">
+        <v>6.8600000000000003</v>
       </c>
     </row>
     <row r="124">
@@ -2896,6 +3188,9 @@
       <c r="F124" s="2">
         <v>1</v>
       </c>
+      <c r="G124" s="2">
+        <v>11.73</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -2916,16 +3211,17 @@
       <c r="F125" s="2">
         <v>1</v>
       </c>
+      <c r="G125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C126" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D126" t="s">
         <v>114</v>
@@ -2936,16 +3232,17 @@
       <c r="F126" s="2">
         <v>1</v>
       </c>
+      <c r="G126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D127" t="s">
         <v>114</v>
@@ -2955,6 +3252,9 @@
       </c>
       <c r="F127" s="2">
         <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <v>6.8600000000000003</v>
       </c>
     </row>
     <row r="128">
@@ -2976,13 +3276,14 @@
       <c r="F128" s="2">
         <v>1</v>
       </c>
+      <c r="G128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C129" t="s">
         <v>111</v>
@@ -2995,6 +3296,9 @@
       </c>
       <c r="F129" s="2">
         <v>1</v>
+      </c>
+      <c r="G129" s="2">
+        <v>6.8600000000000003</v>
       </c>
     </row>
     <row r="130">
@@ -3016,13 +3320,16 @@
       <c r="F130" s="2">
         <v>1</v>
       </c>
+      <c r="G130" s="2">
+        <v>12.65</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
         <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C131" t="s">
         <v>112</v>
@@ -3036,13 +3343,14 @@
       <c r="F131" s="2">
         <v>1</v>
       </c>
+      <c r="G131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C132" t="s">
         <v>111</v>
@@ -3055,6 +3363,9 @@
       </c>
       <c r="F132" s="2">
         <v>1</v>
+      </c>
+      <c r="G132" s="2">
+        <v>8.1199999999999992</v>
       </c>
     </row>
     <row r="133">
@@ -3062,10 +3373,10 @@
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C133" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D133" t="s">
         <v>114</v>
@@ -3076,16 +3387,17 @@
       <c r="F133" s="2">
         <v>1</v>
       </c>
+      <c r="G133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D134" t="s">
         <v>114</v>
@@ -3095,6 +3407,9 @@
       </c>
       <c r="F134" s="2">
         <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>12.619999999999999</v>
       </c>
     </row>
     <row r="135">
@@ -3116,6 +3431,9 @@
       <c r="F135" s="2">
         <v>1</v>
       </c>
+      <c r="G135" s="2">
+        <v>3.6200000000000001</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -3136,13 +3454,16 @@
       <c r="F136" s="2">
         <v>1</v>
       </c>
+      <c r="G136" s="2">
+        <v>3.6200000000000001</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
         <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C137" t="s">
         <v>112</v>
@@ -3156,16 +3477,17 @@
       <c r="F137" s="2">
         <v>1</v>
       </c>
+      <c r="G137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
         <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D138" t="s">
         <v>114</v>
@@ -3176,6 +3498,7 @@
       <c r="F138" s="2">
         <v>1</v>
       </c>
+      <c r="G138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -3185,7 +3508,7 @@
         <v>72</v>
       </c>
       <c r="C139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
         <v>114</v>
@@ -3195,6 +3518,9 @@
       </c>
       <c r="F139" s="2">
         <v>1</v>
+      </c>
+      <c r="G139" s="2">
+        <v>10.52</v>
       </c>
     </row>
     <row r="140">
@@ -3202,7 +3528,7 @@
         <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C140" t="s">
         <v>111</v>
@@ -3215,6 +3541,9 @@
       </c>
       <c r="F140" s="2">
         <v>1</v>
+      </c>
+      <c r="G140" s="2">
+        <v>6.0499999999999998</v>
       </c>
     </row>
     <row r="141">
@@ -3222,7 +3551,7 @@
         <v>58</v>
       </c>
       <c r="B141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C141" t="s">
         <v>112</v>
@@ -3236,6 +3565,7 @@
       <c r="F141" s="2">
         <v>1</v>
       </c>
+      <c r="G141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -3256,6 +3586,9 @@
       <c r="F142" s="2">
         <v>1</v>
       </c>
+      <c r="G142" s="2">
+        <v>5.4900000000000002</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -3276,6 +3609,9 @@
       <c r="F143" s="2">
         <v>1</v>
       </c>
+      <c r="G143" s="2">
+        <v>6.5800000000000001</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -3296,13 +3632,16 @@
       <c r="F144" s="2">
         <v>1</v>
       </c>
+      <c r="G144" s="2">
+        <v>6.0499999999999998</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
         <v>59</v>
       </c>
       <c r="B145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C145" t="s">
         <v>112</v>
@@ -3316,13 +3655,14 @@
       <c r="F145" s="2">
         <v>1</v>
       </c>
+      <c r="G145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C146" t="s">
         <v>111</v>
@@ -3335,6 +3675,9 @@
       </c>
       <c r="F146" s="2">
         <v>1</v>
+      </c>
+      <c r="G146" s="2">
+        <v>10.51</v>
       </c>
     </row>
     <row r="147">
@@ -3356,16 +3699,19 @@
       <c r="F147" s="2">
         <v>1</v>
       </c>
+      <c r="G147" s="2">
+        <v>5.5300000000000002</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
         <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D148" t="s">
         <v>114</v>
@@ -3375,6 +3721,9 @@
       </c>
       <c r="F148" s="2">
         <v>1</v>
+      </c>
+      <c r="G148" s="2">
+        <v>5.5</v>
       </c>
     </row>
     <row r="149">
@@ -3382,10 +3731,10 @@
         <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C149" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D149" t="s">
         <v>114</v>
@@ -3396,6 +3745,7 @@
       <c r="F149" s="2">
         <v>1</v>
       </c>
+      <c r="G149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -3416,16 +3766,19 @@
       <c r="F150" s="2">
         <v>1</v>
       </c>
+      <c r="G150" s="2">
+        <v>3.6099999999999999</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
         <v>63</v>
       </c>
       <c r="B151" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C151" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D151" t="s">
         <v>114</v>
@@ -3436,16 +3789,17 @@
       <c r="F151" s="2">
         <v>1</v>
       </c>
+      <c r="G151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
         <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" t="s">
         <v>114</v>
@@ -3455,6 +3809,9 @@
       </c>
       <c r="F152" s="2">
         <v>1</v>
+      </c>
+      <c r="G152" s="2">
+        <v>6.8600000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -213,45 +213,45 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>inositol</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>acetaminophen</t>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>meclonazepam</t>
+  </si>
+  <si>
+    <t>non-specific organic acids</t>
   </si>
   <si>
     <t>clonazolam</t>
   </si>
   <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
     <t>sucrose</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
@@ -261,63 +261,63 @@
     <t>xylazine</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>meconin</t>
+  </si>
+  <si>
+    <t>noscapine</t>
+  </si>
+  <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
     <t>hydrocotarnine</t>
   </si>
   <si>
-    <t>noscapine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
+    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
+  </si>
+  <si>
+    <t>N-methyltryptamine</t>
   </si>
   <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
-  </si>
-  <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -339,10 +339,10 @@
     <t>flubromazolam</t>
   </si>
   <si>
+    <t>2C-B</t>
+  </si>
+  <si>
     <t>2C-H</t>
-  </si>
-  <si>
-    <t>2C-B</t>
   </si>
   <si>
     <t>abundance</t>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>3.2999999999999998</v>
+        <v>3.3000000000000003</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
@@ -485,9 +485,7 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>8.5299999999999994</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -497,7 +495,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>114</v>
@@ -508,7 +506,9 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>8.9199999999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>8.9199999999999999</v>
+        <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>8.3699999999999992</v>
+        <v>8.370000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>9.2300000000000004</v>
+        <v>5.8100000000000005</v>
       </c>
     </row>
     <row r="10">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>5.8099999999999996</v>
+        <v>9.2300000000000004</v>
       </c>
     </row>
     <row r="11">
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>9.2400000000000002</v>
+        <v>6.4800000000000004</v>
       </c>
     </row>
     <row r="12">
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>111</v>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>12.33</v>
+        <v>9.7400000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>9.9399999999999995</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="15">
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>9.7400000000000002</v>
+        <v>9.9399999999999995</v>
       </c>
     </row>
     <row r="16">
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>6.4800000000000004</v>
+        <v>9.2400000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -789,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>111</v>
@@ -812,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
         <v>114</v>
@@ -826,14 +826,16 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>9.0999999999999996</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>111</v>
@@ -848,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>9.0999999999999996</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="20">
@@ -856,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>114</v>
@@ -870,16 +872,14 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="2">
-        <v>10.25</v>
-      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
         <v>111</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>8.3699999999999992</v>
+        <v>8.370000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -948,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>111</v>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>3.2799999999999998</v>
+        <v>3.2800000000000002</v>
       </c>
     </row>
     <row r="26">
@@ -994,10 +994,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
         <v>114</v>
@@ -1008,17 +1008,19 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>9.2100000000000009</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
         <v>114</v>
@@ -1029,19 +1031,17 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="2">
-        <v>9.2100000000000009</v>
-      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>114</v>
@@ -1052,19 +1052,17 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="2">
-        <v>7.3099999999999996</v>
-      </c>
+      <c r="G28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -1075,7 +1073,9 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <v>7.3100000000000005</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1191,10 +1191,10 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
         <v>114</v>
@@ -1205,19 +1205,17 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="2">
-        <v>8.6099999999999994</v>
-      </c>
+      <c r="G35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
         <v>114</v>
@@ -1228,7 +1226,9 @@
       <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2">
+        <v>8.6099999999999994</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
@@ -1277,10 +1277,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
         <v>114</v>
@@ -1291,17 +1291,19 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2">
+        <v>8.5400000000000009</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
         <v>114</v>
@@ -1312,19 +1314,17 @@
       <c r="F40" s="2">
         <v>1</v>
       </c>
-      <c r="G40" s="2">
-        <v>8.9499999999999993</v>
-      </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
@@ -1335,17 +1335,19 @@
       <c r="F41" s="2">
         <v>1</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2">
+        <v>8.9500000000000011</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>114</v>
@@ -1356,9 +1358,7 @@
       <c r="F42" s="2">
         <v>1</v>
       </c>
-      <c r="G42" s="2">
-        <v>8.5399999999999991</v>
-      </c>
+      <c r="G42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1455,7 +1455,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
         <v>111</v>
@@ -1525,7 +1525,7 @@
         <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -1536,9 +1536,7 @@
       <c r="F50" s="2">
         <v>1</v>
       </c>
-      <c r="G50" s="2">
-        <v>6.1200000000000001</v>
-      </c>
+      <c r="G50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1611,7 +1609,7 @@
         <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
@@ -1622,7 +1620,9 @@
       <c r="F54" s="2">
         <v>1</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2">
+        <v>6.1200000000000001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1655,7 +1655,7 @@
         <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
         <v>114</v>
@@ -1666,9 +1666,7 @@
       <c r="F56" s="2">
         <v>1</v>
       </c>
-      <c r="G56" s="2">
-        <v>6.54</v>
-      </c>
+      <c r="G56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1699,7 +1697,7 @@
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
         <v>114</v>
@@ -1710,14 +1708,16 @@
       <c r="F58" s="2">
         <v>1</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2">
+        <v>6.54</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
         <v>111</v>
@@ -1761,7 +1761,7 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
         <v>111</v>
@@ -1784,10 +1784,10 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>114</v>
@@ -1798,19 +1798,17 @@
       <c r="F62" s="2">
         <v>1</v>
       </c>
-      <c r="G62" s="2">
-        <v>9.8300000000000001</v>
-      </c>
+      <c r="G62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
         <v>114</v>
@@ -1821,7 +1819,9 @@
       <c r="F63" s="2">
         <v>1</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" s="2">
+        <v>9.8300000000000001</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1851,10 +1851,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
         <v>114</v>
@@ -1865,14 +1865,16 @@
       <c r="F65" s="2">
         <v>1</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" s="2">
+        <v>8.1400000000000006</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
         <v>112</v>
@@ -1893,10 +1895,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
         <v>114</v>
@@ -1907,9 +1909,7 @@
       <c r="F67" s="2">
         <v>1</v>
       </c>
-      <c r="G67" s="2">
-        <v>8.1400000000000006</v>
-      </c>
+      <c r="G67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -1939,7 +1939,7 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
         <v>111</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="2">
-        <v>9.1099999999999994</v>
+        <v>6.1500000000000004</v>
       </c>
     </row>
     <row r="70">
@@ -1962,7 +1962,7 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>111</v>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="2">
-        <v>10.25</v>
+        <v>9.1099999999999994</v>
       </c>
     </row>
     <row r="71">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="2">
-        <v>6.1500000000000004</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="72">
@@ -2029,7 +2029,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
         <v>111</v>
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <v>15.119999999999999</v>
+        <v>15.120000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -2075,10 +2075,10 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
         <v>114</v>
@@ -2089,17 +2089,19 @@
       <c r="F75" s="2">
         <v>1</v>
       </c>
-      <c r="G75" s="2"/>
+      <c r="G75" s="2">
+        <v>6.8600000000000003</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
         <v>114</v>
@@ -2110,9 +2112,7 @@
       <c r="F76" s="2">
         <v>1</v>
       </c>
-      <c r="G76" s="2">
-        <v>6.8600000000000003</v>
-      </c>
+      <c r="G76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -2142,7 +2142,7 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
         <v>111</v>
@@ -2188,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
         <v>111</v>
@@ -2211,10 +2211,10 @@
         <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
         <v>114</v>
@@ -2225,14 +2225,16 @@
       <c r="F81" s="2">
         <v>1</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="G81" s="2">
+        <v>5.2199999999999998</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
         <v>112</v>
@@ -2253,10 +2255,10 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
         <v>114</v>
@@ -2267,9 +2269,7 @@
       <c r="F83" s="2">
         <v>1</v>
       </c>
-      <c r="G83" s="2">
-        <v>5.2199999999999998</v>
-      </c>
+      <c r="G83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -2299,10 +2299,10 @@
         <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
         <v>114</v>
@@ -2313,17 +2313,19 @@
       <c r="F85" s="2">
         <v>1</v>
       </c>
-      <c r="G85" s="2"/>
+      <c r="G85" s="2">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
         <v>114</v>
@@ -2334,16 +2336,14 @@
       <c r="F86" s="2">
         <v>1</v>
       </c>
-      <c r="G86" s="2">
-        <v>9.8000000000000007</v>
-      </c>
+      <c r="G86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
         <v>111</v>
@@ -2366,7 +2366,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
         <v>111</v>
@@ -2389,7 +2389,7 @@
         <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
         <v>111</v>
@@ -2435,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
         <v>112</v>
@@ -2525,7 +2525,7 @@
         <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>112</v>
@@ -2546,7 +2546,7 @@
         <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
         <v>112</v>
@@ -2567,7 +2567,7 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
@@ -2590,7 +2590,7 @@
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C98" t="s">
         <v>111</v>
@@ -2634,10 +2634,10 @@
         <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D100" t="s">
         <v>114</v>
@@ -2648,19 +2648,17 @@
       <c r="F100" s="2">
         <v>1</v>
       </c>
-      <c r="G100" s="2">
-        <v>6.8600000000000003</v>
-      </c>
+      <c r="G100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
         <v>114</v>
@@ -2671,14 +2669,16 @@
       <c r="F101" s="2">
         <v>1</v>
       </c>
-      <c r="G101" s="2"/>
+      <c r="G101" s="2">
+        <v>6.8600000000000003</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
         <v>111</v>
@@ -2701,7 +2701,7 @@
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C103" t="s">
         <v>112</v>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="2">
-        <v>9.7799999999999994</v>
+        <v>9.2799999999999994</v>
       </c>
     </row>
     <row r="105">
@@ -2745,7 +2745,7 @@
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -2766,7 +2766,7 @@
         <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
         <v>111</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="2">
-        <v>9.2799999999999994</v>
+        <v>9.7799999999999994</v>
       </c>
     </row>
     <row r="107">
@@ -2812,7 +2812,7 @@
         <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C108" t="s">
         <v>111</v>
@@ -2881,7 +2881,7 @@
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C111" t="s">
         <v>111</v>
@@ -2925,7 +2925,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="2">
-        <v>3.6200000000000001</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="114">
@@ -2948,7 +2948,7 @@
         <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C114" t="s">
         <v>111</v>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="2">
-        <v>6.75</v>
+        <v>3.6200000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -2994,7 +2994,7 @@
         <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C116" t="s">
         <v>111</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="2">
-        <v>7.3700000000000001</v>
+        <v>9.1400000000000006</v>
       </c>
     </row>
     <row r="117">
@@ -3017,7 +3017,7 @@
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C117" t="s">
         <v>111</v>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="2">
-        <v>6.2699999999999996</v>
+        <v>6.2700000000000005</v>
       </c>
     </row>
     <row r="118">
@@ -3061,10 +3061,10 @@
         <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D119" t="s">
         <v>114</v>
@@ -3075,17 +3075,19 @@
       <c r="F119" s="2">
         <v>1</v>
       </c>
-      <c r="G119" s="2"/>
+      <c r="G119" s="2">
+        <v>10.300000000000001</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
         <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
         <v>114</v>
@@ -3096,16 +3098,14 @@
       <c r="F120" s="2">
         <v>1</v>
       </c>
-      <c r="G120" s="2">
-        <v>10.300000000000001</v>
-      </c>
+      <c r="G120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
         <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
         <v>111</v>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="2">
-        <v>9.1400000000000006</v>
+        <v>7.3700000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -3128,7 +3128,7 @@
         <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C122" t="s">
         <v>111</v>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="2">
-        <v>6.3600000000000003</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="123">
@@ -3151,7 +3151,7 @@
         <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
         <v>111</v>
@@ -3174,7 +3174,7 @@
         <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C124" t="s">
         <v>111</v>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="2">
-        <v>11.73</v>
+        <v>6.3600000000000003</v>
       </c>
     </row>
     <row r="125">
@@ -3239,7 +3239,7 @@
         <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C127" t="s">
         <v>111</v>
@@ -3262,10 +3262,10 @@
         <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D128" t="s">
         <v>114</v>
@@ -3276,17 +3276,19 @@
       <c r="F128" s="2">
         <v>1</v>
       </c>
-      <c r="G128" s="2"/>
+      <c r="G128" s="2">
+        <v>6.8600000000000003</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C129" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D129" t="s">
         <v>114</v>
@@ -3297,9 +3299,7 @@
       <c r="F129" s="2">
         <v>1</v>
       </c>
-      <c r="G129" s="2">
-        <v>6.8600000000000003</v>
-      </c>
+      <c r="G129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -3329,10 +3329,10 @@
         <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D131" t="s">
         <v>114</v>
@@ -3343,17 +3343,19 @@
       <c r="F131" s="2">
         <v>1</v>
       </c>
-      <c r="G131" s="2"/>
+      <c r="G131" s="2">
+        <v>8.120000000000001</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C132" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D132" t="s">
         <v>114</v>
@@ -3364,19 +3366,17 @@
       <c r="F132" s="2">
         <v>1</v>
       </c>
-      <c r="G132" s="2">
-        <v>8.1199999999999992</v>
-      </c>
+      <c r="G132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D133" t="s">
         <v>114</v>
@@ -3387,17 +3387,19 @@
       <c r="F133" s="2">
         <v>1</v>
       </c>
-      <c r="G133" s="2"/>
+      <c r="G133" s="2">
+        <v>12.620000000000001</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C134" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D134" t="s">
         <v>114</v>
@@ -3408,9 +3410,7 @@
       <c r="F134" s="2">
         <v>1</v>
       </c>
-      <c r="G134" s="2">
-        <v>12.619999999999999</v>
-      </c>
+      <c r="G134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -3463,10 +3463,10 @@
         <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D137" t="s">
         <v>114</v>
@@ -3477,14 +3477,16 @@
       <c r="F137" s="2">
         <v>1</v>
       </c>
-      <c r="G137" s="2"/>
+      <c r="G137" s="2">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
         <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C138" t="s">
         <v>112</v>
@@ -3505,10 +3507,10 @@
         <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D139" t="s">
         <v>114</v>
@@ -3519,16 +3521,14 @@
       <c r="F139" s="2">
         <v>1</v>
       </c>
-      <c r="G139" s="2">
-        <v>10.52</v>
-      </c>
+      <c r="G139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
         <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C140" t="s">
         <v>111</v>
@@ -3551,10 +3551,10 @@
         <v>58</v>
       </c>
       <c r="B141" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D141" t="s">
         <v>114</v>
@@ -3565,17 +3565,19 @@
       <c r="F141" s="2">
         <v>1</v>
       </c>
-      <c r="G141" s="2"/>
+      <c r="G141" s="2">
+        <v>6.5800000000000001</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C142" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D142" t="s">
         <v>114</v>
@@ -3586,9 +3588,7 @@
       <c r="F142" s="2">
         <v>1</v>
       </c>
-      <c r="G142" s="2">
-        <v>5.4900000000000002</v>
-      </c>
+      <c r="G142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="2">
-        <v>6.5800000000000001</v>
+        <v>5.4900000000000002</v>
       </c>
     </row>
     <row r="144">
@@ -3618,7 +3618,7 @@
         <v>59</v>
       </c>
       <c r="B144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C144" t="s">
         <v>111</v>
@@ -3641,10 +3641,10 @@
         <v>59</v>
       </c>
       <c r="B145" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D145" t="s">
         <v>114</v>
@@ -3655,17 +3655,19 @@
       <c r="F145" s="2">
         <v>1</v>
       </c>
-      <c r="G145" s="2"/>
+      <c r="G145" s="2">
+        <v>10.51</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C146" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D146" t="s">
         <v>114</v>
@@ -3676,9 +3678,7 @@
       <c r="F146" s="2">
         <v>1</v>
       </c>
-      <c r="G146" s="2">
-        <v>10.51</v>
-      </c>
+      <c r="G146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -3708,10 +3708,10 @@
         <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C148" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D148" t="s">
         <v>114</v>
@@ -3722,19 +3722,17 @@
       <c r="F148" s="2">
         <v>1</v>
       </c>
-      <c r="G148" s="2">
-        <v>5.5</v>
-      </c>
+      <c r="G148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
         <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D149" t="s">
         <v>114</v>
@@ -3745,7 +3743,9 @@
       <c r="F149" s="2">
         <v>1</v>
       </c>
-      <c r="G149" s="2"/>
+      <c r="G149" s="2">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -3775,10 +3775,10 @@
         <v>63</v>
       </c>
       <c r="B151" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D151" t="s">
         <v>114</v>
@@ -3789,17 +3789,19 @@
       <c r="F151" s="2">
         <v>1</v>
       </c>
-      <c r="G151" s="2"/>
+      <c r="G151" s="2">
+        <v>6.8600000000000003</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
         <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C152" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D152" t="s">
         <v>114</v>
@@ -3810,9 +3812,7 @@
       <c r="F152" s="2">
         <v>1</v>
       </c>
-      <c r="G152" s="2">
-        <v>6.8600000000000003</v>
-      </c>
+      <c r="G152" s="2"/>
     </row>
   </sheetData>
 </worksheet>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="611" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="762" uniqueCount="194">
   <si>
     <t>sampleid</t>
   </si>
@@ -213,75 +213,75 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>acetylcodeine</t>
   </si>
   <si>
     <t>inositol</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>non-specific organic acids</t>
+  </si>
+  <si>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>meclonazepam</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
     <t>clonazolam</t>
   </si>
   <si>
-    <t>sucrose</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>N-ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>meconin</t>
   </si>
   <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
@@ -291,33 +291,33 @@
     <t>levamisole</t>
   </si>
   <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
+    <t>N-methyltryptamine</t>
+  </si>
+  <si>
+    <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
     <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
   </si>
   <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -366,7 +366,235 @@
     <t>confirmatory</t>
   </si>
   <si>
-    <t>peak</t>
+    <t>gcms_peak</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>8.92</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>10.36</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>8.37</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>7.31</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>8.54</t>
+  </si>
+  <si>
+    <t>8.61</t>
+  </si>
+  <si>
+    <t>8.95</t>
+  </si>
+  <si>
+    <t>11.03</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>6.86</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>8.15</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>6.54</t>
+  </si>
+  <si>
+    <t>9.83</t>
+  </si>
+  <si>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>8.14</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>15.12</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>9.09</t>
+  </si>
+  <si>
+    <t>14.13</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>9.28</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.36</t>
+  </si>
+  <si>
+    <t>10.22</t>
+  </si>
+  <si>
+    <t>12.65</t>
+  </si>
+  <si>
+    <t>8.08</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>9.78</t>
+  </si>
+  <si>
+    <t>12.81</t>
+  </si>
+  <si>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>6.36</t>
+  </si>
+  <si>
+    <t>11.73</t>
+  </si>
+  <si>
+    <t>12.62</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>10.52</t>
+  </si>
+  <si>
+    <t>6.58</t>
+  </si>
+  <si>
+    <t>5.49</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>5.53</t>
+  </si>
+  <si>
+    <t>5.5</t>
   </si>
 </sst>
 </file>
@@ -462,8 +690,8 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>3.3000000000000003</v>
+      <c r="G2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +702,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
@@ -485,7 +713,9 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -495,7 +725,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>114</v>
@@ -506,8 +736,8 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>8.9199999999999999</v>
+      <c r="G4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -518,7 +748,7 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -529,7 +759,9 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -539,7 +771,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>114</v>
@@ -550,8 +782,8 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>8.5299999999999994</v>
+      <c r="G6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -573,8 +805,8 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>10.359999999999999</v>
+      <c r="G7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -596,8 +828,8 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <v>8.370000000000001</v>
+      <c r="G8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -619,8 +851,8 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <v>5.8100000000000005</v>
+      <c r="G9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10">
@@ -642,8 +874,8 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
-        <v>9.2300000000000004</v>
+      <c r="G10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -665,8 +897,8 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
-        <v>6.4800000000000004</v>
+      <c r="G11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -688,8 +920,8 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
-        <v>9.7400000000000002</v>
+      <c r="G12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
@@ -711,8 +943,8 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <v>7.2999999999999998</v>
+      <c r="G13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -720,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -734,8 +966,8 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2">
-        <v>12.33</v>
+      <c r="G14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -743,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
@@ -757,8 +989,8 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2">
-        <v>9.9399999999999995</v>
+      <c r="G15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -766,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
@@ -780,8 +1012,8 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2">
-        <v>9.2400000000000002</v>
+      <c r="G16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -789,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>111</v>
@@ -803,8 +1035,8 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="2">
-        <v>6.6600000000000001</v>
+      <c r="G17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18">
@@ -812,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>111</v>
@@ -826,8 +1058,8 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2">
-        <v>9.0999999999999996</v>
+      <c r="G18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19">
@@ -835,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>111</v>
@@ -849,8 +1081,8 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="2">
-        <v>10.25</v>
+      <c r="G19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20">
@@ -872,14 +1104,16 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
         <v>111</v>
@@ -893,8 +1127,8 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="2">
-        <v>6.1100000000000003</v>
+      <c r="G21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22">
@@ -902,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
@@ -916,8 +1150,8 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="2">
-        <v>8.370000000000001</v>
+      <c r="G22" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
@@ -939,8 +1173,8 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="2">
-        <v>8.4900000000000002</v>
+      <c r="G23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24">
@@ -948,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>111</v>
@@ -962,8 +1196,8 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2">
-        <v>9.2699999999999996</v>
+      <c r="G24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25">
@@ -985,8 +1219,8 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="2">
-        <v>3.2800000000000002</v>
+      <c r="G25" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="26">
@@ -994,10 +1228,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
         <v>114</v>
@@ -1008,8 +1242,8 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="2">
-        <v>9.2100000000000009</v>
+      <c r="G26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -1017,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>112</v>
@@ -1031,14 +1265,16 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>112</v>
@@ -1052,14 +1288,16 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
         <v>111</v>
@@ -1073,8 +1311,8 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2">
-        <v>7.3100000000000005</v>
+      <c r="G29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30">
@@ -1082,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>112</v>
@@ -1096,7 +1334,9 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1106,7 +1346,7 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
         <v>114</v>
@@ -1117,17 +1357,19 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
         <v>114</v>
@@ -1138,17 +1380,19 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>114</v>
@@ -1159,8 +1403,8 @@
       <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="2">
-        <v>5.1200000000000001</v>
+      <c r="G33" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -1182,8 +1426,8 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-      <c r="G34" s="2">
-        <v>5.4699999999999998</v>
+      <c r="G34" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35">
@@ -1205,14 +1449,16 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
         <v>111</v>
@@ -1226,8 +1472,8 @@
       <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="2">
-        <v>8.6099999999999994</v>
+      <c r="G36" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37">
@@ -1249,7 +1495,9 @@
       <c r="F37" s="2">
         <v>1</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1270,14 +1518,16 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
         <v>111</v>
@@ -1291,8 +1541,8 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="G39" s="2">
-        <v>8.5400000000000009</v>
+      <c r="G39" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1300,10 +1550,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>114</v>
@@ -1314,17 +1564,19 @@
       <c r="F40" s="2">
         <v>1</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
@@ -1335,8 +1587,8 @@
       <c r="F41" s="2">
         <v>1</v>
       </c>
-      <c r="G41" s="2">
-        <v>8.9500000000000011</v>
+      <c r="G41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1358,7 +1610,9 @@
       <c r="F42" s="2">
         <v>1</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1379,8 +1633,8 @@
       <c r="F43" s="2">
         <v>1</v>
       </c>
-      <c r="G43" s="2">
-        <v>11.029999999999999</v>
+      <c r="G43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="44">
@@ -1402,8 +1656,8 @@
       <c r="F44" s="2">
         <v>1</v>
       </c>
-      <c r="G44" s="2">
-        <v>11.6</v>
+      <c r="G44" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="45">
@@ -1425,8 +1679,8 @@
       <c r="F45" s="2">
         <v>1</v>
       </c>
-      <c r="G45" s="2">
-        <v>3.6099999999999999</v>
+      <c r="G45" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46">
@@ -1448,14 +1702,16 @@
       <c r="F46" s="2">
         <v>1</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>111</v>
@@ -1469,8 +1725,8 @@
       <c r="F47" s="2">
         <v>1</v>
       </c>
-      <c r="G47" s="2">
-        <v>6.8600000000000003</v>
+      <c r="G47" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48">
@@ -1492,7 +1748,9 @@
       <c r="F48" s="2">
         <v>1</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1502,7 +1760,7 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>114</v>
@@ -1513,8 +1771,8 @@
       <c r="F49" s="2">
         <v>1</v>
       </c>
-      <c r="G49" s="2">
-        <v>8.1500000000000004</v>
+      <c r="G49" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -1536,7 +1794,9 @@
       <c r="F50" s="2">
         <v>1</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1546,7 +1806,7 @@
         <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
         <v>114</v>
@@ -1557,7 +1817,9 @@
       <c r="F51" s="2">
         <v>1</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1578,7 +1840,9 @@
       <c r="F52" s="2">
         <v>1</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1599,7 +1863,9 @@
       <c r="F53" s="2">
         <v>1</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1620,8 +1886,8 @@
       <c r="F54" s="2">
         <v>1</v>
       </c>
-      <c r="G54" s="2">
-        <v>6.1200000000000001</v>
+      <c r="G54" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="55">
@@ -1643,8 +1909,8 @@
       <c r="F55" s="2">
         <v>1</v>
       </c>
-      <c r="G55" s="2">
-        <v>3.6400000000000001</v>
+      <c r="G55" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="56">
@@ -1666,7 +1932,9 @@
       <c r="F56" s="2">
         <v>1</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1676,7 +1944,7 @@
         <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
         <v>114</v>
@@ -1687,7 +1955,9 @@
       <c r="F57" s="2">
         <v>1</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1697,7 +1967,7 @@
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
         <v>114</v>
@@ -1708,8 +1978,8 @@
       <c r="F58" s="2">
         <v>1</v>
       </c>
-      <c r="G58" s="2">
-        <v>6.54</v>
+      <c r="G58" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="59">
@@ -1717,10 +1987,10 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
         <v>114</v>
@@ -1731,8 +2001,8 @@
       <c r="F59" s="2">
         <v>1</v>
       </c>
-      <c r="G59" s="2">
-        <v>6.8600000000000003</v>
+      <c r="G59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60">
@@ -1740,10 +2010,10 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
         <v>114</v>
@@ -1754,14 +2024,16 @@
       <c r="F60" s="2">
         <v>1</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
         <v>111</v>
@@ -1775,8 +2047,8 @@
       <c r="F61" s="2">
         <v>1</v>
       </c>
-      <c r="G61" s="2">
-        <v>9.3200000000000003</v>
+      <c r="G61" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="62">
@@ -1784,7 +2056,7 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>112</v>
@@ -1798,14 +2070,16 @@
       <c r="F62" s="2">
         <v>1</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -1819,8 +2093,8 @@
       <c r="F63" s="2">
         <v>1</v>
       </c>
-      <c r="G63" s="2">
-        <v>9.8300000000000001</v>
+      <c r="G63" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="64">
@@ -1842,8 +2116,8 @@
       <c r="F64" s="2">
         <v>1</v>
       </c>
-      <c r="G64" s="2">
-        <v>3.6200000000000001</v>
+      <c r="G64" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -1851,10 +2125,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
         <v>114</v>
@@ -1865,8 +2139,8 @@
       <c r="F65" s="2">
         <v>1</v>
       </c>
-      <c r="G65" s="2">
-        <v>8.1400000000000006</v>
+      <c r="G65" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -1874,7 +2148,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
         <v>112</v>
@@ -1888,17 +2162,19 @@
       <c r="F66" s="2">
         <v>1</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
         <v>114</v>
@@ -1909,7 +2185,9 @@
       <c r="F67" s="2">
         <v>1</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -1930,8 +2208,8 @@
       <c r="F68" s="2">
         <v>1</v>
       </c>
-      <c r="G68" s="2">
-        <v>3.6200000000000001</v>
+      <c r="G68" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="69">
@@ -1953,8 +2231,8 @@
       <c r="F69" s="2">
         <v>1</v>
       </c>
-      <c r="G69" s="2">
-        <v>6.1500000000000004</v>
+      <c r="G69" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="70">
@@ -1976,8 +2254,8 @@
       <c r="F70" s="2">
         <v>1</v>
       </c>
-      <c r="G70" s="2">
-        <v>9.1099999999999994</v>
+      <c r="G70" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="71">
@@ -1999,8 +2277,8 @@
       <c r="F71" s="2">
         <v>1</v>
       </c>
-      <c r="G71" s="2">
-        <v>10.25</v>
+      <c r="G71" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="72">
@@ -2022,14 +2300,16 @@
       <c r="F72" s="2">
         <v>1</v>
       </c>
-      <c r="G72" s="2"/>
+      <c r="G72" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
         <v>111</v>
@@ -2043,8 +2323,8 @@
       <c r="F73" s="2">
         <v>1</v>
       </c>
-      <c r="G73" s="2">
-        <v>10.25</v>
+      <c r="G73" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="74">
@@ -2066,8 +2346,8 @@
       <c r="F74" s="2">
         <v>1</v>
       </c>
-      <c r="G74" s="2">
-        <v>15.120000000000001</v>
+      <c r="G74" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="75">
@@ -2075,10 +2355,10 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
         <v>114</v>
@@ -2089,8 +2369,8 @@
       <c r="F75" s="2">
         <v>1</v>
       </c>
-      <c r="G75" s="2">
-        <v>6.8600000000000003</v>
+      <c r="G75" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="76">
@@ -2098,10 +2378,10 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
         <v>114</v>
@@ -2112,7 +2392,9 @@
       <c r="F76" s="2">
         <v>1</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -2133,8 +2415,8 @@
       <c r="F77" s="2">
         <v>1</v>
       </c>
-      <c r="G77" s="2">
-        <v>5.0499999999999998</v>
+      <c r="G77" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="78">
@@ -2142,7 +2424,7 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
         <v>111</v>
@@ -2156,8 +2438,8 @@
       <c r="F78" s="2">
         <v>1</v>
       </c>
-      <c r="G78" s="2">
-        <v>10.23</v>
+      <c r="G78" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="79">
@@ -2165,7 +2447,7 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
         <v>111</v>
@@ -2179,8 +2461,8 @@
       <c r="F79" s="2">
         <v>1</v>
       </c>
-      <c r="G79" s="2">
-        <v>9.0899999999999999</v>
+      <c r="G79" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="80">
@@ -2188,7 +2470,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>111</v>
@@ -2202,8 +2484,8 @@
       <c r="F80" s="2">
         <v>1</v>
       </c>
-      <c r="G80" s="2">
-        <v>14.130000000000001</v>
+      <c r="G80" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81">
@@ -2211,10 +2493,10 @@
         <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
         <v>114</v>
@@ -2225,8 +2507,8 @@
       <c r="F81" s="2">
         <v>1</v>
       </c>
-      <c r="G81" s="2">
-        <v>5.2199999999999998</v>
+      <c r="G81" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82">
@@ -2234,10 +2516,10 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
         <v>114</v>
@@ -2248,14 +2530,16 @@
       <c r="F82" s="2">
         <v>1</v>
       </c>
-      <c r="G82" s="2"/>
+      <c r="G82" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
         <v>112</v>
@@ -2269,7 +2553,9 @@
       <c r="F83" s="2">
         <v>1</v>
       </c>
-      <c r="G83" s="2"/>
+      <c r="G83" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -2290,8 +2576,8 @@
       <c r="F84" s="2">
         <v>1</v>
       </c>
-      <c r="G84" s="2">
-        <v>5.4699999999999998</v>
+      <c r="G84" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -2299,7 +2585,7 @@
         <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C85" t="s">
         <v>111</v>
@@ -2313,8 +2599,8 @@
       <c r="F85" s="2">
         <v>1</v>
       </c>
-      <c r="G85" s="2">
-        <v>9.8000000000000007</v>
+      <c r="G85" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86">
@@ -2322,10 +2608,10 @@
         <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
         <v>114</v>
@@ -2336,17 +2622,19 @@
       <c r="F86" s="2">
         <v>1</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="G86" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
         <v>114</v>
@@ -2357,8 +2645,8 @@
       <c r="F87" s="2">
         <v>1</v>
       </c>
-      <c r="G87" s="2">
-        <v>9.3599999999999994</v>
+      <c r="G87" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="88">
@@ -2366,7 +2654,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
         <v>111</v>
@@ -2380,8 +2668,8 @@
       <c r="F88" s="2">
         <v>1</v>
       </c>
-      <c r="G88" s="2">
-        <v>9.2799999999999994</v>
+      <c r="G88" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="89">
@@ -2389,7 +2677,7 @@
         <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C89" t="s">
         <v>111</v>
@@ -2403,8 +2691,8 @@
       <c r="F89" s="2">
         <v>1</v>
       </c>
-      <c r="G89" s="2">
-        <v>10.220000000000001</v>
+      <c r="G89" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="90">
@@ -2426,8 +2714,8 @@
       <c r="F90" s="2">
         <v>1</v>
       </c>
-      <c r="G90" s="2">
-        <v>12.65</v>
+      <c r="G90" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="91">
@@ -2435,7 +2723,7 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
         <v>112</v>
@@ -2449,14 +2737,16 @@
       <c r="F91" s="2">
         <v>1</v>
       </c>
-      <c r="G91" s="2"/>
+      <c r="G91" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
         <v>111</v>
@@ -2470,8 +2760,8 @@
       <c r="F92" s="2">
         <v>1</v>
       </c>
-      <c r="G92" s="2">
-        <v>8.1400000000000006</v>
+      <c r="G92" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="93">
@@ -2493,8 +2783,8 @@
       <c r="F93" s="2">
         <v>1</v>
       </c>
-      <c r="G93" s="2">
-        <v>3.6099999999999999</v>
+      <c r="G93" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="94">
@@ -2502,10 +2792,10 @@
         <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
         <v>114</v>
@@ -2516,8 +2806,8 @@
       <c r="F94" s="2">
         <v>1</v>
       </c>
-      <c r="G94" s="2">
-        <v>8.0800000000000001</v>
+      <c r="G94" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95">
@@ -2525,10 +2815,10 @@
         <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
         <v>114</v>
@@ -2539,7 +2829,9 @@
       <c r="F95" s="2">
         <v>1</v>
       </c>
-      <c r="G95" s="2"/>
+      <c r="G95" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -2560,14 +2852,16 @@
       <c r="F96" s="2">
         <v>1</v>
       </c>
-      <c r="G96" s="2"/>
+      <c r="G96" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
@@ -2581,8 +2875,8 @@
       <c r="F97" s="2">
         <v>1</v>
       </c>
-      <c r="G97" s="2">
-        <v>6.04</v>
+      <c r="G97" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="98">
@@ -2604,8 +2898,8 @@
       <c r="F98" s="2">
         <v>1</v>
       </c>
-      <c r="G98" s="2">
-        <v>10.470000000000001</v>
+      <c r="G98" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="99">
@@ -2613,7 +2907,7 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
         <v>112</v>
@@ -2627,7 +2921,9 @@
       <c r="F99" s="2">
         <v>1</v>
       </c>
-      <c r="G99" s="2"/>
+      <c r="G99" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -2648,14 +2944,16 @@
       <c r="F100" s="2">
         <v>1</v>
       </c>
-      <c r="G100" s="2"/>
+      <c r="G100" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
         <v>111</v>
@@ -2669,8 +2967,8 @@
       <c r="F101" s="2">
         <v>1</v>
       </c>
-      <c r="G101" s="2">
-        <v>6.8600000000000003</v>
+      <c r="G101" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="102">
@@ -2678,7 +2976,7 @@
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
         <v>111</v>
@@ -2692,8 +2990,8 @@
       <c r="F102" s="2">
         <v>1</v>
       </c>
-      <c r="G102" s="2">
-        <v>10.25</v>
+      <c r="G102" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="103">
@@ -2701,7 +2999,7 @@
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
         <v>112</v>
@@ -2715,17 +3013,19 @@
       <c r="F103" s="2">
         <v>1</v>
       </c>
-      <c r="G103" s="2"/>
+      <c r="G103" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D104" t="s">
         <v>114</v>
@@ -2736,8 +3036,8 @@
       <c r="F104" s="2">
         <v>1</v>
       </c>
-      <c r="G104" s="2">
-        <v>9.2799999999999994</v>
+      <c r="G104" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="105">
@@ -2745,10 +3045,10 @@
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D105" t="s">
         <v>114</v>
@@ -2759,14 +3059,16 @@
       <c r="F105" s="2">
         <v>1</v>
       </c>
-      <c r="G105" s="2"/>
+      <c r="G105" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C106" t="s">
         <v>111</v>
@@ -2780,8 +3082,8 @@
       <c r="F106" s="2">
         <v>1</v>
       </c>
-      <c r="G106" s="2">
-        <v>9.7799999999999994</v>
+      <c r="G106" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="107">
@@ -2803,8 +3105,8 @@
       <c r="F107" s="2">
         <v>1</v>
       </c>
-      <c r="G107" s="2">
-        <v>11.029999999999999</v>
+      <c r="G107" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="108">
@@ -2812,7 +3114,7 @@
         <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C108" t="s">
         <v>111</v>
@@ -2826,8 +3128,8 @@
       <c r="F108" s="2">
         <v>1</v>
       </c>
-      <c r="G108" s="2">
-        <v>10.23</v>
+      <c r="G108" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="109">
@@ -2849,8 +3151,8 @@
       <c r="F109" s="2">
         <v>1</v>
       </c>
-      <c r="G109" s="2">
-        <v>3.6200000000000001</v>
+      <c r="G109" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="110">
@@ -2872,8 +3174,8 @@
       <c r="F110" s="2">
         <v>1</v>
       </c>
-      <c r="G110" s="2">
-        <v>12.81</v>
+      <c r="G110" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="111">
@@ -2881,7 +3183,7 @@
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
         <v>111</v>
@@ -2895,8 +3197,8 @@
       <c r="F111" s="2">
         <v>1</v>
       </c>
-      <c r="G111" s="2">
-        <v>6.8700000000000001</v>
+      <c r="G111" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="112">
@@ -2918,14 +3220,16 @@
       <c r="F112" s="2">
         <v>1</v>
       </c>
-      <c r="G112" s="2"/>
+      <c r="G112" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
@@ -2939,8 +3243,8 @@
       <c r="F113" s="2">
         <v>1</v>
       </c>
-      <c r="G113" s="2">
-        <v>6.75</v>
+      <c r="G113" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="114">
@@ -2948,7 +3252,7 @@
         <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C114" t="s">
         <v>111</v>
@@ -2962,8 +3266,8 @@
       <c r="F114" s="2">
         <v>1</v>
       </c>
-      <c r="G114" s="2">
-        <v>3.6200000000000001</v>
+      <c r="G114" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="115">
@@ -2985,8 +3289,8 @@
       <c r="F115" s="2">
         <v>1</v>
       </c>
-      <c r="G115" s="2">
-        <v>12.6</v>
+      <c r="G115" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="116">
@@ -2994,7 +3298,7 @@
         <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
         <v>111</v>
@@ -3008,8 +3312,8 @@
       <c r="F116" s="2">
         <v>1</v>
       </c>
-      <c r="G116" s="2">
-        <v>9.1400000000000006</v>
+      <c r="G116" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="117">
@@ -3017,10 +3321,10 @@
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
         <v>114</v>
@@ -3031,8 +3335,8 @@
       <c r="F117" s="2">
         <v>1</v>
       </c>
-      <c r="G117" s="2">
-        <v>6.2700000000000005</v>
+      <c r="G117" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="118">
@@ -3040,10 +3344,10 @@
         <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D118" t="s">
         <v>114</v>
@@ -3054,14 +3358,16 @@
       <c r="F118" s="2">
         <v>1</v>
       </c>
-      <c r="G118" s="2"/>
+      <c r="G118" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
         <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C119" t="s">
         <v>111</v>
@@ -3075,8 +3381,8 @@
       <c r="F119" s="2">
         <v>1</v>
       </c>
-      <c r="G119" s="2">
-        <v>10.300000000000001</v>
+      <c r="G119" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="120">
@@ -3084,10 +3390,10 @@
         <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D120" t="s">
         <v>114</v>
@@ -3098,17 +3404,19 @@
       <c r="F120" s="2">
         <v>1</v>
       </c>
-      <c r="G120" s="2"/>
+      <c r="G120" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
         <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D121" t="s">
         <v>114</v>
@@ -3119,8 +3427,8 @@
       <c r="F121" s="2">
         <v>1</v>
       </c>
-      <c r="G121" s="2">
-        <v>7.3700000000000001</v>
+      <c r="G121" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="122">
@@ -3128,7 +3436,7 @@
         <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C122" t="s">
         <v>111</v>
@@ -3142,8 +3450,8 @@
       <c r="F122" s="2">
         <v>1</v>
       </c>
-      <c r="G122" s="2">
-        <v>11.73</v>
+      <c r="G122" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="123">
@@ -3151,7 +3459,7 @@
         <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C123" t="s">
         <v>111</v>
@@ -3165,8 +3473,8 @@
       <c r="F123" s="2">
         <v>1</v>
       </c>
-      <c r="G123" s="2">
-        <v>6.8600000000000003</v>
+      <c r="G123" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="124">
@@ -3174,7 +3482,7 @@
         <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
         <v>111</v>
@@ -3188,8 +3496,8 @@
       <c r="F124" s="2">
         <v>1</v>
       </c>
-      <c r="G124" s="2">
-        <v>6.3600000000000003</v>
+      <c r="G124" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="125">
@@ -3197,7 +3505,7 @@
         <v>51</v>
       </c>
       <c r="B125" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C125" t="s">
         <v>112</v>
@@ -3211,14 +3519,16 @@
       <c r="F125" s="2">
         <v>1</v>
       </c>
-      <c r="G125" s="2"/>
+      <c r="G125" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C126" t="s">
         <v>112</v>
@@ -3232,14 +3542,16 @@
       <c r="F126" s="2">
         <v>1</v>
       </c>
-      <c r="G126" s="2"/>
+      <c r="G126" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
         <v>111</v>
@@ -3253,8 +3565,8 @@
       <c r="F127" s="2">
         <v>1</v>
       </c>
-      <c r="G127" s="2">
-        <v>6.8600000000000003</v>
+      <c r="G127" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="128">
@@ -3262,7 +3574,7 @@
         <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
         <v>111</v>
@@ -3276,8 +3588,8 @@
       <c r="F128" s="2">
         <v>1</v>
       </c>
-      <c r="G128" s="2">
-        <v>6.8600000000000003</v>
+      <c r="G128" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="129">
@@ -3299,7 +3611,9 @@
       <c r="F129" s="2">
         <v>1</v>
       </c>
-      <c r="G129" s="2"/>
+      <c r="G129" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -3320,8 +3634,8 @@
       <c r="F130" s="2">
         <v>1</v>
       </c>
-      <c r="G130" s="2">
-        <v>12.65</v>
+      <c r="G130" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="131">
@@ -3329,10 +3643,10 @@
         <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D131" t="s">
         <v>114</v>
@@ -3343,8 +3657,8 @@
       <c r="F131" s="2">
         <v>1</v>
       </c>
-      <c r="G131" s="2">
-        <v>8.120000000000001</v>
+      <c r="G131" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="132">
@@ -3352,10 +3666,10 @@
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D132" t="s">
         <v>114</v>
@@ -3366,14 +3680,16 @@
       <c r="F132" s="2">
         <v>1</v>
       </c>
-      <c r="G132" s="2"/>
+      <c r="G132" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C133" t="s">
         <v>111</v>
@@ -3387,8 +3703,8 @@
       <c r="F133" s="2">
         <v>1</v>
       </c>
-      <c r="G133" s="2">
-        <v>12.620000000000001</v>
+      <c r="G133" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="134">
@@ -3396,7 +3712,7 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C134" t="s">
         <v>112</v>
@@ -3410,7 +3726,9 @@
       <c r="F134" s="2">
         <v>1</v>
       </c>
-      <c r="G134" s="2"/>
+      <c r="G134" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -3431,8 +3749,8 @@
       <c r="F135" s="2">
         <v>1</v>
       </c>
-      <c r="G135" s="2">
-        <v>3.6200000000000001</v>
+      <c r="G135" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="136">
@@ -3454,8 +3772,8 @@
       <c r="F136" s="2">
         <v>1</v>
       </c>
-      <c r="G136" s="2">
-        <v>3.6200000000000001</v>
+      <c r="G136" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="137">
@@ -3477,8 +3795,8 @@
       <c r="F137" s="2">
         <v>1</v>
       </c>
-      <c r="G137" s="2">
-        <v>10.52</v>
+      <c r="G137" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="138">
@@ -3486,7 +3804,7 @@
         <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C138" t="s">
         <v>112</v>
@@ -3500,17 +3818,19 @@
       <c r="F138" s="2">
         <v>1</v>
       </c>
-      <c r="G138" s="2"/>
+      <c r="G138" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
         <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
         <v>114</v>
@@ -3521,17 +3841,19 @@
       <c r="F139" s="2">
         <v>1</v>
       </c>
-      <c r="G139" s="2"/>
+      <c r="G139" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
         <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D140" t="s">
         <v>114</v>
@@ -3542,8 +3864,8 @@
       <c r="F140" s="2">
         <v>1</v>
       </c>
-      <c r="G140" s="2">
-        <v>6.0499999999999998</v>
+      <c r="G140" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="141">
@@ -3565,8 +3887,8 @@
       <c r="F141" s="2">
         <v>1</v>
       </c>
-      <c r="G141" s="2">
-        <v>6.5800000000000001</v>
+      <c r="G141" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="142">
@@ -3574,7 +3896,7 @@
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C142" t="s">
         <v>112</v>
@@ -3588,7 +3910,9 @@
       <c r="F142" s="2">
         <v>1</v>
       </c>
-      <c r="G142" s="2"/>
+      <c r="G142" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -3609,8 +3933,8 @@
       <c r="F143" s="2">
         <v>1</v>
       </c>
-      <c r="G143" s="2">
-        <v>5.4900000000000002</v>
+      <c r="G143" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="144">
@@ -3618,7 +3942,7 @@
         <v>59</v>
       </c>
       <c r="B144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C144" t="s">
         <v>111</v>
@@ -3632,8 +3956,8 @@
       <c r="F144" s="2">
         <v>1</v>
       </c>
-      <c r="G144" s="2">
-        <v>6.0499999999999998</v>
+      <c r="G144" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="145">
@@ -3641,10 +3965,10 @@
         <v>59</v>
       </c>
       <c r="B145" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C145" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D145" t="s">
         <v>114</v>
@@ -3655,8 +3979,8 @@
       <c r="F145" s="2">
         <v>1</v>
       </c>
-      <c r="G145" s="2">
-        <v>10.51</v>
+      <c r="G145" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="146">
@@ -3664,10 +3988,10 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D146" t="s">
         <v>114</v>
@@ -3678,7 +4002,9 @@
       <c r="F146" s="2">
         <v>1</v>
       </c>
-      <c r="G146" s="2"/>
+      <c r="G146" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -3699,8 +4025,8 @@
       <c r="F147" s="2">
         <v>1</v>
       </c>
-      <c r="G147" s="2">
-        <v>5.5300000000000002</v>
+      <c r="G147" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="148">
@@ -3708,10 +4034,10 @@
         <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D148" t="s">
         <v>114</v>
@@ -3722,17 +4048,19 @@
       <c r="F148" s="2">
         <v>1</v>
       </c>
-      <c r="G148" s="2"/>
+      <c r="G148" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
         <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C149" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D149" t="s">
         <v>114</v>
@@ -3743,8 +4071,8 @@
       <c r="F149" s="2">
         <v>1</v>
       </c>
-      <c r="G149" s="2">
-        <v>5.5</v>
+      <c r="G149" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="150">
@@ -3766,8 +4094,8 @@
       <c r="F150" s="2">
         <v>1</v>
       </c>
-      <c r="G150" s="2">
-        <v>3.6099999999999999</v>
+      <c r="G150" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="151">
@@ -3775,10 +4103,10 @@
         <v>63</v>
       </c>
       <c r="B151" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C151" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D151" t="s">
         <v>114</v>
@@ -3789,8 +4117,8 @@
       <c r="F151" s="2">
         <v>1</v>
       </c>
-      <c r="G151" s="2">
-        <v>6.8600000000000003</v>
+      <c r="G151" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="152">
@@ -3798,10 +4126,10 @@
         <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" t="s">
         <v>114</v>
@@ -3812,7 +4140,9 @@
       <c r="F152" s="2">
         <v>1</v>
       </c>
-      <c r="G152" s="2"/>
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -213,45 +213,45 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>inositol</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>inositol</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>acetaminophen</t>
+    <t>clonazolam</t>
+  </si>
+  <si>
+    <t>sucrose</t>
   </si>
   <si>
     <t>non-specific organic acids</t>
   </si>
   <si>
-    <t>sucrose</t>
-  </si>
-  <si>
     <t>meclonazepam</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
@@ -261,63 +261,63 @@
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
+    <t>noscapine</t>
   </si>
   <si>
     <t>meconin</t>
   </si>
   <si>
-    <t>noscapine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
+  </si>
+  <si>
+    <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -372,72 +372,72 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>8.53</t>
+  </si>
+  <si>
     <t>8.92</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>8.53</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>5.81</t>
+  </si>
+  <si>
     <t>9.23</t>
   </si>
   <si>
     <t>8.37</t>
   </si>
   <si>
-    <t>5.81</t>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>9.94</t>
   </si>
   <si>
     <t>6.66</t>
   </si>
   <si>
-    <t>9.94</t>
-  </si>
-  <si>
     <t>7.3</t>
   </si>
   <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
     <t>9.24</t>
   </si>
   <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>12.33</t>
+    <t>10.25</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>10.25</t>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>6.11</t>
   </si>
   <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>8.49</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
+    <t>7.31</t>
+  </si>
+  <si>
     <t>9.21</t>
   </si>
   <si>
-    <t>7.31</t>
-  </si>
-  <si>
     <t>5.12</t>
   </si>
   <si>
@@ -465,12 +465,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>8.15</t>
+  </si>
+  <si>
     <t>6.12</t>
   </si>
   <si>
-    <t>8.15</t>
-  </si>
-  <si>
     <t>3.64</t>
   </si>
   <si>
@@ -489,12 +489,12 @@
     <t>8.14</t>
   </si>
   <si>
+    <t>6.15</t>
+  </si>
+  <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>6.15</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
@@ -513,12 +513,12 @@
     <t>5.22</t>
   </si>
   <si>
+    <t>9.8</t>
+  </si>
+  <si>
     <t>9.28</t>
   </si>
   <si>
-    <t>9.8</t>
-  </si>
-  <si>
     <t>9.36</t>
   </si>
   <si>
@@ -555,31 +555,31 @@
     <t>7.37</t>
   </si>
   <si>
+    <t>10.3</t>
+  </si>
+  <si>
     <t>9.14</t>
   </si>
   <si>
-    <t>10.3</t>
-  </si>
-  <si>
     <t>6.27</t>
   </si>
   <si>
+    <t>11.73</t>
+  </si>
+  <si>
     <t>6.36</t>
   </si>
   <si>
-    <t>11.73</t>
-  </si>
-  <si>
     <t>12.62</t>
   </si>
   <si>
     <t>8.12</t>
   </si>
   <si>
+    <t>10.52</t>
+  </si>
+  <si>
     <t>6.05</t>
-  </si>
-  <si>
-    <t>10.52</t>
   </si>
   <si>
     <t>6.58</t>
@@ -702,7 +702,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>114</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
@@ -952,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>111</v>
@@ -1067,10 +1067,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
         <v>114</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
@@ -1090,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>114</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21">
@@ -1113,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>111</v>
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24">
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -1254,7 +1254,7 @@
         <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>114</v>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
@@ -1274,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>114</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1300,7 +1300,7 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -1320,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>112</v>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1346,7 +1346,7 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
         <v>114</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -1527,10 +1527,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
         <v>114</v>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -1553,7 +1553,7 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
         <v>114</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -1573,10 +1573,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42">
@@ -1596,10 +1596,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
         <v>114</v>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43">
@@ -1688,10 +1688,10 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
         <v>114</v>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47">
@@ -1711,10 +1711,10 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
         <v>114</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -1760,7 +1760,7 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
         <v>114</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50">
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -1806,7 +1806,7 @@
         <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
         <v>114</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -1829,7 +1829,7 @@
         <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
         <v>114</v>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53">
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -1875,7 +1875,7 @@
         <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
@@ -1987,10 +1987,10 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
         <v>114</v>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60">
@@ -2010,10 +2010,10 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
         <v>114</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
@@ -2033,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
         <v>111</v>
@@ -2056,10 +2056,10 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
         <v>114</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63">
@@ -2079,10 +2079,10 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
         <v>114</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
@@ -2125,10 +2125,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
         <v>114</v>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66">
@@ -2148,7 +2148,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>112</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
@@ -2171,10 +2171,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
         <v>114</v>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71">
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
@@ -2309,7 +2309,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>111</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
@@ -2378,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
         <v>111</v>
@@ -2424,7 +2424,7 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
         <v>111</v>
@@ -2447,7 +2447,7 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
         <v>111</v>
@@ -2470,7 +2470,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>111</v>
@@ -2493,10 +2493,10 @@
         <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
         <v>114</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82">
@@ -2516,10 +2516,10 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
         <v>114</v>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
@@ -2585,7 +2585,7 @@
         <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C85" t="s">
         <v>111</v>
@@ -2608,10 +2608,10 @@
         <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
         <v>114</v>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
@@ -2631,10 +2631,10 @@
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
         <v>114</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88">
@@ -2677,7 +2677,7 @@
         <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
         <v>111</v>
@@ -2723,10 +2723,10 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
         <v>114</v>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
@@ -2746,10 +2746,10 @@
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
@@ -2807,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
@@ -2815,10 +2815,10 @@
         <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
         <v>114</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
@@ -2838,10 +2838,10 @@
         <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
         <v>114</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97">
@@ -2861,7 +2861,7 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
@@ -2884,7 +2884,7 @@
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C98" t="s">
         <v>111</v>
@@ -2907,7 +2907,7 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
         <v>112</v>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
@@ -2953,7 +2953,7 @@
         <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
         <v>111</v>
@@ -2976,7 +2976,7 @@
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
         <v>111</v>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103">
@@ -2999,7 +2999,7 @@
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C103" t="s">
         <v>112</v>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
@@ -3045,7 +3045,7 @@
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s">
         <v>111</v>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
@@ -3114,7 +3114,7 @@
         <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C108" t="s">
         <v>111</v>
@@ -3137,7 +3137,7 @@
         <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110">
@@ -3160,7 +3160,7 @@
         <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
@@ -3183,7 +3183,7 @@
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
         <v>111</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113">
@@ -3321,10 +3321,10 @@
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D117" t="s">
         <v>114</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118">
@@ -3344,10 +3344,10 @@
         <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D118" t="s">
         <v>114</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119">
@@ -3367,7 +3367,7 @@
         <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
         <v>111</v>
@@ -3390,7 +3390,7 @@
         <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C120" t="s">
         <v>111</v>
@@ -3413,7 +3413,7 @@
         <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C121" t="s">
         <v>112</v>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
@@ -3436,7 +3436,7 @@
         <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
         <v>111</v>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124">
@@ -3482,7 +3482,7 @@
         <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C124" t="s">
         <v>111</v>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125">
@@ -3505,7 +3505,7 @@
         <v>51</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C125" t="s">
         <v>112</v>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
@@ -3528,10 +3528,10 @@
         <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D126" t="s">
         <v>114</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
@@ -3551,10 +3551,10 @@
         <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D127" t="s">
         <v>114</v>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128">
@@ -3574,7 +3574,7 @@
         <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C128" t="s">
         <v>111</v>
@@ -3612,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130">
@@ -3643,10 +3643,10 @@
         <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D131" t="s">
         <v>114</v>
@@ -3658,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132">
@@ -3666,10 +3666,10 @@
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C132" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D132" t="s">
         <v>114</v>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
@@ -3689,7 +3689,7 @@
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C133" t="s">
         <v>111</v>
@@ -3712,7 +3712,7 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C134" t="s">
         <v>112</v>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
@@ -3784,7 +3784,7 @@
         <v>73</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D137" t="s">
         <v>114</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
@@ -3807,7 +3807,7 @@
         <v>72</v>
       </c>
       <c r="C138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D138" t="s">
         <v>114</v>
@@ -3819,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139">
@@ -3827,10 +3827,10 @@
         <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D139" t="s">
         <v>114</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
@@ -3850,10 +3850,10 @@
         <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D140" t="s">
         <v>114</v>
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141">
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145">
@@ -3965,7 +3965,7 @@
         <v>59</v>
       </c>
       <c r="B145" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C145" t="s">
         <v>112</v>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146">
@@ -3988,7 +3988,7 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C146" t="s">
         <v>111</v>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147">
@@ -4034,10 +4034,10 @@
         <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C148" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D148" t="s">
         <v>114</v>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149">
@@ -4057,10 +4057,10 @@
         <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D149" t="s">
         <v>114</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150">
@@ -4103,10 +4103,10 @@
         <v>63</v>
       </c>
       <c r="B151" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D151" t="s">
         <v>114</v>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152">
@@ -4126,10 +4126,10 @@
         <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C152" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D152" t="s">
         <v>114</v>
@@ -4141,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -213,15 +213,15 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>inositol</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>heroin</t>
   </si>
   <si>
@@ -240,18 +240,18 @@
     <t>clonazolam</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>meclonazepam</t>
+  </si>
+  <si>
     <t>sucrose</t>
   </si>
   <si>
     <t>non-specific organic acids</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
@@ -273,12 +273,12 @@
     <t>hydrocotarnine</t>
   </si>
   <si>
+    <t>noscapine</t>
+  </si>
+  <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>noscapine</t>
-  </si>
-  <si>
     <t>meconin</t>
   </si>
   <si>
@@ -288,6 +288,9 @@
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
@@ -297,27 +300,24 @@
     <t>norcocaine</t>
   </si>
   <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>levamisole</t>
+    <t>N,N-dimethyltryptamine (DMT)</t>
+  </si>
+  <si>
+    <t>N-methyltryptamine</t>
   </si>
   <si>
     <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
   </si>
   <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -372,12 +372,12 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.53</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>8.53</t>
-  </si>
-  <si>
     <t>8.92</t>
   </si>
   <si>
@@ -396,24 +396,24 @@
     <t>12.33</t>
   </si>
   <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
     <t>9.94</t>
   </si>
   <si>
     <t>6.66</t>
   </si>
   <si>
+    <t>9.24</t>
+  </si>
+  <si>
     <t>7.3</t>
   </si>
   <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
     <t>10.25</t>
   </si>
   <si>
@@ -423,12 +423,12 @@
     <t>8.49</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>6.11</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -477,12 +477,12 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>9.32</t>
+  </si>
+  <si>
     <t>9.83</t>
   </si>
   <si>
-    <t>9.32</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -531,12 +531,12 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>6.04</t>
+  </si>
+  <si>
     <t>10.47</t>
   </si>
   <si>
-    <t>6.04</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
@@ -555,13 +555,13 @@
     <t>7.37</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
     <t>10.3</t>
-  </si>
-  <si>
-    <t>9.14</t>
-  </si>
-  <si>
-    <t>6.27</t>
   </si>
   <si>
     <t>11.73</t>
@@ -702,7 +702,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -748,7 +748,7 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -952,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>111</v>
@@ -1067,10 +1067,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
         <v>114</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20">
@@ -1090,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>114</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24">
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>111</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -1251,10 +1251,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
         <v>114</v>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>111</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29">
@@ -1297,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>112</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -1320,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>112</v>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -1343,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
         <v>114</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -1366,10 +1366,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>114</v>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -1389,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
         <v>114</v>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -1458,10 +1458,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
         <v>114</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -1481,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>112</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -1504,10 +1504,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
         <v>114</v>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39">
@@ -1527,10 +1527,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
         <v>114</v>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1550,10 +1550,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>114</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
@@ -1573,10 +1573,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1596,10 +1596,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>114</v>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -1688,10 +1688,10 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
         <v>114</v>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -1711,10 +1711,10 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
         <v>114</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -1760,7 +1760,7 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>114</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -1783,7 +1783,7 @@
         <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -1921,7 +1921,7 @@
         <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
         <v>114</v>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57">
@@ -1944,7 +1944,7 @@
         <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
         <v>114</v>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
@@ -1987,10 +1987,10 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
         <v>114</v>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
@@ -2010,10 +2010,10 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
         <v>114</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61">
@@ -2033,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>111</v>
@@ -2056,7 +2056,7 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
         <v>111</v>
@@ -2079,7 +2079,7 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
         <v>112</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
@@ -2125,7 +2125,7 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
         <v>111</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
@@ -2171,7 +2171,7 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
         <v>112</v>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
@@ -2355,10 +2355,10 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
         <v>114</v>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76">
@@ -2378,10 +2378,10 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
         <v>114</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
@@ -2608,7 +2608,7 @@
         <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
         <v>112</v>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
@@ -2631,7 +2631,7 @@
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
         <v>111</v>
@@ -2723,7 +2723,7 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
         <v>111</v>
@@ -2746,7 +2746,7 @@
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
         <v>112</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
@@ -2807,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
@@ -2815,10 +2815,10 @@
         <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
         <v>114</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96">
@@ -2838,10 +2838,10 @@
         <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
         <v>114</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
@@ -2861,10 +2861,10 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
         <v>114</v>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99">
@@ -2907,10 +2907,10 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
         <v>114</v>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100">
@@ -2930,10 +2930,10 @@
         <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
         <v>114</v>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
@@ -2953,10 +2953,10 @@
         <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s">
         <v>114</v>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
@@ -2999,7 +2999,7 @@
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
         <v>112</v>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
@@ -3022,7 +3022,7 @@
         <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
         <v>112</v>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105">
@@ -3068,7 +3068,7 @@
         <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
         <v>111</v>
@@ -3183,7 +3183,7 @@
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
         <v>111</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
@@ -3229,7 +3229,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114">
@@ -3252,7 +3252,7 @@
         <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C114" t="s">
         <v>111</v>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
@@ -3321,10 +3321,10 @@
         <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
         <v>114</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
@@ -3344,10 +3344,10 @@
         <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D118" t="s">
         <v>114</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119">
@@ -3367,10 +3367,10 @@
         <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
         <v>114</v>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
@@ -3390,7 +3390,7 @@
         <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C120" t="s">
         <v>111</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121">
@@ -3413,10 +3413,10 @@
         <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D121" t="s">
         <v>114</v>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122">
@@ -3436,7 +3436,7 @@
         <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C122" t="s">
         <v>111</v>
@@ -3505,7 +3505,7 @@
         <v>51</v>
       </c>
       <c r="B125" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C125" t="s">
         <v>112</v>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
@@ -3528,10 +3528,10 @@
         <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C126" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D126" t="s">
         <v>114</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
@@ -3551,10 +3551,10 @@
         <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D127" t="s">
         <v>114</v>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128">
@@ -3574,7 +3574,7 @@
         <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C128" t="s">
         <v>111</v>
@@ -3612,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
@@ -3689,7 +3689,7 @@
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C133" t="s">
         <v>111</v>
@@ -3712,7 +3712,7 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C134" t="s">
         <v>112</v>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135">
@@ -3781,10 +3781,10 @@
         <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D137" t="s">
         <v>114</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138">
@@ -3804,10 +3804,10 @@
         <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D138" t="s">
         <v>114</v>
@@ -3819,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139">
@@ -3827,10 +3827,10 @@
         <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
         <v>114</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140">
@@ -3850,10 +3850,10 @@
         <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D140" t="s">
         <v>114</v>
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141">
@@ -3873,10 +3873,10 @@
         <v>58</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C141" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D141" t="s">
         <v>114</v>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
@@ -3896,10 +3896,10 @@
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D142" t="s">
         <v>114</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143">
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146">
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149">
@@ -4103,10 +4103,10 @@
         <v>63</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C151" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D151" t="s">
         <v>114</v>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152">
@@ -4126,10 +4126,10 @@
         <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" t="s">
         <v>114</v>
@@ -4141,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="762" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="857" uniqueCount="211">
   <si>
     <t>sampleid</t>
   </si>
@@ -60,6 +60,9 @@
     <t>300796</t>
   </si>
   <si>
+    <t>800101</t>
+  </si>
+  <si>
     <t>800102</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
     <t>800106</t>
   </si>
   <si>
+    <t>800109</t>
+  </si>
+  <si>
     <t>800111</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
     <t>800123</t>
   </si>
   <si>
+    <t>800127</t>
+  </si>
+  <si>
     <t>800129</t>
   </si>
   <si>
@@ -108,6 +117,9 @@
     <t>800137</t>
   </si>
   <si>
+    <t>800138</t>
+  </si>
+  <si>
     <t>800141</t>
   </si>
   <si>
@@ -144,6 +156,9 @@
     <t>800158</t>
   </si>
   <si>
+    <t>800163</t>
+  </si>
+  <si>
     <t>800165</t>
   </si>
   <si>
@@ -177,6 +192,9 @@
     <t>800182</t>
   </si>
   <si>
+    <t>800183</t>
+  </si>
+  <si>
     <t>800184</t>
   </si>
   <si>
@@ -195,6 +213,9 @@
     <t>800193</t>
   </si>
   <si>
+    <t>800194</t>
+  </si>
+  <si>
     <t>800195</t>
   </si>
   <si>
@@ -213,109 +234,115 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>heroin</t>
   </si>
   <si>
     <t>inositol</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>meclonazepam</t>
+  </si>
+  <si>
+    <t>non-specific organic acids</t>
   </si>
   <si>
     <t>clonazolam</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
-    <t>sucrose</t>
-  </si>
-  <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>N-ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>meconin</t>
+  </si>
+  <si>
+    <t>noscapine</t>
+  </si>
+  <si>
     <t>hydrocotarnine</t>
   </si>
   <si>
-    <t>noscapine</t>
-  </si>
-  <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
     <t>tropacocaine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
+  </si>
+  <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
+    <t>ortho-chlorofentanyl</t>
+  </si>
+  <si>
+    <t>despropionyl ortho-chlorofentanyl</t>
   </si>
   <si>
     <t>noramidopyrine</t>
@@ -372,45 +399,45 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>8.53</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>8.92</t>
   </si>
   <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>8.37</t>
+  </si>
+  <si>
     <t>5.81</t>
   </si>
   <si>
-    <t>9.23</t>
-  </si>
-  <si>
-    <t>8.37</t>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>9.24</t>
   </si>
   <si>
     <t>12.33</t>
   </si>
   <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
     <t>7.3</t>
   </si>
   <si>
@@ -420,15 +447,15 @@
     <t>9.1</t>
   </si>
   <si>
+    <t>6.11</t>
+  </si>
+  <si>
     <t>8.49</t>
   </si>
   <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>6.11</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -444,12 +471,12 @@
     <t>5.47</t>
   </si>
   <si>
+    <t>8.61</t>
+  </si>
+  <si>
     <t>8.54</t>
   </si>
   <si>
-    <t>8.61</t>
-  </si>
-  <si>
     <t>8.95</t>
   </si>
   <si>
@@ -459,6 +486,9 @@
     <t>11.6</t>
   </si>
   <si>
+    <t>13.46</t>
+  </si>
+  <si>
     <t>3.61</t>
   </si>
   <si>
@@ -471,6 +501,9 @@
     <t>6.12</t>
   </si>
   <si>
+    <t>6.88</t>
+  </si>
+  <si>
     <t>3.64</t>
   </si>
   <si>
@@ -489,36 +522,51 @@
     <t>8.14</t>
   </si>
   <si>
+    <t>9.57</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
     <t>6.15</t>
   </si>
   <si>
-    <t>9.11</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>5.05</t>
   </si>
   <si>
     <t>10.23</t>
   </si>
   <si>
-    <t>9.09</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
+    <t>8.18</t>
+  </si>
+  <si>
     <t>5.22</t>
   </si>
   <si>
+    <t>9.28</t>
+  </si>
+  <si>
     <t>9.8</t>
   </si>
   <si>
-    <t>9.28</t>
-  </si>
-  <si>
     <t>9.36</t>
   </si>
   <si>
@@ -552,6 +600,9 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>10.3</t>
+  </si>
+  <si>
     <t>7.37</t>
   </si>
   <si>
@@ -561,21 +612,18 @@
     <t>9.14</t>
   </si>
   <si>
-    <t>10.3</t>
-  </si>
-  <si>
     <t>11.73</t>
   </si>
   <si>
     <t>6.36</t>
   </si>
   <si>
+    <t>8.12</t>
+  </si>
+  <si>
     <t>12.62</t>
   </si>
   <si>
-    <t>8.12</t>
-  </si>
-  <si>
     <t>10.52</t>
   </si>
   <si>
@@ -589,6 +637,9 @@
   </si>
   <si>
     <t>10.51</t>
+  </si>
+  <si>
+    <t>8.25</t>
   </si>
   <si>
     <t>5.53</t>
@@ -642,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -653,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -676,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -691,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
@@ -699,13 +750,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -714,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -722,13 +773,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -737,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -745,13 +796,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -760,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -768,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -783,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -791,13 +842,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -806,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -814,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -829,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -837,13 +888,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -852,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -860,13 +911,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -875,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
@@ -883,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -898,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -906,13 +957,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -921,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -929,13 +980,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -944,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -952,13 +1003,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -967,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -978,10 +1029,10 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -990,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
@@ -998,13 +1049,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1013,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -1021,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1036,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
@@ -1044,13 +1095,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1059,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -1067,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1082,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1093,10 +1144,10 @@
         <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1105,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21">
@@ -1113,13 +1164,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1128,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1136,13 +1187,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1151,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23">
@@ -1159,13 +1210,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1174,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -1182,13 +1233,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1197,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -1205,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1220,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26">
@@ -1228,13 +1279,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1243,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27">
@@ -1251,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1266,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -1274,13 +1325,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1289,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -1297,13 +1348,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1312,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
@@ -1320,13 +1371,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1335,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -1343,13 +1394,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1358,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -1366,13 +1417,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1381,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -1389,13 +1440,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1404,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -1412,13 +1463,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1427,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -1435,13 +1486,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1450,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1458,13 +1509,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1473,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
@@ -1481,13 +1532,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1496,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1504,13 +1555,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1519,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -1527,13 +1578,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1542,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1601,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1565,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -1573,13 +1624,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1588,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42">
@@ -1596,13 +1647,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1611,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -1619,13 +1670,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1634,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44">
@@ -1642,13 +1693,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1657,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45">
@@ -1665,45 +1716,45 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E45" s="1">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E46" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -1711,22 +1762,22 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E47" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48">
@@ -1734,22 +1785,22 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E48" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -1757,36 +1808,36 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E49" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -1795,21 +1846,21 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -1818,21 +1869,21 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -1841,21 +1892,21 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -1864,21 +1915,21 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -1887,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55">
@@ -1895,45 +1946,45 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E55" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E56" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -1941,91 +1992,91 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E57" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E58" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E59" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E60" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
@@ -2033,13 +2084,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E61" s="1">
         <v>44930</v>
@@ -2048,67 +2099,67 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E62" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E63" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E64" s="1">
         <v>44930</v>
@@ -2117,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
@@ -2125,22 +2176,22 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E65" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66">
@@ -2148,68 +2199,68 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E66" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E67" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E68" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
@@ -2217,22 +2268,22 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E69" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
@@ -2240,68 +2291,68 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E70" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E71" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E72" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73">
@@ -2309,269 +2360,269 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E73" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E74" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E75" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E76" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E77" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E78" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E79" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E80" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E81" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E82" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E83" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E84" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
@@ -2582,108 +2633,108 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E85" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E86" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E87" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E88" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E89" s="1">
         <v>44935</v>
@@ -2692,435 +2743,435 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E90" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E91" s="1">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E92" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E93" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E94" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E95" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D96" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E96" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E97" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E98" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E99" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
         <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E100" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E101" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E102" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D103" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E103" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F103" s="2">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E104" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E105" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E106" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E107" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E108" s="1">
         <v>44935</v>
@@ -3129,159 +3180,159 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E109" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E110" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E111" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E112" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E113" s="1">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E114" s="1">
-        <v>44932</v>
+        <v>44931</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E115" s="1">
         <v>44931</v>
@@ -3290,182 +3341,182 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E116" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E117" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E118" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E119" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D120" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E120" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B121" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D121" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E121" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C122" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E122" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E123" s="1">
         <v>44935</v>
@@ -3474,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124">
@@ -3482,45 +3533,45 @@
         <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D124" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E124" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D125" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E125" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
@@ -3528,22 +3579,22 @@
         <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D126" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E126" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127">
@@ -3551,22 +3602,22 @@
         <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D127" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E127" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
@@ -3574,22 +3625,22 @@
         <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C128" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D128" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E128" s="1">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129">
@@ -3597,22 +3648,22 @@
         <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D129" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E129" s="1">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
@@ -3620,22 +3671,22 @@
         <v>53</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C130" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D130" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E130" s="1">
-        <v>44932</v>
+        <v>44931</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131">
@@ -3643,22 +3694,22 @@
         <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C131" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D131" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E131" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132">
@@ -3666,22 +3717,22 @@
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C132" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D132" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E132" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133">
@@ -3689,22 +3740,22 @@
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C133" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D133" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E133" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134">
@@ -3712,59 +3763,59 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D134" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E134" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C135" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D135" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E135" s="1">
-        <v>44939</v>
+        <v>44930</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D136" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E136" s="1">
         <v>44930</v>
@@ -3773,214 +3824,214 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D137" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E137" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C138" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D138" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E138" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D139" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E139" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D140" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E140" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C141" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D141" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E141" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C142" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D142" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E142" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C143" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D143" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E143" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D144" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E144" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C145" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D145" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E145" s="1">
-        <v>44936</v>
+        <v>44932</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146">
@@ -3988,22 +4039,22 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D146" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E146" s="1">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147">
@@ -4011,36 +4062,36 @@
         <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C147" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D147" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E147" s="1">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C148" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D148" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E148" s="1">
         <v>44936</v>
@@ -4049,21 +4100,21 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C149" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D149" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E149" s="1">
         <v>44936</v>
@@ -4072,76 +4123,513 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C150" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D150" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E150" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B151" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D151" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E151" s="1">
-        <v>44935</v>
+        <v>44939</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>62</v>
+      </c>
+      <c r="B152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" t="s">
+        <v>120</v>
+      </c>
+      <c r="D152" t="s">
+        <v>123</v>
+      </c>
+      <c r="E152" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
         <v>63</v>
       </c>
-      <c r="B152" t="s">
-        <v>75</v>
-      </c>
-      <c r="C152" t="s">
-        <v>111</v>
-      </c>
-      <c r="D152" t="s">
-        <v>114</v>
-      </c>
-      <c r="E152" s="1">
+      <c r="B153" t="s">
+        <v>78</v>
+      </c>
+      <c r="C153" t="s">
+        <v>120</v>
+      </c>
+      <c r="D153" t="s">
+        <v>123</v>
+      </c>
+      <c r="E153" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>63</v>
+      </c>
+      <c r="B154" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" t="s">
+        <v>121</v>
+      </c>
+      <c r="D154" t="s">
+        <v>123</v>
+      </c>
+      <c r="E154" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155" t="s">
+        <v>80</v>
+      </c>
+      <c r="C155" t="s">
+        <v>120</v>
+      </c>
+      <c r="D155" t="s">
+        <v>123</v>
+      </c>
+      <c r="E155" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F155" s="2">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156" t="s">
+        <v>87</v>
+      </c>
+      <c r="C156" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156" t="s">
+        <v>123</v>
+      </c>
+      <c r="E156" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>64</v>
+      </c>
+      <c r="B157" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" t="s">
+        <v>120</v>
+      </c>
+      <c r="D157" t="s">
+        <v>123</v>
+      </c>
+      <c r="E157" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158" t="s">
+        <v>118</v>
+      </c>
+      <c r="C158" t="s">
+        <v>120</v>
+      </c>
+      <c r="D158" t="s">
+        <v>123</v>
+      </c>
+      <c r="E158" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F158" s="2">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>64</v>
+      </c>
+      <c r="B159" t="s">
+        <v>105</v>
+      </c>
+      <c r="C159" t="s">
+        <v>121</v>
+      </c>
+      <c r="D159" t="s">
+        <v>123</v>
+      </c>
+      <c r="E159" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F159" s="2">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>65</v>
+      </c>
+      <c r="B160" t="s">
+        <v>79</v>
+      </c>
+      <c r="C160" t="s">
+        <v>121</v>
+      </c>
+      <c r="D160" t="s">
+        <v>123</v>
+      </c>
+      <c r="E160" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F160" s="2">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>65</v>
+      </c>
+      <c r="B161" t="s">
+        <v>80</v>
+      </c>
+      <c r="C161" t="s">
+        <v>120</v>
+      </c>
+      <c r="D161" t="s">
+        <v>123</v>
+      </c>
+      <c r="E161" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F161" s="2">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>65</v>
+      </c>
+      <c r="B162" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" t="s">
+        <v>120</v>
+      </c>
+      <c r="D162" t="s">
+        <v>123</v>
+      </c>
+      <c r="E162" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F162" s="2">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163" t="s">
+        <v>123</v>
+      </c>
+      <c r="E163" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F163" s="2">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>66</v>
+      </c>
+      <c r="B164" t="s">
+        <v>104</v>
+      </c>
+      <c r="C164" t="s">
+        <v>121</v>
+      </c>
+      <c r="D164" t="s">
+        <v>123</v>
+      </c>
+      <c r="E164" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F164" s="2">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" t="s">
+        <v>99</v>
+      </c>
+      <c r="C165" t="s">
+        <v>121</v>
+      </c>
+      <c r="D165" t="s">
+        <v>123</v>
+      </c>
+      <c r="E165" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F165" s="2">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>67</v>
+      </c>
+      <c r="B166" t="s">
+        <v>91</v>
+      </c>
+      <c r="C166" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166" t="s">
+        <v>123</v>
+      </c>
+      <c r="E166" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F166" s="2">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>68</v>
+      </c>
+      <c r="B167" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" t="s">
+        <v>120</v>
+      </c>
+      <c r="D167" t="s">
+        <v>123</v>
+      </c>
+      <c r="E167" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F167" s="2">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>68</v>
+      </c>
+      <c r="B168" t="s">
+        <v>72</v>
+      </c>
+      <c r="C168" t="s">
+        <v>121</v>
+      </c>
+      <c r="D168" t="s">
+        <v>123</v>
+      </c>
+      <c r="E168" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F168" s="2">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>69</v>
+      </c>
+      <c r="B169" t="s">
+        <v>72</v>
+      </c>
+      <c r="C169" t="s">
+        <v>120</v>
+      </c>
+      <c r="D169" t="s">
+        <v>123</v>
+      </c>
+      <c r="E169" s="1">
         <v>44935</v>
       </c>
-      <c r="F152" s="2">
-        <v>1</v>
-      </c>
-      <c r="G152" t="s">
-        <v>149</v>
+      <c r="F169" s="2">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>70</v>
+      </c>
+      <c r="B170" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" t="s">
+        <v>121</v>
+      </c>
+      <c r="D170" t="s">
+        <v>123</v>
+      </c>
+      <c r="E170" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F170" s="2">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>70</v>
+      </c>
+      <c r="B171" t="s">
+        <v>82</v>
+      </c>
+      <c r="C171" t="s">
+        <v>120</v>
+      </c>
+      <c r="D171" t="s">
+        <v>123</v>
+      </c>
+      <c r="E171" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F171" s="2">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="857" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="987" uniqueCount="232">
   <si>
     <t>sampleid</t>
   </si>
@@ -81,9 +81,18 @@
     <t>800112</t>
   </si>
   <si>
+    <t>800113</t>
+  </si>
+  <si>
     <t>800114</t>
   </si>
   <si>
+    <t>800115</t>
+  </si>
+  <si>
+    <t>800118</t>
+  </si>
+  <si>
     <t>800119</t>
   </si>
   <si>
@@ -93,9 +102,15 @@
     <t>800123</t>
   </si>
   <si>
+    <t>800124</t>
+  </si>
+  <si>
     <t>800127</t>
   </si>
   <si>
+    <t>800128</t>
+  </si>
+  <si>
     <t>800129</t>
   </si>
   <si>
@@ -120,6 +135,12 @@
     <t>800138</t>
   </si>
   <si>
+    <t>800139</t>
+  </si>
+  <si>
+    <t>800140</t>
+  </si>
+  <si>
     <t>800141</t>
   </si>
   <si>
@@ -156,9 +177,15 @@
     <t>800158</t>
   </si>
   <si>
+    <t>800160</t>
+  </si>
+  <si>
     <t>800163</t>
   </si>
   <si>
+    <t>800164</t>
+  </si>
+  <si>
     <t>800165</t>
   </si>
   <si>
@@ -189,6 +216,9 @@
     <t>800179</t>
   </si>
   <si>
+    <t>800180</t>
+  </si>
+  <si>
     <t>800182</t>
   </si>
   <si>
@@ -234,18 +264,18 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
+    <t>inositol</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>inositol</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
@@ -258,33 +288,33 @@
     <t>acetaminophen</t>
   </si>
   <si>
+    <t>non-specific organic acids</t>
+  </si>
+  <si>
     <t>sucrose</t>
   </si>
   <si>
+    <t>meclonazepam</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>N-ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
@@ -309,25 +339,28 @@
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>norcocaine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
+    <t>N-methyltryptamine</t>
   </si>
   <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
@@ -336,7 +369,7 @@
     <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
   </si>
   <si>
-    <t>N-methyltryptamine</t>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>ortho-chlorofentanyl</t>
@@ -357,6 +390,9 @@
     <t>MDA</t>
   </si>
   <si>
+    <t>2C-B</t>
+  </si>
+  <si>
     <t>clonazepam</t>
   </si>
   <si>
@@ -366,9 +402,6 @@
     <t>flubromazolam</t>
   </si>
   <si>
-    <t>2C-B</t>
-  </si>
-  <si>
     <t>2C-H</t>
   </si>
   <si>
@@ -399,12 +432,12 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.53</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>8.53</t>
-  </si>
-  <si>
     <t>8.92</t>
   </si>
   <si>
@@ -420,27 +453,27 @@
     <t>5.81</t>
   </si>
   <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
     <t>9.94</t>
   </si>
   <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
     <t>6.48</t>
   </si>
   <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
     <t>10.25</t>
   </si>
   <si>
@@ -450,36 +483,36 @@
     <t>6.11</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>8.49</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
+    <t>9.21</t>
+  </si>
+  <si>
     <t>7.31</t>
   </si>
   <si>
-    <t>9.21</t>
-  </si>
-  <si>
     <t>5.12</t>
   </si>
   <si>
     <t>5.47</t>
   </si>
   <si>
+    <t>8.95</t>
+  </si>
+  <si>
     <t>8.61</t>
   </si>
   <si>
     <t>8.54</t>
   </si>
   <si>
-    <t>8.95</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -495,12 +528,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>6.12</t>
+  </si>
+  <si>
     <t>8.15</t>
   </si>
   <si>
-    <t>6.12</t>
-  </si>
-  <si>
     <t>6.88</t>
   </si>
   <si>
@@ -510,6 +543,15 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>9.04</t>
+  </si>
+  <si>
+    <t>10.17</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
     <t>9.32</t>
   </si>
   <si>
@@ -522,54 +564,63 @@
     <t>8.14</t>
   </si>
   <si>
+    <t>10.24</t>
+  </si>
+  <si>
     <t>9.57</t>
   </si>
   <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
     <t>9.85</t>
   </si>
   <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>10.03</t>
+    <t>6.15</t>
   </si>
   <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>6.15</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
     <t>9.09</t>
   </si>
   <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>10.23</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
     <t>8.18</t>
   </si>
   <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>10.41</t>
+  </si>
+  <si>
     <t>5.22</t>
   </si>
   <si>
+    <t>9.36</t>
+  </si>
+  <si>
     <t>9.28</t>
   </si>
   <si>
     <t>9.8</t>
   </si>
   <si>
-    <t>9.36</t>
-  </si>
-  <si>
     <t>10.22</t>
   </si>
   <si>
@@ -579,15 +630,27 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>10.47</t>
+  </si>
+  <si>
     <t>6.04</t>
   </si>
   <si>
-    <t>10.47</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
+    <t>6.58</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>9.31</t>
+  </si>
+  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -600,22 +663,25 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>9.14</t>
+  </si>
+  <si>
     <t>10.3</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
     <t>7.37</t>
   </si>
   <si>
-    <t>6.27</t>
-  </si>
-  <si>
-    <t>9.14</t>
+    <t>6.36</t>
   </si>
   <si>
     <t>11.73</t>
   </si>
   <si>
-    <t>6.36</t>
+    <t>6.89</t>
   </si>
   <si>
     <t>8.12</t>
@@ -624,13 +690,10 @@
     <t>12.62</t>
   </si>
   <si>
+    <t>6.05</t>
+  </si>
+  <si>
     <t>10.52</t>
-  </si>
-  <si>
-    <t>6.05</t>
-  </si>
-  <si>
-    <t>6.58</t>
   </si>
   <si>
     <t>5.49</t>
@@ -693,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -704,22 +767,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
@@ -727,13 +790,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -742,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +813,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -765,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -773,13 +836,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -788,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -796,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -811,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -819,13 +882,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -834,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -842,13 +905,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -857,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
@@ -865,13 +928,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -880,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
@@ -888,13 +951,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -903,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -911,13 +974,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -926,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -934,13 +997,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -949,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -957,13 +1020,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -972,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -980,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -995,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -1003,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -1018,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -1026,13 +1089,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -1041,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +1112,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1064,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -1072,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1087,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -1095,13 +1158,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1110,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -1118,13 +1181,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1133,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
@@ -1141,13 +1204,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1156,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1227,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1179,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -1187,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1210,13 +1273,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1225,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
@@ -1233,13 +1296,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1248,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
@@ -1256,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1271,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
@@ -1279,13 +1342,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1294,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -1305,10 +1368,10 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1317,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28">
@@ -1325,13 +1388,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1340,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -1348,13 +1411,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1363,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
@@ -1371,13 +1434,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1386,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -1394,13 +1457,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1409,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -1417,13 +1480,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1432,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
@@ -1440,13 +1503,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1455,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34">
@@ -1463,13 +1526,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1478,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35">
@@ -1486,13 +1549,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1501,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36">
@@ -1509,13 +1572,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1524,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
@@ -1532,13 +1595,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1547,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
@@ -1555,13 +1618,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1570,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39">
@@ -1578,13 +1641,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1593,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
@@ -1601,13 +1664,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1616,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41">
@@ -1624,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1639,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42">
@@ -1647,13 +1710,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1662,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43">
@@ -1670,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1685,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44">
@@ -1693,13 +1756,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1708,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45">
@@ -1716,13 +1779,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E45" s="1">
         <v>44951</v>
@@ -1731,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
@@ -1739,13 +1802,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E46" s="1">
         <v>44951</v>
@@ -1754,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47">
@@ -1762,13 +1825,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1">
         <v>44936</v>
@@ -1777,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48">
@@ -1785,13 +1848,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E48" s="1">
         <v>44935</v>
@@ -1800,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
@@ -1808,13 +1871,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E49" s="1">
         <v>44935</v>
@@ -1823,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50">
@@ -1831,13 +1894,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -1846,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51">
@@ -1854,13 +1917,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -1869,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52">
@@ -1877,13 +1940,13 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -1892,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
@@ -1900,13 +1963,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -1915,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54">
@@ -1923,13 +1986,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -1938,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55">
@@ -1946,13 +2009,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E55" s="1">
         <v>44931</v>
@@ -1961,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56">
@@ -1969,13 +2032,13 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E56" s="1">
         <v>44931</v>
@@ -1984,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57">
@@ -1992,13 +2055,13 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E57" s="1">
         <v>44951</v>
@@ -2007,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58">
@@ -2015,13 +2078,13 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E58" s="1">
         <v>44935</v>
@@ -2030,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59">
@@ -2038,13 +2101,13 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E59" s="1">
         <v>44930</v>
@@ -2053,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -2061,13 +2124,13 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E60" s="1">
         <v>44930</v>
@@ -2076,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61">
@@ -2084,13 +2147,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E61" s="1">
         <v>44930</v>
@@ -2099,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
@@ -2107,22 +2170,22 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E62" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -2130,128 +2193,128 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E63" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E64" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E65" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E66" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E67" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E68" s="1">
         <v>44935</v>
@@ -2260,30 +2323,30 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E69" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70">
@@ -2291,45 +2354,45 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E70" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E71" s="1">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -2337,22 +2400,22 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E72" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73">
@@ -2360,22 +2423,22 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E73" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -2383,252 +2446,252 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D74" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E74" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E75" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E76" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E77" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E78" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E79" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E80" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E81" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E82" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E83" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E84" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -2636,275 +2699,275 @@
         <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E85" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E86" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E87" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E88" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E89" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E90" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E91" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E92" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E93" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E94" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E95" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E96" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
@@ -2912,22 +2975,22 @@
         <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E97" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98">
@@ -2935,45 +2998,45 @@
         <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E98" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E99" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
@@ -2981,22 +3044,22 @@
         <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E100" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101">
@@ -3004,22 +3067,22 @@
         <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E101" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102">
@@ -3027,22 +3090,22 @@
         <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E102" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103">
@@ -3050,22 +3113,22 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D103" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E103" s="1">
-        <v>44935</v>
+        <v>44932</v>
       </c>
       <c r="F103" s="2">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104">
@@ -3073,243 +3136,243 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D104" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E104" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D105" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E105" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E106" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E107" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E108" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E109" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D110" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E110" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D111" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E111" s="1">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D112" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E112" s="1">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E113" s="1">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
         <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D114" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E114" s="1">
         <v>44931</v>
@@ -3318,21 +3381,21 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D115" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E115" s="1">
         <v>44931</v>
@@ -3341,734 +3404,734 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E116" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D117" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E117" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E118" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E119" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E120" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C121" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E121" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C122" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E122" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C123" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D123" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E123" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C124" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D124" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E124" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C125" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D125" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E125" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B126" t="s">
         <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D126" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E126" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D127" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E127" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C128" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D128" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E128" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E129" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E130" s="1">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C131" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E131" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C132" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E132" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C133" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D133" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E133" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D134" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E134" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B135" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C135" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D135" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E135" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C136" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D136" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E136" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C137" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D137" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E137" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C138" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D138" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E138" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D139" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E139" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C140" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D140" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E140" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B141" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C141" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D141" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E141" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C142" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D142" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E142" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B143" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C143" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D143" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E143" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B144" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C144" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D144" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E144" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C145" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D145" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E145" s="1">
-        <v>44932</v>
+        <v>44952</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C146" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E146" s="1">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B147" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D147" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E147" s="1">
         <v>44936</v>
@@ -4077,113 +4140,113 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B148" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C148" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D148" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E148" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F148" s="2">
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C149" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D149" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E149" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B150" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D150" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E150" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C151" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D151" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E151" s="1">
-        <v>44939</v>
+        <v>44930</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C152" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D152" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E152" s="1">
         <v>44930</v>
@@ -4192,76 +4255,76 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C153" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D153" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E153" s="1">
-        <v>44936</v>
+        <v>44932</v>
       </c>
       <c r="F153" s="2">
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B154" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D154" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E154" s="1">
-        <v>44936</v>
+        <v>44932</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C155" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D155" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E155" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F155" s="2">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156">
@@ -4269,36 +4332,36 @@
         <v>63</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C156" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D156" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E156" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F156" s="2">
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D157" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E157" s="1">
         <v>44930</v>
@@ -4307,21 +4370,21 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C158" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D158" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E158" s="1">
         <v>44930</v>
@@ -4330,21 +4393,21 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B159" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C159" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D159" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E159" s="1">
         <v>44930</v>
@@ -4353,228 +4416,228 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B160" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C160" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D160" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E160" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B161" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C161" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D161" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E161" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F161" s="2">
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D162" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E162" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F162" s="2">
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C163" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D163" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E163" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F163" s="2">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B164" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C164" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D164" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E164" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F164" s="2">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C165" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D165" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E165" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B166" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C166" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D166" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E166" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="F166" s="2">
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C167" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D167" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E167" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F167" s="2">
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B168" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C168" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D168" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E168" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F168" s="2">
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B169" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C169" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D169" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E169" s="1">
         <v>44935</v>
@@ -4583,53 +4646,651 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B170" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C170" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D170" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E170" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F170" s="2">
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" t="s">
+        <v>131</v>
+      </c>
+      <c r="D171" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F171" s="2">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>69</v>
+      </c>
+      <c r="B172" t="s">
+        <v>95</v>
+      </c>
+      <c r="C172" t="s">
+        <v>131</v>
+      </c>
+      <c r="D172" t="s">
+        <v>134</v>
+      </c>
+      <c r="E172" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F172" s="2">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
         <v>70</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B173" t="s">
+        <v>128</v>
+      </c>
+      <c r="C173" t="s">
+        <v>132</v>
+      </c>
+      <c r="D173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E173" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F173" s="2">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>70</v>
+      </c>
+      <c r="B174" t="s">
+        <v>111</v>
+      </c>
+      <c r="C174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D174" t="s">
+        <v>134</v>
+      </c>
+      <c r="E174" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F174" s="2">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" t="s">
+        <v>108</v>
+      </c>
+      <c r="C175" t="s">
+        <v>132</v>
+      </c>
+      <c r="D175" t="s">
+        <v>134</v>
+      </c>
+      <c r="E175" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>70</v>
+      </c>
+      <c r="B176" t="s">
+        <v>106</v>
+      </c>
+      <c r="C176" t="s">
+        <v>131</v>
+      </c>
+      <c r="D176" t="s">
+        <v>134</v>
+      </c>
+      <c r="E176" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F176" s="2">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B177" t="s">
         <v>82</v>
       </c>
-      <c r="C171" t="s">
-        <v>120</v>
-      </c>
-      <c r="D171" t="s">
-        <v>123</v>
-      </c>
-      <c r="E171" s="1">
+      <c r="C177" t="s">
+        <v>132</v>
+      </c>
+      <c r="D177" t="s">
+        <v>134</v>
+      </c>
+      <c r="E177" s="1">
+        <v>44939</v>
+      </c>
+      <c r="F177" s="2">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>72</v>
+      </c>
+      <c r="B178" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178" t="s">
+        <v>131</v>
+      </c>
+      <c r="D178" t="s">
+        <v>134</v>
+      </c>
+      <c r="E178" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F178" s="2">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>73</v>
+      </c>
+      <c r="B179" t="s">
+        <v>97</v>
+      </c>
+      <c r="C179" t="s">
+        <v>132</v>
+      </c>
+      <c r="D179" t="s">
+        <v>134</v>
+      </c>
+      <c r="E179" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F179" s="2">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>73</v>
+      </c>
+      <c r="B180" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" t="s">
+        <v>132</v>
+      </c>
+      <c r="D180" t="s">
+        <v>134</v>
+      </c>
+      <c r="E180" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>73</v>
+      </c>
+      <c r="B181" t="s">
+        <v>90</v>
+      </c>
+      <c r="C181" t="s">
+        <v>131</v>
+      </c>
+      <c r="D181" t="s">
+        <v>134</v>
+      </c>
+      <c r="E181" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F181" s="2">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>73</v>
+      </c>
+      <c r="B182" t="s">
+        <v>88</v>
+      </c>
+      <c r="C182" t="s">
+        <v>131</v>
+      </c>
+      <c r="D182" t="s">
+        <v>134</v>
+      </c>
+      <c r="E182" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F182" s="2">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>74</v>
+      </c>
+      <c r="B183" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" t="s">
+        <v>131</v>
+      </c>
+      <c r="D183" t="s">
+        <v>134</v>
+      </c>
+      <c r="E183" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F183" s="2">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" t="s">
+        <v>131</v>
+      </c>
+      <c r="D184" t="s">
+        <v>134</v>
+      </c>
+      <c r="E184" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F184" s="2">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>74</v>
+      </c>
+      <c r="B185" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185" t="s">
+        <v>132</v>
+      </c>
+      <c r="D185" t="s">
+        <v>134</v>
+      </c>
+      <c r="E185" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F185" s="2">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>75</v>
+      </c>
+      <c r="B186" t="s">
+        <v>89</v>
+      </c>
+      <c r="C186" t="s">
+        <v>132</v>
+      </c>
+      <c r="D186" t="s">
+        <v>134</v>
+      </c>
+      <c r="E186" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F186" s="2">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" t="s">
+        <v>88</v>
+      </c>
+      <c r="C187" t="s">
+        <v>131</v>
+      </c>
+      <c r="D187" t="s">
+        <v>134</v>
+      </c>
+      <c r="E187" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F187" s="2">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>75</v>
+      </c>
+      <c r="B188" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" t="s">
+        <v>131</v>
+      </c>
+      <c r="D188" t="s">
+        <v>134</v>
+      </c>
+      <c r="E188" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F188" s="2">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>76</v>
+      </c>
+      <c r="B189" t="s">
+        <v>109</v>
+      </c>
+      <c r="C189" t="s">
+        <v>132</v>
+      </c>
+      <c r="D189" t="s">
+        <v>134</v>
+      </c>
+      <c r="E189" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F189" s="2">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>76</v>
+      </c>
+      <c r="B190" t="s">
+        <v>108</v>
+      </c>
+      <c r="C190" t="s">
+        <v>132</v>
+      </c>
+      <c r="D190" t="s">
+        <v>134</v>
+      </c>
+      <c r="E190" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F190" s="2">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>76</v>
+      </c>
+      <c r="B191" t="s">
+        <v>111</v>
+      </c>
+      <c r="C191" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F191" s="2">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>77</v>
+      </c>
+      <c r="B192" t="s">
+        <v>101</v>
+      </c>
+      <c r="C192" t="s">
+        <v>131</v>
+      </c>
+      <c r="D192" t="s">
+        <v>134</v>
+      </c>
+      <c r="E192" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F192" s="2">
+        <v>1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>78</v>
+      </c>
+      <c r="B193" t="s">
+        <v>101</v>
+      </c>
+      <c r="C193" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" t="s">
+        <v>134</v>
+      </c>
+      <c r="E193" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F193" s="2">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>78</v>
+      </c>
+      <c r="B194" t="s">
+        <v>82</v>
+      </c>
+      <c r="C194" t="s">
+        <v>132</v>
+      </c>
+      <c r="D194" t="s">
+        <v>134</v>
+      </c>
+      <c r="E194" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F194" s="2">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>79</v>
+      </c>
+      <c r="B195" t="s">
+        <v>82</v>
+      </c>
+      <c r="C195" t="s">
+        <v>131</v>
+      </c>
+      <c r="D195" t="s">
+        <v>134</v>
+      </c>
+      <c r="E195" s="1">
         <v>44935</v>
       </c>
-      <c r="F171" s="2">
-        <v>1</v>
-      </c>
-      <c r="G171" t="s">
-        <v>159</v>
+      <c r="F195" s="2">
+        <v>1</v>
+      </c>
+      <c r="G195" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>80</v>
+      </c>
+      <c r="B196" t="s">
+        <v>95</v>
+      </c>
+      <c r="C196" t="s">
+        <v>131</v>
+      </c>
+      <c r="D196" t="s">
+        <v>134</v>
+      </c>
+      <c r="E196" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F196" s="2">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>80</v>
+      </c>
+      <c r="B197" t="s">
+        <v>107</v>
+      </c>
+      <c r="C197" t="s">
+        <v>132</v>
+      </c>
+      <c r="D197" t="s">
+        <v>134</v>
+      </c>
+      <c r="E197" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F197" s="2">
+        <v>1</v>
+      </c>
+      <c r="G197" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -264,72 +264,72 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>inositol</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
     <t>non-specific organic acids</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
+  </si>
+  <si>
     <t>sucrose</t>
   </si>
   <si>
     <t>meclonazepam</t>
   </si>
   <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>N-ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>meconin</t>
   </si>
   <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
     <t>papaverine</t>
   </si>
   <si>
@@ -339,25 +339,28 @@
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
+    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
   </si>
   <si>
     <t>N-methyltryptamine</t>
@@ -366,18 +369,15 @@
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
+    <t>despropionyl ortho-chlorofentanyl</t>
+  </si>
+  <si>
     <t>ortho-chlorofentanyl</t>
   </si>
   <si>
-    <t>despropionyl ortho-chlorofentanyl</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -432,63 +432,63 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.92</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>8.53</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>8.92</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>8.37</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
     <t>9.23</t>
   </si>
   <si>
-    <t>8.37</t>
-  </si>
-  <si>
-    <t>5.81</t>
+    <t>9.24</t>
   </si>
   <si>
     <t>6.66</t>
   </si>
   <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
     <t>7.3</t>
   </si>
   <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>6.48</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>10.25</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>8.49</t>
   </si>
   <si>
     <t>6.11</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>8.49</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -507,12 +507,12 @@
     <t>8.95</t>
   </si>
   <si>
+    <t>8.54</t>
+  </si>
+  <si>
     <t>8.61</t>
   </si>
   <si>
-    <t>8.54</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -543,12 +543,12 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>10.17</t>
+  </si>
+  <si>
     <t>9.04</t>
   </si>
   <si>
-    <t>10.17</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
@@ -570,15 +570,15 @@
     <t>9.57</t>
   </si>
   <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
     <t>10.03</t>
   </si>
   <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>9.85</t>
-  </si>
-  <si>
     <t>6.15</t>
   </si>
   <si>
@@ -591,12 +591,12 @@
     <t>10.23</t>
   </si>
   <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>5.05</t>
   </si>
   <si>
-    <t>9.09</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -612,15 +612,15 @@
     <t>5.22</t>
   </si>
   <si>
+    <t>9.28</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
     <t>9.36</t>
   </si>
   <si>
-    <t>9.28</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
     <t>10.22</t>
   </si>
   <si>
@@ -642,15 +642,15 @@
     <t>6.58</t>
   </si>
   <si>
+    <t>9.31</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
     <t>3.18</t>
   </si>
   <si>
-    <t>10.56</t>
-  </si>
-  <si>
-    <t>9.31</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -663,15 +663,15 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
     <t>9.14</t>
   </si>
   <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>6.27</t>
-  </si>
-  <si>
     <t>7.37</t>
   </si>
   <si>
@@ -684,10 +684,10 @@
     <t>6.89</t>
   </si>
   <si>
+    <t>12.62</t>
+  </si>
+  <si>
     <t>8.12</t>
-  </si>
-  <si>
-    <t>12.62</t>
   </si>
   <si>
     <t>6.05</t>
@@ -997,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>131</v>
@@ -1089,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>131</v>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>131</v>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>131</v>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>131</v>
@@ -1250,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>131</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
@@ -1296,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
         <v>131</v>
@@ -1342,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>132</v>
@@ -1365,10 +1365,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
         <v>134</v>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -1388,10 +1388,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
         <v>134</v>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>132</v>
@@ -1434,10 +1434,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
         <v>134</v>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
@@ -1457,10 +1457,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
         <v>134</v>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
@@ -1480,10 +1480,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
         <v>134</v>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
@@ -1503,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
         <v>134</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
@@ -1549,10 +1549,10 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
         <v>134</v>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
@@ -1572,10 +1572,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>134</v>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
@@ -1644,7 +1644,7 @@
         <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>134</v>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
@@ -1664,10 +1664,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>134</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41">
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>131</v>
@@ -1779,7 +1779,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
         <v>132</v>
@@ -1848,10 +1848,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
         <v>134</v>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49">
@@ -1871,10 +1871,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
         <v>134</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50">
@@ -1943,7 +1943,7 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
         <v>134</v>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54">
@@ -2035,7 +2035,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
         <v>134</v>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57">
@@ -2055,7 +2055,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
         <v>131</v>
@@ -2127,7 +2127,7 @@
         <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
         <v>134</v>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
@@ -2150,7 +2150,7 @@
         <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
         <v>134</v>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
         <v>131</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63">
@@ -2193,10 +2193,10 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
         <v>134</v>
@@ -2216,7 +2216,7 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
         <v>132</v>
@@ -2239,10 +2239,10 @@
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
         <v>134</v>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -2285,7 +2285,7 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
         <v>131</v>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -2377,7 +2377,7 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
         <v>131</v>
@@ -2392,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72">
@@ -2400,7 +2400,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
         <v>131</v>
@@ -2423,7 +2423,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
         <v>132</v>
@@ -2446,7 +2446,7 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -2492,7 +2492,7 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
         <v>131</v>
@@ -2515,7 +2515,7 @@
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
         <v>132</v>
@@ -2538,7 +2538,7 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
         <v>132</v>
@@ -2561,7 +2561,7 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
         <v>131</v>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80">
@@ -2584,7 +2584,7 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
         <v>131</v>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -2607,7 +2607,7 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
         <v>131</v>
@@ -2630,7 +2630,7 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
         <v>131</v>
@@ -2653,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
         <v>132</v>
@@ -2676,10 +2676,10 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
         <v>134</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85">
@@ -2699,7 +2699,7 @@
         <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
         <v>132</v>
@@ -2722,7 +2722,7 @@
         <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
         <v>131</v>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87">
@@ -2745,10 +2745,10 @@
         <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
@@ -2768,10 +2768,10 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88" t="s">
         <v>134</v>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89">
@@ -2791,10 +2791,10 @@
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D89" t="s">
         <v>134</v>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
@@ -2860,7 +2860,7 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
         <v>131</v>
@@ -2883,7 +2883,7 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
         <v>131</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95">
@@ -2952,7 +2952,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
         <v>131</v>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
@@ -2998,7 +2998,7 @@
         <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s">
         <v>131</v>
@@ -3044,7 +3044,7 @@
         <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
         <v>131</v>
@@ -3067,7 +3067,7 @@
         <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
         <v>131</v>
@@ -3090,7 +3090,7 @@
         <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>131</v>
@@ -3113,7 +3113,7 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
         <v>131</v>
@@ -3136,7 +3136,7 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
         <v>132</v>
@@ -3159,7 +3159,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
         <v>132</v>
@@ -3182,7 +3182,7 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
         <v>131</v>
@@ -3205,7 +3205,7 @@
         <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
         <v>132</v>
@@ -3251,10 +3251,10 @@
         <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
         <v>134</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110">
@@ -3274,10 +3274,10 @@
         <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D110" t="s">
         <v>134</v>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111">
@@ -3297,7 +3297,7 @@
         <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C111" t="s">
         <v>132</v>
@@ -3323,7 +3323,7 @@
         <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
         <v>134</v>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113">
@@ -3343,10 +3343,10 @@
         <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D113" t="s">
         <v>134</v>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114">
@@ -3366,10 +3366,10 @@
         <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D114" t="s">
         <v>134</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115">
@@ -3389,10 +3389,10 @@
         <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C115" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D115" t="s">
         <v>134</v>
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116">
@@ -3458,7 +3458,7 @@
         <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
@@ -3481,10 +3481,10 @@
         <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120">
@@ -3504,10 +3504,10 @@
         <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D120" t="s">
         <v>134</v>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121">
@@ -3527,7 +3527,7 @@
         <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
         <v>131</v>
@@ -3550,7 +3550,7 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C122" t="s">
         <v>131</v>
@@ -3596,10 +3596,10 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
         <v>134</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125">
@@ -3619,10 +3619,10 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126">
@@ -3665,7 +3665,7 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C127" t="s">
         <v>131</v>
@@ -3688,7 +3688,7 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C128" t="s">
         <v>132</v>
@@ -3711,7 +3711,7 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C129" t="s">
         <v>132</v>
@@ -3734,10 +3734,10 @@
         <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D130" t="s">
         <v>134</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131">
@@ -3760,7 +3760,7 @@
         <v>88</v>
       </c>
       <c r="C131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
@@ -3780,7 +3780,7 @@
         <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C132" t="s">
         <v>131</v>
@@ -3826,7 +3826,7 @@
         <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C134" t="s">
         <v>131</v>
@@ -3849,7 +3849,7 @@
         <v>52</v>
       </c>
       <c r="B135" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C135" t="s">
         <v>131</v>
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
@@ -3872,7 +3872,7 @@
         <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C136" t="s">
         <v>131</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137">
@@ -3895,10 +3895,10 @@
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
@@ -3918,7 +3918,7 @@
         <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C138" t="s">
         <v>132</v>
@@ -3941,10 +3941,10 @@
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D139" t="s">
         <v>134</v>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140">
@@ -3964,10 +3964,10 @@
         <v>54</v>
       </c>
       <c r="B140" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
@@ -3987,10 +3987,10 @@
         <v>54</v>
       </c>
       <c r="B141" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D141" t="s">
         <v>134</v>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142">
@@ -4010,7 +4010,7 @@
         <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C142" t="s">
         <v>131</v>
@@ -4033,7 +4033,7 @@
         <v>56</v>
       </c>
       <c r="B143" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C143" t="s">
         <v>131</v>
@@ -4056,10 +4056,10 @@
         <v>56</v>
       </c>
       <c r="B144" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
@@ -4079,10 +4079,10 @@
         <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D145" t="s">
         <v>134</v>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
     </row>
     <row r="146">
@@ -4148,7 +4148,7 @@
         <v>58</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C148" t="s">
         <v>131</v>
@@ -4171,7 +4171,7 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C149" t="s">
         <v>131</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150">
@@ -4194,7 +4194,7 @@
         <v>59</v>
       </c>
       <c r="B150" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C150" t="s">
         <v>131</v>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151">
@@ -4217,10 +4217,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D151" t="s">
         <v>134</v>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152">
@@ -4240,10 +4240,10 @@
         <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D152" t="s">
         <v>134</v>
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
@@ -4263,7 +4263,7 @@
         <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C153" t="s">
         <v>131</v>
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154">
@@ -4286,7 +4286,7 @@
         <v>61</v>
       </c>
       <c r="B154" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C154" t="s">
         <v>131</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155">
@@ -4355,10 +4355,10 @@
         <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C157" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D157" t="s">
         <v>134</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
@@ -4378,10 +4378,10 @@
         <v>63</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D158" t="s">
         <v>134</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159">
@@ -4401,7 +4401,7 @@
         <v>63</v>
       </c>
       <c r="B159" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C159" t="s">
         <v>131</v>
@@ -4493,7 +4493,7 @@
         <v>64</v>
       </c>
       <c r="B163" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C163" t="s">
         <v>131</v>
@@ -4539,10 +4539,10 @@
         <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C165" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D165" t="s">
         <v>134</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166">
@@ -4585,10 +4585,10 @@
         <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C167" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D167" t="s">
         <v>134</v>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168">
@@ -4631,7 +4631,7 @@
         <v>66</v>
       </c>
       <c r="B169" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C169" t="s">
         <v>131</v>
@@ -4654,7 +4654,7 @@
         <v>67</v>
       </c>
       <c r="B170" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C170" t="s">
         <v>131</v>
@@ -4700,7 +4700,7 @@
         <v>69</v>
       </c>
       <c r="B172" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C172" t="s">
         <v>131</v>
@@ -4723,7 +4723,7 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C173" t="s">
         <v>132</v>
@@ -4746,10 +4746,10 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C174" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
@@ -4761,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175">
@@ -4769,10 +4769,10 @@
         <v>70</v>
       </c>
       <c r="B175" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C175" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D175" t="s">
         <v>134</v>
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
     </row>
     <row r="176">
@@ -4792,7 +4792,7 @@
         <v>70</v>
       </c>
       <c r="B176" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C176" t="s">
         <v>131</v>
@@ -4887,7 +4887,7 @@
         <v>89</v>
       </c>
       <c r="C180" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D180" t="s">
         <v>134</v>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181">
@@ -4907,10 +4907,10 @@
         <v>73</v>
       </c>
       <c r="B181" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C181" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D181" t="s">
         <v>134</v>
@@ -4922,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
@@ -4930,7 +4930,7 @@
         <v>73</v>
       </c>
       <c r="B182" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C182" t="s">
         <v>131</v>
@@ -4953,10 +4953,10 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C183" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D183" t="s">
         <v>134</v>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184">
@@ -4976,7 +4976,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C184" t="s">
         <v>131</v>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185">
@@ -4999,10 +4999,10 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C185" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D185" t="s">
         <v>134</v>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186">
@@ -5025,7 +5025,7 @@
         <v>89</v>
       </c>
       <c r="C186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D186" t="s">
         <v>134</v>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
     </row>
     <row r="187">
@@ -5048,7 +5048,7 @@
         <v>88</v>
       </c>
       <c r="C187" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D187" t="s">
         <v>134</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188">
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="189">
@@ -5091,7 +5091,7 @@
         <v>76</v>
       </c>
       <c r="B189" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C189" t="s">
         <v>132</v>
@@ -5114,7 +5114,7 @@
         <v>76</v>
       </c>
       <c r="B190" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C190" t="s">
         <v>132</v>
@@ -5137,7 +5137,7 @@
         <v>76</v>
       </c>
       <c r="B191" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C191" t="s">
         <v>131</v>
@@ -5183,10 +5183,10 @@
         <v>78</v>
       </c>
       <c r="B193" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C193" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194">
@@ -5206,10 +5206,10 @@
         <v>78</v>
       </c>
       <c r="B194" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
     </row>
     <row r="195">
@@ -5252,7 +5252,7 @@
         <v>80</v>
       </c>
       <c r="B196" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C196" t="s">
         <v>131</v>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="987" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1057" uniqueCount="242">
   <si>
     <t>sampleid</t>
   </si>
@@ -72,6 +72,9 @@
     <t>800106</t>
   </si>
   <si>
+    <t>800108</t>
+  </si>
+  <si>
     <t>800109</t>
   </si>
   <si>
@@ -105,6 +108,12 @@
     <t>800124</t>
   </si>
   <si>
+    <t>800125</t>
+  </si>
+  <si>
+    <t>800126</t>
+  </si>
+  <si>
     <t>800127</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>800186</t>
   </si>
   <si>
+    <t>800187</t>
+  </si>
+  <si>
     <t>800190</t>
   </si>
   <si>
@@ -258,6 +270,12 @@
     <t>800199</t>
   </si>
   <si>
+    <t>800342</t>
+  </si>
+  <si>
+    <t>800366</t>
+  </si>
+  <si>
     <t>substance</t>
   </si>
   <si>
@@ -267,15 +285,15 @@
     <t>heroin</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>inositol</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
@@ -291,15 +309,15 @@
     <t>non-specific organic acids</t>
   </si>
   <si>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
-    <t>sucrose</t>
-  </si>
-  <si>
     <t>meclonazepam</t>
   </si>
   <si>
@@ -324,54 +342,57 @@
     <t>hydrocotarnine</t>
   </si>
   <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>noscapine</t>
+  </si>
+  <si>
     <t>meconin</t>
   </si>
   <si>
-    <t>noscapine</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
     <t>norcocaine</t>
   </si>
   <si>
-    <t>tropacocaine</t>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>phenacetin</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>N-methyltryptamine</t>
+  </si>
+  <si>
+    <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
     <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
   </si>
   <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
+    <t>MDA</t>
+  </si>
+  <si>
     <t>despropionyl ortho-chlorofentanyl</t>
   </si>
   <si>
@@ -387,9 +408,6 @@
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>MDA</t>
-  </si>
-  <si>
     <t>2C-B</t>
   </si>
   <si>
@@ -405,6 +423,9 @@
     <t>2C-H</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -435,12 +456,12 @@
     <t>8.92</t>
   </si>
   <si>
+    <t>8.53</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>8.53</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
@@ -456,28 +477,31 @@
     <t>9.24</t>
   </si>
   <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
     <t>6.66</t>
   </si>
   <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
     <t>9.74</t>
   </si>
   <si>
-    <t>7.3</t>
+    <t>10.25</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>10.25</t>
+    <t>6.11</t>
   </si>
   <si>
     <t>9.27</t>
@@ -486,9 +510,6 @@
     <t>8.49</t>
   </si>
   <si>
-    <t>6.11</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -528,10 +549,13 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>8.15</t>
+  </si>
+  <si>
     <t>6.12</t>
   </si>
   <si>
-    <t>8.15</t>
+    <t>8.17</t>
   </si>
   <si>
     <t>6.88</t>
@@ -552,12 +576,12 @@
     <t>10.45</t>
   </si>
   <si>
+    <t>9.83</t>
+  </si>
+  <si>
     <t>9.32</t>
   </si>
   <si>
-    <t>9.83</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -567,33 +591,42 @@
     <t>10.24</t>
   </si>
   <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
     <t>9.57</t>
   </si>
   <si>
+    <t>10.03</t>
+  </si>
+  <si>
     <t>9.49</t>
   </si>
   <si>
-    <t>9.85</t>
-  </si>
-  <si>
-    <t>10.03</t>
+    <t>9.11</t>
   </si>
   <si>
     <t>6.15</t>
   </si>
   <si>
-    <t>9.11</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
-    <t>9.09</t>
-  </si>
-  <si>
     <t>5.05</t>
   </si>
   <si>
@@ -609,15 +642,12 @@
     <t>10.41</t>
   </si>
   <si>
-    <t>5.22</t>
+    <t>9.8</t>
   </si>
   <si>
     <t>9.28</t>
   </si>
   <si>
-    <t>9.8</t>
-  </si>
-  <si>
     <t>9.36</t>
   </si>
   <si>
@@ -642,15 +672,15 @@
     <t>6.58</t>
   </si>
   <si>
+    <t>3.18</t>
+  </si>
+  <si>
     <t>9.31</t>
   </si>
   <si>
     <t>10.56</t>
   </si>
   <si>
-    <t>3.18</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -666,15 +696,15 @@
     <t>6.27</t>
   </si>
   <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>9.14</t>
-  </si>
-  <si>
-    <t>7.37</t>
-  </si>
-  <si>
     <t>6.36</t>
   </si>
   <si>
@@ -684,19 +714,19 @@
     <t>6.89</t>
   </si>
   <si>
+    <t>8.12</t>
+  </si>
+  <si>
     <t>12.62</t>
   </si>
   <si>
-    <t>8.12</t>
+    <t>5.49</t>
+  </si>
+  <si>
+    <t>10.52</t>
   </si>
   <si>
     <t>6.05</t>
-  </si>
-  <si>
-    <t>10.52</t>
-  </si>
-  <si>
-    <t>5.49</t>
   </si>
   <si>
     <t>10.51</t>
@@ -756,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -767,22 +797,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -790,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -805,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -813,13 +843,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -828,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -836,13 +866,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -851,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
@@ -859,13 +889,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -874,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -882,13 +912,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -897,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
@@ -905,13 +935,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -920,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
@@ -928,13 +958,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -943,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +981,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -966,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -974,13 +1004,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -989,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
@@ -997,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -1012,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -1020,13 +1050,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -1035,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
@@ -1043,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -1058,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -1081,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -1089,13 +1119,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -1104,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -1112,13 +1142,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1127,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -1135,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1150,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
@@ -1158,13 +1188,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1173,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -1181,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1196,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
@@ -1204,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1219,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -1227,13 +1257,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1242,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1250,13 +1280,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1265,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -1273,13 +1303,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1288,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
@@ -1296,13 +1326,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1311,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
@@ -1319,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1334,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -1342,13 +1372,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1357,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
@@ -1365,13 +1395,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1380,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
@@ -1388,13 +1418,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1403,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
@@ -1411,13 +1441,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1426,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30">
@@ -1434,13 +1464,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1449,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
@@ -1457,13 +1487,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1472,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -1480,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1495,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -1503,13 +1533,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1518,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34">
@@ -1526,13 +1556,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1541,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35">
@@ -1549,13 +1579,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1564,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36">
@@ -1572,13 +1602,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1587,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37">
@@ -1595,13 +1625,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1610,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38">
@@ -1618,13 +1648,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1633,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
@@ -1641,13 +1671,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1656,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
@@ -1664,13 +1694,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1679,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
@@ -1687,13 +1717,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1702,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42">
@@ -1710,13 +1740,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1725,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
@@ -1733,13 +1763,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1748,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44">
@@ -1756,13 +1786,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1771,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45">
@@ -1779,13 +1809,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1">
         <v>44951</v>
@@ -1794,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
@@ -1802,13 +1832,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1">
         <v>44951</v>
@@ -1817,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47">
@@ -1825,13 +1855,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1">
         <v>44936</v>
@@ -1840,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48">
@@ -1848,13 +1878,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E48" s="1">
         <v>44935</v>
@@ -1863,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49">
@@ -1871,13 +1901,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1">
         <v>44935</v>
@@ -1886,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50">
@@ -1894,13 +1924,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -1909,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51">
@@ -1917,13 +1947,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -1932,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52">
@@ -1940,13 +1970,13 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -1955,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53">
@@ -1963,13 +1993,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -1978,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
@@ -1986,13 +2016,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -2001,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55">
@@ -2009,13 +2039,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E55" s="1">
         <v>44931</v>
@@ -2024,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56">
@@ -2032,13 +2062,13 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1">
         <v>44931</v>
@@ -2047,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57">
@@ -2055,91 +2085,91 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E57" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E58" s="1">
-        <v>44935</v>
+        <v>44956</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E59" s="1">
-        <v>44930</v>
+        <v>44956</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E60" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61">
@@ -2147,22 +2177,22 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E61" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62">
@@ -2170,22 +2200,22 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E62" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63">
@@ -2193,22 +2223,22 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E63" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64">
@@ -2216,36 +2246,36 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E64" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E65" s="1">
         <v>44951</v>
@@ -2254,21 +2284,21 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E66" s="1">
         <v>44951</v>
@@ -2277,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67">
@@ -2285,22 +2315,22 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E67" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68">
@@ -2308,114 +2338,114 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E68" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E69" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E70" s="1">
-        <v>44952</v>
+        <v>44935</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E71" s="1">
-        <v>44952</v>
+        <v>44935</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E72" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73">
@@ -2423,22 +2453,22 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E73" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74">
@@ -2446,22 +2476,22 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E74" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75">
@@ -2469,13 +2499,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E75" s="1">
         <v>44930</v>
@@ -2484,53 +2514,53 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E76" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E77" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -2538,22 +2568,22 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E78" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79">
@@ -2561,22 +2591,22 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E79" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -2584,22 +2614,22 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E80" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81">
@@ -2607,22 +2637,22 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E81" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82">
@@ -2630,13 +2660,13 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E82" s="1">
         <v>44951</v>
@@ -2645,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83">
@@ -2653,13 +2683,13 @@
         <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E83" s="1">
         <v>44951</v>
@@ -2668,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -2676,13 +2706,13 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E84" s="1">
         <v>44951</v>
@@ -2691,113 +2721,113 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E85" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E86" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E87" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E88" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E89" s="1">
         <v>44951</v>
@@ -2806,53 +2836,53 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E90" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E91" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -2860,22 +2890,22 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E92" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
@@ -2883,22 +2913,22 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E93" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
@@ -2906,22 +2936,22 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E94" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
@@ -2929,91 +2959,91 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E95" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
         <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E96" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E97" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D98" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E98" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99">
@@ -3021,137 +3051,137 @@
         <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E99" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E100" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E101" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E102" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E103" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="F103" s="2">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E104" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
@@ -3162,19 +3192,19 @@
         <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E105" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
@@ -3182,22 +3212,22 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E106" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107">
@@ -3205,22 +3235,22 @@
         <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D107" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E107" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
@@ -3228,22 +3258,22 @@
         <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E108" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109">
@@ -3251,59 +3281,59 @@
         <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E109" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D110" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E110" s="1">
-        <v>44951</v>
+        <v>44932</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E111" s="1">
         <v>44951</v>
@@ -3312,21 +3342,21 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D112" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E112" s="1">
         <v>44951</v>
@@ -3335,21 +3365,21 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E113" s="1">
         <v>44951</v>
@@ -3358,76 +3388,76 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D114" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E114" s="1">
-        <v>44931</v>
+        <v>44951</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D115" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E115" s="1">
-        <v>44931</v>
+        <v>44951</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E116" s="1">
-        <v>44931</v>
+        <v>44951</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117">
@@ -3435,22 +3465,22 @@
         <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E117" s="1">
-        <v>44931</v>
+        <v>44951</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
@@ -3458,22 +3488,22 @@
         <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E118" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
@@ -3481,22 +3511,22 @@
         <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E119" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
@@ -3504,45 +3534,45 @@
         <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D120" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E120" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D121" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E121" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
@@ -3550,68 +3580,68 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E122" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D123" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E123" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D124" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E124" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
@@ -3619,105 +3649,105 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E125" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C126" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D126" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E126" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E127" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E128" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E129" s="1">
         <v>44935</v>
@@ -3726,30 +3756,30 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D130" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E130" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131">
@@ -3757,22 +3787,22 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D131" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E131" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132">
@@ -3780,22 +3810,22 @@
         <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E132" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133">
@@ -3803,45 +3833,45 @@
         <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C133" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D133" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E133" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D134" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E134" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
@@ -3849,13 +3879,13 @@
         <v>52</v>
       </c>
       <c r="B135" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E135" s="1">
         <v>44935</v>
@@ -3864,30 +3894,30 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C136" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D136" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E136" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137">
@@ -3895,13 +3925,13 @@
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C137" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E137" s="1">
         <v>44936</v>
@@ -3910,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138">
@@ -3918,13 +3948,13 @@
         <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C138" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E138" s="1">
         <v>44936</v>
@@ -3933,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
@@ -3941,13 +3971,13 @@
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C139" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E139" s="1">
         <v>44936</v>
@@ -3956,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140">
@@ -3964,22 +3994,22 @@
         <v>54</v>
       </c>
       <c r="B140" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C140" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E140" s="1">
-        <v>44951</v>
+        <v>44931</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
@@ -3987,22 +4017,22 @@
         <v>54</v>
       </c>
       <c r="B141" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E141" s="1">
-        <v>44951</v>
+        <v>44931</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142">
@@ -4010,22 +4040,22 @@
         <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D142" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E142" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
@@ -4033,22 +4063,22 @@
         <v>56</v>
       </c>
       <c r="B143" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C143" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E143" s="1">
-        <v>44952</v>
+        <v>44936</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
@@ -4056,22 +4086,22 @@
         <v>56</v>
       </c>
       <c r="B144" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C144" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D144" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E144" s="1">
-        <v>44952</v>
+        <v>44936</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145">
@@ -4079,22 +4109,22 @@
         <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C145" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D145" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E145" s="1">
-        <v>44952</v>
+        <v>44936</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="146">
@@ -4102,22 +4132,22 @@
         <v>56</v>
       </c>
       <c r="B146" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C146" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D146" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E146" s="1">
-        <v>44952</v>
+        <v>44936</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
@@ -4125,68 +4155,68 @@
         <v>57</v>
       </c>
       <c r="B147" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C147" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D147" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E147" s="1">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B148" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C148" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D148" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E148" s="1">
-        <v>44935</v>
+        <v>44951</v>
       </c>
       <c r="F148" s="2">
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B149" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D149" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E149" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150">
@@ -4194,151 +4224,151 @@
         <v>59</v>
       </c>
       <c r="B150" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C150" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D150" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E150" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B151" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C151" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D151" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E151" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B152" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C152" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D152" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E152" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F152" s="2">
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B153" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C153" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D153" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E153" s="1">
-        <v>44932</v>
+        <v>44952</v>
       </c>
       <c r="F153" s="2">
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B154" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C154" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D154" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E154" s="1">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C155" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D155" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E155" s="1">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="F155" s="2">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D156" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E156" s="1">
         <v>44930</v>
@@ -4347,21 +4377,21 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D157" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E157" s="1">
         <v>44930</v>
@@ -4370,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158">
@@ -4378,13 +4408,13 @@
         <v>63</v>
       </c>
       <c r="B158" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D158" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E158" s="1">
         <v>44930</v>
@@ -4393,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159">
@@ -4401,13 +4431,13 @@
         <v>63</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D159" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E159" s="1">
         <v>44930</v>
@@ -4416,191 +4446,191 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B160" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D160" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E160" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B161" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C161" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D161" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E161" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F161" s="2">
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B162" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C162" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D162" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E162" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F162" s="2">
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B163" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C163" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D163" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E163" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F163" s="2">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B164" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C164" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D164" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E164" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F164" s="2">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B165" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C165" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D165" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E165" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B166" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C166" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D166" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E166" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F166" s="2">
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B167" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C167" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D167" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E167" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F167" s="2">
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168">
@@ -4608,36 +4638,36 @@
         <v>66</v>
       </c>
       <c r="B168" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C168" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D168" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E168" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F168" s="2">
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B169" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C169" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D169" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E169" s="1">
         <v>44935</v>
@@ -4646,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170">
@@ -4654,229 +4684,229 @@
         <v>67</v>
       </c>
       <c r="B170" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C170" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D170" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E170" s="1">
-        <v>44952</v>
+        <v>44935</v>
       </c>
       <c r="F170" s="2">
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B171" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C171" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D171" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E171" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="F171" s="2">
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B172" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C172" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D172" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E172" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F172" s="2">
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B173" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C173" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D173" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E173" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F173" s="2">
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B174" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C174" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D174" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E174" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F174" s="2">
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B175" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C175" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D175" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E175" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F175" s="2">
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B176" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C176" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D176" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E176" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F176" s="2">
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B177" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D177" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E177" s="1">
-        <v>44939</v>
+        <v>44952</v>
       </c>
       <c r="F177" s="2">
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B178" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C178" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D178" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E178" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F178" s="2">
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C179" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D179" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E179" s="1">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="F179" s="2">
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180">
@@ -4884,13 +4914,13 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C180" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D180" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E180" s="1">
         <v>44936</v>
@@ -4899,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181">
@@ -4907,13 +4937,13 @@
         <v>73</v>
       </c>
       <c r="B181" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C181" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D181" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E181" s="1">
         <v>44936</v>
@@ -4922,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182">
@@ -4930,13 +4960,13 @@
         <v>73</v>
       </c>
       <c r="B182" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C182" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D182" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E182" s="1">
         <v>44936</v>
@@ -4945,30 +4975,30 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B183" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C183" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D183" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E183" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
@@ -4976,36 +5006,36 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C184" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D184" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E184" s="1">
-        <v>44930</v>
+        <v>44939</v>
       </c>
       <c r="F184" s="2">
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C185" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D185" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E185" s="1">
         <v>44930</v>
@@ -5014,44 +5044,44 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B186" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C186" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D186" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E186" s="1">
-        <v>44936</v>
+        <v>44956</v>
       </c>
       <c r="F186" s="2">
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B187" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C187" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D187" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E187" s="1">
         <v>44936</v>
@@ -5060,21 +5090,21 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C188" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D188" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E188" s="1">
         <v>44936</v>
@@ -5083,99 +5113,99 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B189" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C189" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D189" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E189" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F189" s="2">
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B190" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C190" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D190" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E190" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F190" s="2">
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B191" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C191" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D191" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E191" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F191" s="2">
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B192" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C192" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D192" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E192" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F192" s="2">
         <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="193">
@@ -5183,36 +5213,36 @@
         <v>78</v>
       </c>
       <c r="B193" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C193" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D193" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E193" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F193" s="2">
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B194" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C194" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D194" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E194" s="1">
         <v>44936</v>
@@ -5221,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="195">
@@ -5229,45 +5259,45 @@
         <v>79</v>
       </c>
       <c r="B195" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C195" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D195" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E195" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B196" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C196" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D196" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E196" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
     </row>
     <row r="197">
@@ -5275,22 +5305,344 @@
         <v>80</v>
       </c>
       <c r="B197" t="s">
+        <v>114</v>
+      </c>
+      <c r="C197" t="s">
+        <v>138</v>
+      </c>
+      <c r="D197" t="s">
+        <v>141</v>
+      </c>
+      <c r="E197" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F197" s="2">
+        <v>1</v>
+      </c>
+      <c r="G197" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>80</v>
+      </c>
+      <c r="B198" t="s">
+        <v>115</v>
+      </c>
+      <c r="C198" t="s">
+        <v>139</v>
+      </c>
+      <c r="D198" t="s">
+        <v>141</v>
+      </c>
+      <c r="E198" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F198" s="2">
+        <v>1</v>
+      </c>
+      <c r="G198" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>80</v>
+      </c>
+      <c r="B199" t="s">
+        <v>119</v>
+      </c>
+      <c r="C199" t="s">
+        <v>139</v>
+      </c>
+      <c r="D199" t="s">
+        <v>141</v>
+      </c>
+      <c r="E199" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F199" s="2">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>81</v>
+      </c>
+      <c r="B200" t="s">
         <v>107</v>
       </c>
-      <c r="C197" t="s">
-        <v>132</v>
-      </c>
-      <c r="D197" t="s">
-        <v>134</v>
-      </c>
-      <c r="E197" s="1">
+      <c r="C200" t="s">
+        <v>138</v>
+      </c>
+      <c r="D200" t="s">
+        <v>141</v>
+      </c>
+      <c r="E200" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F200" s="2">
+        <v>1</v>
+      </c>
+      <c r="G200" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>82</v>
+      </c>
+      <c r="B201" t="s">
+        <v>107</v>
+      </c>
+      <c r="C201" t="s">
+        <v>138</v>
+      </c>
+      <c r="D201" t="s">
+        <v>141</v>
+      </c>
+      <c r="E201" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F201" s="2">
+        <v>1</v>
+      </c>
+      <c r="G201" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>82</v>
+      </c>
+      <c r="B202" t="s">
+        <v>88</v>
+      </c>
+      <c r="C202" t="s">
+        <v>139</v>
+      </c>
+      <c r="D202" t="s">
+        <v>141</v>
+      </c>
+      <c r="E202" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F202" s="2">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>83</v>
+      </c>
+      <c r="B203" t="s">
+        <v>88</v>
+      </c>
+      <c r="C203" t="s">
+        <v>138</v>
+      </c>
+      <c r="D203" t="s">
+        <v>141</v>
+      </c>
+      <c r="E203" s="1">
         <v>44935</v>
       </c>
-      <c r="F197" s="2">
-        <v>1</v>
-      </c>
-      <c r="G197" t="s">
-        <v>140</v>
+      <c r="F203" s="2">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>84</v>
+      </c>
+      <c r="B204" t="s">
+        <v>113</v>
+      </c>
+      <c r="C204" t="s">
+        <v>139</v>
+      </c>
+      <c r="D204" t="s">
+        <v>141</v>
+      </c>
+      <c r="E204" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F204" s="2">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>84</v>
+      </c>
+      <c r="B205" t="s">
+        <v>100</v>
+      </c>
+      <c r="C205" t="s">
+        <v>138</v>
+      </c>
+      <c r="D205" t="s">
+        <v>141</v>
+      </c>
+      <c r="E205" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F205" s="2">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>85</v>
+      </c>
+      <c r="B206" t="s">
+        <v>119</v>
+      </c>
+      <c r="C206" t="s">
+        <v>139</v>
+      </c>
+      <c r="D206" t="s">
+        <v>141</v>
+      </c>
+      <c r="E206" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F206" s="2">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>85</v>
+      </c>
+      <c r="B207" t="s">
+        <v>100</v>
+      </c>
+      <c r="C207" t="s">
+        <v>139</v>
+      </c>
+      <c r="D207" t="s">
+        <v>141</v>
+      </c>
+      <c r="E207" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F207" s="2">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>85</v>
+      </c>
+      <c r="B208" t="s">
+        <v>136</v>
+      </c>
+      <c r="C208" t="s">
+        <v>139</v>
+      </c>
+      <c r="D208" t="s">
+        <v>141</v>
+      </c>
+      <c r="E208" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F208" s="2">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>85</v>
+      </c>
+      <c r="B209" t="s">
+        <v>114</v>
+      </c>
+      <c r="C209" t="s">
+        <v>138</v>
+      </c>
+      <c r="D209" t="s">
+        <v>141</v>
+      </c>
+      <c r="E209" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F209" s="2">
+        <v>1</v>
+      </c>
+      <c r="G209" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>85</v>
+      </c>
+      <c r="B210" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" t="s">
+        <v>139</v>
+      </c>
+      <c r="D210" t="s">
+        <v>141</v>
+      </c>
+      <c r="E210" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F210" s="2">
+        <v>1</v>
+      </c>
+      <c r="G210" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>86</v>
+      </c>
+      <c r="B211" t="s">
+        <v>100</v>
+      </c>
+      <c r="C211" t="s">
+        <v>138</v>
+      </c>
+      <c r="D211" t="s">
+        <v>141</v>
+      </c>
+      <c r="E211" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F211" s="2">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1057" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1167" uniqueCount="258">
   <si>
     <t>sampleid</t>
   </si>
@@ -99,6 +99,9 @@
     <t>800119</t>
   </si>
   <si>
+    <t>800120</t>
+  </si>
+  <si>
     <t>800121</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
     <t>800129</t>
   </si>
   <si>
+    <t>800130</t>
+  </si>
+  <si>
     <t>800131</t>
   </si>
   <si>
@@ -159,6 +165,9 @@
     <t>800143</t>
   </si>
   <si>
+    <t>800144</t>
+  </si>
+  <si>
     <t>800145</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>800180</t>
   </si>
   <si>
+    <t>800181</t>
+  </si>
+  <si>
     <t>800182</t>
   </si>
   <si>
@@ -270,9 +282,21 @@
     <t>800199</t>
   </si>
   <si>
+    <t>800214</t>
+  </si>
+  <si>
+    <t>800267</t>
+  </si>
+  <si>
+    <t>800277</t>
+  </si>
+  <si>
     <t>800342</t>
   </si>
   <si>
+    <t>800352</t>
+  </si>
+  <si>
     <t>800366</t>
   </si>
   <si>
@@ -282,49 +306,49 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>inositol</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>non-specific organic acids</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
+  </si>
+  <si>
     <t>sucrose</t>
   </si>
   <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>meclonazepam</t>
   </si>
   <si>
     <t>phenethylbromide</t>
   </si>
   <si>
-    <t>N-ethyl-4-ANPP</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>phenethyl 4-ANPP</t>
@@ -339,6 +363,9 @@
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>meconin</t>
+  </si>
+  <si>
     <t>hydrocotarnine</t>
   </si>
   <si>
@@ -348,45 +375,42 @@
     <t>noscapine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
+  </si>
+  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-a-carboline</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -417,13 +441,19 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>ecgonidine (ED)</t>
+  </si>
+  <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>flubromazolam</t>
   </si>
   <si>
     <t>2C-H</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>tianeptine</t>
   </si>
   <si>
     <t>abundance</t>
@@ -453,60 +483,60 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>8.92</t>
   </si>
   <si>
-    <t>8.53</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>5.81</t>
+  </si>
+  <si>
     <t>8.37</t>
   </si>
   <si>
-    <t>5.81</t>
-  </si>
-  <si>
     <t>9.23</t>
   </si>
   <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
     <t>9.24</t>
   </si>
   <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
     <t>10.25</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>6.11</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>8.49</t>
   </si>
   <si>
@@ -525,15 +555,15 @@
     <t>5.47</t>
   </si>
   <si>
+    <t>8.54</t>
+  </si>
+  <si>
+    <t>8.61</t>
+  </si>
+  <si>
     <t>8.95</t>
   </si>
   <si>
-    <t>8.54</t>
-  </si>
-  <si>
-    <t>8.61</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -549,12 +579,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>6.12</t>
+  </si>
+  <si>
     <t>8.15</t>
   </si>
   <si>
-    <t>6.12</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -567,21 +597,21 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>9.04</t>
+  </si>
+  <si>
     <t>10.17</t>
   </si>
   <si>
-    <t>9.04</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
+    <t>9.32</t>
+  </si>
+  <si>
     <t>9.83</t>
   </si>
   <si>
-    <t>9.32</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -603,33 +633,36 @@
     <t>9.85</t>
   </si>
   <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
     <t>9.57</t>
   </si>
   <si>
-    <t>10.03</t>
-  </si>
-  <si>
-    <t>9.49</t>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>6.15</t>
   </si>
   <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>6.15</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
     <t>9.09</t>
   </si>
   <si>
+    <t>5.05</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
-    <t>5.05</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -645,10 +678,13 @@
     <t>9.8</t>
   </si>
   <si>
+    <t>9.36</t>
+  </si>
+  <si>
     <t>9.28</t>
   </si>
   <si>
-    <t>9.36</t>
+    <t>3.86</t>
   </si>
   <si>
     <t>10.22</t>
@@ -672,15 +708,15 @@
     <t>6.58</t>
   </si>
   <si>
+    <t>9.31</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
     <t>3.18</t>
   </si>
   <si>
-    <t>9.31</t>
-  </si>
-  <si>
-    <t>10.56</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -693,33 +729,39 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>9.14</t>
+  </si>
+  <si>
     <t>6.27</t>
   </si>
   <si>
+    <t>10.3</t>
+  </si>
+  <si>
     <t>7.37</t>
   </si>
   <si>
-    <t>9.14</t>
-  </si>
-  <si>
-    <t>10.3</t>
+    <t>11.73</t>
   </si>
   <si>
     <t>6.36</t>
   </si>
   <si>
-    <t>11.73</t>
-  </si>
-  <si>
     <t>6.89</t>
   </si>
   <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>12.62</t>
+  </si>
+  <si>
     <t>8.12</t>
   </si>
   <si>
-    <t>12.62</t>
-  </si>
-  <si>
     <t>5.49</t>
   </si>
   <si>
@@ -732,13 +774,19 @@
     <t>10.51</t>
   </si>
   <si>
-    <t>8.25</t>
-  </si>
-  <si>
     <t>5.53</t>
   </si>
   <si>
     <t>5.5</t>
+  </si>
+  <si>
+    <t>9.29</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>10.64</t>
   </si>
 </sst>
 </file>
@@ -786,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -797,22 +845,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -820,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -835,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -843,13 +891,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -858,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -866,13 +914,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -881,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
@@ -889,13 +937,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -904,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -912,13 +960,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -927,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -935,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -950,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -958,13 +1006,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -973,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -981,13 +1029,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -996,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
@@ -1004,13 +1052,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -1019,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
@@ -1027,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -1042,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -1050,13 +1098,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -1065,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -1073,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -1088,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1096,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -1111,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1167,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -1134,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -1142,13 +1190,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1157,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -1165,13 +1213,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1180,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -1188,13 +1236,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1203,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -1211,13 +1259,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1226,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -1234,13 +1282,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1249,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -1257,13 +1305,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1272,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
@@ -1280,13 +1328,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1295,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -1303,13 +1351,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1318,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -1326,13 +1374,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1341,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
@@ -1349,13 +1397,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1364,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
@@ -1372,13 +1420,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1387,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -1395,13 +1443,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1410,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
@@ -1418,13 +1466,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1433,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
@@ -1441,13 +1489,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1456,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
@@ -1464,13 +1512,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1479,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31">
@@ -1487,13 +1535,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1502,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">
@@ -1510,13 +1558,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1525,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33">
@@ -1533,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1548,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
@@ -1556,13 +1604,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1571,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
@@ -1579,13 +1627,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1594,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1602,13 +1650,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1617,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
@@ -1625,13 +1673,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1640,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -1648,13 +1696,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1663,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
@@ -1671,13 +1719,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1686,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40">
@@ -1694,13 +1742,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1709,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41">
@@ -1717,13 +1765,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1732,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42">
@@ -1740,13 +1788,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1755,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43">
@@ -1763,13 +1811,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1778,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44">
@@ -1786,13 +1834,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1801,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
@@ -1809,13 +1857,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E45" s="1">
         <v>44951</v>
@@ -1824,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46">
@@ -1832,13 +1880,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E46" s="1">
         <v>44951</v>
@@ -1847,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
@@ -1855,13 +1903,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E47" s="1">
         <v>44936</v>
@@ -1870,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
@@ -1878,13 +1926,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E48" s="1">
         <v>44935</v>
@@ -1893,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49">
@@ -1901,13 +1949,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E49" s="1">
         <v>44935</v>
@@ -1916,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50">
@@ -1924,13 +1972,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -1939,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51">
@@ -1947,13 +1995,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -1962,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
@@ -1970,13 +2018,13 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -1985,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53">
@@ -1993,13 +2041,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -2008,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54">
@@ -2016,13 +2064,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -2031,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55">
@@ -2039,13 +2087,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E55" s="1">
         <v>44931</v>
@@ -2054,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56">
@@ -2062,13 +2110,13 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E56" s="1">
         <v>44931</v>
@@ -2077,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57">
@@ -2085,13 +2133,13 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E57" s="1">
         <v>44956</v>
@@ -2100,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58">
@@ -2108,13 +2156,13 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E58" s="1">
         <v>44956</v>
@@ -2123,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59">
@@ -2131,13 +2179,13 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E59" s="1">
         <v>44956</v>
@@ -2146,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60">
@@ -2154,13 +2202,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E60" s="1">
         <v>44951</v>
@@ -2169,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61">
@@ -2177,13 +2225,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E61" s="1">
         <v>44935</v>
@@ -2192,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62">
@@ -2200,13 +2248,13 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E62" s="1">
         <v>44930</v>
@@ -2215,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63">
@@ -2223,13 +2271,13 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E63" s="1">
         <v>44930</v>
@@ -2238,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64">
@@ -2246,13 +2294,13 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E64" s="1">
         <v>44930</v>
@@ -2261,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65">
@@ -2269,13 +2317,13 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E65" s="1">
         <v>44951</v>
@@ -2284,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66">
@@ -2292,13 +2340,13 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E66" s="1">
         <v>44951</v>
@@ -2307,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67">
@@ -2315,13 +2363,13 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E67" s="1">
         <v>44951</v>
@@ -2330,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68">
@@ -2338,13 +2386,13 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E68" s="1">
         <v>44951</v>
@@ -2353,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69">
@@ -2364,10 +2412,10 @@
         <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E69" s="1">
         <v>44951</v>
@@ -2376,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70">
@@ -2384,13 +2432,13 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E70" s="1">
         <v>44935</v>
@@ -2399,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71">
@@ -2407,13 +2455,13 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E71" s="1">
         <v>44935</v>
@@ -2422,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
@@ -2430,13 +2478,13 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E72" s="1">
         <v>44952</v>
@@ -2445,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73">
@@ -2453,13 +2501,13 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E73" s="1">
         <v>44952</v>
@@ -2468,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74">
@@ -2476,13 +2524,13 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E74" s="1">
         <v>44952</v>
@@ -2491,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75">
@@ -2499,13 +2547,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E75" s="1">
         <v>44930</v>
@@ -2514,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76">
@@ -2522,13 +2570,13 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E76" s="1">
         <v>44930</v>
@@ -2537,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77">
@@ -2545,13 +2593,13 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E77" s="1">
         <v>44930</v>
@@ -2560,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -2568,22 +2616,22 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E78" s="1">
-        <v>44930</v>
+        <v>44957</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79">
@@ -2591,36 +2639,36 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E79" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E80" s="1">
         <v>44935</v>
@@ -2629,21 +2677,21 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E81" s="1">
         <v>44935</v>
@@ -2652,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82">
@@ -2660,36 +2708,36 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E82" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E83" s="1">
         <v>44951</v>
@@ -2698,21 +2746,21 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E84" s="1">
         <v>44951</v>
@@ -2721,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -2729,36 +2777,36 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E85" s="1">
-        <v>44956</v>
+        <v>44951</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E86" s="1">
         <v>44956</v>
@@ -2767,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -2775,13 +2823,13 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E87" s="1">
         <v>44956</v>
@@ -2790,21 +2838,21 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E88" s="1">
         <v>44956</v>
@@ -2813,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -2821,36 +2869,36 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E89" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E90" s="1">
         <v>44951</v>
@@ -2859,21 +2907,21 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E91" s="1">
         <v>44951</v>
@@ -2882,21 +2930,21 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E92" s="1">
         <v>44951</v>
@@ -2905,21 +2953,21 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E93" s="1">
         <v>44951</v>
@@ -2928,21 +2976,21 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E94" s="1">
         <v>44951</v>
@@ -2951,21 +2999,21 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E95" s="1">
         <v>44951</v>
@@ -2974,21 +3022,21 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E96" s="1">
         <v>44951</v>
@@ -2997,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
@@ -3005,22 +3053,22 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E97" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
@@ -3028,22 +3076,22 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D98" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E98" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99">
@@ -3054,10 +3102,10 @@
         <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E99" s="1">
         <v>44930</v>
@@ -3066,44 +3114,44 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E100" s="1">
-        <v>44930</v>
+        <v>44957</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E101" s="1">
         <v>44930</v>
@@ -3112,21 +3160,21 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E102" s="1">
         <v>44930</v>
@@ -3135,30 +3183,30 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D103" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E103" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F103" s="2">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104">
@@ -3166,22 +3214,22 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E104" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105">
@@ -3189,13 +3237,13 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D105" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E105" s="1">
         <v>44935</v>
@@ -3204,21 +3252,21 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E106" s="1">
         <v>44935</v>
@@ -3227,21 +3275,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E107" s="1">
         <v>44935</v>
@@ -3250,21 +3298,21 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E108" s="1">
         <v>44935</v>
@@ -3273,21 +3321,21 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D109" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E109" s="1">
         <v>44935</v>
@@ -3296,30 +3344,30 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D110" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E110" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111">
@@ -3327,59 +3375,59 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D111" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E111" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D112" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E112" s="1">
-        <v>44951</v>
+        <v>44932</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D113" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E113" s="1">
         <v>44951</v>
@@ -3388,21 +3436,21 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D114" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E114" s="1">
         <v>44951</v>
@@ -3411,21 +3459,21 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E115" s="1">
         <v>44951</v>
@@ -3434,21 +3482,21 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D116" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E116" s="1">
         <v>44951</v>
@@ -3457,21 +3505,21 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D117" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E117" s="1">
         <v>44951</v>
@@ -3480,21 +3528,21 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D118" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E118" s="1">
         <v>44951</v>
@@ -3503,21 +3551,21 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D119" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E119" s="1">
         <v>44951</v>
@@ -3526,21 +3574,21 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D120" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E120" s="1">
         <v>44951</v>
@@ -3549,67 +3597,67 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D121" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E121" s="1">
-        <v>44931</v>
+        <v>44951</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E122" s="1">
-        <v>44931</v>
+        <v>44951</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D123" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E123" s="1">
         <v>44931</v>
@@ -3618,21 +3666,21 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D124" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E124" s="1">
         <v>44931</v>
@@ -3641,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125">
@@ -3649,59 +3697,59 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E125" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E126" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D127" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E127" s="1">
         <v>44930</v>
@@ -3710,21 +3758,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D128" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E128" s="1">
         <v>44930</v>
@@ -3733,30 +3781,30 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D129" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E129" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130">
@@ -3764,13 +3812,13 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D130" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E130" s="1">
         <v>44930</v>
@@ -3779,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
@@ -3787,36 +3835,36 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D131" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E131" s="1">
-        <v>44935</v>
+        <v>44957</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C132" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D132" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E132" s="1">
         <v>44935</v>
@@ -3825,44 +3873,44 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C133" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D133" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E133" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E134" s="1">
         <v>44935</v>
@@ -3871,21 +3919,21 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C135" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D135" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E135" s="1">
         <v>44935</v>
@@ -3894,21 +3942,21 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E136" s="1">
         <v>44935</v>
@@ -3917,228 +3965,228 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D137" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E137" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C138" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E138" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C139" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E139" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C140" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D140" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E140" s="1">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D141" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E141" s="1">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C142" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D142" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E142" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C143" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D143" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E143" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C144" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D144" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E144" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C145" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D145" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E145" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D146" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E146" s="1">
         <v>44936</v>
@@ -4147,159 +4195,159 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C147" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E147" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C148" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D148" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E148" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F148" s="2">
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D149" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E149" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D150" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E150" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E151" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C152" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D152" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E152" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F152" s="2">
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C153" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D153" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E153" s="1">
         <v>44952</v>
@@ -4308,53 +4356,53 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C154" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D154" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E154" s="1">
-        <v>44936</v>
+        <v>44952</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C155" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D155" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E155" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F155" s="2">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156">
@@ -4362,82 +4410,82 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C156" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D156" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E156" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F156" s="2">
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C157" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D157" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E157" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F157" s="2">
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C158" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D158" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E158" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F158" s="2">
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C159" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D159" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E159" s="1">
         <v>44930</v>
@@ -4446,159 +4494,159 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C160" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D160" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E160" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C161" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D161" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E161" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F161" s="2">
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C162" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D162" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E162" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F162" s="2">
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C163" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D163" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E163" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F163" s="2">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C164" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D164" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E164" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F164" s="2">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C165" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D165" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E165" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C166" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D166" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E166" s="1">
         <v>44930</v>
@@ -4607,21 +4655,21 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C167" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D167" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E167" s="1">
         <v>44930</v>
@@ -4630,21 +4678,21 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C168" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D168" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E168" s="1">
         <v>44930</v>
@@ -4653,90 +4701,90 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C169" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D169" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E169" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F169" s="2">
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C170" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D170" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E170" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F170" s="2">
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C171" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D171" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E171" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F171" s="2">
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C172" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D172" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E172" s="1">
         <v>44935</v>
@@ -4745,21 +4793,21 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C173" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D173" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E173" s="1">
         <v>44935</v>
@@ -4768,21 +4816,21 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C174" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D174" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E174" s="1">
         <v>44935</v>
@@ -4791,21 +4839,21 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C175" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D175" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E175" s="1">
         <v>44935</v>
@@ -4814,21 +4862,21 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C176" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D176" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E176" s="1">
         <v>44935</v>
@@ -4837,53 +4885,53 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C177" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D177" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E177" s="1">
-        <v>44952</v>
+        <v>44935</v>
       </c>
       <c r="F177" s="2">
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C178" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D178" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E178" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="F178" s="2">
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179">
@@ -4891,22 +4939,22 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C179" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D179" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E179" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F179" s="2">
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180">
@@ -4914,91 +4962,91 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C180" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D180" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E180" s="1">
-        <v>44936</v>
+        <v>44952</v>
       </c>
       <c r="F180" s="2">
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C181" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D181" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E181" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F181" s="2">
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C182" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D182" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E182" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C183" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D183" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E183" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184">
@@ -5006,243 +5054,243 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C184" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D184" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E184" s="1">
-        <v>44939</v>
+        <v>44957</v>
       </c>
       <c r="F184" s="2">
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C185" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D185" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E185" s="1">
-        <v>44930</v>
+        <v>44957</v>
       </c>
       <c r="F185" s="2">
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C186" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D186" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E186" s="1">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="F186" s="2">
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C187" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D187" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E187" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F187" s="2">
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C188" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D188" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E188" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F188" s="2">
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C189" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D189" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E189" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F189" s="2">
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C190" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D190" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E190" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F190" s="2">
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C191" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D191" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E191" s="1">
-        <v>44930</v>
+        <v>44957</v>
       </c>
       <c r="F191" s="2">
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B192" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C192" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D192" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E192" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F192" s="2">
         <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C193" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D193" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E193" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F193" s="2">
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C194" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D194" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E194" s="1">
         <v>44936</v>
@@ -5251,21 +5299,21 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C195" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D195" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E195" s="1">
         <v>44936</v>
@@ -5274,21 +5322,21 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C196" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D196" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E196" s="1">
         <v>44936</v>
@@ -5297,113 +5345,113 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C197" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D197" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E197" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F197" s="2">
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B198" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C198" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D198" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E198" s="1">
-        <v>44951</v>
+        <v>44939</v>
       </c>
       <c r="F198" s="2">
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B199" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C199" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D199" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E199" s="1">
-        <v>44951</v>
+        <v>44930</v>
       </c>
       <c r="F199" s="2">
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C200" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D200" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E200" s="1">
-        <v>44932</v>
+        <v>44956</v>
       </c>
       <c r="F200" s="2">
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C201" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D201" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E201" s="1">
         <v>44936</v>
@@ -5412,21 +5460,21 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C202" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D202" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E202" s="1">
         <v>44936</v>
@@ -5435,214 +5483,720 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C203" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D203" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E203" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F203" s="2">
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C204" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D204" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E204" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F204" s="2">
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C205" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D205" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E205" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F205" s="2">
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C206" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D206" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E206" s="1">
-        <v>44956</v>
+        <v>44930</v>
       </c>
       <c r="F206" s="2">
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C207" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D207" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E207" s="1">
-        <v>44956</v>
+        <v>44930</v>
       </c>
       <c r="F207" s="2">
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C208" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D208" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E208" s="1">
-        <v>44956</v>
+        <v>44936</v>
       </c>
       <c r="F208" s="2">
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C209" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D209" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E209" s="1">
-        <v>44956</v>
+        <v>44936</v>
       </c>
       <c r="F209" s="2">
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C210" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D210" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E210" s="1">
-        <v>44956</v>
+        <v>44936</v>
       </c>
       <c r="F210" s="2">
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
+        <v>84</v>
+      </c>
+      <c r="B211" t="s">
+        <v>128</v>
+      </c>
+      <c r="C211" t="s">
+        <v>148</v>
+      </c>
+      <c r="D211" t="s">
+        <v>151</v>
+      </c>
+      <c r="E211" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F211" s="2">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>84</v>
+      </c>
+      <c r="B212" t="s">
+        <v>124</v>
+      </c>
+      <c r="C212" t="s">
+        <v>149</v>
+      </c>
+      <c r="D212" t="s">
+        <v>151</v>
+      </c>
+      <c r="E212" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F212" s="2">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>84</v>
+      </c>
+      <c r="B213" t="s">
+        <v>123</v>
+      </c>
+      <c r="C213" t="s">
+        <v>149</v>
+      </c>
+      <c r="D213" t="s">
+        <v>151</v>
+      </c>
+      <c r="E213" s="1">
+        <v>44951</v>
+      </c>
+      <c r="F213" s="2">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>85</v>
+      </c>
+      <c r="B214" t="s">
+        <v>115</v>
+      </c>
+      <c r="C214" t="s">
+        <v>148</v>
+      </c>
+      <c r="D214" t="s">
+        <v>151</v>
+      </c>
+      <c r="E214" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F214" s="2">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
         <v>86</v>
       </c>
-      <c r="B211" t="s">
-        <v>100</v>
-      </c>
-      <c r="C211" t="s">
-        <v>138</v>
-      </c>
-      <c r="D211" t="s">
-        <v>141</v>
-      </c>
-      <c r="E211" s="1">
+      <c r="B215" t="s">
+        <v>115</v>
+      </c>
+      <c r="C215" t="s">
+        <v>148</v>
+      </c>
+      <c r="D215" t="s">
+        <v>151</v>
+      </c>
+      <c r="E215" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F215" s="2">
+        <v>1</v>
+      </c>
+      <c r="G215" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216" t="s">
+        <v>96</v>
+      </c>
+      <c r="C216" t="s">
+        <v>149</v>
+      </c>
+      <c r="D216" t="s">
+        <v>151</v>
+      </c>
+      <c r="E216" s="1">
+        <v>44936</v>
+      </c>
+      <c r="F216" s="2">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>87</v>
+      </c>
+      <c r="B217" t="s">
+        <v>96</v>
+      </c>
+      <c r="C217" t="s">
+        <v>148</v>
+      </c>
+      <c r="D217" t="s">
+        <v>151</v>
+      </c>
+      <c r="E217" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F217" s="2">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>88</v>
+      </c>
+      <c r="B218" t="s">
+        <v>121</v>
+      </c>
+      <c r="C218" t="s">
+        <v>149</v>
+      </c>
+      <c r="D218" t="s">
+        <v>151</v>
+      </c>
+      <c r="E218" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F218" s="2">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>88</v>
+      </c>
+      <c r="B219" t="s">
+        <v>106</v>
+      </c>
+      <c r="C219" t="s">
+        <v>148</v>
+      </c>
+      <c r="D219" t="s">
+        <v>151</v>
+      </c>
+      <c r="E219" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F219" s="2">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>89</v>
+      </c>
+      <c r="B220" t="s">
+        <v>115</v>
+      </c>
+      <c r="C220" t="s">
+        <v>148</v>
+      </c>
+      <c r="D220" t="s">
+        <v>151</v>
+      </c>
+      <c r="E220" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F220" s="2">
+        <v>1</v>
+      </c>
+      <c r="G220" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>90</v>
+      </c>
+      <c r="B221" t="s">
+        <v>146</v>
+      </c>
+      <c r="C221" t="s">
+        <v>148</v>
+      </c>
+      <c r="D221" t="s">
+        <v>151</v>
+      </c>
+      <c r="E221" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F221" s="2">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>91</v>
+      </c>
+      <c r="B222" t="s">
+        <v>106</v>
+      </c>
+      <c r="C222" t="s">
+        <v>149</v>
+      </c>
+      <c r="D222" t="s">
+        <v>151</v>
+      </c>
+      <c r="E222" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F222" s="2">
+        <v>1</v>
+      </c>
+      <c r="G222" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>91</v>
+      </c>
+      <c r="B223" t="s">
+        <v>128</v>
+      </c>
+      <c r="C223" t="s">
+        <v>148</v>
+      </c>
+      <c r="D223" t="s">
+        <v>151</v>
+      </c>
+      <c r="E223" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F223" s="2">
+        <v>1</v>
+      </c>
+      <c r="G223" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>91</v>
+      </c>
+      <c r="B224" t="s">
+        <v>123</v>
+      </c>
+      <c r="C224" t="s">
+        <v>149</v>
+      </c>
+      <c r="D224" t="s">
+        <v>151</v>
+      </c>
+      <c r="E224" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F224" s="2">
+        <v>1</v>
+      </c>
+      <c r="G224" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>92</v>
+      </c>
+      <c r="B225" t="s">
+        <v>124</v>
+      </c>
+      <c r="C225" t="s">
+        <v>149</v>
+      </c>
+      <c r="D225" t="s">
+        <v>151</v>
+      </c>
+      <c r="E225" s="1">
         <v>44956</v>
       </c>
-      <c r="F211" s="2">
-        <v>1</v>
-      </c>
-      <c r="G211" t="s">
-        <v>177</v>
+      <c r="F225" s="2">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>92</v>
+      </c>
+      <c r="B226" t="s">
+        <v>128</v>
+      </c>
+      <c r="C226" t="s">
+        <v>148</v>
+      </c>
+      <c r="D226" t="s">
+        <v>151</v>
+      </c>
+      <c r="E226" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F226" s="2">
+        <v>1</v>
+      </c>
+      <c r="G226" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>92</v>
+      </c>
+      <c r="B227" t="s">
+        <v>123</v>
+      </c>
+      <c r="C227" t="s">
+        <v>149</v>
+      </c>
+      <c r="D227" t="s">
+        <v>151</v>
+      </c>
+      <c r="E227" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F227" s="2">
+        <v>1</v>
+      </c>
+      <c r="G227" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>92</v>
+      </c>
+      <c r="B228" t="s">
+        <v>106</v>
+      </c>
+      <c r="C228" t="s">
+        <v>149</v>
+      </c>
+      <c r="D228" t="s">
+        <v>151</v>
+      </c>
+      <c r="E228" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F228" s="2">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>92</v>
+      </c>
+      <c r="B229" t="s">
+        <v>143</v>
+      </c>
+      <c r="C229" t="s">
+        <v>149</v>
+      </c>
+      <c r="D229" t="s">
+        <v>151</v>
+      </c>
+      <c r="E229" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F229" s="2">
+        <v>1</v>
+      </c>
+      <c r="G229" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>93</v>
+      </c>
+      <c r="B230" t="s">
+        <v>104</v>
+      </c>
+      <c r="C230" t="s">
+        <v>148</v>
+      </c>
+      <c r="D230" t="s">
+        <v>151</v>
+      </c>
+      <c r="E230" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F230" s="2">
+        <v>1</v>
+      </c>
+      <c r="G230" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>93</v>
+      </c>
+      <c r="B231" t="s">
+        <v>103</v>
+      </c>
+      <c r="C231" t="s">
+        <v>149</v>
+      </c>
+      <c r="D231" t="s">
+        <v>151</v>
+      </c>
+      <c r="E231" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F231" s="2">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>93</v>
+      </c>
+      <c r="B232" t="s">
+        <v>112</v>
+      </c>
+      <c r="C232" t="s">
+        <v>149</v>
+      </c>
+      <c r="D232" t="s">
+        <v>151</v>
+      </c>
+      <c r="E232" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F232" s="2">
+        <v>1</v>
+      </c>
+      <c r="G232" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>94</v>
+      </c>
+      <c r="B233" t="s">
+        <v>106</v>
+      </c>
+      <c r="C233" t="s">
+        <v>148</v>
+      </c>
+      <c r="D233" t="s">
+        <v>151</v>
+      </c>
+      <c r="E233" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F233" s="2">
+        <v>1</v>
+      </c>
+      <c r="G233" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -306,15 +306,15 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>inositol</t>
-  </si>
-  <si>
     <t>heroin</t>
   </si>
   <si>
@@ -330,10 +330,13 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>non-specific organic acids</t>
   </si>
   <si>
-    <t>ketamine</t>
+    <t>meclonazepam</t>
   </si>
   <si>
     <t>clonazolam</t>
@@ -342,9 +345,6 @@
     <t>sucrose</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
@@ -363,51 +363,51 @@
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>meconin</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
+    <t>noscapine</t>
   </si>
   <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>noscapine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>phenacetin</t>
   </si>
   <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>levamisole</t>
+    <t>norcocaine</t>
   </si>
   <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
+  </si>
+  <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -483,12 +483,12 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>8.53</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>8.92</t>
   </si>
   <si>
@@ -504,13 +504,16 @@
     <t>9.23</t>
   </si>
   <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
     <t>6.66</t>
   </si>
   <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>6.48</t>
+    <t>9.74</t>
   </si>
   <si>
     <t>12.33</t>
@@ -519,9 +522,6 @@
     <t>9.94</t>
   </si>
   <si>
-    <t>9.74</t>
-  </si>
-  <si>
     <t>9.24</t>
   </si>
   <si>
@@ -624,45 +624,45 @@
     <t>5.22</t>
   </si>
   <si>
+    <t>10.49</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
-    <t>10.49</t>
-  </si>
-  <si>
     <t>9.85</t>
   </si>
   <si>
+    <t>9.57</t>
+  </si>
+  <si>
     <t>10.03</t>
   </si>
   <si>
     <t>9.49</t>
   </si>
   <si>
-    <t>9.57</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>9.11</t>
+  </si>
+  <si>
     <t>6.15</t>
   </si>
   <si>
-    <t>9.11</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
     <t>9.09</t>
   </si>
   <si>
+    <t>10.23</t>
+  </si>
+  <si>
     <t>5.05</t>
   </si>
   <si>
-    <t>10.23</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -675,12 +675,12 @@
     <t>10.41</t>
   </si>
   <si>
+    <t>9.36</t>
+  </si>
+  <si>
     <t>9.8</t>
   </si>
   <si>
-    <t>9.36</t>
-  </si>
-  <si>
     <t>9.28</t>
   </si>
   <si>
@@ -729,16 +729,16 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
     <t>9.14</t>
   </si>
   <si>
-    <t>6.27</t>
-  </si>
-  <si>
     <t>10.3</t>
-  </si>
-  <si>
-    <t>7.37</t>
   </si>
   <si>
     <t>11.73</t>
@@ -894,7 +894,7 @@
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>151</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -940,7 +940,7 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
         <v>151</v>
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
@@ -1305,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -1328,7 +1328,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>148</v>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23">
@@ -1420,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
         <v>151</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
@@ -1443,10 +1443,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
         <v>151</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29">
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31">
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32">
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
@@ -1627,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
         <v>149</v>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36">
@@ -1650,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
         <v>148</v>
@@ -1673,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>149</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38">
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
         <v>151</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39">
@@ -1719,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>149</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40">
@@ -1742,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>151</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1765,10 +1765,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
         <v>151</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42">
@@ -1788,10 +1788,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
         <v>151</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43">
@@ -1857,10 +1857,10 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
         <v>151</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
@@ -1880,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
         <v>151</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
@@ -1926,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
         <v>148</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50">
@@ -1975,7 +1975,7 @@
         <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>151</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51">
@@ -1998,7 +1998,7 @@
         <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
         <v>151</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56">
@@ -2133,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
         <v>149</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58">
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63">
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64">
@@ -2317,10 +2317,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
         <v>151</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
@@ -2340,10 +2340,10 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
         <v>151</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67">
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69">
@@ -2432,7 +2432,7 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
         <v>148</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72">
@@ -2547,7 +2547,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
         <v>148</v>
@@ -2570,7 +2570,7 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
         <v>149</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77">
@@ -2662,7 +2662,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
         <v>149</v>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81">
@@ -2685,10 +2685,10 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
         <v>151</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82">
@@ -2708,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
         <v>151</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -2731,7 +2731,7 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
         <v>148</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84">
@@ -2754,7 +2754,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
         <v>148</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85">
@@ -2823,7 +2823,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
         <v>148</v>
@@ -2846,7 +2846,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
         <v>148</v>
@@ -2869,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
         <v>148</v>
@@ -2915,7 +2915,7 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
         <v>149</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92">
@@ -2938,7 +2938,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
         <v>149</v>
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
@@ -2961,7 +2961,7 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
         <v>148</v>
@@ -2984,10 +2984,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
         <v>151</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
@@ -3007,7 +3007,7 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
         <v>149</v>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
@@ -3030,7 +3030,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
         <v>148</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
@@ -3053,10 +3053,10 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
         <v>151</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
@@ -3145,7 +3145,7 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
         <v>148</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
@@ -3191,7 +3191,7 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
         <v>148</v>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104">
@@ -3214,7 +3214,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
         <v>148</v>
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105">
@@ -3283,10 +3283,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D107" t="s">
         <v>151</v>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
@@ -3306,10 +3306,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D108" t="s">
         <v>151</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109">
@@ -3352,7 +3352,7 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
         <v>148</v>
@@ -3375,7 +3375,7 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C111" t="s">
         <v>148</v>
@@ -3398,7 +3398,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
         <v>148</v>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
@@ -3444,10 +3444,10 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D114" t="s">
         <v>151</v>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115">
@@ -3467,10 +3467,10 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D115" t="s">
         <v>151</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
@@ -3513,7 +3513,7 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
         <v>149</v>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
@@ -3536,10 +3536,10 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D118" t="s">
         <v>151</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119">
@@ -3559,10 +3559,10 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D119" t="s">
         <v>151</v>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
@@ -3582,10 +3582,10 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D120" t="s">
         <v>151</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121">
@@ -3605,10 +3605,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D121" t="s">
         <v>151</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
@@ -3743,7 +3743,7 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C127" t="s">
         <v>148</v>
@@ -3766,7 +3766,7 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C128" t="s">
         <v>148</v>
@@ -3789,10 +3789,10 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D129" t="s">
         <v>151</v>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
@@ -3812,10 +3812,10 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D130" t="s">
         <v>151</v>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131">
@@ -3927,7 +3927,7 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C135" t="s">
         <v>149</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
@@ -3996,7 +3996,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C138" t="s">
         <v>149</v>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140">
@@ -4042,10 +4042,10 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D140" t="s">
         <v>151</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141">
@@ -4065,10 +4065,10 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D141" t="s">
         <v>151</v>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142">
@@ -4111,7 +4111,7 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C143" t="s">
         <v>148</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145">
@@ -4180,10 +4180,10 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D146" t="s">
         <v>151</v>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147">
@@ -4203,10 +4203,10 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D147" t="s">
         <v>151</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148">
@@ -4226,7 +4226,7 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C148" t="s">
         <v>148</v>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150">
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152">
@@ -4318,7 +4318,7 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C152" t="s">
         <v>148</v>
@@ -4364,10 +4364,10 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D154" t="s">
         <v>151</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155">
@@ -4387,10 +4387,10 @@
         <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D155" t="s">
         <v>151</v>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156">
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159">
@@ -4525,7 +4525,7 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C161" t="s">
         <v>148</v>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163">
@@ -4571,7 +4571,7 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C163" t="s">
         <v>148</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164">
@@ -4594,7 +4594,7 @@
         <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C164" t="s">
         <v>148</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165">
@@ -4640,7 +4640,7 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C166" t="s">
         <v>148</v>
@@ -4686,7 +4686,7 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C168" t="s">
         <v>148</v>
@@ -4709,7 +4709,7 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C169" t="s">
         <v>148</v>
@@ -4732,7 +4732,7 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C170" t="s">
         <v>149</v>
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171">
@@ -4755,7 +4755,7 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C171" t="s">
         <v>149</v>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172">
@@ -4778,7 +4778,7 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C172" t="s">
         <v>148</v>
@@ -4847,7 +4847,7 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C175" t="s">
         <v>148</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177">
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178">
@@ -4916,10 +4916,10 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C178" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D178" t="s">
         <v>151</v>
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179">
@@ -4939,10 +4939,10 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C179" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D179" t="s">
         <v>151</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180">
@@ -4962,7 +4962,7 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C180" t="s">
         <v>148</v>
@@ -4985,10 +4985,10 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C181" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D181" t="s">
         <v>151</v>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
     </row>
     <row r="182">
@@ -5008,10 +5008,10 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C182" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D182" t="s">
         <v>151</v>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183">
@@ -5031,7 +5031,7 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C183" t="s">
         <v>149</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184">
@@ -5054,7 +5054,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="C184" t="s">
         <v>149</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185">
@@ -5077,7 +5077,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C185" t="s">
         <v>149</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186">
@@ -5100,10 +5100,10 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C186" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D186" t="s">
         <v>151</v>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>246</v>
+        <v>156</v>
       </c>
     </row>
     <row r="187">
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188">
@@ -5146,10 +5146,10 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C188" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D188" t="s">
         <v>151</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189">
@@ -5169,7 +5169,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C189" t="s">
         <v>149</v>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190">
@@ -5192,7 +5192,7 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C190" t="s">
         <v>149</v>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191">
@@ -5215,7 +5215,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C191" t="s">
         <v>149</v>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192">
@@ -5261,7 +5261,7 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C193" t="s">
         <v>148</v>
@@ -5284,10 +5284,10 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C194" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D194" t="s">
         <v>151</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195">
@@ -5307,7 +5307,7 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C195" t="s">
         <v>149</v>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196">
@@ -5330,10 +5330,10 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C196" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D196" t="s">
         <v>151</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
     </row>
     <row r="197">
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202">
@@ -5468,10 +5468,10 @@
         <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C202" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D202" t="s">
         <v>151</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203">
@@ -5491,7 +5491,7 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C203" t="s">
         <v>148</v>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204">
@@ -5514,10 +5514,10 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C204" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D204" t="s">
         <v>151</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
     </row>
     <row r="205">
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208">
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="211">
@@ -5698,7 +5698,7 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C212" t="s">
         <v>149</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="213">
@@ -5721,7 +5721,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C213" t="s">
         <v>149</v>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="214">
@@ -5767,10 +5767,10 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C215" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D215" t="s">
         <v>151</v>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216">
@@ -5790,10 +5790,10 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C216" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D216" t="s">
         <v>151</v>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
     </row>
     <row r="217">
@@ -5836,10 +5836,10 @@
         <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C218" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D218" t="s">
         <v>151</v>
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219">
@@ -5859,10 +5859,10 @@
         <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C219" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D219" t="s">
         <v>151</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="220">
@@ -5928,10 +5928,10 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C222" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D222" t="s">
         <v>151</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223">
@@ -5951,10 +5951,10 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C223" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D223" t="s">
         <v>151</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
     </row>
     <row r="224">
@@ -5974,7 +5974,7 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C224" t="s">
         <v>149</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="225">
@@ -5997,7 +5997,7 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C225" t="s">
         <v>149</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="226">
@@ -6020,10 +6020,10 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C226" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D226" t="s">
         <v>151</v>
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
     </row>
     <row r="227">
@@ -6043,7 +6043,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C227" t="s">
         <v>149</v>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="228">
@@ -6066,10 +6066,10 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C228" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D228" t="s">
         <v>151</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
     </row>
     <row r="229">
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="230">
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="232">
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="233">
@@ -6181,7 +6181,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C233" t="s">
         <v>148</v>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -321,30 +321,30 @@
     <t>alprazolam</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>non-specific organic acids</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>non-specific organic acids</t>
+    <t>sucrose</t>
   </si>
   <si>
     <t>meclonazepam</t>
   </si>
   <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
-    <t>sucrose</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
@@ -354,75 +354,75 @@
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>meconin</t>
+  </si>
+  <si>
     <t>hydrocotarnine</t>
   </si>
   <si>
-    <t>meconin</t>
+    <t>papaverine</t>
   </si>
   <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>N-methyltryptamine</t>
+  </si>
+  <si>
+    <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
     <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>MDA</t>
   </si>
   <si>
+    <t>ortho-chlorofentanyl</t>
+  </si>
+  <si>
     <t>despropionyl ortho-chlorofentanyl</t>
   </si>
   <si>
-    <t>ortho-chlorofentanyl</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -495,13 +495,22 @@
     <t>10.36</t>
   </si>
   <si>
+    <t>9.23</t>
+  </si>
+  <si>
     <t>5.81</t>
   </si>
   <si>
     <t>8.37</t>
   </si>
   <si>
-    <t>9.23</t>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>12.33</t>
   </si>
   <si>
     <t>6.48</t>
@@ -510,21 +519,12 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>6.66</t>
+    <t>9.94</t>
   </si>
   <si>
     <t>9.74</t>
   </si>
   <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
     <t>10.25</t>
   </si>
   <si>
@@ -543,27 +543,27 @@
     <t>3.28</t>
   </si>
   <si>
+    <t>7.31</t>
+  </si>
+  <si>
     <t>9.21</t>
   </si>
   <si>
-    <t>7.31</t>
-  </si>
-  <si>
     <t>5.12</t>
   </si>
   <si>
     <t>5.47</t>
   </si>
   <si>
+    <t>8.95</t>
+  </si>
+  <si>
+    <t>8.61</t>
+  </si>
+  <si>
     <t>8.54</t>
   </si>
   <si>
-    <t>8.61</t>
-  </si>
-  <si>
-    <t>8.95</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -579,12 +579,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>8.15</t>
+  </si>
+  <si>
     <t>6.12</t>
   </si>
   <si>
-    <t>8.15</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -597,12 +597,12 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>10.17</t>
+  </si>
+  <si>
     <t>9.04</t>
   </si>
   <si>
-    <t>10.17</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
@@ -633,36 +633,36 @@
     <t>9.85</t>
   </si>
   <si>
+    <t>9.49</t>
+  </si>
+  <si>
     <t>9.57</t>
   </si>
   <si>
     <t>10.03</t>
   </si>
   <si>
-    <t>9.49</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>6.15</t>
+  </si>
+  <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>6.15</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
     <t>9.09</t>
   </si>
   <si>
-    <t>10.23</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -675,15 +675,15 @@
     <t>10.41</t>
   </si>
   <si>
+    <t>9.28</t>
+  </si>
+  <si>
     <t>9.36</t>
   </si>
   <si>
     <t>9.8</t>
   </si>
   <si>
-    <t>9.28</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
@@ -696,27 +696,27 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>6.04</t>
+  </si>
+  <si>
     <t>10.47</t>
   </si>
   <si>
-    <t>6.04</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
     <t>6.58</t>
   </si>
   <si>
+    <t>3.18</t>
+  </si>
+  <si>
     <t>9.31</t>
   </si>
   <si>
     <t>10.56</t>
   </si>
   <si>
-    <t>3.18</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -729,24 +729,24 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
     <t>7.37</t>
   </si>
   <si>
-    <t>6.27</t>
-  </si>
-  <si>
     <t>9.14</t>
   </si>
   <si>
-    <t>10.3</t>
+    <t>6.36</t>
   </si>
   <si>
     <t>11.73</t>
   </si>
   <si>
-    <t>6.36</t>
-  </si>
-  <si>
     <t>6.89</t>
   </si>
   <si>
@@ -756,19 +756,19 @@
     <t>8.25</t>
   </si>
   <si>
+    <t>8.12</t>
+  </si>
+  <si>
     <t>12.62</t>
   </si>
   <si>
-    <t>8.12</t>
-  </si>
-  <si>
     <t>5.49</t>
   </si>
   <si>
+    <t>6.05</t>
+  </si>
+  <si>
     <t>10.52</t>
-  </si>
-  <si>
-    <t>6.05</t>
   </si>
   <si>
     <t>10.51</t>
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
         <v>148</v>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>148</v>
@@ -1236,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
         <v>151</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -1259,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>148</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -1282,10 +1282,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
         <v>151</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -1305,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -1328,7 +1328,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
         <v>148</v>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23">
@@ -1351,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>148</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>151</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
         <v>151</v>
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
@@ -1489,10 +1489,10 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
         <v>151</v>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -1515,7 +1515,7 @@
         <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
         <v>151</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31">
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
         <v>149</v>
@@ -1627,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
         <v>149</v>
@@ -1650,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
         <v>151</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -1673,10 +1673,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
         <v>151</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>151</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39">
@@ -1719,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>149</v>
@@ -1742,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
         <v>151</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41">
@@ -1765,10 +1765,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
         <v>151</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42">
@@ -1788,10 +1788,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
         <v>151</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43">
@@ -1857,10 +1857,10 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
         <v>151</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46">
@@ -1880,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
         <v>151</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
@@ -1926,10 +1926,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
         <v>151</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49">
@@ -1949,10 +1949,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
         <v>151</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50">
@@ -2021,7 +2021,7 @@
         <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
         <v>151</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53">
@@ -2113,7 +2113,7 @@
         <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
         <v>151</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57">
@@ -2156,7 +2156,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
         <v>148</v>
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
         <v>149</v>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
@@ -2274,7 +2274,7 @@
         <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
         <v>151</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64">
@@ -2297,7 +2297,7 @@
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
         <v>151</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -2317,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
         <v>148</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66">
@@ -2340,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
         <v>149</v>
@@ -2363,10 +2363,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
         <v>151</v>
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68">
@@ -2386,10 +2386,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
         <v>151</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69">
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
         <v>148</v>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70">
@@ -2432,10 +2432,10 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
         <v>151</v>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71">
@@ -2455,10 +2455,10 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
         <v>151</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72">
@@ -2501,7 +2501,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
         <v>148</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74">
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75">
@@ -2570,10 +2570,10 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77">
@@ -2593,10 +2593,10 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
         <v>151</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78">
@@ -2662,7 +2662,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
         <v>149</v>
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
         <v>149</v>
@@ -2708,7 +2708,7 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C82" t="s">
         <v>148</v>
@@ -2731,7 +2731,7 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s">
         <v>148</v>
@@ -2754,7 +2754,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
         <v>148</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85">
@@ -2777,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
         <v>148</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86">
@@ -2800,7 +2800,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
         <v>148</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87">
@@ -2823,7 +2823,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
         <v>148</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -2846,7 +2846,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
         <v>148</v>
@@ -2869,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
         <v>148</v>
@@ -2892,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
         <v>151</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91">
@@ -2915,7 +2915,7 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
         <v>149</v>
@@ -2938,7 +2938,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
         <v>149</v>
@@ -2961,7 +2961,7 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>148</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
@@ -2984,7 +2984,7 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
         <v>149</v>
@@ -3007,10 +3007,10 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>151</v>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
@@ -3030,7 +3030,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
         <v>148</v>
@@ -3053,7 +3053,7 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
         <v>148</v>
@@ -3191,7 +3191,7 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
         <v>148</v>
@@ -3214,7 +3214,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104" t="s">
         <v>148</v>
@@ -3237,7 +3237,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
         <v>148</v>
@@ -3283,10 +3283,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
         <v>151</v>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108">
@@ -3306,10 +3306,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D108" t="s">
         <v>151</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
@@ -3329,7 +3329,7 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" t="s">
         <v>148</v>
@@ -3352,7 +3352,7 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
         <v>148</v>
@@ -3375,7 +3375,7 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
         <v>148</v>
@@ -3398,7 +3398,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C112" t="s">
         <v>148</v>
@@ -3421,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C113" t="s">
         <v>149</v>
@@ -3444,7 +3444,7 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
         <v>148</v>
@@ -3467,7 +3467,7 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
         <v>149</v>
@@ -3490,7 +3490,7 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
         <v>149</v>
@@ -3513,7 +3513,7 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>149</v>
@@ -3536,7 +3536,7 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
         <v>148</v>
@@ -3585,7 +3585,7 @@
         <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D120" t="s">
         <v>151</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
@@ -3605,10 +3605,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D121" t="s">
         <v>151</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122">
@@ -3743,7 +3743,7 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
         <v>148</v>
@@ -3766,10 +3766,10 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D128" t="s">
         <v>151</v>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
@@ -3789,10 +3789,10 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D129" t="s">
         <v>151</v>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130">
@@ -3812,7 +3812,7 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C130" t="s">
         <v>148</v>
@@ -3858,7 +3858,7 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C132" t="s">
         <v>148</v>
@@ -3904,7 +3904,7 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C134" t="s">
         <v>148</v>
@@ -3973,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C137" t="s">
         <v>148</v>
@@ -4019,7 +4019,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C139" t="s">
         <v>149</v>
@@ -4045,7 +4045,7 @@
         <v>103</v>
       </c>
       <c r="C140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D140" t="s">
         <v>151</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141">
@@ -4068,7 +4068,7 @@
         <v>104</v>
       </c>
       <c r="C141" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D141" t="s">
         <v>151</v>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142">
@@ -4111,7 +4111,7 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C143" t="s">
         <v>148</v>
@@ -4157,7 +4157,7 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C145" t="s">
         <v>148</v>
@@ -4180,10 +4180,10 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D146" t="s">
         <v>151</v>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147">
@@ -4203,10 +4203,10 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D147" t="s">
         <v>151</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148">
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149">
@@ -4249,7 +4249,7 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C149" t="s">
         <v>149</v>
@@ -4272,10 +4272,10 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D150" t="s">
         <v>151</v>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151">
@@ -4295,10 +4295,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D151" t="s">
         <v>151</v>
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152">
@@ -4318,7 +4318,7 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C152" t="s">
         <v>148</v>
@@ -4456,7 +4456,7 @@
         <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C158" t="s">
         <v>148</v>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159">
@@ -4525,10 +4525,10 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C161" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D161" t="s">
         <v>151</v>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162">
@@ -4548,10 +4548,10 @@
         <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D162" t="s">
         <v>151</v>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163">
@@ -4640,7 +4640,7 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C166" t="s">
         <v>148</v>
@@ -4663,10 +4663,10 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C167" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D167" t="s">
         <v>151</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168">
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="169">
@@ -4709,10 +4709,10 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C169" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D169" t="s">
         <v>151</v>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170">
@@ -4732,10 +4732,10 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D170" t="s">
         <v>151</v>
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171">
@@ -4755,10 +4755,10 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C171" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D171" t="s">
         <v>151</v>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
     </row>
     <row r="172">
@@ -4778,7 +4778,7 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C172" t="s">
         <v>148</v>
@@ -4801,7 +4801,7 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C173" t="s">
         <v>148</v>
@@ -4824,7 +4824,7 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C174" t="s">
         <v>148</v>
@@ -4847,10 +4847,10 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C175" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D175" t="s">
         <v>151</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176">
@@ -4870,10 +4870,10 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D176" t="s">
         <v>151</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177">
@@ -4893,7 +4893,7 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C177" t="s">
         <v>149</v>
@@ -4939,7 +4939,7 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C179" t="s">
         <v>148</v>
@@ -4962,7 +4962,7 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C180" t="s">
         <v>148</v>
@@ -4985,10 +4985,10 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C181" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D181" t="s">
         <v>151</v>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182">
@@ -5008,10 +5008,10 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D182" t="s">
         <v>151</v>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183">
@@ -5054,7 +5054,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C184" t="s">
         <v>149</v>
@@ -5077,7 +5077,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C185" t="s">
         <v>149</v>
@@ -5100,7 +5100,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C186" t="s">
         <v>149</v>
@@ -5123,7 +5123,7 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C187" t="s">
         <v>149</v>
@@ -5146,10 +5146,10 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C188" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D188" t="s">
         <v>151</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>246</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189">
@@ -5169,7 +5169,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C189" t="s">
         <v>149</v>
@@ -5192,7 +5192,7 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C190" t="s">
         <v>149</v>
@@ -5215,10 +5215,10 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C191" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D191" t="s">
         <v>151</v>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192">
@@ -5261,7 +5261,7 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C193" t="s">
         <v>148</v>
@@ -5284,7 +5284,7 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C194" t="s">
         <v>148</v>
@@ -5307,10 +5307,10 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D195" t="s">
         <v>151</v>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196">
@@ -5353,10 +5353,10 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C197" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D197" t="s">
         <v>151</v>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198">
@@ -5445,7 +5445,7 @@
         <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C201" t="s">
         <v>149</v>
@@ -5468,7 +5468,7 @@
         <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C202" t="s">
         <v>149</v>
@@ -5491,7 +5491,7 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C203" t="s">
         <v>148</v>
@@ -5537,10 +5537,10 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C205" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D205" t="s">
         <v>151</v>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
     </row>
     <row r="206">
@@ -5583,10 +5583,10 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C207" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D207" t="s">
         <v>151</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208">
@@ -5606,7 +5606,7 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C208" t="s">
         <v>148</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209">
@@ -5629,10 +5629,10 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C209" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D209" t="s">
         <v>151</v>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210">
@@ -5652,10 +5652,10 @@
         <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C210" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D210" t="s">
         <v>151</v>
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>156</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211">
@@ -5675,10 +5675,10 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C211" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D211" t="s">
         <v>151</v>
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>246</v>
+        <v>156</v>
       </c>
     </row>
     <row r="212">
@@ -5698,10 +5698,10 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C212" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D212" t="s">
         <v>151</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213">
@@ -5721,7 +5721,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C213" t="s">
         <v>149</v>
@@ -5836,10 +5836,10 @@
         <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C218" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D218" t="s">
         <v>151</v>
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="219">
@@ -5859,10 +5859,10 @@
         <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C219" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D219" t="s">
         <v>151</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220">
@@ -5928,10 +5928,10 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C222" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D222" t="s">
         <v>151</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223">
@@ -5951,10 +5951,10 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C223" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D223" t="s">
         <v>151</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224">
@@ -5974,7 +5974,7 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C224" t="s">
         <v>149</v>
@@ -5997,10 +5997,10 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D225" t="s">
         <v>151</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226">
@@ -6020,7 +6020,7 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C226" t="s">
         <v>149</v>
@@ -6043,7 +6043,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C227" t="s">
         <v>149</v>
@@ -6066,10 +6066,10 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C228" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D228" t="s">
         <v>151</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
     </row>
     <row r="229">
@@ -6089,7 +6089,7 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C229" t="s">
         <v>149</v>
@@ -6112,7 +6112,7 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C230" t="s">
         <v>148</v>
@@ -6135,7 +6135,7 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C231" t="s">
         <v>149</v>
@@ -6158,7 +6158,7 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C232" t="s">
         <v>149</v>
@@ -6181,7 +6181,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C233" t="s">
         <v>148</v>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -309,15 +309,15 @@
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>inositol</t>
   </si>
   <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
@@ -363,12 +363,12 @@
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>meconin</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
     <t>papaverine</t>
   </si>
   <si>
@@ -381,21 +381,21 @@
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>tropacocaine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
@@ -405,24 +405,24 @@
     <t>N-methyltryptamine</t>
   </si>
   <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
+  </si>
+  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>MDA</t>
   </si>
   <si>
+    <t>despropionyl ortho-chlorofentanyl</t>
+  </si>
+  <si>
     <t>ortho-chlorofentanyl</t>
   </si>
   <si>
-    <t>despropionyl ortho-chlorofentanyl</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -486,12 +486,12 @@
     <t>.</t>
   </si>
   <si>
+    <t>8.92</t>
+  </si>
+  <si>
     <t>8.53</t>
   </si>
   <si>
-    <t>8.92</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
@@ -504,21 +504,21 @@
     <t>8.37</t>
   </si>
   <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
     <t>6.66</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
     <t>9.94</t>
   </si>
   <si>
@@ -534,12 +534,12 @@
     <t>9.27</t>
   </si>
   <si>
+    <t>8.49</t>
+  </si>
+  <si>
     <t>6.11</t>
   </si>
   <si>
-    <t>8.49</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -558,12 +558,12 @@
     <t>8.95</t>
   </si>
   <si>
+    <t>8.54</t>
+  </si>
+  <si>
     <t>8.61</t>
   </si>
   <si>
-    <t>8.54</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -579,12 +579,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>6.12</t>
+  </si>
+  <si>
     <t>8.15</t>
   </si>
   <si>
-    <t>6.12</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -633,12 +633,12 @@
     <t>9.85</t>
   </si>
   <si>
+    <t>9.57</t>
+  </si>
+  <si>
     <t>9.49</t>
   </si>
   <si>
-    <t>9.57</t>
-  </si>
-  <si>
     <t>10.03</t>
   </si>
   <si>
@@ -675,12 +675,12 @@
     <t>10.41</t>
   </si>
   <si>
+    <t>9.36</t>
+  </si>
+  <si>
     <t>9.28</t>
   </si>
   <si>
-    <t>9.36</t>
-  </si>
-  <si>
     <t>9.8</t>
   </si>
   <si>
@@ -696,12 +696,12 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>10.47</t>
+  </si>
+  <si>
     <t>6.04</t>
   </si>
   <si>
-    <t>10.47</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
@@ -711,12 +711,12 @@
     <t>3.18</t>
   </si>
   <si>
+    <t>10.56</t>
+  </si>
+  <si>
     <t>9.31</t>
   </si>
   <si>
-    <t>10.56</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -729,12 +729,12 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>6.27</t>
-  </si>
-  <si>
     <t>7.37</t>
   </si>
   <si>
@@ -765,10 +765,10 @@
     <t>5.49</t>
   </si>
   <si>
+    <t>10.52</t>
+  </si>
+  <si>
     <t>6.05</t>
-  </si>
-  <si>
-    <t>10.52</t>
   </si>
   <si>
     <t>10.51</t>
@@ -917,7 +917,7 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>151</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
@@ -940,7 +940,7 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>151</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>148</v>
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -1351,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
         <v>148</v>
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>148</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
         <v>149</v>
@@ -1489,10 +1489,10 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
         <v>151</v>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
@@ -1512,10 +1512,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
         <v>151</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31">
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
         <v>149</v>
@@ -1673,10 +1673,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>151</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38">
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
         <v>151</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1719,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>149</v>
@@ -1742,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>151</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>148</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42">
@@ -1788,10 +1788,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
         <v>151</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43">
@@ -1857,10 +1857,10 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
         <v>151</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
@@ -1880,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
         <v>151</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
@@ -1975,7 +1975,7 @@
         <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
         <v>151</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52">
@@ -2021,7 +2021,7 @@
         <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
         <v>151</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
         <v>149</v>
@@ -2274,7 +2274,7 @@
         <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
         <v>151</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64">
@@ -2297,7 +2297,7 @@
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
         <v>151</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65">
@@ -2317,10 +2317,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
         <v>151</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
@@ -2340,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
         <v>149</v>
@@ -2363,10 +2363,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>151</v>
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68">
@@ -2547,7 +2547,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
         <v>148</v>
@@ -2593,7 +2593,7 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
         <v>149</v>
@@ -2662,7 +2662,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
         <v>149</v>
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
         <v>149</v>
@@ -2892,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D90" t="s">
         <v>151</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -2915,7 +2915,7 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
         <v>149</v>
@@ -2961,10 +2961,10 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
         <v>151</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
@@ -2984,10 +2984,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
         <v>151</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
@@ -3007,7 +3007,7 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
         <v>148</v>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
@@ -3030,7 +3030,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
         <v>148</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
@@ -3053,10 +3053,10 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
         <v>151</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
@@ -3467,7 +3467,7 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
         <v>149</v>
@@ -3490,7 +3490,7 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
         <v>149</v>
@@ -3513,10 +3513,10 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" t="s">
         <v>151</v>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118">
@@ -3536,10 +3536,10 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D118" t="s">
         <v>151</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
@@ -3605,10 +3605,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D121" t="s">
         <v>151</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
@@ -3628,10 +3628,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
         <v>151</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123">
@@ -3651,10 +3651,10 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D123" t="s">
         <v>151</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124">
@@ -3674,10 +3674,10 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D124" t="s">
         <v>151</v>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
@@ -3743,10 +3743,10 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D127" t="s">
         <v>151</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
@@ -3766,10 +3766,10 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D128" t="s">
         <v>151</v>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129">
@@ -3789,7 +3789,7 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s">
         <v>148</v>
@@ -3812,7 +3812,7 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C130" t="s">
         <v>148</v>
@@ -3973,10 +3973,10 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D137" t="s">
         <v>151</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
@@ -3996,7 +3996,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C138" t="s">
         <v>149</v>
@@ -4019,10 +4019,10 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D139" t="s">
         <v>151</v>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140">
@@ -4042,10 +4042,10 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D140" t="s">
         <v>151</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141">
@@ -4065,10 +4065,10 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D141" t="s">
         <v>151</v>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142">
@@ -4088,7 +4088,7 @@
         <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C142" t="s">
         <v>148</v>
@@ -4180,7 +4180,7 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C146" t="s">
         <v>148</v>
@@ -4203,7 +4203,7 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C147" t="s">
         <v>149</v>
@@ -4226,10 +4226,10 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D148" t="s">
         <v>151</v>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149">
@@ -4249,10 +4249,10 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D149" t="s">
         <v>151</v>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
     </row>
     <row r="150">
@@ -4272,10 +4272,10 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150" t="s">
         <v>151</v>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151">
@@ -4295,10 +4295,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C151" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D151" t="s">
         <v>151</v>
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152">
@@ -4387,7 +4387,7 @@
         <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C155" t="s">
         <v>148</v>
@@ -4410,7 +4410,7 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C156" t="s">
         <v>148</v>
@@ -4571,7 +4571,7 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C163" t="s">
         <v>148</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164">
@@ -4594,7 +4594,7 @@
         <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C164" t="s">
         <v>148</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165">
@@ -4640,10 +4640,10 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C166" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D166" t="s">
         <v>151</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167">
@@ -4663,10 +4663,10 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D167" t="s">
         <v>151</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
     </row>
     <row r="168">
@@ -4686,7 +4686,7 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C168" t="s">
         <v>148</v>
@@ -4709,7 +4709,7 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C169" t="s">
         <v>149</v>
@@ -4870,10 +4870,10 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C176" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D176" t="s">
         <v>151</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177">
@@ -4893,10 +4893,10 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D177" t="s">
         <v>151</v>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178">
@@ -4916,10 +4916,10 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C178" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D178" t="s">
         <v>151</v>
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179">
@@ -4939,10 +4939,10 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C179" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D179" t="s">
         <v>151</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180">
@@ -4985,10 +4985,10 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C181" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D181" t="s">
         <v>151</v>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
     </row>
     <row r="182">
@@ -5008,10 +5008,10 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C182" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D182" t="s">
         <v>151</v>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183">
@@ -5031,7 +5031,7 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C183" t="s">
         <v>149</v>
@@ -5054,7 +5054,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C184" t="s">
         <v>149</v>
@@ -5077,7 +5077,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C185" t="s">
         <v>149</v>
@@ -5100,7 +5100,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C186" t="s">
         <v>149</v>
@@ -5123,7 +5123,7 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C187" t="s">
         <v>149</v>
@@ -5146,7 +5146,7 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C188" t="s">
         <v>149</v>
@@ -5169,7 +5169,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C189" t="s">
         <v>149</v>
@@ -5192,10 +5192,10 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D190" t="s">
         <v>151</v>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191">
@@ -5215,10 +5215,10 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C191" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D191" t="s">
         <v>151</v>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>246</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192">
@@ -5307,10 +5307,10 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C195" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D195" t="s">
         <v>151</v>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196">
@@ -5330,10 +5330,10 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C196" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D196" t="s">
         <v>151</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197">
@@ -5491,7 +5491,7 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C203" t="s">
         <v>148</v>
@@ -5514,7 +5514,7 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C204" t="s">
         <v>148</v>
@@ -5537,7 +5537,7 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C205" t="s">
         <v>149</v>
@@ -5560,7 +5560,7 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C206" t="s">
         <v>148</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207">
@@ -5583,7 +5583,7 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C207" t="s">
         <v>148</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208">
@@ -5606,10 +5606,10 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C208" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D208" t="s">
         <v>151</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209">
@@ -5629,10 +5629,10 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D209" t="s">
         <v>151</v>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210">
@@ -5675,7 +5675,7 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C211" t="s">
         <v>149</v>
@@ -5997,10 +5997,10 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C225" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D225" t="s">
         <v>151</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
     </row>
     <row r="226">
@@ -6020,10 +6020,10 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C226" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D226" t="s">
         <v>151</v>
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227">
@@ -6043,7 +6043,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C227" t="s">
         <v>149</v>
@@ -6066,7 +6066,7 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C228" t="s">
         <v>149</v>
@@ -6089,7 +6089,7 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C229" t="s">
         <v>149</v>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -306,75 +306,75 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>inositol</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>meclonazepam</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
+  </si>
+  <si>
     <t>non-specific organic acids</t>
   </si>
   <si>
-    <t>clonazolam</t>
+    <t>sucrose</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>sucrose</t>
-  </si>
-  <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>noscapine</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>meconin</t>
+  </si>
+  <si>
     <t>hydrocotarnine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
-    <t>noscapine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
@@ -384,30 +384,30 @@
     <t>phenacetin</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
     <t>norcocaine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>levamisole</t>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -417,12 +417,12 @@
     <t>MDA</t>
   </si>
   <si>
+    <t>ortho-chlorofentanyl</t>
+  </si>
+  <si>
     <t>despropionyl ortho-chlorofentanyl</t>
   </si>
   <si>
-    <t>ortho-chlorofentanyl</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -441,12 +441,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>ecgonidine (ED)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>flubromazolam</t>
   </si>
   <si>
@@ -483,63 +483,63 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.92</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>8.92</t>
-  </si>
-  <si>
     <t>8.53</t>
   </si>
   <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>5.81</t>
+  </si>
+  <si>
     <t>9.23</t>
   </si>
   <si>
-    <t>5.81</t>
-  </si>
-  <si>
     <t>8.37</t>
   </si>
   <si>
+    <t>9.74</t>
+  </si>
+  <si>
     <t>9.24</t>
   </si>
   <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
     <t>7.3</t>
   </si>
   <si>
-    <t>12.33</t>
+    <t>9.94</t>
   </si>
   <si>
     <t>6.48</t>
   </si>
   <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
     <t>10.25</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>8.49</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -624,42 +624,42 @@
     <t>5.22</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>10.49</t>
   </si>
   <si>
-    <t>9.26</t>
+    <t>9.57</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>10.03</t>
   </si>
   <si>
     <t>9.85</t>
   </si>
   <si>
-    <t>9.57</t>
-  </si>
-  <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>10.03</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>9.11</t>
+  </si>
+  <si>
     <t>6.15</t>
   </si>
   <si>
-    <t>9.11</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
+    <t>5.05</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
-    <t>5.05</t>
-  </si>
-  <si>
     <t>9.09</t>
   </si>
   <si>
@@ -675,15 +675,15 @@
     <t>10.41</t>
   </si>
   <si>
+    <t>9.8</t>
+  </si>
+  <si>
     <t>9.36</t>
   </si>
   <si>
     <t>9.28</t>
   </si>
   <si>
-    <t>9.8</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
@@ -711,12 +711,12 @@
     <t>3.18</t>
   </si>
   <si>
+    <t>9.31</t>
+  </si>
+  <si>
     <t>10.56</t>
   </si>
   <si>
-    <t>9.31</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -729,18 +729,18 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
     <t>6.27</t>
   </si>
   <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>7.37</t>
-  </si>
-  <si>
-    <t>9.14</t>
-  </si>
-  <si>
     <t>6.36</t>
   </si>
   <si>
@@ -750,10 +750,10 @@
     <t>6.89</t>
   </si>
   <si>
+    <t>8.25</t>
+  </si>
+  <si>
     <t>4.81</t>
-  </si>
-  <si>
-    <t>8.25</t>
   </si>
   <si>
     <t>8.12</t>
@@ -894,7 +894,7 @@
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
         <v>151</v>
@@ -917,7 +917,7 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>151</v>
@@ -940,7 +940,7 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
         <v>151</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
         <v>151</v>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>148</v>
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
@@ -1259,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>148</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
@@ -1466,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
         <v>151</v>
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
@@ -1489,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>148</v>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31">
@@ -1535,10 +1535,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
         <v>151</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32">
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1650,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>149</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
@@ -1673,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>149</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
         <v>148</v>
@@ -1719,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
         <v>151</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40">
@@ -1742,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
         <v>151</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41">
@@ -1765,10 +1765,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
         <v>151</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42">
@@ -1788,10 +1788,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
         <v>151</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43">
@@ -1880,7 +1880,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
         <v>149</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47">
@@ -1926,10 +1926,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
         <v>151</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49">
@@ -1949,10 +1949,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
         <v>151</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50">
@@ -1998,7 +1998,7 @@
         <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
         <v>151</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
@@ -2021,7 +2021,7 @@
         <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
         <v>151</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56">
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
@@ -2133,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
         <v>149</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58">
@@ -2159,7 +2159,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
         <v>151</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
@@ -2179,10 +2179,10 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
         <v>151</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60">
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63">
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64">
@@ -2317,10 +2317,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
         <v>151</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66">
@@ -2340,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
         <v>149</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67">
@@ -2363,10 +2363,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
         <v>151</v>
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68">
@@ -2386,7 +2386,7 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
         <v>148</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69">
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
         <v>148</v>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70">
@@ -2432,10 +2432,10 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
         <v>151</v>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71">
@@ -2455,10 +2455,10 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
         <v>151</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
@@ -2501,7 +2501,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
         <v>148</v>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75">
@@ -2547,7 +2547,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
         <v>148</v>
@@ -2570,7 +2570,7 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
         <v>148</v>
@@ -2593,7 +2593,7 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
         <v>149</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78">
@@ -2665,7 +2665,7 @@
         <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" t="s">
         <v>151</v>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
         <v>149</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82">
@@ -2708,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D82" t="s">
         <v>151</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83">
@@ -2731,7 +2731,7 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
         <v>148</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
@@ -2754,7 +2754,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
         <v>148</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -2777,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
         <v>148</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86">
@@ -2800,7 +2800,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
         <v>148</v>
@@ -2846,7 +2846,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
         <v>148</v>
@@ -2869,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
         <v>148</v>
@@ -2892,7 +2892,7 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
         <v>148</v>
@@ -2915,7 +2915,7 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
         <v>149</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
@@ -2938,7 +2938,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C92" t="s">
         <v>149</v>
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93">
@@ -2961,10 +2961,10 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
         <v>151</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
@@ -2984,10 +2984,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
         <v>151</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
@@ -3007,7 +3007,7 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>148</v>
@@ -3030,7 +3030,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
         <v>148</v>
@@ -3053,7 +3053,7 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
         <v>149</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
@@ -3145,7 +3145,7 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
         <v>148</v>
@@ -3168,10 +3168,10 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D102" t="s">
         <v>151</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103">
@@ -3191,7 +3191,7 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
         <v>148</v>
@@ -3214,10 +3214,10 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D104" t="s">
         <v>151</v>
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
@@ -3237,7 +3237,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s">
         <v>148</v>
@@ -3283,7 +3283,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
         <v>148</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
@@ -3329,7 +3329,7 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
         <v>148</v>
@@ -3352,7 +3352,7 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s">
         <v>148</v>
@@ -3421,10 +3421,10 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D113" t="s">
         <v>151</v>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114">
@@ -3444,10 +3444,10 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D114" t="s">
         <v>151</v>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
@@ -3467,7 +3467,7 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
         <v>149</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
@@ -3490,10 +3490,10 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D116" t="s">
         <v>151</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117">
@@ -3513,10 +3513,10 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D117" t="s">
         <v>151</v>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
@@ -3536,7 +3536,7 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
         <v>149</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
@@ -3559,7 +3559,7 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
         <v>149</v>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
@@ -3582,10 +3582,10 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D120" t="s">
         <v>151</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121">
@@ -3605,7 +3605,7 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C121" t="s">
         <v>149</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
@@ -3628,10 +3628,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C122" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D122" t="s">
         <v>151</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
@@ -3743,10 +3743,10 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D127" t="s">
         <v>151</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128">
@@ -3766,10 +3766,10 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D128" t="s">
         <v>151</v>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
@@ -3812,7 +3812,7 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C130" t="s">
         <v>148</v>
@@ -3858,7 +3858,7 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C132" t="s">
         <v>148</v>
@@ -3904,7 +3904,7 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C134" t="s">
         <v>148</v>
@@ -3927,7 +3927,7 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C135" t="s">
         <v>149</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136">
@@ -3973,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C137" t="s">
         <v>149</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138">
@@ -3996,7 +3996,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C138" t="s">
         <v>149</v>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139">
@@ -4019,7 +4019,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C139" t="s">
         <v>148</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141">
@@ -4065,7 +4065,7 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -4088,7 +4088,7 @@
         <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C142" t="s">
         <v>148</v>
@@ -4111,10 +4111,10 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D143" t="s">
         <v>151</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144">
@@ -4134,10 +4134,10 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D144" t="s">
         <v>151</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145">
@@ -4157,7 +4157,7 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C145" t="s">
         <v>148</v>
@@ -4180,10 +4180,10 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D146" t="s">
         <v>151</v>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147">
@@ -4206,7 +4206,7 @@
         <v>97</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D147" t="s">
         <v>151</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148">
@@ -4226,10 +4226,10 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D148" t="s">
         <v>151</v>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149">
@@ -4249,10 +4249,10 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D149" t="s">
         <v>151</v>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150">
@@ -4272,10 +4272,10 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D150" t="s">
         <v>151</v>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151">
@@ -4295,10 +4295,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D151" t="s">
         <v>151</v>
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152">
@@ -4318,7 +4318,7 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C152" t="s">
         <v>148</v>
@@ -4341,7 +4341,7 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C153" t="s">
         <v>148</v>
@@ -4364,10 +4364,10 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D154" t="s">
         <v>151</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155">
@@ -4387,7 +4387,7 @@
         <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C155" t="s">
         <v>148</v>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156">
@@ -4410,10 +4410,10 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D156" t="s">
         <v>151</v>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157">
@@ -4456,7 +4456,7 @@
         <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C158" t="s">
         <v>148</v>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159">
@@ -4479,7 +4479,7 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C159" t="s">
         <v>148</v>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160">
@@ -4502,7 +4502,7 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C160" t="s">
         <v>148</v>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
     </row>
     <row r="161">
@@ -4525,10 +4525,10 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C161" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D161" t="s">
         <v>151</v>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162">
@@ -4548,10 +4548,10 @@
         <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C162" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D162" t="s">
         <v>151</v>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163">
@@ -4571,7 +4571,7 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C163" t="s">
         <v>148</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164">
@@ -4594,7 +4594,7 @@
         <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C164" t="s">
         <v>148</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165">
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167">
@@ -4663,10 +4663,10 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C167" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D167" t="s">
         <v>151</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168">
@@ -4686,7 +4686,7 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C168" t="s">
         <v>148</v>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="169">
@@ -4709,10 +4709,10 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D169" t="s">
         <v>151</v>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170">
@@ -4732,7 +4732,7 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C170" t="s">
         <v>148</v>
@@ -4755,7 +4755,7 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C171" t="s">
         <v>148</v>
@@ -4778,7 +4778,7 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C172" t="s">
         <v>148</v>
@@ -4847,7 +4847,7 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C175" t="s">
         <v>149</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176">
@@ -4870,10 +4870,10 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D176" t="s">
         <v>151</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177">
@@ -4893,10 +4893,10 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C177" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D177" t="s">
         <v>151</v>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178">
@@ -4916,7 +4916,7 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C178" t="s">
         <v>148</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180">
@@ -4962,7 +4962,7 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C180" t="s">
         <v>148</v>
@@ -4985,7 +4985,7 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C181" t="s">
         <v>148</v>
@@ -5008,7 +5008,7 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C182" t="s">
         <v>149</v>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183">
@@ -5031,7 +5031,7 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C183" t="s">
         <v>149</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184">
@@ -5054,7 +5054,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C184" t="s">
         <v>149</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185">
@@ -5077,7 +5077,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C185" t="s">
         <v>149</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186">
@@ -5100,7 +5100,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C186" t="s">
         <v>149</v>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187">
@@ -5123,7 +5123,7 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C187" t="s">
         <v>149</v>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188">
@@ -5146,10 +5146,10 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C188" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D188" t="s">
         <v>151</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189">
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190">
@@ -5192,10 +5192,10 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C190" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D190" t="s">
         <v>151</v>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191">
@@ -5215,7 +5215,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C191" t="s">
         <v>149</v>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192">
@@ -5261,7 +5261,7 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C193" t="s">
         <v>148</v>
@@ -5284,7 +5284,7 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C194" t="s">
         <v>148</v>
@@ -5307,10 +5307,10 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D195" t="s">
         <v>151</v>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196">
@@ -5330,10 +5330,10 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C196" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D196" t="s">
         <v>151</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197">
@@ -5353,7 +5353,7 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C197" t="s">
         <v>149</v>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="198">
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202">
@@ -5468,10 +5468,10 @@
         <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C202" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D202" t="s">
         <v>151</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204">
@@ -5514,10 +5514,10 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C204" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D204" t="s">
         <v>151</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205">
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="206">
@@ -5560,7 +5560,7 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C206" t="s">
         <v>148</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207">
@@ -5583,7 +5583,7 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C207" t="s">
         <v>148</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208">
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="209">
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210">
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="211">
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="212">
@@ -5698,7 +5698,7 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C212" t="s">
         <v>148</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213">
@@ -5721,7 +5721,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C213" t="s">
         <v>149</v>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="214">
@@ -5767,10 +5767,10 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C215" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D215" t="s">
         <v>151</v>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216">
@@ -5790,10 +5790,10 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C216" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D216" t="s">
         <v>151</v>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217">
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="219">
@@ -5859,7 +5859,7 @@
         <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C219" t="s">
         <v>148</v>
@@ -5928,7 +5928,7 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C222" t="s">
         <v>149</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223">
@@ -5951,7 +5951,7 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C223" t="s">
         <v>148</v>
@@ -5974,7 +5974,7 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C224" t="s">
         <v>149</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="225">
@@ -5997,7 +5997,7 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C225" t="s">
         <v>149</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="226">
@@ -6020,7 +6020,7 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C226" t="s">
         <v>148</v>
@@ -6043,7 +6043,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C227" t="s">
         <v>149</v>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="228">
@@ -6066,7 +6066,7 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C228" t="s">
         <v>149</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="229">
@@ -6089,7 +6089,7 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C229" t="s">
         <v>149</v>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="230">
@@ -6112,10 +6112,10 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C230" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D230" t="s">
         <v>151</v>
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
     </row>
     <row r="231">
@@ -6135,10 +6135,10 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C231" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D231" t="s">
         <v>151</v>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232">
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="233">
@@ -6181,7 +6181,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C233" t="s">
         <v>148</v>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -306,111 +306,111 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>inositol</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>non-specific organic acids</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
   </si>
   <si>
     <t>meclonazepam</t>
   </si>
   <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
-    <t>sucrose</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
     <t>noscapine</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>papaverine</t>
   </si>
   <si>
     <t>meconin</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>phenacetin</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
+    <t>N,N-dimethyltryptamine (DMT)</t>
+  </si>
+  <si>
+    <t>N-methyltryptamine</t>
   </si>
   <si>
     <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -483,52 +483,55 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>8.53</t>
+  </si>
+  <si>
     <t>8.92</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>8.53</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>8.37</t>
+  </si>
+  <si>
     <t>5.81</t>
   </si>
   <si>
-    <t>9.23</t>
-  </si>
-  <si>
-    <t>8.37</t>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>6.66</t>
   </si>
   <si>
     <t>9.74</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>6.48</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>10.25</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>9.27</t>
   </si>
   <si>
     <t>6.11</t>
@@ -537,9 +540,6 @@
     <t>8.49</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -555,15 +555,15 @@
     <t>5.47</t>
   </si>
   <si>
+    <t>8.61</t>
+  </si>
+  <si>
     <t>8.95</t>
   </si>
   <si>
     <t>8.54</t>
   </si>
   <si>
-    <t>8.61</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -579,12 +579,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>8.15</t>
+  </si>
+  <si>
     <t>6.12</t>
   </si>
   <si>
-    <t>8.15</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -597,21 +597,21 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>9.04</t>
+  </si>
+  <si>
     <t>10.17</t>
   </si>
   <si>
-    <t>9.04</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
+    <t>9.83</t>
+  </si>
+  <si>
     <t>9.32</t>
   </si>
   <si>
-    <t>9.83</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -630,18 +630,18 @@
     <t>10.49</t>
   </si>
   <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
     <t>9.57</t>
   </si>
   <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>10.03</t>
-  </si>
-  <si>
-    <t>9.85</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
@@ -654,15 +654,15 @@
     <t>15.12</t>
   </si>
   <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>5.05</t>
   </si>
   <si>
-    <t>10.23</t>
-  </si>
-  <si>
-    <t>9.09</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -696,27 +696,27 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>6.04</t>
+  </si>
+  <si>
     <t>10.47</t>
   </si>
   <si>
-    <t>6.04</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
     <t>6.58</t>
   </si>
   <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>9.31</t>
+  </si>
+  <si>
     <t>3.18</t>
   </si>
   <si>
-    <t>9.31</t>
-  </si>
-  <si>
-    <t>10.56</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -729,37 +729,37 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
     <t>9.14</t>
   </si>
   <si>
     <t>7.37</t>
   </si>
   <si>
-    <t>6.27</t>
-  </si>
-  <si>
-    <t>10.3</t>
+    <t>11.73</t>
   </si>
   <si>
     <t>6.36</t>
   </si>
   <si>
-    <t>11.73</t>
-  </si>
-  <si>
     <t>6.89</t>
   </si>
   <si>
+    <t>4.81</t>
+  </si>
+  <si>
     <t>8.25</t>
   </si>
   <si>
-    <t>4.81</t>
+    <t>12.62</t>
   </si>
   <si>
     <t>8.12</t>
-  </si>
-  <si>
-    <t>12.62</t>
   </si>
   <si>
     <t>5.49</t>
@@ -894,7 +894,7 @@
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>151</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
         <v>151</v>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>148</v>
@@ -1236,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
         <v>151</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -1259,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
         <v>151</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
         <v>148</v>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24">
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25">
@@ -1423,7 +1423,7 @@
         <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
         <v>151</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
         <v>149</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28">
@@ -1466,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>149</v>
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29">
@@ -1489,10 +1489,10 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
         <v>151</v>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -1512,10 +1512,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
         <v>151</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31">
@@ -1535,10 +1535,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
         <v>151</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32">
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
@@ -1627,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
         <v>149</v>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36">
@@ -1650,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
         <v>149</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38">
@@ -1719,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
         <v>151</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
         <v>149</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42">
@@ -1788,10 +1788,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
         <v>151</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43">
@@ -1857,10 +1857,10 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
         <v>151</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46">
@@ -1880,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
         <v>151</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
@@ -1926,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
         <v>148</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50">
@@ -1975,7 +1975,7 @@
         <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>151</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51">
@@ -1998,7 +1998,7 @@
         <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
         <v>151</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52">
@@ -2021,7 +2021,7 @@
         <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
         <v>151</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56">
@@ -2113,7 +2113,7 @@
         <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
         <v>151</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57">
@@ -2133,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>149</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58">
@@ -2156,7 +2156,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
         <v>149</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59">
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
         <v>148</v>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
@@ -2251,7 +2251,7 @@
         <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
         <v>151</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63">
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64">
@@ -2297,7 +2297,7 @@
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
         <v>151</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
@@ -2340,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
         <v>149</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67">
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68">
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
         <v>148</v>
@@ -2432,7 +2432,7 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
         <v>148</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72">
@@ -2501,7 +2501,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
         <v>148</v>
@@ -2524,7 +2524,7 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
         <v>148</v>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75">
@@ -2547,7 +2547,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
         <v>148</v>
@@ -2570,10 +2570,10 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77">
@@ -2593,10 +2593,10 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
         <v>151</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -2662,10 +2662,10 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D80" t="s">
         <v>151</v>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81">
@@ -2688,7 +2688,7 @@
         <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
         <v>151</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82">
@@ -2708,7 +2708,7 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
         <v>149</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84">
@@ -2754,7 +2754,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
         <v>148</v>
@@ -2777,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
         <v>148</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86">
@@ -2800,7 +2800,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
         <v>148</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -2823,7 +2823,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
         <v>148</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88">
@@ -2846,7 +2846,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
         <v>148</v>
@@ -2869,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
         <v>148</v>
@@ -2892,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
         <v>151</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91">
@@ -2915,7 +2915,7 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
         <v>149</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92">
@@ -2938,7 +2938,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
         <v>149</v>
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
@@ -2961,7 +2961,7 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>148</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
@@ -2984,7 +2984,7 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C94" t="s">
         <v>149</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
@@ -3007,7 +3007,7 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
         <v>148</v>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
@@ -3053,10 +3053,10 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
         <v>151</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
@@ -3145,7 +3145,7 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
         <v>148</v>
@@ -3168,7 +3168,7 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
         <v>148</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104">
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
@@ -3237,7 +3237,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
         <v>148</v>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106">
@@ -3283,10 +3283,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D107" t="s">
         <v>151</v>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
@@ -3306,10 +3306,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D108" t="s">
         <v>151</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109">
@@ -3329,7 +3329,7 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C109" t="s">
         <v>148</v>
@@ -3375,7 +3375,7 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C111" t="s">
         <v>148</v>
@@ -3398,7 +3398,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
         <v>148</v>
@@ -3421,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
         <v>148</v>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
@@ -3467,7 +3467,7 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
         <v>149</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
@@ -3490,7 +3490,7 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>148</v>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
@@ -3536,7 +3536,7 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
         <v>149</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
@@ -3559,7 +3559,7 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
         <v>149</v>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
@@ -3582,10 +3582,10 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D120" t="s">
         <v>151</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
@@ -3605,10 +3605,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D121" t="s">
         <v>151</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122">
@@ -3628,7 +3628,7 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
         <v>149</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
@@ -3651,10 +3651,10 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D123" t="s">
         <v>151</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
@@ -3697,10 +3697,10 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D125" t="s">
         <v>151</v>
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126">
@@ -3743,7 +3743,7 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C127" t="s">
         <v>148</v>
@@ -3766,10 +3766,10 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D128" t="s">
         <v>151</v>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129">
@@ -3789,10 +3789,10 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D129" t="s">
         <v>151</v>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
@@ -3858,7 +3858,7 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C132" t="s">
         <v>148</v>
@@ -3904,7 +3904,7 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C134" t="s">
         <v>148</v>
@@ -3927,7 +3927,7 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
         <v>149</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
@@ -3973,10 +3973,10 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D137" t="s">
         <v>151</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138">
@@ -3996,7 +3996,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C138" t="s">
         <v>149</v>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139">
@@ -4019,10 +4019,10 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C139" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D139" t="s">
         <v>151</v>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140">
@@ -4045,7 +4045,7 @@
         <v>104</v>
       </c>
       <c r="C140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D140" t="s">
         <v>151</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141">
@@ -4068,7 +4068,7 @@
         <v>103</v>
       </c>
       <c r="C141" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D141" t="s">
         <v>151</v>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142">
@@ -4111,10 +4111,10 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D143" t="s">
         <v>151</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144">
@@ -4134,10 +4134,10 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D144" t="s">
         <v>151</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145">
@@ -4157,7 +4157,7 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C145" t="s">
         <v>148</v>
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146">
@@ -4180,7 +4180,7 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
         <v>149</v>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147">
@@ -4203,7 +4203,7 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148">
@@ -4226,10 +4226,10 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D148" t="s">
         <v>151</v>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149">
@@ -4249,10 +4249,10 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D149" t="s">
         <v>151</v>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150">
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151">
@@ -4318,7 +4318,7 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C152" t="s">
         <v>148</v>
@@ -4364,10 +4364,10 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D154" t="s">
         <v>151</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155">
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156">
@@ -4410,10 +4410,10 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D156" t="s">
         <v>151</v>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157">
@@ -4456,7 +4456,7 @@
         <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C158" t="s">
         <v>148</v>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159">
@@ -4525,7 +4525,7 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C161" t="s">
         <v>148</v>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163">
@@ -4640,10 +4640,10 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D166" t="s">
         <v>151</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167">
@@ -4663,10 +4663,10 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D167" t="s">
         <v>151</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
     </row>
     <row r="168">
@@ -4686,10 +4686,10 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C168" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D168" t="s">
         <v>151</v>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169">
@@ -4709,7 +4709,7 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C169" t="s">
         <v>148</v>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170">
@@ -4732,7 +4732,7 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C170" t="s">
         <v>148</v>
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171">
@@ -4755,10 +4755,10 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C171" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D171" t="s">
         <v>151</v>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172">
@@ -4778,7 +4778,7 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C172" t="s">
         <v>148</v>
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174">
@@ -4824,7 +4824,7 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C174" t="s">
         <v>148</v>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175">
@@ -4847,7 +4847,7 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C175" t="s">
         <v>149</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176">
@@ -4870,10 +4870,10 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C176" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D176" t="s">
         <v>151</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177">
@@ -4893,10 +4893,10 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D177" t="s">
         <v>151</v>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178">
@@ -4916,7 +4916,7 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C178" t="s">
         <v>148</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180">
@@ -4962,7 +4962,7 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C180" t="s">
         <v>148</v>
@@ -4985,10 +4985,10 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C181" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D181" t="s">
         <v>151</v>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182">
@@ -5008,7 +5008,7 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C182" t="s">
         <v>149</v>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183">
@@ -5034,7 +5034,7 @@
         <v>126</v>
       </c>
       <c r="C183" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D183" t="s">
         <v>151</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184">
@@ -5054,7 +5054,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C184" t="s">
         <v>149</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185">
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186">
@@ -5100,10 +5100,10 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C186" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D186" t="s">
         <v>151</v>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187">
@@ -5123,7 +5123,7 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C187" t="s">
         <v>149</v>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188">
@@ -5146,10 +5146,10 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C188" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D188" t="s">
         <v>151</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>246</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189">
@@ -5169,7 +5169,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C189" t="s">
         <v>149</v>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190">
@@ -5192,7 +5192,7 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C190" t="s">
         <v>149</v>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191">
@@ -5215,7 +5215,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C191" t="s">
         <v>149</v>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192">
@@ -5261,7 +5261,7 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C193" t="s">
         <v>148</v>
@@ -5284,7 +5284,7 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C194" t="s">
         <v>148</v>
@@ -5307,10 +5307,10 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C195" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D195" t="s">
         <v>151</v>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196">
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="197">
@@ -5356,7 +5356,7 @@
         <v>123</v>
       </c>
       <c r="C197" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D197" t="s">
         <v>151</v>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198">
@@ -5445,7 +5445,7 @@
         <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C201" t="s">
         <v>149</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202">
@@ -5468,10 +5468,10 @@
         <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C202" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D202" t="s">
         <v>151</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204">
@@ -5514,10 +5514,10 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C204" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D204" t="s">
         <v>151</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
     </row>
     <row r="205">
@@ -5537,10 +5537,10 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C205" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D205" t="s">
         <v>151</v>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206">
@@ -5560,10 +5560,10 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C206" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D206" t="s">
         <v>151</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>249</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207">
@@ -5606,10 +5606,10 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C208" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D208" t="s">
         <v>151</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209">
@@ -5632,7 +5632,7 @@
         <v>103</v>
       </c>
       <c r="C209" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D209" t="s">
         <v>151</v>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210">
@@ -5652,7 +5652,7 @@
         <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C210" t="s">
         <v>148</v>
@@ -5675,10 +5675,10 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C211" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D211" t="s">
         <v>151</v>
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212">
@@ -5701,7 +5701,7 @@
         <v>124</v>
       </c>
       <c r="C212" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D212" t="s">
         <v>151</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
     </row>
     <row r="213">
@@ -5721,7 +5721,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C213" t="s">
         <v>149</v>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="214">
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="217">
@@ -5836,10 +5836,10 @@
         <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C218" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D218" t="s">
         <v>151</v>
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219">
@@ -5859,10 +5859,10 @@
         <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C219" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D219" t="s">
         <v>151</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="220">
@@ -5928,7 +5928,7 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C222" t="s">
         <v>149</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223">
@@ -5951,10 +5951,10 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C223" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D223" t="s">
         <v>151</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
     </row>
     <row r="224">
@@ -5977,7 +5977,7 @@
         <v>123</v>
       </c>
       <c r="C224" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D224" t="s">
         <v>151</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225">
@@ -5997,7 +5997,7 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C225" t="s">
         <v>149</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="226">
@@ -6023,7 +6023,7 @@
         <v>124</v>
       </c>
       <c r="C226" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D226" t="s">
         <v>151</v>
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
     </row>
     <row r="227">
@@ -6043,7 +6043,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C227" t="s">
         <v>149</v>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="228">
@@ -6066,10 +6066,10 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C228" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D228" t="s">
         <v>151</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
     </row>
     <row r="229">
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="230">
@@ -6112,7 +6112,7 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C230" t="s">
         <v>149</v>
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231">
@@ -6135,10 +6135,10 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C231" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D231" t="s">
         <v>151</v>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
     </row>
     <row r="232">
@@ -6158,10 +6158,10 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C232" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D232" t="s">
         <v>151</v>
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233">
@@ -6181,7 +6181,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C233" t="s">
         <v>148</v>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -306,18 +306,18 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>inositol</t>
-  </si>
-  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
@@ -330,39 +330,42 @@
     <t>acetaminophen</t>
   </si>
   <si>
+    <t>meclonazepam</t>
+  </si>
+  <si>
+    <t>non-specific organic acids</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
     <t>sucrose</t>
   </si>
   <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
     <t>clonazolam</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>meconin</t>
+  </si>
+  <si>
     <t>noscapine</t>
   </si>
   <si>
@@ -372,57 +375,54 @@
     <t>papaverine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
+  </si>
+  <si>
+    <t>N-methyltryptamine</t>
   </si>
   <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>MDA</t>
   </si>
   <si>
+    <t>despropionyl ortho-chlorofentanyl</t>
+  </si>
+  <si>
     <t>ortho-chlorofentanyl</t>
   </si>
   <si>
-    <t>despropionyl ortho-chlorofentanyl</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -441,12 +441,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>ecgonidine (ED)</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>ecgonidine (ED)</t>
-  </si>
-  <si>
     <t>flubromazolam</t>
   </si>
   <si>
@@ -483,15 +483,15 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.92</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
     <t>8.53</t>
   </si>
   <si>
-    <t>8.92</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
@@ -504,6 +504,12 @@
     <t>5.81</t>
   </si>
   <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
     <t>6.48</t>
   </si>
   <si>
@@ -513,24 +519,18 @@
     <t>9.24</t>
   </si>
   <si>
-    <t>7.3</t>
+    <t>6.66</t>
   </si>
   <si>
     <t>12.33</t>
   </si>
   <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>9.74</t>
+    <t>10.25</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>10.25</t>
-  </si>
-  <si>
     <t>9.27</t>
   </si>
   <si>
@@ -543,12 +543,12 @@
     <t>3.28</t>
   </si>
   <si>
+    <t>9.21</t>
+  </si>
+  <si>
     <t>7.31</t>
   </si>
   <si>
-    <t>9.21</t>
-  </si>
-  <si>
     <t>5.12</t>
   </si>
   <si>
@@ -624,33 +624,33 @@
     <t>5.22</t>
   </si>
   <si>
+    <t>10.49</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
-    <t>10.49</t>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>9.57</t>
   </si>
   <si>
     <t>10.03</t>
   </si>
   <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>9.85</t>
-  </si>
-  <si>
-    <t>9.57</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>6.15</t>
+  </si>
+  <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>6.15</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
@@ -675,15 +675,15 @@
     <t>10.41</t>
   </si>
   <si>
+    <t>9.36</t>
+  </si>
+  <si>
+    <t>9.28</t>
+  </si>
+  <si>
     <t>9.8</t>
   </si>
   <si>
-    <t>9.36</t>
-  </si>
-  <si>
-    <t>9.28</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
@@ -696,27 +696,27 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>10.47</t>
+  </si>
+  <si>
     <t>6.04</t>
   </si>
   <si>
-    <t>10.47</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
     <t>6.58</t>
   </si>
   <si>
+    <t>9.31</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
     <t>10.56</t>
   </si>
   <si>
-    <t>9.31</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -729,18 +729,18 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
     <t>6.27</t>
   </si>
   <si>
-    <t>10.3</t>
-  </si>
-  <si>
     <t>9.14</t>
   </si>
   <si>
-    <t>7.37</t>
-  </si>
-  <si>
     <t>11.73</t>
   </si>
   <si>
@@ -750,10 +750,10 @@
     <t>6.89</t>
   </si>
   <si>
+    <t>8.25</t>
+  </si>
+  <si>
     <t>4.81</t>
-  </si>
-  <si>
-    <t>8.25</t>
   </si>
   <si>
     <t>12.62</t>
@@ -894,7 +894,7 @@
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
         <v>151</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
@@ -940,7 +940,7 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>151</v>
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>148</v>
@@ -1236,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
         <v>151</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
@@ -1259,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
         <v>151</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>148</v>
@@ -1420,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
         <v>151</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
         <v>149</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
@@ -1466,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
         <v>149</v>
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
@@ -1489,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>149</v>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30">
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
         <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
         <v>151</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32">
@@ -1558,10 +1558,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
         <v>151</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33">
@@ -1581,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34">
@@ -1627,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
         <v>149</v>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1650,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
         <v>151</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
@@ -1673,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
         <v>149</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>151</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
@@ -1719,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
         <v>151</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40">
@@ -1742,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>151</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41">
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42">
@@ -1788,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>148</v>
@@ -1857,10 +1857,10 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
         <v>151</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
@@ -1880,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
         <v>151</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47">
@@ -1926,10 +1926,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
         <v>151</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
@@ -1949,10 +1949,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
         <v>151</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
@@ -1998,7 +1998,7 @@
         <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
         <v>151</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
@@ -2021,7 +2021,7 @@
         <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
         <v>151</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54">
@@ -2067,7 +2067,7 @@
         <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
         <v>151</v>
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56">
@@ -2113,7 +2113,7 @@
         <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
         <v>151</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
@@ -2133,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
         <v>149</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58">
@@ -2156,7 +2156,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
         <v>149</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
         <v>148</v>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
@@ -2251,7 +2251,7 @@
         <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
         <v>151</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63">
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64">
@@ -2297,7 +2297,7 @@
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
         <v>151</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65">
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66">
@@ -2340,10 +2340,10 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
         <v>151</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67">
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68">
@@ -2386,10 +2386,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
         <v>151</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69">
@@ -2432,7 +2432,7 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
         <v>148</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
@@ -2547,10 +2547,10 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D75" t="s">
         <v>151</v>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76">
@@ -2570,10 +2570,10 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77">
@@ -2593,7 +2593,7 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
         <v>148</v>
@@ -2662,7 +2662,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
         <v>149</v>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81">
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
         <v>148</v>
@@ -2708,7 +2708,7 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
         <v>149</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
@@ -2754,7 +2754,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
         <v>148</v>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85">
@@ -2777,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
         <v>148</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -2823,7 +2823,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
         <v>148</v>
@@ -2846,7 +2846,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
         <v>148</v>
@@ -2869,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
         <v>148</v>
@@ -2892,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D90" t="s">
         <v>151</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -2915,7 +2915,7 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
         <v>149</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
@@ -2938,10 +2938,10 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D92" t="s">
         <v>151</v>
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93">
@@ -2961,10 +2961,10 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
         <v>151</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
@@ -2984,10 +2984,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
         <v>151</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
@@ -3007,7 +3007,7 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>148</v>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96">
@@ -3030,10 +3030,10 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
         <v>151</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
@@ -3053,10 +3053,10 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
         <v>151</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
@@ -3145,7 +3145,7 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
         <v>148</v>
@@ -3168,7 +3168,7 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
         <v>148</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103">
@@ -3191,7 +3191,7 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>148</v>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104">
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106">
@@ -3283,10 +3283,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
         <v>151</v>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108">
@@ -3306,10 +3306,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D108" t="s">
         <v>151</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
@@ -3398,7 +3398,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>148</v>
@@ -3421,10 +3421,10 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D113" t="s">
         <v>151</v>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
@@ -3444,10 +3444,10 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D114" t="s">
         <v>151</v>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115">
@@ -3467,7 +3467,7 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C115" t="s">
         <v>149</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
@@ -3490,10 +3490,10 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D116" t="s">
         <v>151</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
@@ -3513,10 +3513,10 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" t="s">
         <v>151</v>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118">
@@ -3536,7 +3536,7 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
         <v>149</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
@@ -3559,7 +3559,7 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C119" t="s">
         <v>149</v>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
@@ -3582,7 +3582,7 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
         <v>149</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
@@ -3605,10 +3605,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D121" t="s">
         <v>151</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
@@ -3628,10 +3628,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
         <v>151</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123">
@@ -3651,10 +3651,10 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D123" t="s">
         <v>151</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124">
@@ -3674,7 +3674,7 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C124" t="s">
         <v>149</v>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
@@ -3697,10 +3697,10 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C125" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
         <v>151</v>
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
@@ -3743,7 +3743,7 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
         <v>148</v>
@@ -3766,7 +3766,7 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C128" t="s">
         <v>148</v>
@@ -3789,10 +3789,10 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D129" t="s">
         <v>151</v>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130">
@@ -3812,10 +3812,10 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D130" t="s">
         <v>151</v>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
@@ -3904,7 +3904,7 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C134" t="s">
         <v>148</v>
@@ -3927,7 +3927,7 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
         <v>149</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136">
@@ -3973,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C137" t="s">
         <v>148</v>
@@ -3996,7 +3996,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C138" t="s">
         <v>149</v>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139">
@@ -4019,7 +4019,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C139" t="s">
         <v>149</v>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140">
@@ -4042,7 +4042,7 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C140" t="s">
         <v>148</v>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142">
@@ -4088,7 +4088,7 @@
         <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C142" t="s">
         <v>148</v>
@@ -4111,7 +4111,7 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C143" t="s">
         <v>148</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145">
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146">
@@ -4180,7 +4180,7 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C146" t="s">
         <v>149</v>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147">
@@ -4203,7 +4203,7 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148">
@@ -4226,10 +4226,10 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D148" t="s">
         <v>151</v>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149">
@@ -4249,10 +4249,10 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D149" t="s">
         <v>151</v>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150">
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151">
@@ -4318,7 +4318,7 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C152" t="s">
         <v>148</v>
@@ -4341,10 +4341,10 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D153" t="s">
         <v>151</v>
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154">
@@ -4364,10 +4364,10 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D154" t="s">
         <v>151</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155">
@@ -4387,7 +4387,7 @@
         <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C155" t="s">
         <v>148</v>
@@ -4410,7 +4410,7 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C156" t="s">
         <v>148</v>
@@ -4525,10 +4525,10 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C161" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D161" t="s">
         <v>151</v>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162">
@@ -4548,10 +4548,10 @@
         <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D162" t="s">
         <v>151</v>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163">
@@ -4640,7 +4640,7 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C166" t="s">
         <v>148</v>
@@ -4663,7 +4663,7 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C167" t="s">
         <v>148</v>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169">
@@ -4709,7 +4709,7 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C169" t="s">
         <v>148</v>
@@ -4732,7 +4732,7 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C170" t="s">
         <v>148</v>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172">
@@ -4801,7 +4801,7 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C173" t="s">
         <v>148</v>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174">
@@ -4824,7 +4824,7 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C174" t="s">
         <v>148</v>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
     </row>
     <row r="175">
@@ -4847,7 +4847,7 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C175" t="s">
         <v>149</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176">
@@ -4870,7 +4870,7 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C176" t="s">
         <v>149</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177">
@@ -4893,7 +4893,7 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s">
         <v>148</v>
@@ -4916,7 +4916,7 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C178" t="s">
         <v>148</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180">
@@ -4962,7 +4962,7 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C180" t="s">
         <v>148</v>
@@ -4985,7 +4985,7 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C181" t="s">
         <v>149</v>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182">
@@ -5008,7 +5008,7 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C182" t="s">
         <v>149</v>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183">
@@ -5031,7 +5031,7 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C183" t="s">
         <v>148</v>
@@ -5054,7 +5054,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C184" t="s">
         <v>149</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185">
@@ -5077,7 +5077,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C185" t="s">
         <v>149</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186">
@@ -5100,7 +5100,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C186" t="s">
         <v>148</v>
@@ -5123,7 +5123,7 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C187" t="s">
         <v>149</v>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188">
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189">
@@ -5169,7 +5169,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C189" t="s">
         <v>149</v>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190">
@@ -5192,7 +5192,7 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C190" t="s">
         <v>149</v>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191">
@@ -5215,7 +5215,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C191" t="s">
         <v>149</v>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192">
@@ -5261,7 +5261,7 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C193" t="s">
         <v>148</v>
@@ -5307,7 +5307,7 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C195" t="s">
         <v>149</v>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196">
@@ -5330,7 +5330,7 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C196" t="s">
         <v>149</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197">
@@ -5353,7 +5353,7 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C197" t="s">
         <v>148</v>
@@ -5445,10 +5445,10 @@
         <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C201" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D201" t="s">
         <v>151</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="202">
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203">
@@ -5491,7 +5491,7 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C203" t="s">
         <v>148</v>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204">
@@ -5514,10 +5514,10 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C204" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D204" t="s">
         <v>151</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205">
@@ -5537,7 +5537,7 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C205" t="s">
         <v>148</v>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206">
@@ -5560,7 +5560,7 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C206" t="s">
         <v>149</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207">
@@ -5583,7 +5583,7 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C207" t="s">
         <v>148</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208">
@@ -5606,10 +5606,10 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C208" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D208" t="s">
         <v>151</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
     </row>
     <row r="209">
@@ -5629,10 +5629,10 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D209" t="s">
         <v>151</v>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210">
@@ -5652,7 +5652,7 @@
         <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C210" t="s">
         <v>148</v>
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211">
@@ -5675,10 +5675,10 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C211" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D211" t="s">
         <v>151</v>
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
     </row>
     <row r="212">
@@ -5701,7 +5701,7 @@
         <v>124</v>
       </c>
       <c r="C212" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D212" t="s">
         <v>151</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213">
@@ -5721,7 +5721,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C213" t="s">
         <v>149</v>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="214">
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217">
@@ -5836,7 +5836,7 @@
         <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C218" t="s">
         <v>148</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="220">
@@ -5928,7 +5928,7 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C222" t="s">
         <v>149</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223">
@@ -5951,7 +5951,7 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C223" t="s">
         <v>149</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="224">
@@ -5974,7 +5974,7 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C224" t="s">
         <v>148</v>
@@ -5997,7 +5997,7 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C225" t="s">
         <v>149</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="226">
@@ -6020,7 +6020,7 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C226" t="s">
         <v>149</v>
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="227">
@@ -6043,7 +6043,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C227" t="s">
         <v>149</v>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="228">
@@ -6066,10 +6066,10 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C228" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D228" t="s">
         <v>151</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
     </row>
     <row r="229">
@@ -6089,10 +6089,10 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C229" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D229" t="s">
         <v>151</v>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
     </row>
     <row r="230">
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="231">
@@ -6135,10 +6135,10 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C231" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D231" t="s">
         <v>151</v>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232">
@@ -6158,10 +6158,10 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C232" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D232" t="s">
         <v>151</v>
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
     </row>
     <row r="233">
@@ -6181,7 +6181,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C233" t="s">
         <v>148</v>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1167" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1192" uniqueCount="260">
   <si>
     <t>sampleid</t>
   </si>
@@ -297,6 +297,9 @@
     <t>800352</t>
   </si>
   <si>
+    <t>800361</t>
+  </si>
+  <si>
     <t>800366</t>
   </si>
   <si>
@@ -306,111 +309,111 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>inositol</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>acetaminophen</t>
+    <t>non-specific organic acids</t>
   </si>
   <si>
     <t>meclonazepam</t>
   </si>
   <si>
-    <t>non-specific organic acids</t>
+    <t>clonazolam</t>
+  </si>
+  <si>
+    <t>sucrose</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>sucrose</t>
-  </si>
-  <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
     <t>meconin</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>tropacocaine</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>norcocaine</t>
   </si>
   <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
+    <t>N-methyltryptamine</t>
+  </si>
+  <si>
+    <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
     <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -441,12 +444,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>ecgonidine (ED)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>flubromazolam</t>
   </si>
   <si>
@@ -483,25 +486,31 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>8.92</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>8.53</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>5.81</t>
+  </si>
+  <si>
     <t>9.23</t>
   </si>
   <si>
     <t>8.37</t>
   </si>
   <si>
-    <t>5.81</t>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>9.24</t>
   </si>
   <si>
     <t>9.74</t>
@@ -510,45 +519,39 @@
     <t>7.3</t>
   </si>
   <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>9.94</t>
+  </si>
+  <si>
     <t>6.48</t>
   </si>
   <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>12.33</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>10.25</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>6.11</t>
   </si>
   <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>8.49</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
+    <t>7.31</t>
+  </si>
+  <si>
     <t>9.21</t>
   </si>
   <si>
-    <t>7.31</t>
-  </si>
-  <si>
     <t>5.12</t>
   </si>
   <si>
@@ -579,12 +582,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>6.12</t>
+  </si>
+  <si>
     <t>8.15</t>
   </si>
   <si>
-    <t>6.12</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -597,12 +600,12 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>10.17</t>
+  </si>
+  <si>
     <t>9.04</t>
   </si>
   <si>
-    <t>10.17</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
@@ -633,33 +636,33 @@
     <t>9.85</t>
   </si>
   <si>
+    <t>9.57</t>
+  </si>
+  <si>
     <t>9.49</t>
   </si>
   <si>
-    <t>9.57</t>
-  </si>
-  <si>
     <t>10.03</t>
   </si>
   <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>9.11</t>
+  </si>
+  <si>
     <t>6.15</t>
   </si>
   <si>
-    <t>9.11</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
-    <t>9.09</t>
-  </si>
-  <si>
     <t>5.05</t>
   </si>
   <si>
@@ -678,12 +681,12 @@
     <t>9.36</t>
   </si>
   <si>
+    <t>9.8</t>
+  </si>
+  <si>
     <t>9.28</t>
   </si>
   <si>
-    <t>9.8</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
@@ -696,12 +699,12 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>6.04</t>
+  </si>
+  <si>
     <t>10.47</t>
   </si>
   <si>
-    <t>6.04</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
@@ -729,18 +732,18 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>7.37</t>
-  </si>
-  <si>
-    <t>6.27</t>
-  </si>
-  <si>
-    <t>9.14</t>
-  </si>
-  <si>
     <t>11.73</t>
   </si>
   <si>
@@ -750,12 +753,12 @@
     <t>6.89</t>
   </si>
   <si>
+    <t>4.81</t>
+  </si>
+  <si>
     <t>8.25</t>
   </si>
   <si>
-    <t>4.81</t>
-  </si>
-  <si>
     <t>12.62</t>
   </si>
   <si>
@@ -765,12 +768,12 @@
     <t>5.49</t>
   </si>
   <si>
+    <t>6.05</t>
+  </si>
+  <si>
     <t>10.52</t>
   </si>
   <si>
-    <t>6.05</t>
-  </si>
-  <si>
     <t>10.51</t>
   </si>
   <si>
@@ -787,6 +790,9 @@
   </si>
   <si>
     <t>10.64</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,22 +851,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
@@ -868,13 +874,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -883,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
@@ -891,13 +897,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -906,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -914,13 +920,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -929,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5">
@@ -937,13 +943,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -952,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -960,13 +966,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -975,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +989,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -998,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1006,13 +1012,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -1021,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
@@ -1029,13 +1035,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -1044,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
@@ -1052,13 +1058,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -1067,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
@@ -1075,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -1090,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -1098,13 +1104,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -1113,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1124,10 +1130,10 @@
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -1136,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
@@ -1144,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -1159,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
@@ -1167,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -1182,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -1190,13 +1196,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1205,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -1213,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1228,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -1236,13 +1242,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1251,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -1259,13 +1265,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1274,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -1282,13 +1288,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1297,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -1305,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1320,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
@@ -1328,13 +1334,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1343,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
@@ -1351,13 +1357,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1366,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24">
@@ -1374,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1389,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
@@ -1397,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1412,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
@@ -1420,13 +1426,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1435,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
@@ -1443,13 +1449,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
         <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1458,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
@@ -1466,13 +1472,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1481,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
@@ -1489,13 +1495,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1504,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
@@ -1512,13 +1518,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1527,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
@@ -1535,13 +1541,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1550,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32">
@@ -1558,13 +1564,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1573,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33">
@@ -1581,13 +1587,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1596,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
@@ -1604,13 +1610,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1619,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35">
@@ -1627,13 +1633,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1642,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36">
@@ -1653,10 +1659,10 @@
         <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1665,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37">
@@ -1673,13 +1679,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
         <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1688,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38">
@@ -1696,13 +1702,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1711,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
@@ -1719,13 +1725,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1734,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40">
@@ -1742,13 +1748,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1757,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -1765,13 +1771,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1780,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42">
@@ -1788,13 +1794,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1803,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43">
@@ -1811,13 +1817,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1826,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44">
@@ -1834,13 +1840,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1849,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45">
@@ -1857,13 +1863,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E45" s="1">
         <v>44951</v>
@@ -1872,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
@@ -1880,13 +1886,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
         <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E46" s="1">
         <v>44951</v>
@@ -1895,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47">
@@ -1903,13 +1909,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E47" s="1">
         <v>44936</v>
@@ -1918,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48">
@@ -1926,13 +1932,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E48" s="1">
         <v>44935</v>
@@ -1941,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49">
@@ -1949,13 +1955,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E49" s="1">
         <v>44935</v>
@@ -1964,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50">
@@ -1972,13 +1978,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -1987,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
@@ -1995,13 +2001,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -2010,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52">
@@ -2018,13 +2024,13 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -2033,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53">
@@ -2041,13 +2047,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -2056,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54">
@@ -2064,13 +2070,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -2087,13 +2093,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E55" s="1">
         <v>44931</v>
@@ -2102,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56">
@@ -2110,13 +2116,13 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
         <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E56" s="1">
         <v>44931</v>
@@ -2125,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57">
@@ -2133,13 +2139,13 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E57" s="1">
         <v>44956</v>
@@ -2148,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58">
@@ -2156,13 +2162,13 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E58" s="1">
         <v>44956</v>
@@ -2171,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59">
@@ -2179,13 +2185,13 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E59" s="1">
         <v>44956</v>
@@ -2194,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60">
@@ -2202,13 +2208,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E60" s="1">
         <v>44951</v>
@@ -2217,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61">
@@ -2225,13 +2231,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E61" s="1">
         <v>44935</v>
@@ -2240,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62">
@@ -2248,13 +2254,13 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E62" s="1">
         <v>44930</v>
@@ -2263,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63">
@@ -2271,13 +2277,13 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
         <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E63" s="1">
         <v>44930</v>
@@ -2286,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64">
@@ -2294,13 +2300,13 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E64" s="1">
         <v>44930</v>
@@ -2309,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65">
@@ -2317,13 +2323,13 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E65" s="1">
         <v>44951</v>
@@ -2332,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66">
@@ -2340,13 +2346,13 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E66" s="1">
         <v>44951</v>
@@ -2355,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67">
@@ -2363,13 +2369,13 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
         <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E67" s="1">
         <v>44951</v>
@@ -2378,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68">
@@ -2386,13 +2392,13 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E68" s="1">
         <v>44951</v>
@@ -2401,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69">
@@ -2409,13 +2415,13 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E69" s="1">
         <v>44951</v>
@@ -2424,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70">
@@ -2432,13 +2438,13 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E70" s="1">
         <v>44935</v>
@@ -2447,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71">
@@ -2455,13 +2461,13 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
         <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E71" s="1">
         <v>44935</v>
@@ -2470,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72">
@@ -2478,13 +2484,13 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E72" s="1">
         <v>44952</v>
@@ -2493,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73">
@@ -2501,13 +2507,13 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E73" s="1">
         <v>44952</v>
@@ -2516,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74">
@@ -2524,13 +2530,13 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E74" s="1">
         <v>44952</v>
@@ -2539,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -2547,13 +2553,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
         <v>149</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E75" s="1">
         <v>44930</v>
@@ -2562,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -2570,13 +2576,13 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E76" s="1">
         <v>44930</v>
@@ -2585,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77">
@@ -2593,13 +2599,13 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E77" s="1">
         <v>44930</v>
@@ -2608,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78">
@@ -2616,13 +2622,13 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E78" s="1">
         <v>44957</v>
@@ -2631,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79">
@@ -2639,13 +2645,13 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E79" s="1">
         <v>44930</v>
@@ -2654,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -2662,13 +2668,13 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>149</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E80" s="1">
         <v>44935</v>
@@ -2677,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -2685,13 +2691,13 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E81" s="1">
         <v>44935</v>
@@ -2700,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82">
@@ -2708,13 +2714,13 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E82" s="1">
         <v>44935</v>
@@ -2723,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83">
@@ -2731,13 +2737,13 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E83" s="1">
         <v>44951</v>
@@ -2746,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84">
@@ -2754,13 +2760,13 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E84" s="1">
         <v>44951</v>
@@ -2769,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
@@ -2777,13 +2783,13 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E85" s="1">
         <v>44951</v>
@@ -2792,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86">
@@ -2800,13 +2806,13 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E86" s="1">
         <v>44956</v>
@@ -2815,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87">
@@ -2823,13 +2829,13 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E87" s="1">
         <v>44956</v>
@@ -2838,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88">
@@ -2846,13 +2852,13 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E88" s="1">
         <v>44956</v>
@@ -2861,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89">
@@ -2869,13 +2875,13 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E89" s="1">
         <v>44956</v>
@@ -2884,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -2892,13 +2898,13 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E90" s="1">
         <v>44951</v>
@@ -2907,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
@@ -2921,7 +2927,7 @@
         <v>149</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E91" s="1">
         <v>44951</v>
@@ -2930,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -2938,13 +2944,13 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E92" s="1">
         <v>44951</v>
@@ -2953,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
@@ -2961,13 +2967,13 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E93" s="1">
         <v>44951</v>
@@ -2976,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94">
@@ -2984,13 +2990,13 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E94" s="1">
         <v>44951</v>
@@ -2999,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
@@ -3007,13 +3013,13 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E95" s="1">
         <v>44951</v>
@@ -3022,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
@@ -3030,13 +3036,13 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E96" s="1">
         <v>44951</v>
@@ -3045,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
@@ -3053,13 +3059,13 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E97" s="1">
         <v>44951</v>
@@ -3068,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
@@ -3076,13 +3082,13 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E98" s="1">
         <v>44952</v>
@@ -3091,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99">
@@ -3099,13 +3105,13 @@
         <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E99" s="1">
         <v>44930</v>
@@ -3114,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
@@ -3122,13 +3128,13 @@
         <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E100" s="1">
         <v>44957</v>
@@ -3137,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101">
@@ -3145,13 +3151,13 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E101" s="1">
         <v>44930</v>
@@ -3160,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
@@ -3168,13 +3174,13 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E102" s="1">
         <v>44930</v>
@@ -3183,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103">
@@ -3191,13 +3197,13 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E103" s="1">
         <v>44930</v>
@@ -3214,13 +3220,13 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>149</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E104" s="1">
         <v>44930</v>
@@ -3229,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105">
@@ -3237,13 +3243,13 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E105" s="1">
         <v>44935</v>
@@ -3252,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106">
@@ -3260,13 +3266,13 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E106" s="1">
         <v>44935</v>
@@ -3275,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107">
@@ -3283,13 +3289,13 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E107" s="1">
         <v>44935</v>
@@ -3298,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108">
@@ -3306,13 +3312,13 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E108" s="1">
         <v>44935</v>
@@ -3321,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
@@ -3329,13 +3335,13 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E109" s="1">
         <v>44935</v>
@@ -3344,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110">
@@ -3352,13 +3358,13 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E110" s="1">
         <v>44935</v>
@@ -3367,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111">
@@ -3375,13 +3381,13 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D111" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E111" s="1">
         <v>44935</v>
@@ -3390,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112">
@@ -3398,13 +3404,13 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E112" s="1">
         <v>44932</v>
@@ -3413,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113">
@@ -3421,13 +3427,13 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
         <v>149</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E113" s="1">
         <v>44951</v>
@@ -3436,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114">
@@ -3444,13 +3450,13 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E114" s="1">
         <v>44951</v>
@@ -3459,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
@@ -3467,13 +3473,13 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D115" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E115" s="1">
         <v>44951</v>
@@ -3482,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
@@ -3490,13 +3496,13 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E116" s="1">
         <v>44951</v>
@@ -3505,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
@@ -3513,13 +3519,13 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E117" s="1">
         <v>44951</v>
@@ -3528,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
@@ -3536,13 +3542,13 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E118" s="1">
         <v>44951</v>
@@ -3551,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
@@ -3559,13 +3565,13 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
         <v>149</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E119" s="1">
         <v>44951</v>
@@ -3574,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120">
@@ -3582,13 +3588,13 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
         <v>149</v>
       </c>
       <c r="D120" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E120" s="1">
         <v>44951</v>
@@ -3597,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121">
@@ -3605,13 +3611,13 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E121" s="1">
         <v>44951</v>
@@ -3620,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
@@ -3628,13 +3634,13 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E122" s="1">
         <v>44951</v>
@@ -3643,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
@@ -3651,13 +3657,13 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E123" s="1">
         <v>44931</v>
@@ -3666,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
@@ -3674,13 +3680,13 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C124" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E124" s="1">
         <v>44931</v>
@@ -3689,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
@@ -3697,13 +3703,13 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C125" t="s">
         <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E125" s="1">
         <v>44931</v>
@@ -3712,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126">
@@ -3720,13 +3726,13 @@
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D126" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E126" s="1">
         <v>44931</v>
@@ -3735,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127">
@@ -3743,13 +3749,13 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E127" s="1">
         <v>44930</v>
@@ -3758,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
@@ -3766,13 +3772,13 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E128" s="1">
         <v>44930</v>
@@ -3789,13 +3795,13 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D129" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E129" s="1">
         <v>44930</v>
@@ -3812,13 +3818,13 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C130" t="s">
         <v>149</v>
       </c>
       <c r="D130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E130" s="1">
         <v>44930</v>
@@ -3827,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131">
@@ -3835,13 +3841,13 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C131" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E131" s="1">
         <v>44957</v>
@@ -3850,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132">
@@ -3858,13 +3864,13 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C132" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E132" s="1">
         <v>44935</v>
@@ -3873,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133">
@@ -3881,13 +3887,13 @@
         <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E133" s="1">
         <v>44930</v>
@@ -3896,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134">
@@ -3904,13 +3910,13 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D134" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E134" s="1">
         <v>44935</v>
@@ -3919,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135">
@@ -3927,13 +3933,13 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C135" t="s">
         <v>149</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E135" s="1">
         <v>44935</v>
@@ -3942,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136">
@@ -3950,13 +3956,13 @@
         <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E136" s="1">
         <v>44935</v>
@@ -3965,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137">
@@ -3973,13 +3979,13 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E137" s="1">
         <v>44935</v>
@@ -3988,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
@@ -3996,13 +4002,13 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C138" t="s">
         <v>149</v>
       </c>
       <c r="D138" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E138" s="1">
         <v>44935</v>
@@ -4011,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139">
@@ -4019,13 +4025,13 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D139" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E139" s="1">
         <v>44935</v>
@@ -4034,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140">
@@ -4042,13 +4048,13 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D140" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E140" s="1">
         <v>44936</v>
@@ -4057,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141">
@@ -4065,13 +4071,13 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C141" t="s">
         <v>149</v>
       </c>
       <c r="D141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E141" s="1">
         <v>44936</v>
@@ -4080,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142">
@@ -4088,13 +4094,13 @@
         <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C142" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E142" s="1">
         <v>44936</v>
@@ -4103,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143">
@@ -4111,13 +4117,13 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D143" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E143" s="1">
         <v>44931</v>
@@ -4126,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144">
@@ -4134,13 +4140,13 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E144" s="1">
         <v>44931</v>
@@ -4149,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145">
@@ -4157,13 +4163,13 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C145" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E145" s="1">
         <v>44935</v>
@@ -4172,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146">
@@ -4180,13 +4186,13 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C146" t="s">
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E146" s="1">
         <v>44936</v>
@@ -4195,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147">
@@ -4203,13 +4209,13 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E147" s="1">
         <v>44936</v>
@@ -4218,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148">
@@ -4226,13 +4232,13 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C148" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E148" s="1">
         <v>44936</v>
@@ -4241,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149">
@@ -4249,13 +4255,13 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C149" t="s">
         <v>149</v>
       </c>
       <c r="D149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E149" s="1">
         <v>44936</v>
@@ -4264,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150">
@@ -4272,13 +4278,13 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E150" s="1">
         <v>44951</v>
@@ -4287,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151">
@@ -4295,13 +4301,13 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C151" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E151" s="1">
         <v>44951</v>
@@ -4310,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="152">
@@ -4318,13 +4324,13 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C152" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E152" s="1">
         <v>44951</v>
@@ -4333,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153">
@@ -4341,13 +4347,13 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C153" t="s">
         <v>149</v>
       </c>
       <c r="D153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E153" s="1">
         <v>44952</v>
@@ -4356,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
     </row>
     <row r="154">
@@ -4364,13 +4370,13 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D154" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E154" s="1">
         <v>44952</v>
@@ -4379,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155">
@@ -4387,13 +4393,13 @@
         <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C155" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D155" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E155" s="1">
         <v>44952</v>
@@ -4402,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156">
@@ -4410,13 +4416,13 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C156" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D156" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E156" s="1">
         <v>44952</v>
@@ -4425,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="157">
@@ -4433,13 +4439,13 @@
         <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C157" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D157" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E157" s="1">
         <v>44936</v>
@@ -4448,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158">
@@ -4456,13 +4462,13 @@
         <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C158" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E158" s="1">
         <v>44935</v>
@@ -4471,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159">
@@ -4479,13 +4485,13 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C159" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D159" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E159" s="1">
         <v>44930</v>
@@ -4494,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="160">
@@ -4502,13 +4508,13 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D160" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E160" s="1">
         <v>44930</v>
@@ -4517,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161">
@@ -4525,13 +4531,13 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C161" t="s">
         <v>149</v>
       </c>
       <c r="D161" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E161" s="1">
         <v>44930</v>
@@ -4540,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162">
@@ -4548,13 +4554,13 @@
         <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C162" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D162" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E162" s="1">
         <v>44930</v>
@@ -4563,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163">
@@ -4571,13 +4577,13 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C163" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D163" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E163" s="1">
         <v>44932</v>
@@ -4586,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164">
@@ -4594,13 +4600,13 @@
         <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C164" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D164" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E164" s="1">
         <v>44932</v>
@@ -4609,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165">
@@ -4617,13 +4623,13 @@
         <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C165" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D165" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E165" s="1">
         <v>44931</v>
@@ -4632,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="166">
@@ -4640,13 +4646,13 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C166" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D166" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E166" s="1">
         <v>44930</v>
@@ -4655,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167">
@@ -4663,13 +4669,13 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C167" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D167" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E167" s="1">
         <v>44930</v>
@@ -4678,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168">
@@ -4686,13 +4692,13 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C168" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E168" s="1">
         <v>44930</v>
@@ -4701,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169">
@@ -4709,13 +4715,13 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C169" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D169" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E169" s="1">
         <v>44930</v>
@@ -4724,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170">
@@ -4732,13 +4738,13 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C170" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D170" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E170" s="1">
         <v>44930</v>
@@ -4747,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171">
@@ -4755,13 +4761,13 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C171" t="s">
         <v>149</v>
       </c>
       <c r="D171" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E171" s="1">
         <v>44930</v>
@@ -4770,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172">
@@ -4778,13 +4784,13 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C172" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D172" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E172" s="1">
         <v>44935</v>
@@ -4793,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="173">
@@ -4801,13 +4807,13 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C173" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D173" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E173" s="1">
         <v>44935</v>
@@ -4816,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
     </row>
     <row r="174">
@@ -4824,13 +4830,13 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C174" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D174" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E174" s="1">
         <v>44935</v>
@@ -4839,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175">
@@ -4847,13 +4853,13 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C175" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D175" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E175" s="1">
         <v>44935</v>
@@ -4862,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176">
@@ -4870,13 +4876,13 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C176" t="s">
         <v>149</v>
       </c>
       <c r="D176" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E176" s="1">
         <v>44935</v>
@@ -4885,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177">
@@ -4893,13 +4899,13 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C177" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D177" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E177" s="1">
         <v>44935</v>
@@ -4908,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178">
@@ -4916,13 +4922,13 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C178" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D178" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E178" s="1">
         <v>44935</v>
@@ -4931,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179">
@@ -4939,13 +4945,13 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C179" t="s">
         <v>149</v>
       </c>
       <c r="D179" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E179" s="1">
         <v>44935</v>
@@ -4954,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180">
@@ -4962,13 +4968,13 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C180" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D180" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E180" s="1">
         <v>44952</v>
@@ -4977,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="181">
@@ -4985,13 +4991,13 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C181" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D181" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E181" s="1">
         <v>44957</v>
@@ -5000,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182">
@@ -5008,13 +5014,13 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C182" t="s">
         <v>149</v>
       </c>
       <c r="D182" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E182" s="1">
         <v>44957</v>
@@ -5023,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
     </row>
     <row r="183">
@@ -5031,13 +5037,13 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D183" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E183" s="1">
         <v>44957</v>
@@ -5046,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="184">
@@ -5054,13 +5060,13 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C184" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D184" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E184" s="1">
         <v>44957</v>
@@ -5069,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185">
@@ -5077,13 +5083,13 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C185" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D185" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E185" s="1">
         <v>44957</v>
@@ -5092,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186">
@@ -5100,13 +5106,13 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C186" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D186" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E186" s="1">
         <v>44957</v>
@@ -5115,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187">
@@ -5123,13 +5129,13 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C187" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D187" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E187" s="1">
         <v>44957</v>
@@ -5138,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188">
@@ -5146,13 +5152,13 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C188" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D188" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E188" s="1">
         <v>44957</v>
@@ -5161,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189">
@@ -5169,13 +5175,13 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C189" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D189" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E189" s="1">
         <v>44957</v>
@@ -5184,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190">
@@ -5192,13 +5198,13 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C190" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D190" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E190" s="1">
         <v>44957</v>
@@ -5207,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191">
@@ -5215,13 +5221,13 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C191" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D191" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E191" s="1">
         <v>44957</v>
@@ -5230,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192">
@@ -5238,13 +5244,13 @@
         <v>75</v>
       </c>
       <c r="B192" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C192" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D192" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E192" s="1">
         <v>44932</v>
@@ -5253,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="193">
@@ -5261,13 +5267,13 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C193" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D193" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E193" s="1">
         <v>44951</v>
@@ -5276,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194">
@@ -5284,13 +5290,13 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C194" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D194" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E194" s="1">
         <v>44936</v>
@@ -5299,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195">
@@ -5307,13 +5313,13 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C195" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D195" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E195" s="1">
         <v>44936</v>
@@ -5322,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="196">
@@ -5330,13 +5336,13 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C196" t="s">
         <v>149</v>
       </c>
       <c r="D196" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E196" s="1">
         <v>44936</v>
@@ -5345,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197">
@@ -5353,13 +5359,13 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C197" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D197" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E197" s="1">
         <v>44936</v>
@@ -5368,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198">
@@ -5376,13 +5382,13 @@
         <v>78</v>
       </c>
       <c r="B198" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C198" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D198" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E198" s="1">
         <v>44939</v>
@@ -5391,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199">
@@ -5399,13 +5405,13 @@
         <v>79</v>
       </c>
       <c r="B199" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C199" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D199" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E199" s="1">
         <v>44930</v>
@@ -5414,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200">
@@ -5422,13 +5428,13 @@
         <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C200" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D200" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E200" s="1">
         <v>44956</v>
@@ -5437,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201">
@@ -5445,13 +5451,13 @@
         <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C201" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D201" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E201" s="1">
         <v>44936</v>
@@ -5460,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
     </row>
     <row r="202">
@@ -5468,13 +5474,13 @@
         <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C202" t="s">
         <v>149</v>
       </c>
       <c r="D202" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E202" s="1">
         <v>44936</v>
@@ -5483,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
     </row>
     <row r="203">
@@ -5491,13 +5497,13 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C203" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D203" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E203" s="1">
         <v>44936</v>
@@ -5506,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>251</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204">
@@ -5514,13 +5520,13 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C204" t="s">
         <v>149</v>
       </c>
       <c r="D204" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E204" s="1">
         <v>44936</v>
@@ -5529,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205">
@@ -5537,13 +5543,13 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C205" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D205" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E205" s="1">
         <v>44930</v>
@@ -5552,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="206">
@@ -5560,13 +5566,13 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C206" t="s">
         <v>149</v>
       </c>
       <c r="D206" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E206" s="1">
         <v>44930</v>
@@ -5575,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207">
@@ -5583,13 +5589,13 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C207" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D207" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E207" s="1">
         <v>44930</v>
@@ -5598,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
     </row>
     <row r="208">
@@ -5612,7 +5618,7 @@
         <v>149</v>
       </c>
       <c r="D208" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E208" s="1">
         <v>44936</v>
@@ -5621,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209">
@@ -5632,10 +5638,10 @@
         <v>104</v>
       </c>
       <c r="C209" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D209" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E209" s="1">
         <v>44936</v>
@@ -5644,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210">
@@ -5652,13 +5658,13 @@
         <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C210" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D210" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E210" s="1">
         <v>44936</v>
@@ -5667,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211">
@@ -5675,13 +5681,13 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C211" t="s">
         <v>149</v>
       </c>
       <c r="D211" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E211" s="1">
         <v>44951</v>
@@ -5690,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
     </row>
     <row r="212">
@@ -5701,10 +5707,10 @@
         <v>124</v>
       </c>
       <c r="C212" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D212" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E212" s="1">
         <v>44951</v>
@@ -5713,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
     </row>
     <row r="213">
@@ -5721,13 +5727,13 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C213" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D213" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E213" s="1">
         <v>44951</v>
@@ -5736,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="214">
@@ -5744,13 +5750,13 @@
         <v>85</v>
       </c>
       <c r="B214" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C214" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D214" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E214" s="1">
         <v>44932</v>
@@ -5759,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="G214" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215">
@@ -5767,13 +5773,13 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C215" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D215" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E215" s="1">
         <v>44936</v>
@@ -5782,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
     </row>
     <row r="216">
@@ -5790,13 +5796,13 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C216" t="s">
         <v>149</v>
       </c>
       <c r="D216" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E216" s="1">
         <v>44936</v>
@@ -5805,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217">
@@ -5813,13 +5819,13 @@
         <v>87</v>
       </c>
       <c r="B217" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C217" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D217" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E217" s="1">
         <v>44935</v>
@@ -5828,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218">
@@ -5836,13 +5842,13 @@
         <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C218" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D218" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E218" s="1">
         <v>44935</v>
@@ -5851,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="219">
@@ -5859,13 +5865,13 @@
         <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C219" t="s">
         <v>149</v>
       </c>
       <c r="D219" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E219" s="1">
         <v>44935</v>
@@ -5874,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="220">
@@ -5882,13 +5888,13 @@
         <v>89</v>
       </c>
       <c r="B220" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C220" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D220" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E220" s="1">
         <v>44957</v>
@@ -5897,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="221">
@@ -5905,13 +5911,13 @@
         <v>90</v>
       </c>
       <c r="B221" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C221" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D221" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E221" s="1">
         <v>44957</v>
@@ -5920,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222">
@@ -5928,13 +5934,13 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C222" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D222" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E222" s="1">
         <v>44957</v>
@@ -5943,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="223">
@@ -5951,13 +5957,13 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C223" t="s">
         <v>149</v>
       </c>
       <c r="D223" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E223" s="1">
         <v>44957</v>
@@ -5966,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224">
@@ -5974,13 +5980,13 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C224" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D224" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E224" s="1">
         <v>44957</v>
@@ -5989,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
     </row>
     <row r="225">
@@ -5997,13 +6003,13 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C225" t="s">
         <v>149</v>
       </c>
       <c r="D225" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E225" s="1">
         <v>44956</v>
@@ -6012,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226">
@@ -6020,13 +6026,13 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C226" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D226" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E226" s="1">
         <v>44956</v>
@@ -6035,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="227">
@@ -6043,13 +6049,13 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C227" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D227" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E227" s="1">
         <v>44956</v>
@@ -6058,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="228">
@@ -6066,13 +6072,13 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C228" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D228" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E228" s="1">
         <v>44956</v>
@@ -6081,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="229">
@@ -6092,10 +6098,10 @@
         <v>124</v>
       </c>
       <c r="C229" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D229" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E229" s="1">
         <v>44956</v>
@@ -6104,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
     </row>
     <row r="230">
@@ -6112,13 +6118,13 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C230" t="s">
         <v>149</v>
       </c>
       <c r="D230" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E230" s="1">
         <v>44957</v>
@@ -6127,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
     </row>
     <row r="231">
@@ -6135,13 +6141,13 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C231" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D231" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E231" s="1">
         <v>44957</v>
@@ -6150,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
     </row>
     <row r="232">
@@ -6158,13 +6164,13 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C232" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D232" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E232" s="1">
         <v>44957</v>
@@ -6173,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="233">
@@ -6181,22 +6187,137 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C233" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D233" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E233" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F233" s="2">
+        <v>1</v>
+      </c>
+      <c r="G233" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>94</v>
+      </c>
+      <c r="B234" t="s">
+        <v>104</v>
+      </c>
+      <c r="C234" t="s">
+        <v>149</v>
+      </c>
+      <c r="D234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E234" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F234" s="2">
+        <v>1</v>
+      </c>
+      <c r="G234" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>94</v>
+      </c>
+      <c r="B235" t="s">
+        <v>97</v>
+      </c>
+      <c r="C235" t="s">
+        <v>149</v>
+      </c>
+      <c r="D235" t="s">
+        <v>152</v>
+      </c>
+      <c r="E235" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F235" s="2">
+        <v>1</v>
+      </c>
+      <c r="G235" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>94</v>
+      </c>
+      <c r="B236" t="s">
+        <v>139</v>
+      </c>
+      <c r="C236" t="s">
+        <v>150</v>
+      </c>
+      <c r="D236" t="s">
+        <v>152</v>
+      </c>
+      <c r="E236" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F236" s="2">
+        <v>1</v>
+      </c>
+      <c r="G236" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>94</v>
+      </c>
+      <c r="B237" t="s">
+        <v>105</v>
+      </c>
+      <c r="C237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D237" t="s">
+        <v>152</v>
+      </c>
+      <c r="E237" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F237" s="2">
+        <v>1</v>
+      </c>
+      <c r="G237" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>95</v>
+      </c>
+      <c r="B238" t="s">
+        <v>110</v>
+      </c>
+      <c r="C238" t="s">
+        <v>149</v>
+      </c>
+      <c r="D238" t="s">
+        <v>152</v>
+      </c>
+      <c r="E238" s="1">
         <v>44956</v>
       </c>
-      <c r="F233" s="2">
-        <v>1</v>
-      </c>
-      <c r="G233" t="s">
-        <v>187</v>
+      <c r="F238" s="2">
+        <v>1</v>
+      </c>
+      <c r="G238" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -339,12 +339,12 @@
     <t>meclonazepam</t>
   </si>
   <si>
+    <t>sucrose</t>
+  </si>
+  <si>
     <t>clonazolam</t>
   </si>
   <si>
-    <t>sucrose</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -354,12 +354,12 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>lidocaine</t>
   </si>
   <si>
@@ -369,15 +369,15 @@
     <t>meconin</t>
   </si>
   <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>noscapine</t>
+  </si>
+  <si>
     <t>hydrocotarnine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
-    <t>noscapine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
@@ -393,18 +393,18 @@
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>norcocaine</t>
   </si>
   <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
@@ -510,21 +510,21 @@
     <t>6.66</t>
   </si>
   <si>
+    <t>9.74</t>
+  </si>
+  <si>
     <t>9.24</t>
   </si>
   <si>
-    <t>9.74</t>
-  </si>
-  <si>
     <t>7.3</t>
   </si>
   <si>
+    <t>9.94</t>
+  </si>
+  <si>
     <t>12.33</t>
   </si>
   <si>
-    <t>9.94</t>
-  </si>
-  <si>
     <t>6.48</t>
   </si>
   <si>
@@ -534,15 +534,15 @@
     <t>10.25</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>8.49</t>
   </si>
   <si>
     <t>6.11</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -639,12 +639,12 @@
     <t>9.57</t>
   </si>
   <si>
+    <t>10.03</t>
+  </si>
+  <si>
     <t>9.49</t>
   </si>
   <si>
-    <t>10.03</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
@@ -657,12 +657,12 @@
     <t>15.12</t>
   </si>
   <si>
+    <t>10.23</t>
+  </si>
+  <si>
     <t>9.09</t>
   </si>
   <si>
-    <t>10.23</t>
-  </si>
-  <si>
     <t>5.05</t>
   </si>
   <si>
@@ -699,27 +699,27 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>10.47</t>
+  </si>
+  <si>
     <t>6.04</t>
   </si>
   <si>
-    <t>10.47</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
     <t>6.58</t>
   </si>
   <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
     <t>9.31</t>
   </si>
   <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>10.56</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -732,12 +732,12 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
     <t>9.14</t>
   </si>
   <si>
-    <t>6.27</t>
-  </si>
-  <si>
     <t>7.37</t>
   </si>
   <si>
@@ -753,16 +753,16 @@
     <t>6.89</t>
   </si>
   <si>
+    <t>8.25</t>
+  </si>
+  <si>
     <t>4.81</t>
   </si>
   <si>
-    <t>8.25</t>
+    <t>8.12</t>
   </si>
   <si>
     <t>12.62</t>
-  </si>
-  <si>
-    <t>8.12</t>
   </si>
   <si>
     <t>5.49</t>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>149</v>
@@ -1127,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>149</v>
@@ -1311,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>149</v>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>149</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -1357,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
         <v>149</v>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>149</v>
@@ -1452,7 +1452,7 @@
         <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
         <v>152</v>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
@@ -1475,7 +1475,7 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
         <v>152</v>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
@@ -1518,10 +1518,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
         <v>152</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31">
@@ -1541,10 +1541,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
         <v>152</v>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32">
@@ -1725,7 +1725,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>150</v>
@@ -1748,10 +1748,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>152</v>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41">
@@ -1771,7 +1771,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
         <v>150</v>
@@ -1794,10 +1794,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
         <v>152</v>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43">
@@ -2050,7 +2050,7 @@
         <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
         <v>152</v>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55">
@@ -2119,7 +2119,7 @@
         <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
         <v>152</v>
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57">
@@ -2139,7 +2139,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
         <v>150</v>
@@ -2185,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
         <v>149</v>
@@ -2323,10 +2323,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
         <v>152</v>
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66">
@@ -2346,7 +2346,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
         <v>149</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67">
@@ -2369,10 +2369,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
         <v>152</v>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68">
@@ -2392,7 +2392,7 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>150</v>
@@ -2668,7 +2668,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
         <v>149</v>
@@ -2691,7 +2691,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
         <v>150</v>
@@ -2714,7 +2714,7 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
         <v>150</v>
@@ -2898,10 +2898,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
         <v>152</v>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -2921,10 +2921,10 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
         <v>152</v>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92">
@@ -2990,7 +2990,7 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>149</v>
@@ -3013,10 +3013,10 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
         <v>152</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
@@ -3036,10 +3036,10 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
         <v>152</v>
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
@@ -3059,7 +3059,7 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
         <v>150</v>
@@ -3151,10 +3151,10 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D101" t="s">
         <v>152</v>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102">
@@ -3174,7 +3174,7 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
         <v>149</v>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103">
@@ -3197,10 +3197,10 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
         <v>152</v>
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
@@ -3335,7 +3335,7 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
         <v>149</v>
@@ -3358,7 +3358,7 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
         <v>149</v>
@@ -3404,7 +3404,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>149</v>
@@ -3427,7 +3427,7 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C113" t="s">
         <v>149</v>
@@ -3450,7 +3450,7 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
         <v>150</v>
@@ -3542,7 +3542,7 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C118" t="s">
         <v>150</v>
@@ -3565,7 +3565,7 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
         <v>149</v>
@@ -3611,7 +3611,7 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" t="s">
         <v>150</v>
@@ -3749,10 +3749,10 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D127" t="s">
         <v>152</v>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128">
@@ -3772,7 +3772,7 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C128" t="s">
         <v>149</v>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129">
@@ -3795,10 +3795,10 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C129" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D129" t="s">
         <v>152</v>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130">
@@ -3910,7 +3910,7 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C134" t="s">
         <v>150</v>
@@ -3933,7 +3933,7 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
         <v>149</v>
@@ -3979,10 +3979,10 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" t="s">
         <v>152</v>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138">
@@ -4005,7 +4005,7 @@
         <v>129</v>
       </c>
       <c r="C138" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D138" t="s">
         <v>152</v>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139">
@@ -4048,7 +4048,7 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C140" t="s">
         <v>149</v>
@@ -4071,7 +4071,7 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C141" t="s">
         <v>149</v>
@@ -4117,10 +4117,10 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C143" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D143" t="s">
         <v>152</v>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144">
@@ -4140,10 +4140,10 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D144" t="s">
         <v>152</v>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145">
@@ -4186,10 +4186,10 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D146" t="s">
         <v>152</v>
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147">
@@ -4209,7 +4209,7 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C147" t="s">
         <v>150</v>
@@ -4232,10 +4232,10 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D148" t="s">
         <v>152</v>
@@ -4247,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149">
@@ -4347,10 +4347,10 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C153" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D153" t="s">
         <v>152</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154">
@@ -4370,10 +4370,10 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" t="s">
         <v>152</v>
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155">
@@ -4416,7 +4416,7 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C156" t="s">
         <v>149</v>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159">
@@ -4646,7 +4646,7 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C166" t="s">
         <v>149</v>
@@ -4669,7 +4669,7 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C167" t="s">
         <v>149</v>
@@ -4715,10 +4715,10 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C169" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D169" t="s">
         <v>152</v>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170">
@@ -4738,10 +4738,10 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C170" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D170" t="s">
         <v>152</v>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171">
@@ -4807,7 +4807,7 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C173" t="s">
         <v>149</v>
@@ -4822,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174">
@@ -4830,7 +4830,7 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s">
         <v>149</v>
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
     </row>
     <row r="175">
@@ -4991,7 +4991,7 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C181" t="s">
         <v>150</v>
@@ -5014,7 +5014,7 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C182" t="s">
         <v>149</v>
@@ -5037,10 +5037,10 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C183" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D183" t="s">
         <v>152</v>
@@ -5052,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184">
@@ -5060,10 +5060,10 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C184" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D184" t="s">
         <v>152</v>
@@ -5075,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185">
@@ -5083,7 +5083,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C185" t="s">
         <v>150</v>
@@ -5106,7 +5106,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C186" t="s">
         <v>150</v>
@@ -5129,7 +5129,7 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="C187" t="s">
         <v>150</v>
@@ -5175,7 +5175,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C189" t="s">
         <v>150</v>
@@ -5198,7 +5198,7 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C190" t="s">
         <v>150</v>
@@ -5221,7 +5221,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C191" t="s">
         <v>150</v>
@@ -5313,7 +5313,7 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C195" t="s">
         <v>150</v>
@@ -5336,7 +5336,7 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C196" t="s">
         <v>149</v>
@@ -5359,7 +5359,7 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C197" t="s">
         <v>149</v>
@@ -5566,10 +5566,10 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C206" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D206" t="s">
         <v>152</v>
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207">
@@ -5589,10 +5589,10 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C207" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D207" t="s">
         <v>152</v>
@@ -5604,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208">
@@ -5681,7 +5681,7 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C211" t="s">
         <v>149</v>
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212">
@@ -5727,7 +5727,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C213" t="s">
         <v>150</v>
@@ -5934,10 +5934,10 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C222" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D222" t="s">
         <v>152</v>
@@ -5949,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223">
@@ -5960,7 +5960,7 @@
         <v>129</v>
       </c>
       <c r="C223" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D223" t="s">
         <v>152</v>
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
     </row>
     <row r="224">
@@ -6003,7 +6003,7 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C225" t="s">
         <v>149</v>
@@ -6026,7 +6026,7 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C226" t="s">
         <v>150</v>
@@ -6049,7 +6049,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C227" t="s">
         <v>150</v>
@@ -6072,7 +6072,7 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C228" t="s">
         <v>150</v>
@@ -6095,7 +6095,7 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C229" t="s">
         <v>150</v>
@@ -6118,10 +6118,10 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C230" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D230" t="s">
         <v>152</v>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
     </row>
     <row r="231">
@@ -6164,10 +6164,10 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C232" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D232" t="s">
         <v>152</v>
@@ -6179,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
     </row>
     <row r="233">
@@ -6187,7 +6187,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C233" t="s">
         <v>150</v>
@@ -6210,7 +6210,7 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C234" t="s">
         <v>149</v>
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235">
@@ -6233,7 +6233,7 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C235" t="s">
         <v>149</v>
@@ -6248,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
     </row>
     <row r="236">

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1192" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1207" uniqueCount="262">
   <si>
     <t>sampleid</t>
   </si>
@@ -303,12 +303,18 @@
     <t>800366</t>
   </si>
   <si>
+    <t>800379</t>
+  </si>
+  <si>
     <t>substance</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
@@ -318,66 +324,63 @@
     <t>inositol</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
     <t>acetaminophen</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>non-specific organic acids</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
+  </si>
+  <si>
     <t>meclonazepam</t>
   </si>
   <si>
     <t>sucrose</t>
   </si>
   <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>meconin</t>
   </si>
   <si>
+    <t>noscapine</t>
+  </si>
+  <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>noscapine</t>
-  </si>
-  <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
@@ -390,12 +393,12 @@
     <t>tropacocaine</t>
   </si>
   <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -405,15 +408,15 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>N,N-dimethyltryptamine (DMT)</t>
+  </si>
+  <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
+  </si>
+  <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -444,12 +447,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>ecgonidine (ED)</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>ecgonidine (ED)</t>
-  </si>
-  <si>
     <t>flubromazolam</t>
   </si>
   <si>
@@ -486,60 +489,60 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.92</t>
+  </si>
+  <si>
     <t>8.53</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>8.92</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
     <t>5.81</t>
   </si>
   <si>
+    <t>8.37</t>
+  </si>
+  <si>
     <t>9.23</t>
   </si>
   <si>
-    <t>8.37</t>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>6.48</t>
   </si>
   <si>
     <t>6.66</t>
   </si>
   <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
     <t>9.74</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
     <t>9.94</t>
   </si>
   <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
     <t>9.1</t>
   </si>
   <si>
     <t>10.25</t>
   </si>
   <si>
+    <t>8.49</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>8.49</t>
-  </si>
-  <si>
     <t>6.11</t>
   </si>
   <si>
@@ -600,21 +603,21 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>9.04</t>
+  </si>
+  <si>
     <t>10.17</t>
   </si>
   <si>
-    <t>9.04</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
+    <t>9.32</t>
+  </si>
+  <si>
     <t>9.83</t>
   </si>
   <si>
-    <t>9.32</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -633,18 +636,18 @@
     <t>9.26</t>
   </si>
   <si>
+    <t>10.03</t>
+  </si>
+  <si>
     <t>9.85</t>
   </si>
   <si>
+    <t>9.49</t>
+  </si>
+  <si>
     <t>9.57</t>
   </si>
   <si>
-    <t>10.03</t>
-  </si>
-  <si>
-    <t>9.49</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
@@ -657,15 +660,15 @@
     <t>15.12</t>
   </si>
   <si>
+    <t>5.05</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
     <t>9.09</t>
   </si>
   <si>
-    <t>5.05</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -678,15 +681,15 @@
     <t>10.41</t>
   </si>
   <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.28</t>
+  </si>
+  <si>
     <t>9.36</t>
   </si>
   <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>9.28</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
@@ -699,27 +702,27 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>6.04</t>
+  </si>
+  <si>
     <t>10.47</t>
   </si>
   <si>
-    <t>6.04</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
     <t>6.58</t>
   </si>
   <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>9.31</t>
+  </si>
+  <si>
     <t>10.56</t>
   </si>
   <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>9.31</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -732,24 +735,24 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
     <t>6.27</t>
   </si>
   <si>
-    <t>9.14</t>
-  </si>
-  <si>
-    <t>7.37</t>
-  </si>
-  <si>
-    <t>10.3</t>
+    <t>6.36</t>
   </si>
   <si>
     <t>11.73</t>
   </si>
   <si>
-    <t>6.36</t>
-  </si>
-  <si>
     <t>6.89</t>
   </si>
   <si>
@@ -793,6 +796,9 @@
   </si>
   <si>
     <t>4.1</t>
+  </si>
+  <si>
+    <t>9.25</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -851,22 +857,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
@@ -874,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -889,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
@@ -897,13 +903,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -912,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4">
@@ -920,13 +926,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -935,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
@@ -943,13 +949,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -958,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -966,13 +972,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -981,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -989,13 +995,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -1004,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8">
@@ -1012,13 +1018,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -1027,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
@@ -1035,13 +1041,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -1050,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
@@ -1058,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -1073,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
@@ -1081,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -1096,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -1104,13 +1110,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -1119,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
@@ -1127,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -1142,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
@@ -1150,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -1165,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
@@ -1173,13 +1179,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -1188,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1196,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1211,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -1219,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1234,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -1242,13 +1248,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
         <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1257,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -1265,13 +1271,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1280,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
@@ -1288,13 +1294,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1303,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -1311,13 +1317,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1326,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -1334,13 +1340,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1349,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
@@ -1357,13 +1363,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1372,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
@@ -1380,13 +1386,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1395,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -1403,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1418,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -1426,13 +1432,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
         <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1441,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27">
@@ -1449,13 +1455,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1464,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
@@ -1472,13 +1478,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1487,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -1495,13 +1501,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
         <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1510,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -1518,13 +1524,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1533,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
@@ -1541,13 +1547,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1556,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
@@ -1564,13 +1570,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1579,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
@@ -1587,13 +1593,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1602,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -1610,13 +1616,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1625,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35">
@@ -1633,13 +1639,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
         <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1648,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36">
@@ -1656,13 +1662,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1671,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
@@ -1679,13 +1685,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1694,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38">
@@ -1702,13 +1708,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1717,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -1725,13 +1731,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1740,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1748,13 +1754,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1763,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -1771,13 +1777,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1786,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42">
@@ -1794,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1809,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
@@ -1817,13 +1823,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1832,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44">
@@ -1840,13 +1846,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1855,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45">
@@ -1863,13 +1869,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
         <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E45" s="1">
         <v>44951</v>
@@ -1878,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
@@ -1886,13 +1892,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E46" s="1">
         <v>44951</v>
@@ -1901,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47">
@@ -1909,13 +1915,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" s="1">
         <v>44936</v>
@@ -1924,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48">
@@ -1932,13 +1938,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E48" s="1">
         <v>44935</v>
@@ -1947,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49">
@@ -1955,13 +1961,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E49" s="1">
         <v>44935</v>
@@ -1970,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50">
@@ -1978,13 +1984,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -1993,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51">
@@ -2001,13 +2007,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -2016,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52">
@@ -2024,13 +2030,13 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
         <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -2039,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53">
@@ -2047,13 +2053,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -2062,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54">
@@ -2070,13 +2076,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -2085,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55">
@@ -2093,13 +2099,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1">
         <v>44931</v>
@@ -2108,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56">
@@ -2116,13 +2122,13 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E56" s="1">
         <v>44931</v>
@@ -2131,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57">
@@ -2139,13 +2145,13 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E57" s="1">
         <v>44956</v>
@@ -2154,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58">
@@ -2162,13 +2168,13 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E58" s="1">
         <v>44956</v>
@@ -2177,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59">
@@ -2185,13 +2191,13 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E59" s="1">
         <v>44956</v>
@@ -2200,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60">
@@ -2208,13 +2214,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E60" s="1">
         <v>44951</v>
@@ -2223,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61">
@@ -2231,13 +2237,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E61" s="1">
         <v>44935</v>
@@ -2246,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62">
@@ -2254,13 +2260,13 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
         <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E62" s="1">
         <v>44930</v>
@@ -2269,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63">
@@ -2277,13 +2283,13 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E63" s="1">
         <v>44930</v>
@@ -2292,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64">
@@ -2300,13 +2306,13 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E64" s="1">
         <v>44930</v>
@@ -2315,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65">
@@ -2323,13 +2329,13 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E65" s="1">
         <v>44951</v>
@@ -2338,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66">
@@ -2346,13 +2352,13 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E66" s="1">
         <v>44951</v>
@@ -2361,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67">
@@ -2369,13 +2375,13 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E67" s="1">
         <v>44951</v>
@@ -2384,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -2395,10 +2401,10 @@
         <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E68" s="1">
         <v>44951</v>
@@ -2407,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69">
@@ -2415,13 +2421,13 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E69" s="1">
         <v>44951</v>
@@ -2430,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70">
@@ -2438,13 +2444,13 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" s="1">
         <v>44935</v>
@@ -2453,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71">
@@ -2461,13 +2467,13 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E71" s="1">
         <v>44935</v>
@@ -2476,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
@@ -2484,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="1">
         <v>44952</v>
@@ -2499,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73">
@@ -2507,13 +2513,13 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E73" s="1">
         <v>44952</v>
@@ -2522,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -2533,10 +2539,10 @@
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E74" s="1">
         <v>44952</v>
@@ -2545,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75">
@@ -2553,13 +2559,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E75" s="1">
         <v>44930</v>
@@ -2568,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76">
@@ -2582,7 +2588,7 @@
         <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E76" s="1">
         <v>44930</v>
@@ -2591,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -2599,13 +2605,13 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E77" s="1">
         <v>44930</v>
@@ -2614,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -2622,13 +2628,13 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" s="1">
         <v>44957</v>
@@ -2637,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79">
@@ -2645,13 +2651,13 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="1">
         <v>44930</v>
@@ -2660,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -2668,13 +2674,13 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="1">
         <v>44935</v>
@@ -2683,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81">
@@ -2691,13 +2697,13 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E81" s="1">
         <v>44935</v>
@@ -2706,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82">
@@ -2714,13 +2720,13 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
         <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E82" s="1">
         <v>44935</v>
@@ -2729,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -2737,13 +2743,13 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E83" s="1">
         <v>44951</v>
@@ -2752,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84">
@@ -2760,13 +2766,13 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E84" s="1">
         <v>44951</v>
@@ -2775,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -2786,10 +2792,10 @@
         <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E85" s="1">
         <v>44951</v>
@@ -2798,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
@@ -2806,13 +2812,13 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E86" s="1">
         <v>44956</v>
@@ -2821,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -2829,13 +2835,13 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E87" s="1">
         <v>44956</v>
@@ -2844,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88">
@@ -2852,13 +2858,13 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E88" s="1">
         <v>44956</v>
@@ -2867,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -2878,10 +2884,10 @@
         <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E89" s="1">
         <v>44956</v>
@@ -2890,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -2898,13 +2904,13 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E90" s="1">
         <v>44951</v>
@@ -2913,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91">
@@ -2921,13 +2927,13 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
         <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E91" s="1">
         <v>44951</v>
@@ -2936,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -2944,13 +2950,13 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E92" s="1">
         <v>44951</v>
@@ -2959,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93">
@@ -2967,13 +2973,13 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E93" s="1">
         <v>44951</v>
@@ -2982,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94">
@@ -2990,13 +2996,13 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E94" s="1">
         <v>44951</v>
@@ -3013,13 +3019,13 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E95" s="1">
         <v>44951</v>
@@ -3028,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96">
@@ -3036,13 +3042,13 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E96" s="1">
         <v>44951</v>
@@ -3059,13 +3065,13 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E97" s="1">
         <v>44951</v>
@@ -3074,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98">
@@ -3082,13 +3088,13 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E98" s="1">
         <v>44952</v>
@@ -3097,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99">
@@ -3105,13 +3111,13 @@
         <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E99" s="1">
         <v>44930</v>
@@ -3120,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
@@ -3128,13 +3134,13 @@
         <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E100" s="1">
         <v>44957</v>
@@ -3143,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101">
@@ -3151,13 +3157,13 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E101" s="1">
         <v>44930</v>
@@ -3166,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
@@ -3174,13 +3180,13 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D102" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E102" s="1">
         <v>44930</v>
@@ -3189,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103">
@@ -3197,13 +3203,13 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
         <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E103" s="1">
         <v>44930</v>
@@ -3212,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104">
@@ -3220,13 +3226,13 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E104" s="1">
         <v>44930</v>
@@ -3235,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
@@ -3243,13 +3249,13 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E105" s="1">
         <v>44935</v>
@@ -3258,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106">
@@ -3266,13 +3272,13 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E106" s="1">
         <v>44935</v>
@@ -3281,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107">
@@ -3289,13 +3295,13 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E107" s="1">
         <v>44935</v>
@@ -3304,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
@@ -3312,13 +3318,13 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
         <v>150</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E108" s="1">
         <v>44935</v>
@@ -3327,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109">
@@ -3335,13 +3341,13 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D109" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E109" s="1">
         <v>44935</v>
@@ -3350,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110">
@@ -3358,13 +3364,13 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E110" s="1">
         <v>44935</v>
@@ -3373,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111">
@@ -3381,13 +3387,13 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E111" s="1">
         <v>44935</v>
@@ -3396,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112">
@@ -3407,10 +3413,10 @@
         <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E112" s="1">
         <v>44932</v>
@@ -3419,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113">
@@ -3427,13 +3433,13 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E113" s="1">
         <v>44951</v>
@@ -3442,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114">
@@ -3450,13 +3456,13 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E114" s="1">
         <v>44951</v>
@@ -3465,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
@@ -3473,13 +3479,13 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D115" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E115" s="1">
         <v>44951</v>
@@ -3488,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
@@ -3496,13 +3502,13 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D116" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E116" s="1">
         <v>44951</v>
@@ -3511,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
@@ -3519,13 +3525,13 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E117" s="1">
         <v>44951</v>
@@ -3534,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
@@ -3542,13 +3548,13 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
         <v>150</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E118" s="1">
         <v>44951</v>
@@ -3557,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119">
@@ -3568,10 +3574,10 @@
         <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119" s="1">
         <v>44951</v>
@@ -3580,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
@@ -3588,13 +3594,13 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D120" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E120" s="1">
         <v>44951</v>
@@ -3603,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
@@ -3611,13 +3617,13 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D121" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E121" s="1">
         <v>44951</v>
@@ -3626,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
@@ -3634,13 +3640,13 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C122" t="s">
         <v>150</v>
       </c>
       <c r="D122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E122" s="1">
         <v>44951</v>
@@ -3649,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123">
@@ -3657,13 +3663,13 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E123" s="1">
         <v>44931</v>
@@ -3672,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
@@ -3680,13 +3686,13 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E124" s="1">
         <v>44931</v>
@@ -3695,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
@@ -3703,13 +3709,13 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E125" s="1">
         <v>44931</v>
@@ -3718,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126">
@@ -3726,13 +3732,13 @@
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E126" s="1">
         <v>44931</v>
@@ -3741,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127">
@@ -3749,13 +3755,13 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D127" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E127" s="1">
         <v>44930</v>
@@ -3764,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
@@ -3772,13 +3778,13 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D128" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E128" s="1">
         <v>44930</v>
@@ -3795,13 +3801,13 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s">
         <v>150</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E129" s="1">
         <v>44930</v>
@@ -3810,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130">
@@ -3818,13 +3824,13 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D130" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E130" s="1">
         <v>44930</v>
@@ -3833,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131">
@@ -3841,13 +3847,13 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E131" s="1">
         <v>44957</v>
@@ -3856,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132">
@@ -3864,13 +3870,13 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C132" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D132" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E132" s="1">
         <v>44935</v>
@@ -3879,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133">
@@ -3887,13 +3893,13 @@
         <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C133" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E133" s="1">
         <v>44930</v>
@@ -3902,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134">
@@ -3910,13 +3916,13 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
         <v>150</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E134" s="1">
         <v>44935</v>
@@ -3925,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="135">
@@ -3933,13 +3939,13 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D135" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E135" s="1">
         <v>44935</v>
@@ -3948,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
@@ -3956,13 +3962,13 @@
         <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D136" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E136" s="1">
         <v>44935</v>
@@ -3971,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137">
@@ -3979,13 +3985,13 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E137" s="1">
         <v>44935</v>
@@ -3994,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
@@ -4002,13 +4008,13 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D138" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E138" s="1">
         <v>44935</v>
@@ -4017,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139">
@@ -4025,13 +4031,13 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C139" t="s">
         <v>150</v>
       </c>
       <c r="D139" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E139" s="1">
         <v>44935</v>
@@ -4040,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140">
@@ -4048,13 +4054,13 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C140" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D140" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E140" s="1">
         <v>44936</v>
@@ -4063,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
@@ -4071,13 +4077,13 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D141" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E141" s="1">
         <v>44936</v>
@@ -4094,13 +4100,13 @@
         <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C142" t="s">
         <v>150</v>
       </c>
       <c r="D142" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E142" s="1">
         <v>44936</v>
@@ -4109,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143">
@@ -4117,13 +4123,13 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E143" s="1">
         <v>44931</v>
@@ -4132,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144">
@@ -4140,13 +4146,13 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E144" s="1">
         <v>44931</v>
@@ -4155,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145">
@@ -4163,13 +4169,13 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C145" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D145" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E145" s="1">
         <v>44935</v>
@@ -4178,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146">
@@ -4186,13 +4192,13 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D146" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E146" s="1">
         <v>44936</v>
@@ -4201,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
@@ -4215,7 +4221,7 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E147" s="1">
         <v>44936</v>
@@ -4224,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148">
@@ -4232,13 +4238,13 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C148" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E148" s="1">
         <v>44936</v>
@@ -4247,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
@@ -4255,13 +4261,13 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E149" s="1">
         <v>44936</v>
@@ -4278,13 +4284,13 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D150" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E150" s="1">
         <v>44951</v>
@@ -4293,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
@@ -4301,13 +4307,13 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E151" s="1">
         <v>44951</v>
@@ -4316,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="152">
@@ -4324,13 +4330,13 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C152" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E152" s="1">
         <v>44951</v>
@@ -4339,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153">
@@ -4347,13 +4353,13 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C153" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E153" s="1">
         <v>44952</v>
@@ -4362,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
@@ -4373,10 +4379,10 @@
         <v>104</v>
       </c>
       <c r="C154" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D154" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E154" s="1">
         <v>44952</v>
@@ -4385,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155">
@@ -4393,13 +4399,13 @@
         <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C155" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D155" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E155" s="1">
         <v>44952</v>
@@ -4408,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="156">
@@ -4416,13 +4422,13 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C156" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D156" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E156" s="1">
         <v>44952</v>
@@ -4431,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157">
@@ -4439,13 +4445,13 @@
         <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C157" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D157" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E157" s="1">
         <v>44936</v>
@@ -4454,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158">
@@ -4462,13 +4468,13 @@
         <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C158" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D158" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E158" s="1">
         <v>44935</v>
@@ -4477,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159">
@@ -4485,13 +4491,13 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D159" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E159" s="1">
         <v>44930</v>
@@ -4500,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160">
@@ -4508,13 +4514,13 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D160" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E160" s="1">
         <v>44930</v>
@@ -4523,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161">
@@ -4531,13 +4537,13 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C161" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D161" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E161" s="1">
         <v>44930</v>
@@ -4546,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162">
@@ -4554,13 +4560,13 @@
         <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C162" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D162" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E162" s="1">
         <v>44930</v>
@@ -4569,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163">
@@ -4577,13 +4583,13 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C163" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D163" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E163" s="1">
         <v>44932</v>
@@ -4592,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164">
@@ -4600,13 +4606,13 @@
         <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C164" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D164" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E164" s="1">
         <v>44932</v>
@@ -4615,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165">
@@ -4623,13 +4629,13 @@
         <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C165" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D165" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E165" s="1">
         <v>44931</v>
@@ -4638,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166">
@@ -4646,13 +4652,13 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C166" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D166" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E166" s="1">
         <v>44930</v>
@@ -4661,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167">
@@ -4672,10 +4678,10 @@
         <v>105</v>
       </c>
       <c r="C167" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D167" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E167" s="1">
         <v>44930</v>
@@ -4692,13 +4698,13 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C168" t="s">
         <v>150</v>
       </c>
       <c r="D168" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E168" s="1">
         <v>44930</v>
@@ -4707,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169">
@@ -4715,13 +4721,13 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C169" t="s">
         <v>150</v>
       </c>
       <c r="D169" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E169" s="1">
         <v>44930</v>
@@ -4730,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170">
@@ -4738,13 +4744,13 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C170" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D170" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E170" s="1">
         <v>44930</v>
@@ -4753,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171">
@@ -4761,13 +4767,13 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C171" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D171" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E171" s="1">
         <v>44930</v>
@@ -4776,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172">
@@ -4784,13 +4790,13 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C172" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D172" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E172" s="1">
         <v>44935</v>
@@ -4799,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173">
@@ -4807,13 +4813,13 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C173" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D173" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E173" s="1">
         <v>44935</v>
@@ -4822,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
     </row>
     <row r="174">
@@ -4830,13 +4836,13 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C174" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D174" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E174" s="1">
         <v>44935</v>
@@ -4845,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175">
@@ -4853,13 +4859,13 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C175" t="s">
         <v>150</v>
       </c>
       <c r="D175" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E175" s="1">
         <v>44935</v>
@@ -4868,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176">
@@ -4876,13 +4882,13 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C176" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D176" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E176" s="1">
         <v>44935</v>
@@ -4891,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177">
@@ -4899,13 +4905,13 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C177" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D177" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E177" s="1">
         <v>44935</v>
@@ -4914,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178">
@@ -4922,13 +4928,13 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C178" t="s">
         <v>150</v>
       </c>
       <c r="D178" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E178" s="1">
         <v>44935</v>
@@ -4937,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179">
@@ -4945,13 +4951,13 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C179" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D179" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E179" s="1">
         <v>44935</v>
@@ -4960,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180">
@@ -4968,13 +4974,13 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C180" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D180" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E180" s="1">
         <v>44952</v>
@@ -4983,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="181">
@@ -4991,13 +4997,13 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C181" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D181" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E181" s="1">
         <v>44957</v>
@@ -5006,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182">
@@ -5014,13 +5020,13 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C182" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D182" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E182" s="1">
         <v>44957</v>
@@ -5029,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183">
@@ -5037,13 +5043,13 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C183" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D183" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E183" s="1">
         <v>44957</v>
@@ -5052,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184">
@@ -5060,13 +5066,13 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C184" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D184" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E184" s="1">
         <v>44957</v>
@@ -5075,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185">
@@ -5083,13 +5089,13 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C185" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D185" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E185" s="1">
         <v>44957</v>
@@ -5098,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186">
@@ -5106,13 +5112,13 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C186" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D186" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E186" s="1">
         <v>44957</v>
@@ -5121,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187">
@@ -5129,13 +5135,13 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C187" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D187" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E187" s="1">
         <v>44957</v>
@@ -5144,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188">
@@ -5152,13 +5158,13 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C188" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D188" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E188" s="1">
         <v>44957</v>
@@ -5167,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="189">
@@ -5175,13 +5181,13 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C189" t="s">
         <v>150</v>
       </c>
       <c r="D189" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E189" s="1">
         <v>44957</v>
@@ -5190,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190">
@@ -5198,13 +5204,13 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C190" t="s">
         <v>150</v>
       </c>
       <c r="D190" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E190" s="1">
         <v>44957</v>
@@ -5213,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191">
@@ -5221,13 +5227,13 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C191" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D191" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E191" s="1">
         <v>44957</v>
@@ -5236,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192">
@@ -5244,13 +5250,13 @@
         <v>75</v>
       </c>
       <c r="B192" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C192" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D192" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E192" s="1">
         <v>44932</v>
@@ -5259,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193">
@@ -5267,13 +5273,13 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C193" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D193" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E193" s="1">
         <v>44951</v>
@@ -5282,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194">
@@ -5290,13 +5296,13 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C194" t="s">
         <v>150</v>
       </c>
       <c r="D194" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E194" s="1">
         <v>44936</v>
@@ -5305,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195">
@@ -5313,13 +5319,13 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C195" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D195" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E195" s="1">
         <v>44936</v>
@@ -5328,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196">
@@ -5336,13 +5342,13 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C196" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D196" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E196" s="1">
         <v>44936</v>
@@ -5351,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197">
@@ -5359,13 +5365,13 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C197" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D197" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E197" s="1">
         <v>44936</v>
@@ -5374,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198">
@@ -5382,13 +5388,13 @@
         <v>78</v>
       </c>
       <c r="B198" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C198" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D198" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E198" s="1">
         <v>44939</v>
@@ -5397,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199">
@@ -5405,13 +5411,13 @@
         <v>79</v>
       </c>
       <c r="B199" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C199" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D199" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E199" s="1">
         <v>44930</v>
@@ -5420,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200">
@@ -5428,13 +5434,13 @@
         <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C200" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D200" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E200" s="1">
         <v>44956</v>
@@ -5443,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="201">
@@ -5451,13 +5457,13 @@
         <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C201" t="s">
         <v>150</v>
       </c>
       <c r="D201" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E201" s="1">
         <v>44936</v>
@@ -5466,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202">
@@ -5474,13 +5480,13 @@
         <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C202" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D202" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E202" s="1">
         <v>44936</v>
@@ -5489,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203">
@@ -5497,13 +5503,13 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C203" t="s">
         <v>150</v>
       </c>
       <c r="D203" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E203" s="1">
         <v>44936</v>
@@ -5512,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204">
@@ -5520,13 +5526,13 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C204" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D204" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E204" s="1">
         <v>44936</v>
@@ -5535,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205">
@@ -5543,13 +5549,13 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C205" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D205" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E205" s="1">
         <v>44930</v>
@@ -5558,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
     </row>
     <row r="206">
@@ -5566,13 +5572,13 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C206" t="s">
         <v>150</v>
       </c>
       <c r="D206" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E206" s="1">
         <v>44930</v>
@@ -5581,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
     </row>
     <row r="207">
@@ -5589,13 +5595,13 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C207" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D207" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E207" s="1">
         <v>44930</v>
@@ -5604,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208">
@@ -5612,13 +5618,13 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C208" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D208" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E208" s="1">
         <v>44936</v>
@@ -5627,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209">
@@ -5635,13 +5641,13 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C209" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D209" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E209" s="1">
         <v>44936</v>
@@ -5650,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
     </row>
     <row r="210">
@@ -5658,13 +5664,13 @@
         <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C210" t="s">
         <v>150</v>
       </c>
       <c r="D210" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E210" s="1">
         <v>44936</v>
@@ -5673,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211">
@@ -5681,13 +5687,13 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C211" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D211" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E211" s="1">
         <v>44951</v>
@@ -5696,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212">
@@ -5704,13 +5710,13 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C212" t="s">
         <v>150</v>
       </c>
       <c r="D212" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E212" s="1">
         <v>44951</v>
@@ -5719,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213">
@@ -5727,13 +5733,13 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C213" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D213" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E213" s="1">
         <v>44951</v>
@@ -5742,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214">
@@ -5750,13 +5756,13 @@
         <v>85</v>
       </c>
       <c r="B214" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C214" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D214" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E214" s="1">
         <v>44932</v>
@@ -5765,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="G214" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="215">
@@ -5773,13 +5779,13 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C215" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D215" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E215" s="1">
         <v>44936</v>
@@ -5788,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="216">
@@ -5796,13 +5802,13 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C216" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D216" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E216" s="1">
         <v>44936</v>
@@ -5811,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217">
@@ -5819,13 +5825,13 @@
         <v>87</v>
       </c>
       <c r="B217" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C217" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D217" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E217" s="1">
         <v>44935</v>
@@ -5834,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="218">
@@ -5842,13 +5848,13 @@
         <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C218" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D218" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E218" s="1">
         <v>44935</v>
@@ -5857,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219">
@@ -5865,13 +5871,13 @@
         <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C219" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D219" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E219" s="1">
         <v>44935</v>
@@ -5880,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220">
@@ -5888,13 +5894,13 @@
         <v>89</v>
       </c>
       <c r="B220" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C220" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D220" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E220" s="1">
         <v>44957</v>
@@ -5903,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="221">
@@ -5911,13 +5917,13 @@
         <v>90</v>
       </c>
       <c r="B221" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C221" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D221" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E221" s="1">
         <v>44957</v>
@@ -5926,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222">
@@ -5934,13 +5940,13 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C222" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D222" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E222" s="1">
         <v>44957</v>
@@ -5949,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
     </row>
     <row r="223">
@@ -5957,13 +5963,13 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C223" t="s">
         <v>150</v>
       </c>
       <c r="D223" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E223" s="1">
         <v>44957</v>
@@ -5972,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224">
@@ -5980,13 +5986,13 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C224" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D224" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E224" s="1">
         <v>44957</v>
@@ -5995,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="225">
@@ -6003,13 +6009,13 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C225" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D225" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E225" s="1">
         <v>44956</v>
@@ -6018,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226">
@@ -6026,13 +6032,13 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C226" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D226" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E226" s="1">
         <v>44956</v>
@@ -6041,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="227">
@@ -6049,13 +6055,13 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C227" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D227" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E227" s="1">
         <v>44956</v>
@@ -6064,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="228">
@@ -6072,13 +6078,13 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C228" t="s">
         <v>150</v>
       </c>
       <c r="D228" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E228" s="1">
         <v>44956</v>
@@ -6087,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229">
@@ -6095,13 +6101,13 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C229" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D229" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E229" s="1">
         <v>44956</v>
@@ -6110,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="230">
@@ -6118,13 +6124,13 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C230" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D230" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E230" s="1">
         <v>44957</v>
@@ -6133,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="231">
@@ -6141,13 +6147,13 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C231" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D231" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E231" s="1">
         <v>44957</v>
@@ -6156,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="232">
@@ -6164,13 +6170,13 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C232" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D232" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E232" s="1">
         <v>44957</v>
@@ -6179,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="233">
@@ -6187,13 +6193,13 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C233" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D233" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E233" s="1">
         <v>44964</v>
@@ -6202,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="234">
@@ -6210,13 +6216,13 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C234" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D234" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E234" s="1">
         <v>44964</v>
@@ -6225,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
     </row>
     <row r="235">
@@ -6233,13 +6239,13 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C235" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D235" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E235" s="1">
         <v>44964</v>
@@ -6248,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="236">
@@ -6256,13 +6262,13 @@
         <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="C236" t="s">
         <v>150</v>
       </c>
       <c r="D236" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E236" s="1">
         <v>44964</v>
@@ -6271,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237">
@@ -6279,13 +6285,13 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C237" t="s">
         <v>150</v>
       </c>
       <c r="D237" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E237" s="1">
         <v>44964</v>
@@ -6294,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="238">
@@ -6302,13 +6308,13 @@
         <v>95</v>
       </c>
       <c r="B238" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C238" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D238" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E238" s="1">
         <v>44956</v>
@@ -6317,7 +6323,76 @@
         <v>1</v>
       </c>
       <c r="G238" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>96</v>
+      </c>
+      <c r="B239" t="s">
+        <v>114</v>
+      </c>
+      <c r="C239" t="s">
+        <v>151</v>
+      </c>
+      <c r="D239" t="s">
+        <v>153</v>
+      </c>
+      <c r="E239" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F239" s="2">
+        <v>1</v>
+      </c>
+      <c r="G239" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>96</v>
+      </c>
+      <c r="B240" t="s">
+        <v>105</v>
+      </c>
+      <c r="C240" t="s">
+        <v>150</v>
+      </c>
+      <c r="D240" t="s">
+        <v>153</v>
+      </c>
+      <c r="E240" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F240" s="2">
+        <v>1</v>
+      </c>
+      <c r="G240" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>96</v>
+      </c>
+      <c r="B241" t="s">
+        <v>106</v>
+      </c>
+      <c r="C241" t="s">
+        <v>150</v>
+      </c>
+      <c r="D241" t="s">
+        <v>153</v>
+      </c>
+      <c r="E241" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F241" s="2">
+        <v>1</v>
+      </c>
+      <c r="G241" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -312,12 +312,12 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
@@ -330,10 +330,13 @@
     <t>acetaminophen</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>sucrose</t>
   </si>
   <si>
     <t>non-specific organic acids</t>
@@ -342,81 +345,78 @@
     <t>ketamine</t>
   </si>
   <si>
+    <t>meclonazepam</t>
+  </si>
+  <si>
     <t>clonazolam</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
-    <t>sucrose</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>ethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>noscapine</t>
+  </si>
+  <si>
+    <t>meconin</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
     <t>hydrocotarnine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
-    <t>noscapine</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>N-methyltryptamine</t>
+  </si>
+  <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -447,12 +447,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>ecgonidine (ED)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>flubromazolam</t>
   </si>
   <si>
@@ -489,12 +489,12 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.53</t>
+  </si>
+  <si>
     <t>8.92</t>
   </si>
   <si>
-    <t>8.53</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -504,10 +504,16 @@
     <t>5.81</t>
   </si>
   <si>
+    <t>9.23</t>
+  </si>
+  <si>
     <t>8.37</t>
   </si>
   <si>
-    <t>9.23</t>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>9.94</t>
   </si>
   <si>
     <t>7.3</t>
@@ -516,27 +522,21 @@
     <t>6.48</t>
   </si>
   <si>
+    <t>9.74</t>
+  </si>
+  <si>
     <t>6.66</t>
   </si>
   <si>
     <t>12.33</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>9.94</t>
+    <t>10.25</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>10.25</t>
-  </si>
-  <si>
     <t>8.49</t>
   </si>
   <si>
@@ -549,12 +549,12 @@
     <t>3.28</t>
   </si>
   <si>
+    <t>9.21</t>
+  </si>
+  <si>
     <t>7.31</t>
   </si>
   <si>
-    <t>9.21</t>
-  </si>
-  <si>
     <t>5.12</t>
   </si>
   <si>
@@ -564,12 +564,12 @@
     <t>8.61</t>
   </si>
   <si>
+    <t>8.54</t>
+  </si>
+  <si>
     <t>8.95</t>
   </si>
   <si>
-    <t>8.54</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -585,12 +585,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>8.15</t>
+  </si>
+  <si>
     <t>6.12</t>
   </si>
   <si>
-    <t>8.15</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -603,21 +603,21 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>10.17</t>
+  </si>
+  <si>
     <t>9.04</t>
   </si>
   <si>
-    <t>10.17</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
+    <t>9.83</t>
+  </si>
+  <si>
     <t>9.32</t>
   </si>
   <si>
-    <t>9.83</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -630,45 +630,45 @@
     <t>5.22</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>10.49</t>
   </si>
   <si>
-    <t>9.26</t>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>9.49</t>
   </si>
   <si>
     <t>10.03</t>
   </si>
   <si>
-    <t>9.85</t>
-  </si>
-  <si>
-    <t>9.49</t>
-  </si>
-  <si>
     <t>9.57</t>
   </si>
   <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>6.15</t>
+  </si>
+  <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>6.15</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
     <t>5.05</t>
   </si>
   <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
-    <t>9.09</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -714,15 +714,15 @@
     <t>6.58</t>
   </si>
   <si>
+    <t>9.31</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
     <t>3.18</t>
   </si>
   <si>
-    <t>9.31</t>
-  </si>
-  <si>
-    <t>10.56</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -738,15 +738,15 @@
     <t>9.14</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
     <t>7.37</t>
   </si>
   <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>6.27</t>
-  </si>
-  <si>
     <t>6.36</t>
   </si>
   <si>
@@ -762,19 +762,19 @@
     <t>4.81</t>
   </si>
   <si>
+    <t>12.62</t>
+  </si>
+  <si>
     <t>8.12</t>
   </si>
   <si>
-    <t>12.62</t>
-  </si>
-  <si>
     <t>5.49</t>
   </si>
   <si>
+    <t>10.52</t>
+  </si>
+  <si>
     <t>6.05</t>
-  </si>
-  <si>
-    <t>10.52</t>
   </si>
   <si>
     <t>10.51</t>
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>150</v>
@@ -1110,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>150</v>
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>150</v>
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>150</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>150</v>
@@ -1435,7 +1435,7 @@
         <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
         <v>153</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
@@ -1478,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
         <v>153</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29">
@@ -1504,7 +1504,7 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
         <v>153</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -1527,7 +1527,7 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
         <v>153</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
@@ -1547,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>151</v>
@@ -1639,10 +1639,10 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
@@ -1662,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
         <v>153</v>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37">
@@ -1685,10 +1685,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
         <v>153</v>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38">
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
         <v>153</v>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39">
@@ -1754,10 +1754,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
         <v>151</v>
@@ -1800,10 +1800,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
         <v>153</v>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43">
@@ -1892,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
         <v>151</v>
@@ -1938,10 +1938,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
         <v>153</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
@@ -1961,10 +1961,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
         <v>153</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50">
@@ -2033,7 +2033,7 @@
         <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53">
@@ -2056,7 +2056,7 @@
         <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54">
@@ -2079,7 +2079,7 @@
         <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -2102,7 +2102,7 @@
         <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
         <v>153</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56">
@@ -2145,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2168,7 +2168,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
         <v>151</v>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
         <v>150</v>
@@ -2214,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
         <v>150</v>
@@ -2263,7 +2263,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
         <v>153</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63">
@@ -2309,7 +2309,7 @@
         <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
         <v>153</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65">
@@ -2329,10 +2329,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
         <v>153</v>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66">
@@ -2352,10 +2352,10 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
         <v>153</v>
@@ -2375,7 +2375,7 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
         <v>150</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
@@ -2398,10 +2398,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69">
@@ -2421,10 +2421,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
         <v>153</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
@@ -2467,7 +2467,7 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>150</v>
@@ -2513,7 +2513,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
         <v>150</v>
@@ -2536,7 +2536,7 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
         <v>150</v>
@@ -2551,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75">
@@ -2559,10 +2559,10 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
         <v>153</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -2582,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
         <v>150</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -2605,10 +2605,10 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D77" t="s">
         <v>153</v>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
@@ -2674,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
         <v>153</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -2697,7 +2697,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
         <v>151</v>
@@ -2720,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
         <v>153</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83">
@@ -2743,7 +2743,7 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
         <v>150</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84">
@@ -2766,7 +2766,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
         <v>150</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85">
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86">
@@ -2835,7 +2835,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
         <v>150</v>
@@ -2904,10 +2904,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D90" t="s">
         <v>153</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -2950,7 +2950,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
         <v>151</v>
@@ -2973,10 +2973,10 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
         <v>153</v>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
@@ -2996,10 +2996,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
         <v>153</v>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95">
@@ -3042,7 +3042,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>150</v>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97">
@@ -3065,10 +3065,10 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
         <v>153</v>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98">
@@ -3157,10 +3157,10 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
         <v>153</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102">
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104">
@@ -3226,10 +3226,10 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
         <v>153</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
@@ -3249,7 +3249,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
         <v>150</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106">
@@ -3295,10 +3295,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D107" t="s">
         <v>153</v>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108">
@@ -3318,10 +3318,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D108" t="s">
         <v>153</v>
@@ -3333,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109">
@@ -3410,7 +3410,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
         <v>150</v>
@@ -3433,10 +3433,10 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D113" t="s">
         <v>153</v>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
@@ -3456,10 +3456,10 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
         <v>153</v>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115">
@@ -3479,7 +3479,7 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
         <v>151</v>
@@ -3502,7 +3502,7 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
         <v>151</v>
@@ -3525,7 +3525,7 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
         <v>151</v>
@@ -3551,7 +3551,7 @@
         <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D118" t="s">
         <v>153</v>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
@@ -3574,7 +3574,7 @@
         <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D119" t="s">
         <v>153</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120">
@@ -3594,7 +3594,7 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C120" t="s">
         <v>151</v>
@@ -3617,10 +3617,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D121" t="s">
         <v>153</v>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122">
@@ -3640,10 +3640,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D122" t="s">
         <v>153</v>
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
@@ -3663,7 +3663,7 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C123" t="s">
         <v>151</v>
@@ -3686,10 +3686,10 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
         <v>153</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125">
@@ -3709,10 +3709,10 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D125" t="s">
         <v>153</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
@@ -3755,7 +3755,7 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" t="s">
         <v>151</v>
@@ -3778,7 +3778,7 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C128" t="s">
         <v>150</v>
@@ -3801,7 +3801,7 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C129" t="s">
         <v>150</v>
@@ -3870,7 +3870,7 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C132" t="s">
         <v>150</v>
@@ -3916,7 +3916,7 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" t="s">
         <v>150</v>
@@ -3939,7 +3939,7 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
         <v>151</v>
@@ -3985,7 +3985,7 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C137" t="s">
         <v>151</v>
@@ -4008,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
@@ -4031,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C139" t="s">
         <v>150</v>
@@ -4054,10 +4054,10 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C140" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
         <v>153</v>
@@ -4069,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141">
@@ -4077,7 +4077,7 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C141" t="s">
         <v>150</v>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142">
@@ -4103,7 +4103,7 @@
         <v>106</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D142" t="s">
         <v>153</v>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
@@ -4123,7 +4123,7 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4169,7 +4169,7 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C145" t="s">
         <v>150</v>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146">
@@ -4192,7 +4192,7 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C146" t="s">
         <v>151</v>
@@ -4215,10 +4215,10 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D147" t="s">
         <v>153</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
@@ -4238,10 +4238,10 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
         <v>153</v>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149">
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150">
@@ -4284,10 +4284,10 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" t="s">
         <v>153</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151">
@@ -4307,10 +4307,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D151" t="s">
         <v>153</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
@@ -4330,7 +4330,7 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C152" t="s">
         <v>150</v>
@@ -4353,10 +4353,10 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D153" t="s">
         <v>153</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154">
@@ -4376,10 +4376,10 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D154" t="s">
         <v>153</v>
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155">
@@ -4422,7 +4422,7 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C156" t="s">
         <v>150</v>
@@ -4468,7 +4468,7 @@
         <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C158" t="s">
         <v>150</v>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159">
@@ -4491,7 +4491,7 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C159" t="s">
         <v>150</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160">
@@ -4514,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C160" t="s">
         <v>150</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161">
@@ -4537,7 +4537,7 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C161" t="s">
         <v>150</v>
@@ -4583,7 +4583,7 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="C163" t="s">
         <v>150</v>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164">
@@ -4606,7 +4606,7 @@
         <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C164" t="s">
         <v>150</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165">
@@ -4652,10 +4652,10 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C166" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D166" t="s">
         <v>153</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167">
@@ -4675,10 +4675,10 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C167" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D167" t="s">
         <v>153</v>
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168">
@@ -4698,7 +4698,7 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C168" t="s">
         <v>150</v>
@@ -4721,7 +4721,7 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C169" t="s">
         <v>150</v>
@@ -4744,10 +4744,10 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C170" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D170" t="s">
         <v>153</v>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171">
@@ -4767,10 +4767,10 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C171" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D171" t="s">
         <v>153</v>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172">
@@ -4790,7 +4790,7 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C172" t="s">
         <v>150</v>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
     </row>
     <row r="173">
@@ -4813,7 +4813,7 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C173" t="s">
         <v>150</v>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="174">
@@ -4836,7 +4836,7 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C174" t="s">
         <v>150</v>
@@ -4851,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175">
@@ -4859,10 +4859,10 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C175" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D175" t="s">
         <v>153</v>
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176">
@@ -4882,10 +4882,10 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C176" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D176" t="s">
         <v>153</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177">
@@ -4928,10 +4928,10 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C178" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D178" t="s">
         <v>153</v>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179">
@@ -4951,10 +4951,10 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C179" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D179" t="s">
         <v>153</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180">
@@ -4974,7 +4974,7 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C180" t="s">
         <v>150</v>
@@ -4997,7 +4997,7 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C181" t="s">
         <v>151</v>
@@ -5020,10 +5020,10 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C182" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D182" t="s">
         <v>153</v>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
     </row>
     <row r="183">
@@ -5066,7 +5066,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C184" t="s">
         <v>151</v>
@@ -5089,7 +5089,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C185" t="s">
         <v>151</v>
@@ -5112,7 +5112,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C186" t="s">
         <v>151</v>
@@ -5135,7 +5135,7 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C187" t="s">
         <v>151</v>
@@ -5158,7 +5158,7 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C188" t="s">
         <v>151</v>
@@ -5181,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C189" t="s">
         <v>150</v>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190">
@@ -5204,10 +5204,10 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C190" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D190" t="s">
         <v>153</v>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191">
@@ -5227,7 +5227,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C191" t="s">
         <v>151</v>
@@ -5273,7 +5273,7 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C193" t="s">
         <v>150</v>
@@ -5296,10 +5296,10 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C194" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D194" t="s">
         <v>153</v>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
     </row>
     <row r="195">
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197">
@@ -5365,10 +5365,10 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D197" t="s">
         <v>153</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198">
@@ -5457,10 +5457,10 @@
         <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C201" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D201" t="s">
         <v>153</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="202">
@@ -5480,10 +5480,10 @@
         <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C202" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D202" t="s">
         <v>153</v>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
     </row>
     <row r="203">
@@ -5503,7 +5503,7 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C203" t="s">
         <v>150</v>
@@ -5526,7 +5526,7 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C204" t="s">
         <v>151</v>
@@ -5549,7 +5549,7 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C205" t="s">
         <v>151</v>
@@ -5572,7 +5572,7 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C206" t="s">
         <v>150</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207">
@@ -5595,7 +5595,7 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C207" t="s">
         <v>150</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208">
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="209">
@@ -5641,7 +5641,7 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C209" t="s">
         <v>151</v>
@@ -5664,7 +5664,7 @@
         <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C210" t="s">
         <v>150</v>
@@ -5687,7 +5687,7 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C211" t="s">
         <v>151</v>
@@ -5710,7 +5710,7 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C212" t="s">
         <v>150</v>
@@ -5733,7 +5733,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C213" t="s">
         <v>151</v>
@@ -5848,10 +5848,10 @@
         <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C218" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D218" t="s">
         <v>153</v>
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="219">
@@ -5871,10 +5871,10 @@
         <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C219" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D219" t="s">
         <v>153</v>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="220">
@@ -5940,10 +5940,10 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C222" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D222" t="s">
         <v>153</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223">
@@ -5963,10 +5963,10 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C223" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D223" t="s">
         <v>153</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="224">
@@ -5986,7 +5986,7 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C224" t="s">
         <v>151</v>
@@ -6009,10 +6009,10 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C225" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D225" t="s">
         <v>153</v>
@@ -6024,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="226">
@@ -6032,7 +6032,7 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C226" t="s">
         <v>151</v>
@@ -6055,7 +6055,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C227" t="s">
         <v>151</v>
@@ -6078,10 +6078,10 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C228" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D228" t="s">
         <v>153</v>
@@ -6093,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="229">
@@ -6101,7 +6101,7 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C229" t="s">
         <v>151</v>
@@ -6124,7 +6124,7 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C230" t="s">
         <v>151</v>
@@ -6147,10 +6147,10 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C231" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D231" t="s">
         <v>153</v>
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
     </row>
     <row r="232">
@@ -6173,7 +6173,7 @@
         <v>106</v>
       </c>
       <c r="C232" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D232" t="s">
         <v>153</v>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
     </row>
     <row r="233">
@@ -6196,7 +6196,7 @@
         <v>105</v>
       </c>
       <c r="C233" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D233" t="s">
         <v>153</v>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="234">
@@ -6216,7 +6216,7 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C234" t="s">
         <v>151</v>
@@ -6239,10 +6239,10 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C235" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D235" t="s">
         <v>153</v>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236">
@@ -6262,10 +6262,10 @@
         <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C236" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D236" t="s">
         <v>153</v>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="237">
@@ -6285,10 +6285,10 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C237" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D237" t="s">
         <v>153</v>
@@ -6300,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="238">
@@ -6308,7 +6308,7 @@
         <v>95</v>
       </c>
       <c r="B238" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C238" t="s">
         <v>150</v>
@@ -6331,10 +6331,10 @@
         <v>96</v>
       </c>
       <c r="B239" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C239" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D239" t="s">
         <v>153</v>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240">
@@ -6354,10 +6354,10 @@
         <v>96</v>
       </c>
       <c r="B240" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C240" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D240" t="s">
         <v>153</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
     </row>
     <row r="241">
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -312,12 +312,12 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
@@ -330,93 +330,93 @@
     <t>acetaminophen</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>non-specific organic acids</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>clonazolam</t>
+  </si>
+  <si>
+    <t>meclonazepam</t>
   </si>
   <si>
     <t>sucrose</t>
   </si>
   <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
-    <t>clonazolam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>ethyl 4-ANPP</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
+    <t>meconin</t>
+  </si>
+  <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>tropacocaine</t>
   </si>
   <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>norcocaine</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>levamisole</t>
+    <t>N,N-dimethyltryptamine (DMT)</t>
+  </si>
+  <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -447,12 +447,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>ecgonidine (ED)</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>ecgonidine (ED)</t>
-  </si>
-  <si>
     <t>flubromazolam</t>
   </si>
   <si>
@@ -489,12 +489,12 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.92</t>
+  </si>
+  <si>
     <t>8.53</t>
   </si>
   <si>
-    <t>8.92</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -504,39 +504,39 @@
     <t>5.81</t>
   </si>
   <si>
+    <t>8.37</t>
+  </si>
+  <si>
     <t>9.23</t>
   </si>
   <si>
-    <t>8.37</t>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>12.33</t>
   </si>
   <si>
     <t>9.24</t>
   </si>
   <si>
+    <t>9.74</t>
+  </si>
+  <si>
     <t>9.94</t>
   </si>
   <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>12.33</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>10.25</t>
   </si>
   <si>
-    <t>9.1</t>
-  </si>
-  <si>
     <t>8.49</t>
   </si>
   <si>
@@ -549,12 +549,12 @@
     <t>3.28</t>
   </si>
   <si>
+    <t>7.31</t>
+  </si>
+  <si>
     <t>9.21</t>
   </si>
   <si>
-    <t>7.31</t>
-  </si>
-  <si>
     <t>5.12</t>
   </si>
   <si>
@@ -564,12 +564,12 @@
     <t>8.61</t>
   </si>
   <si>
+    <t>8.95</t>
+  </si>
+  <si>
     <t>8.54</t>
   </si>
   <si>
-    <t>8.95</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -585,12 +585,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>6.12</t>
+  </si>
+  <si>
     <t>8.15</t>
   </si>
   <si>
-    <t>6.12</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -603,21 +603,21 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>9.04</t>
+  </si>
+  <si>
     <t>10.17</t>
   </si>
   <si>
-    <t>9.04</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
+    <t>9.32</t>
+  </si>
+  <si>
     <t>9.83</t>
   </si>
   <si>
-    <t>9.32</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -630,10 +630,13 @@
     <t>5.22</t>
   </si>
   <si>
+    <t>10.49</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
-    <t>10.49</t>
+    <t>10.03</t>
   </si>
   <si>
     <t>9.85</t>
@@ -642,33 +645,30 @@
     <t>9.49</t>
   </si>
   <si>
-    <t>10.03</t>
-  </si>
-  <si>
     <t>9.57</t>
   </si>
   <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>9.11</t>
+  </si>
+  <si>
     <t>6.15</t>
   </si>
   <si>
-    <t>9.11</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
     <t>5.05</t>
   </si>
   <si>
+    <t>10.23</t>
+  </si>
+  <si>
     <t>9.09</t>
   </si>
   <si>
-    <t>10.23</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -714,15 +714,15 @@
     <t>6.58</t>
   </si>
   <si>
+    <t>3.18</t>
+  </si>
+  <si>
     <t>9.31</t>
   </si>
   <si>
     <t>10.56</t>
   </si>
   <si>
-    <t>3.18</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -738,15 +738,15 @@
     <t>9.14</t>
   </si>
   <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
     <t>6.27</t>
   </si>
   <si>
-    <t>7.37</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
     <t>6.36</t>
   </si>
   <si>
@@ -762,19 +762,19 @@
     <t>4.81</t>
   </si>
   <si>
+    <t>8.12</t>
+  </si>
+  <si>
     <t>12.62</t>
   </si>
   <si>
-    <t>8.12</t>
-  </si>
-  <si>
     <t>5.49</t>
   </si>
   <si>
+    <t>6.05</t>
+  </si>
+  <si>
     <t>10.52</t>
-  </si>
-  <si>
-    <t>6.05</t>
   </si>
   <si>
     <t>10.51</t>
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>150</v>
@@ -1110,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>150</v>
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>150</v>
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>150</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>150</v>
@@ -1435,7 +1435,7 @@
         <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
         <v>153</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27">
@@ -1478,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>153</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -1504,7 +1504,7 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
         <v>153</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -1527,7 +1527,7 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
         <v>153</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
@@ -1547,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
         <v>151</v>
@@ -1639,10 +1639,10 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36">
@@ -1662,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
         <v>153</v>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
@@ -1685,10 +1685,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
         <v>153</v>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38">
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
         <v>153</v>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -1754,10 +1754,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
         <v>151</v>
@@ -1800,10 +1800,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
         <v>153</v>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
@@ -1892,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
         <v>151</v>
@@ -1938,10 +1938,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
         <v>153</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49">
@@ -1961,10 +1961,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
         <v>153</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50">
@@ -2033,7 +2033,7 @@
         <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53">
@@ -2056,7 +2056,7 @@
         <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54">
@@ -2079,7 +2079,7 @@
         <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55">
@@ -2102,7 +2102,7 @@
         <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
         <v>153</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56">
@@ -2145,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2168,7 +2168,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
         <v>151</v>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
         <v>150</v>
@@ -2214,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
         <v>150</v>
@@ -2263,7 +2263,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
         <v>153</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63">
@@ -2309,7 +2309,7 @@
         <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
         <v>153</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65">
@@ -2329,10 +2329,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
         <v>153</v>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66">
@@ -2352,10 +2352,10 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
         <v>153</v>
@@ -2375,7 +2375,7 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>150</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -2398,10 +2398,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69">
@@ -2421,10 +2421,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
         <v>153</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70">
@@ -2467,7 +2467,7 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
         <v>150</v>
@@ -2513,7 +2513,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
         <v>150</v>
@@ -2536,7 +2536,7 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
         <v>150</v>
@@ -2551,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75">
@@ -2559,10 +2559,10 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75" t="s">
         <v>153</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76">
@@ -2582,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>150</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -2605,10 +2605,10 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
         <v>153</v>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -2674,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
         <v>153</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81">
@@ -2697,7 +2697,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
         <v>151</v>
@@ -2720,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
         <v>153</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -2743,7 +2743,7 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
         <v>150</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84">
@@ -2766,7 +2766,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
         <v>150</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
@@ -2835,7 +2835,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
         <v>150</v>
@@ -2904,10 +2904,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D90" t="s">
         <v>153</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91">
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -2950,7 +2950,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
         <v>151</v>
@@ -2973,10 +2973,10 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D93" t="s">
         <v>153</v>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94">
@@ -2996,10 +2996,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
         <v>153</v>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
@@ -3042,7 +3042,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
         <v>150</v>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
@@ -3065,10 +3065,10 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
         <v>153</v>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98">
@@ -3157,10 +3157,10 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D101" t="s">
         <v>153</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104">
@@ -3226,10 +3226,10 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
         <v>153</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
@@ -3249,7 +3249,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
         <v>150</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106">
@@ -3295,10 +3295,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D107" t="s">
         <v>153</v>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
@@ -3318,10 +3318,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D108" t="s">
         <v>153</v>
@@ -3333,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109">
@@ -3410,7 +3410,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>150</v>
@@ -3433,10 +3433,10 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D113" t="s">
         <v>153</v>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114">
@@ -3456,10 +3456,10 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D114" t="s">
         <v>153</v>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
@@ -3479,7 +3479,7 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
         <v>151</v>
@@ -3502,7 +3502,7 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
         <v>151</v>
@@ -3525,7 +3525,7 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C117" t="s">
         <v>151</v>
@@ -3551,7 +3551,7 @@
         <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D118" t="s">
         <v>153</v>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119">
@@ -3574,7 +3574,7 @@
         <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D119" t="s">
         <v>153</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
@@ -3594,7 +3594,7 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
         <v>151</v>
@@ -3617,10 +3617,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D121" t="s">
         <v>153</v>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
@@ -3640,10 +3640,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D122" t="s">
         <v>153</v>
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123">
@@ -3663,7 +3663,7 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C123" t="s">
         <v>151</v>
@@ -3686,10 +3686,10 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D124" t="s">
         <v>153</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
@@ -3709,10 +3709,10 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D125" t="s">
         <v>153</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126">
@@ -3755,7 +3755,7 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
         <v>151</v>
@@ -3778,7 +3778,7 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
         <v>150</v>
@@ -3801,7 +3801,7 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s">
         <v>150</v>
@@ -3870,7 +3870,7 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C132" t="s">
         <v>150</v>
@@ -3916,7 +3916,7 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
         <v>150</v>
@@ -3939,7 +3939,7 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C135" t="s">
         <v>151</v>
@@ -3985,7 +3985,7 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
         <v>151</v>
@@ -4008,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
@@ -4031,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C139" t="s">
         <v>150</v>
@@ -4054,10 +4054,10 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C140" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D140" t="s">
         <v>153</v>
@@ -4069,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
@@ -4077,7 +4077,7 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C141" t="s">
         <v>150</v>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142">
@@ -4103,7 +4103,7 @@
         <v>106</v>
       </c>
       <c r="C142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D142" t="s">
         <v>153</v>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143">
@@ -4123,7 +4123,7 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4169,7 +4169,7 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C145" t="s">
         <v>150</v>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146">
@@ -4192,7 +4192,7 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C146" t="s">
         <v>151</v>
@@ -4215,10 +4215,10 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D147" t="s">
         <v>153</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148">
@@ -4238,10 +4238,10 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D148" t="s">
         <v>153</v>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150">
@@ -4284,10 +4284,10 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D150" t="s">
         <v>153</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
@@ -4307,10 +4307,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D151" t="s">
         <v>153</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="152">
@@ -4330,7 +4330,7 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C152" t="s">
         <v>150</v>
@@ -4353,10 +4353,10 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C153" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D153" t="s">
         <v>153</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
@@ -4376,10 +4376,10 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D154" t="s">
         <v>153</v>
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155">
@@ -4422,7 +4422,7 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C156" t="s">
         <v>150</v>
@@ -4468,7 +4468,7 @@
         <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C158" t="s">
         <v>150</v>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159">
@@ -4491,7 +4491,7 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
         <v>150</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160">
@@ -4514,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
         <v>150</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161">
@@ -4537,7 +4537,7 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C161" t="s">
         <v>150</v>
@@ -4583,7 +4583,7 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C163" t="s">
         <v>150</v>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164">
@@ -4606,7 +4606,7 @@
         <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="C164" t="s">
         <v>150</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165">
@@ -4652,10 +4652,10 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C166" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D166" t="s">
         <v>153</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167">
@@ -4675,10 +4675,10 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D167" t="s">
         <v>153</v>
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168">
@@ -4698,7 +4698,7 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C168" t="s">
         <v>150</v>
@@ -4721,7 +4721,7 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C169" t="s">
         <v>150</v>
@@ -4744,10 +4744,10 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C170" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D170" t="s">
         <v>153</v>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171">
@@ -4767,10 +4767,10 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C171" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D171" t="s">
         <v>153</v>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172">
@@ -4790,7 +4790,7 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C172" t="s">
         <v>150</v>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173">
@@ -4813,7 +4813,7 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C173" t="s">
         <v>150</v>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="174">
@@ -4836,7 +4836,7 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C174" t="s">
         <v>150</v>
@@ -4851,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175">
@@ -4859,10 +4859,10 @@
         <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C175" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D175" t="s">
         <v>153</v>
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176">
@@ -4882,10 +4882,10 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C176" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D176" t="s">
         <v>153</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177">
@@ -4928,10 +4928,10 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C178" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D178" t="s">
         <v>153</v>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179">
@@ -4951,10 +4951,10 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C179" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D179" t="s">
         <v>153</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180">
@@ -4974,7 +4974,7 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C180" t="s">
         <v>150</v>
@@ -4997,7 +4997,7 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C181" t="s">
         <v>151</v>
@@ -5020,10 +5020,10 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C182" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D182" t="s">
         <v>153</v>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183">
@@ -5066,7 +5066,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C184" t="s">
         <v>151</v>
@@ -5089,7 +5089,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C185" t="s">
         <v>151</v>
@@ -5112,7 +5112,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C186" t="s">
         <v>151</v>
@@ -5135,7 +5135,7 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C187" t="s">
         <v>151</v>
@@ -5158,7 +5158,7 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C188" t="s">
         <v>151</v>
@@ -5181,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C189" t="s">
         <v>150</v>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190">
@@ -5204,10 +5204,10 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D190" t="s">
         <v>153</v>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191">
@@ -5227,7 +5227,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C191" t="s">
         <v>151</v>
@@ -5273,7 +5273,7 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C193" t="s">
         <v>150</v>
@@ -5296,10 +5296,10 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C194" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D194" t="s">
         <v>153</v>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195">
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197">
@@ -5365,10 +5365,10 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C197" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D197" t="s">
         <v>153</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198">
@@ -5457,10 +5457,10 @@
         <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C201" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D201" t="s">
         <v>153</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202">
@@ -5480,10 +5480,10 @@
         <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C202" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D202" t="s">
         <v>153</v>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203">
@@ -5503,7 +5503,7 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C203" t="s">
         <v>150</v>
@@ -5526,7 +5526,7 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C204" t="s">
         <v>151</v>
@@ -5549,7 +5549,7 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C205" t="s">
         <v>151</v>
@@ -5572,7 +5572,7 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C206" t="s">
         <v>150</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="207">
@@ -5595,7 +5595,7 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C207" t="s">
         <v>150</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208">
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209">
@@ -5641,7 +5641,7 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C209" t="s">
         <v>151</v>
@@ -5664,7 +5664,7 @@
         <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C210" t="s">
         <v>150</v>
@@ -5687,7 +5687,7 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C211" t="s">
         <v>151</v>
@@ -5710,7 +5710,7 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C212" t="s">
         <v>150</v>
@@ -5733,7 +5733,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C213" t="s">
         <v>151</v>
@@ -5848,10 +5848,10 @@
         <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C218" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D218" t="s">
         <v>153</v>
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219">
@@ -5871,10 +5871,10 @@
         <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C219" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D219" t="s">
         <v>153</v>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220">
@@ -5940,10 +5940,10 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C222" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D222" t="s">
         <v>153</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="223">
@@ -5963,10 +5963,10 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C223" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D223" t="s">
         <v>153</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224">
@@ -5986,7 +5986,7 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C224" t="s">
         <v>151</v>
@@ -6009,10 +6009,10 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C225" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D225" t="s">
         <v>153</v>
@@ -6024,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226">
@@ -6032,7 +6032,7 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C226" t="s">
         <v>151</v>
@@ -6055,7 +6055,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C227" t="s">
         <v>151</v>
@@ -6078,10 +6078,10 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C228" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D228" t="s">
         <v>153</v>
@@ -6093,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229">
@@ -6101,7 +6101,7 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C229" t="s">
         <v>151</v>
@@ -6124,7 +6124,7 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C230" t="s">
         <v>151</v>
@@ -6147,10 +6147,10 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C231" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D231" t="s">
         <v>153</v>
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
     </row>
     <row r="232">
@@ -6173,7 +6173,7 @@
         <v>106</v>
       </c>
       <c r="C232" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D232" t="s">
         <v>153</v>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
     </row>
     <row r="233">
@@ -6196,7 +6196,7 @@
         <v>105</v>
       </c>
       <c r="C233" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D233" t="s">
         <v>153</v>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="234">
@@ -6216,7 +6216,7 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C234" t="s">
         <v>151</v>
@@ -6239,10 +6239,10 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C235" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D235" t="s">
         <v>153</v>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="236">
@@ -6262,10 +6262,10 @@
         <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C236" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D236" t="s">
         <v>153</v>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237">
@@ -6285,10 +6285,10 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C237" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D237" t="s">
         <v>153</v>
@@ -6300,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="238">
@@ -6308,7 +6308,7 @@
         <v>95</v>
       </c>
       <c r="B238" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C238" t="s">
         <v>150</v>
@@ -6331,10 +6331,10 @@
         <v>96</v>
       </c>
       <c r="B239" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C239" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D239" t="s">
         <v>153</v>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
     </row>
     <row r="240">
@@ -6354,10 +6354,10 @@
         <v>96</v>
       </c>
       <c r="B240" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C240" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D240" t="s">
         <v>153</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>160</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241">
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -327,12 +327,12 @@
     <t>alprazolam</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
@@ -342,15 +342,15 @@
     <t>ketamine</t>
   </si>
   <si>
+    <t>sucrose</t>
+  </si>
+  <si>
     <t>clonazolam</t>
   </si>
   <si>
     <t>meclonazepam</t>
   </si>
   <si>
-    <t>sucrose</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
@@ -372,51 +372,51 @@
     <t>hydrocotarnine</t>
   </si>
   <si>
+    <t>noscapine</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
     <t>meconin</t>
   </si>
   <si>
-    <t>noscapine</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>tropacocaine</t>
   </si>
   <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>phenacetin</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>N-methyltryptamine</t>
+  </si>
+  <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -501,12 +501,12 @@
     <t>10.36</t>
   </si>
   <si>
+    <t>8.37</t>
+  </si>
+  <si>
     <t>5.81</t>
   </si>
   <si>
-    <t>8.37</t>
-  </si>
-  <si>
     <t>9.23</t>
   </si>
   <si>
@@ -516,36 +516,36 @@
     <t>6.48</t>
   </si>
   <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
     <t>6.66</t>
   </si>
   <si>
-    <t>12.33</t>
-  </si>
-  <si>
     <t>9.24</t>
   </si>
   <si>
     <t>9.74</t>
   </si>
   <si>
-    <t>9.94</t>
+    <t>10.25</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>10.25</t>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>6.11</t>
   </si>
   <si>
     <t>8.49</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -585,12 +585,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>8.15</t>
+  </si>
+  <si>
     <t>6.12</t>
   </si>
   <si>
-    <t>8.15</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -603,12 +603,12 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>10.17</t>
+  </si>
+  <si>
     <t>9.04</t>
   </si>
   <si>
-    <t>10.17</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
@@ -636,18 +636,18 @@
     <t>9.26</t>
   </si>
   <si>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>9.57</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
     <t>10.03</t>
   </si>
   <si>
-    <t>9.85</t>
-  </si>
-  <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>9.57</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
@@ -663,12 +663,12 @@
     <t>5.05</t>
   </si>
   <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
-    <t>9.09</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -684,12 +684,12 @@
     <t>9.8</t>
   </si>
   <si>
+    <t>9.36</t>
+  </si>
+  <si>
     <t>9.28</t>
   </si>
   <si>
-    <t>9.36</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
@@ -702,27 +702,27 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>10.47</t>
+  </si>
+  <si>
     <t>6.04</t>
   </si>
   <si>
-    <t>10.47</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
     <t>6.58</t>
   </si>
   <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>9.31</t>
+  </si>
+  <si>
     <t>3.18</t>
   </si>
   <si>
-    <t>9.31</t>
-  </si>
-  <si>
-    <t>10.56</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -771,10 +771,10 @@
     <t>5.49</t>
   </si>
   <si>
+    <t>10.52</t>
+  </si>
+  <si>
     <t>6.05</t>
-  </si>
-  <si>
-    <t>10.52</t>
   </si>
   <si>
     <t>10.51</t>
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -1156,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>150</v>
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
@@ -1248,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
         <v>150</v>
@@ -1271,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
         <v>153</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -1294,10 +1294,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
         <v>153</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>150</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1340,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>150</v>
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>150</v>
@@ -1386,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
         <v>150</v>
@@ -1501,10 +1501,10 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
         <v>153</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -1524,10 +1524,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
         <v>153</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
@@ -1639,10 +1639,10 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
@@ -1662,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
         <v>153</v>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37">
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
         <v>153</v>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39">
@@ -1754,10 +1754,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
         <v>151</v>
@@ -1800,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
         <v>151</v>
@@ -1869,10 +1869,10 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
         <v>153</v>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46">
@@ -1892,10 +1892,10 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
         <v>153</v>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47">
@@ -1938,10 +1938,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
         <v>153</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
@@ -1961,10 +1961,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
         <v>153</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50">
@@ -2079,7 +2079,7 @@
         <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -2125,7 +2125,7 @@
         <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
         <v>153</v>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57">
@@ -2145,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2168,7 +2168,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
         <v>151</v>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
         <v>150</v>
@@ -2263,7 +2263,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
         <v>153</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63">
@@ -2309,7 +2309,7 @@
         <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
         <v>153</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65">
@@ -2329,10 +2329,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
         <v>153</v>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66">
@@ -2352,7 +2352,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>150</v>
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67">
@@ -2375,10 +2375,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
         <v>153</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
@@ -2398,10 +2398,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
@@ -2421,10 +2421,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
         <v>153</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
@@ -2444,10 +2444,10 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
         <v>153</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71">
@@ -2467,10 +2467,10 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
         <v>153</v>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72">
@@ -2536,7 +2536,7 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
         <v>150</v>
@@ -2674,7 +2674,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
         <v>151</v>
@@ -2697,10 +2697,10 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
         <v>153</v>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -2723,7 +2723,7 @@
         <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
         <v>153</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83">
@@ -2789,7 +2789,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
         <v>150</v>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -2881,7 +2881,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
         <v>150</v>
@@ -2904,7 +2904,7 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
         <v>151</v>
@@ -2927,7 +2927,7 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
         <v>150</v>
@@ -2950,7 +2950,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
         <v>151</v>
@@ -2973,7 +2973,7 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
         <v>151</v>
@@ -2996,7 +2996,7 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>150</v>
@@ -3019,10 +3019,10 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
         <v>153</v>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
@@ -3042,7 +3042,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
         <v>150</v>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97">
@@ -3065,10 +3065,10 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
         <v>153</v>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98">
@@ -3157,10 +3157,10 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
         <v>153</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102">
@@ -3180,7 +3180,7 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
         <v>150</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103">
@@ -3203,7 +3203,7 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
         <v>150</v>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104">
@@ -3226,10 +3226,10 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
         <v>153</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106">
@@ -3364,7 +3364,7 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
         <v>150</v>
@@ -3387,7 +3387,7 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
         <v>150</v>
@@ -3410,7 +3410,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
         <v>150</v>
@@ -3433,10 +3433,10 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C113" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D113" t="s">
         <v>153</v>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
@@ -3456,10 +3456,10 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
         <v>153</v>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115">
@@ -3479,7 +3479,7 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
         <v>151</v>
@@ -3502,10 +3502,10 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D116" t="s">
         <v>153</v>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117">
@@ -3525,7 +3525,7 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
         <v>151</v>
@@ -3548,10 +3548,10 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D118" t="s">
         <v>153</v>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
@@ -3571,7 +3571,7 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
         <v>151</v>
@@ -3594,7 +3594,7 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C120" t="s">
         <v>151</v>
@@ -3617,10 +3617,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D121" t="s">
         <v>153</v>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122">
@@ -3640,10 +3640,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D122" t="s">
         <v>153</v>
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
@@ -3686,10 +3686,10 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
         <v>153</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125">
@@ -3709,10 +3709,10 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D125" t="s">
         <v>153</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
@@ -3755,10 +3755,10 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D127" t="s">
         <v>153</v>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128">
@@ -3778,10 +3778,10 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
         <v>153</v>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
@@ -3801,7 +3801,7 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C129" t="s">
         <v>150</v>
@@ -3824,7 +3824,7 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C130" t="s">
         <v>150</v>
@@ -3916,10 +3916,10 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D134" t="s">
         <v>153</v>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
@@ -3939,10 +3939,10 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D135" t="s">
         <v>153</v>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136">
@@ -3985,7 +3985,7 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
         <v>151</v>
@@ -4008,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
@@ -4031,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C139" t="s">
         <v>150</v>
@@ -4054,7 +4054,7 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C140" t="s">
         <v>151</v>
@@ -4077,7 +4077,7 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C141" t="s">
         <v>150</v>
@@ -4100,7 +4100,7 @@
         <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C142" t="s">
         <v>150</v>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146">
@@ -4192,10 +4192,10 @@
         <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D146" t="s">
         <v>153</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147">
@@ -4215,10 +4215,10 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D147" t="s">
         <v>153</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
@@ -4238,10 +4238,10 @@
         <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
         <v>153</v>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149">
@@ -4261,10 +4261,10 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D149" t="s">
         <v>153</v>
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150">
@@ -4353,10 +4353,10 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D153" t="s">
         <v>153</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155">
@@ -4399,10 +4399,10 @@
         <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D155" t="s">
         <v>153</v>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
@@ -4422,7 +4422,7 @@
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C156" t="s">
         <v>150</v>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159">
@@ -4491,7 +4491,7 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C159" t="s">
         <v>150</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160">
@@ -4514,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C160" t="s">
         <v>150</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161">
@@ -4652,10 +4652,10 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C166" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D166" t="s">
         <v>153</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167">
@@ -4675,10 +4675,10 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C167" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D167" t="s">
         <v>153</v>
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168">
@@ -4721,10 +4721,10 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C169" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D169" t="s">
         <v>153</v>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170">
@@ -4744,7 +4744,7 @@
         <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C170" t="s">
         <v>150</v>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171">
@@ -4767,10 +4767,10 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C171" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D171" t="s">
         <v>153</v>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172">
@@ -4790,7 +4790,7 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C172" t="s">
         <v>150</v>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
     </row>
     <row r="173">
@@ -4813,7 +4813,7 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C173" t="s">
         <v>150</v>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174">
@@ -4882,7 +4882,7 @@
         <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C176" t="s">
         <v>151</v>
@@ -4905,7 +4905,7 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C177" t="s">
         <v>151</v>
@@ -4928,10 +4928,10 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C178" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D178" t="s">
         <v>153</v>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179">
@@ -4951,10 +4951,10 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C179" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D179" t="s">
         <v>153</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180">
@@ -4997,7 +4997,7 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C181" t="s">
         <v>151</v>
@@ -5020,7 +5020,7 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C182" t="s">
         <v>151</v>
@@ -5043,7 +5043,7 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C183" t="s">
         <v>151</v>
@@ -5066,7 +5066,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C184" t="s">
         <v>151</v>
@@ -5089,7 +5089,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C185" t="s">
         <v>151</v>
@@ -5112,7 +5112,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C186" t="s">
         <v>151</v>
@@ -5135,10 +5135,10 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C187" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D187" t="s">
         <v>153</v>
@@ -5150,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
     </row>
     <row r="188">
@@ -5158,7 +5158,7 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C188" t="s">
         <v>151</v>
@@ -5181,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C189" t="s">
         <v>150</v>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190">
@@ -5204,10 +5204,10 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C190" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D190" t="s">
         <v>153</v>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191">
@@ -5227,7 +5227,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C191" t="s">
         <v>151</v>
@@ -5296,10 +5296,10 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C194" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D194" t="s">
         <v>153</v>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
     </row>
     <row r="195">
@@ -5319,10 +5319,10 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C195" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D195" t="s">
         <v>153</v>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196">
@@ -5342,10 +5342,10 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C196" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D196" t="s">
         <v>153</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197">
@@ -5365,10 +5365,10 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D197" t="s">
         <v>153</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198">
@@ -5457,7 +5457,7 @@
         <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C201" t="s">
         <v>150</v>
@@ -5503,7 +5503,7 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C203" t="s">
         <v>150</v>
@@ -5526,7 +5526,7 @@
         <v>81</v>
       </c>
       <c r="B204" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C204" t="s">
         <v>151</v>
@@ -5549,10 +5549,10 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C205" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D205" t="s">
         <v>153</v>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
     </row>
     <row r="206">
@@ -5572,10 +5572,10 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C206" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D206" t="s">
         <v>153</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
     </row>
     <row r="207">
@@ -5595,7 +5595,7 @@
         <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C207" t="s">
         <v>150</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208">
@@ -5618,7 +5618,7 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C208" t="s">
         <v>150</v>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="209">
@@ -5641,7 +5641,7 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C209" t="s">
         <v>151</v>
@@ -5687,7 +5687,7 @@
         <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C211" t="s">
         <v>151</v>
@@ -5710,7 +5710,7 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C212" t="s">
         <v>150</v>
@@ -5733,7 +5733,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C213" t="s">
         <v>151</v>
@@ -5779,10 +5779,10 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C215" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D215" t="s">
         <v>153</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
     </row>
     <row r="216">
@@ -5802,10 +5802,10 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C216" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D216" t="s">
         <v>153</v>
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217">
@@ -5940,7 +5940,7 @@
         <v>91</v>
       </c>
       <c r="B222" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C222" t="s">
         <v>151</v>
@@ -5963,7 +5963,7 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C223" t="s">
         <v>150</v>
@@ -5986,7 +5986,7 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C224" t="s">
         <v>151</v>
@@ -6009,7 +6009,7 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C225" t="s">
         <v>151</v>
@@ -6032,7 +6032,7 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C226" t="s">
         <v>151</v>
@@ -6055,7 +6055,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C227" t="s">
         <v>151</v>
@@ -6078,7 +6078,7 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C228" t="s">
         <v>150</v>
@@ -6101,7 +6101,7 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C229" t="s">
         <v>151</v>
@@ -6124,10 +6124,10 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C230" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D230" t="s">
         <v>153</v>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231">
@@ -6147,7 +6147,7 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C231" t="s">
         <v>151</v>
@@ -6170,10 +6170,10 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C232" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D232" t="s">
         <v>153</v>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
     </row>
     <row r="233">
@@ -6193,7 +6193,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C233" t="s">
         <v>151</v>
@@ -6216,10 +6216,10 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C234" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D234" t="s">
         <v>153</v>
@@ -6231,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="235">
@@ -6239,7 +6239,7 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C235" t="s">
         <v>151</v>
@@ -6262,7 +6262,7 @@
         <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C236" t="s">
         <v>150</v>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
     </row>
     <row r="237">
@@ -6285,10 +6285,10 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C237" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D237" t="s">
         <v>153</v>
@@ -6300,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="238">
@@ -6354,7 +6354,7 @@
         <v>96</v>
       </c>
       <c r="B240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C240" t="s">
         <v>150</v>
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -336,33 +336,33 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>non-specific organic acids</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>sucrose</t>
+    <t>meclonazepam</t>
   </si>
   <si>
     <t>clonazolam</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
     <t>phenethylbromide</t>
   </si>
   <si>
     <t>ethyl 4-ANPP</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
@@ -372,12 +372,12 @@
     <t>hydrocotarnine</t>
   </si>
   <si>
+    <t>papaverine</t>
+  </si>
+  <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>meconin</t>
   </si>
   <si>
@@ -390,24 +390,24 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
@@ -510,33 +510,33 @@
     <t>9.23</t>
   </si>
   <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
     <t>7.3</t>
   </si>
   <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>9.94</t>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>9.74</t>
   </si>
   <si>
     <t>12.33</t>
   </si>
   <si>
-    <t>6.66</t>
-  </si>
-  <si>
     <t>9.24</t>
   </si>
   <si>
-    <t>9.74</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>10.25</t>
   </si>
   <si>
-    <t>9.1</t>
-  </si>
-  <si>
     <t>9.27</t>
   </si>
   <si>
@@ -585,12 +585,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>6.12</t>
+  </si>
+  <si>
     <t>8.15</t>
   </si>
   <si>
-    <t>6.12</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -612,12 +612,12 @@
     <t>10.45</t>
   </si>
   <si>
+    <t>9.83</t>
+  </si>
+  <si>
     <t>9.32</t>
   </si>
   <si>
-    <t>9.83</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -660,15 +660,15 @@
     <t>15.12</t>
   </si>
   <si>
+    <t>10.23</t>
+  </si>
+  <si>
     <t>5.05</t>
   </si>
   <si>
     <t>9.09</t>
   </si>
   <si>
-    <t>10.23</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -684,12 +684,12 @@
     <t>9.8</t>
   </si>
   <si>
+    <t>9.28</t>
+  </si>
+  <si>
     <t>9.36</t>
   </si>
   <si>
-    <t>9.28</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
@@ -702,24 +702,24 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>6.04</t>
+  </si>
+  <si>
     <t>10.47</t>
   </si>
   <si>
-    <t>6.04</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
     <t>6.58</t>
   </si>
   <si>
+    <t>9.31</t>
+  </si>
+  <si>
     <t>10.56</t>
   </si>
   <si>
-    <t>9.31</t>
-  </si>
-  <si>
     <t>3.18</t>
   </si>
   <si>
@@ -756,10 +756,10 @@
     <t>6.89</t>
   </si>
   <si>
+    <t>4.81</t>
+  </si>
+  <si>
     <t>8.25</t>
-  </si>
-  <si>
-    <t>4.81</t>
   </si>
   <si>
     <t>8.12</t>
@@ -1156,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>150</v>
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
@@ -1225,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>150</v>
@@ -1248,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
         <v>150</v>
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>150</v>
@@ -1435,7 +1435,7 @@
         <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
         <v>153</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
         <v>153</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28">
@@ -1478,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>151</v>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
         <v>151</v>
@@ -1524,10 +1524,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
         <v>153</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
@@ -1547,10 +1547,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
         <v>153</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32">
@@ -1570,10 +1570,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
         <v>153</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33">
@@ -1593,10 +1593,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
         <v>153</v>
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
@@ -1639,10 +1639,10 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36">
@@ -1662,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
         <v>153</v>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
@@ -1685,10 +1685,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
         <v>153</v>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38">
@@ -1708,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
         <v>153</v>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -1731,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
         <v>151</v>
@@ -1754,10 +1754,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41">
@@ -1800,10 +1800,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
         <v>153</v>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43">
@@ -1869,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
         <v>151</v>
@@ -1938,10 +1938,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
         <v>153</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49">
@@ -1961,10 +1961,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
         <v>153</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50">
@@ -2033,7 +2033,7 @@
         <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53">
@@ -2102,7 +2102,7 @@
         <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
         <v>153</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56">
@@ -2145,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
         <v>150</v>
@@ -2329,10 +2329,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
         <v>153</v>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66">
@@ -2352,7 +2352,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>150</v>
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67">
@@ -2375,7 +2375,7 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
         <v>151</v>
@@ -2398,7 +2398,7 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
         <v>150</v>
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69">
@@ -2421,10 +2421,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
         <v>153</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70">
@@ -2582,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
         <v>150</v>
@@ -2605,7 +2605,7 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
         <v>150</v>
@@ -2674,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
         <v>153</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -2697,10 +2697,10 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
         <v>153</v>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82">
@@ -2720,7 +2720,7 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
         <v>151</v>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
@@ -2904,7 +2904,7 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
         <v>151</v>
@@ -2950,7 +2950,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
         <v>151</v>
@@ -2973,10 +2973,10 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
         <v>153</v>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
@@ -2996,7 +2996,7 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
         <v>150</v>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
@@ -3019,10 +3019,10 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
         <v>153</v>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96">
@@ -3065,7 +3065,7 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
         <v>151</v>
@@ -3157,7 +3157,7 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
         <v>150</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102">
@@ -3180,10 +3180,10 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D102" t="s">
         <v>153</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
@@ -3203,7 +3203,7 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
         <v>150</v>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104">
@@ -3226,10 +3226,10 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
         <v>153</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106">
@@ -3295,10 +3295,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D107" t="s">
         <v>153</v>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108">
@@ -3318,10 +3318,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D108" t="s">
         <v>153</v>
@@ -3333,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109">
@@ -3341,7 +3341,7 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
         <v>150</v>
@@ -3364,7 +3364,7 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
         <v>150</v>
@@ -3387,7 +3387,7 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
         <v>150</v>
@@ -3410,7 +3410,7 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
         <v>150</v>
@@ -3433,7 +3433,7 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C113" t="s">
         <v>151</v>
@@ -3456,10 +3456,10 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D114" t="s">
         <v>153</v>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
@@ -3479,10 +3479,10 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D115" t="s">
         <v>153</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116">
@@ -3502,10 +3502,10 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D116" t="s">
         <v>153</v>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
@@ -3525,10 +3525,10 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D117" t="s">
         <v>153</v>
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118">
@@ -3548,7 +3548,7 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
         <v>151</v>
@@ -3571,7 +3571,7 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
         <v>151</v>
@@ -3778,10 +3778,10 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D128" t="s">
         <v>153</v>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129">
@@ -3801,10 +3801,10 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
         <v>153</v>
@@ -3816,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130">
@@ -3824,7 +3824,7 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
         <v>150</v>
@@ -3916,10 +3916,10 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D134" t="s">
         <v>153</v>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="135">
@@ -3939,10 +3939,10 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D135" t="s">
         <v>153</v>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
@@ -3985,7 +3985,7 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
         <v>151</v>
@@ -4031,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C139" t="s">
         <v>150</v>
@@ -4054,10 +4054,10 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C140" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
         <v>153</v>
@@ -4069,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141">
@@ -4077,10 +4077,10 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
         <v>153</v>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
@@ -4100,7 +4100,7 @@
         <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C142" t="s">
         <v>150</v>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146">
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="147">
@@ -4215,7 +4215,7 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C147" t="s">
         <v>151</v>
@@ -4261,7 +4261,7 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C149" t="s">
         <v>151</v>
@@ -4284,10 +4284,10 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" t="s">
         <v>153</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151">
@@ -4307,10 +4307,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D151" t="s">
         <v>153</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
@@ -4353,7 +4353,7 @@
         <v>62</v>
       </c>
       <c r="B153" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C153" t="s">
         <v>150</v>
@@ -4376,7 +4376,7 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C154" t="s">
         <v>150</v>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159">
@@ -4491,7 +4491,7 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
         <v>150</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160">
@@ -4514,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
         <v>150</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161">
@@ -4583,7 +4583,7 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="C163" t="s">
         <v>150</v>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164">
@@ -4606,7 +4606,7 @@
         <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C164" t="s">
         <v>150</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165">
@@ -4928,10 +4928,10 @@
         <v>72</v>
       </c>
       <c r="B178" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C178" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D178" t="s">
         <v>153</v>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179">
@@ -4951,10 +4951,10 @@
         <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C179" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D179" t="s">
         <v>153</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180">
@@ -5020,7 +5020,7 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C182" t="s">
         <v>151</v>
@@ -5043,7 +5043,7 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C183" t="s">
         <v>151</v>
@@ -5066,7 +5066,7 @@
         <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C184" t="s">
         <v>151</v>
@@ -5089,7 +5089,7 @@
         <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C185" t="s">
         <v>151</v>
@@ -5112,7 +5112,7 @@
         <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C186" t="s">
         <v>151</v>
@@ -5135,10 +5135,10 @@
         <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C187" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D187" t="s">
         <v>153</v>
@@ -5150,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188">
@@ -5158,7 +5158,7 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C188" t="s">
         <v>151</v>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190">
@@ -5204,10 +5204,10 @@
         <v>74</v>
       </c>
       <c r="B190" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D190" t="s">
         <v>153</v>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191">
@@ -5227,7 +5227,7 @@
         <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C191" t="s">
         <v>151</v>
@@ -5319,7 +5319,7 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C195" t="s">
         <v>150</v>
@@ -5342,10 +5342,10 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C196" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D196" t="s">
         <v>153</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197">
@@ -5365,10 +5365,10 @@
         <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C197" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D197" t="s">
         <v>153</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198">
@@ -5549,10 +5549,10 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C205" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D205" t="s">
         <v>153</v>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
     </row>
     <row r="206">
@@ -5572,10 +5572,10 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C206" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D206" t="s">
         <v>153</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207">
@@ -5641,10 +5641,10 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C209" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D209" t="s">
         <v>153</v>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210">
@@ -5664,10 +5664,10 @@
         <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C210" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D210" t="s">
         <v>153</v>
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
     </row>
     <row r="211">
@@ -5710,10 +5710,10 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C212" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D212" t="s">
         <v>153</v>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213">
@@ -5733,10 +5733,10 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C213" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D213" t="s">
         <v>153</v>
@@ -5748,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214">
@@ -5779,10 +5779,10 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C215" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D215" t="s">
         <v>153</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
     </row>
     <row r="216">
@@ -5802,10 +5802,10 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C216" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D216" t="s">
         <v>153</v>
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217">
@@ -5963,10 +5963,10 @@
         <v>91</v>
       </c>
       <c r="B223" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C223" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D223" t="s">
         <v>153</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="224">
@@ -5986,10 +5986,10 @@
         <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C224" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D224" t="s">
         <v>153</v>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225">
@@ -6009,7 +6009,7 @@
         <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C225" t="s">
         <v>151</v>
@@ -6032,7 +6032,7 @@
         <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C226" t="s">
         <v>151</v>
@@ -6055,7 +6055,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C227" t="s">
         <v>151</v>
@@ -6078,7 +6078,7 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C228" t="s">
         <v>150</v>
@@ -6124,10 +6124,10 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C230" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D230" t="s">
         <v>153</v>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
     </row>
     <row r="231">
@@ -6147,7 +6147,7 @@
         <v>93</v>
       </c>
       <c r="B231" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C231" t="s">
         <v>151</v>
@@ -6170,10 +6170,10 @@
         <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C232" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D232" t="s">
         <v>153</v>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
     </row>
     <row r="233">
@@ -6331,7 +6331,7 @@
         <v>96</v>
       </c>
       <c r="B239" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C239" t="s">
         <v>151</v>
@@ -6354,7 +6354,7 @@
         <v>96</v>
       </c>
       <c r="B240" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C240" t="s">
         <v>150</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="241">
@@ -6377,7 +6377,7 @@
         <v>96</v>
       </c>
       <c r="B241" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C241" t="s">
         <v>150</v>
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1207" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1397" uniqueCount="287">
   <si>
     <t>sampleid</t>
   </si>
@@ -93,6 +93,9 @@
     <t>800115</t>
   </si>
   <si>
+    <t>800117</t>
+  </si>
+  <si>
     <t>800118</t>
   </si>
   <si>
@@ -207,6 +210,9 @@
     <t>800165</t>
   </si>
   <si>
+    <t>800167</t>
+  </si>
+  <si>
     <t>800169</t>
   </si>
   <si>
@@ -231,6 +237,9 @@
     <t>800176</t>
   </si>
   <si>
+    <t>800178</t>
+  </si>
+  <si>
     <t>800179</t>
   </si>
   <si>
@@ -258,6 +267,9 @@
     <t>800187</t>
   </si>
   <si>
+    <t>800188</t>
+  </si>
+  <si>
     <t>800190</t>
   </si>
   <si>
@@ -288,21 +300,42 @@
     <t>800267</t>
   </si>
   <si>
+    <t>800271</t>
+  </si>
+  <si>
     <t>800277</t>
   </si>
   <si>
+    <t>800312</t>
+  </si>
+  <si>
     <t>800342</t>
   </si>
   <si>
+    <t>800350</t>
+  </si>
+  <si>
     <t>800352</t>
   </si>
   <si>
+    <t>800355</t>
+  </si>
+  <si>
+    <t>800358</t>
+  </si>
+  <si>
     <t>800361</t>
   </si>
   <si>
     <t>800366</t>
   </si>
   <si>
+    <t>800370</t>
+  </si>
+  <si>
+    <t>800372</t>
+  </si>
+  <si>
     <t>800379</t>
   </si>
   <si>
@@ -312,30 +345,30 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>inositol</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>inositol</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>sucrose</t>
   </si>
   <si>
@@ -357,30 +390,30 @@
     <t>ethyl 4-ANPP</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>meconin</t>
+  </si>
+  <si>
     <t>hydrocotarnine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
@@ -390,45 +423,48 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>N,N-dimethyltryptamine (DMT)</t>
+  </si>
+  <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
+    <t>caffeine</t>
+  </si>
+  <si>
     <t>MDA</t>
   </si>
   <si>
+    <t>ortho-chlorofentanyl</t>
+  </si>
+  <si>
     <t>despropionyl ortho-chlorofentanyl</t>
   </si>
   <si>
-    <t>ortho-chlorofentanyl</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -444,15 +480,15 @@
     <t>clonazepam</t>
   </si>
   <si>
-    <t>caffeine</t>
+    <t>delta-9-THC</t>
+  </si>
+  <si>
+    <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
     <t>ecgonidine (ED)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>flubromazolam</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>GCMS</t>
   </si>
   <si>
+    <t>gCMS</t>
+  </si>
+  <si>
     <t>date_complete</t>
   </si>
   <si>
@@ -489,27 +528,27 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>8.92</t>
   </si>
   <si>
-    <t>8.53</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
     <t>8.37</t>
   </si>
   <si>
-    <t>5.81</t>
-  </si>
-  <si>
-    <t>9.23</t>
-  </si>
-  <si>
     <t>9.94</t>
   </si>
   <si>
@@ -522,30 +561,30 @@
     <t>6.66</t>
   </si>
   <si>
+    <t>9.24</t>
+  </si>
+  <si>
     <t>9.74</t>
   </si>
   <si>
     <t>12.33</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
     <t>9.1</t>
   </si>
   <si>
     <t>10.25</t>
   </si>
   <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>8.49</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -561,15 +600,15 @@
     <t>5.47</t>
   </si>
   <si>
+    <t>8.54</t>
+  </si>
+  <si>
+    <t>8.95</t>
+  </si>
+  <si>
     <t>8.61</t>
   </si>
   <si>
-    <t>8.95</t>
-  </si>
-  <si>
-    <t>8.54</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -585,12 +624,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>8.15</t>
+  </si>
+  <si>
     <t>6.12</t>
   </si>
   <si>
-    <t>8.15</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -609,15 +648,18 @@
     <t>9.04</t>
   </si>
   <si>
+    <t>6.72</t>
+  </si>
+  <si>
     <t>10.45</t>
   </si>
   <si>
+    <t>9.32</t>
+  </si>
+  <si>
     <t>9.83</t>
   </si>
   <si>
-    <t>9.32</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -630,45 +672,45 @@
     <t>5.22</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>10.49</t>
   </si>
   <si>
-    <t>9.26</t>
+    <t>9.57</t>
+  </si>
+  <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>9.49</t>
   </si>
   <si>
     <t>9.85</t>
   </si>
   <si>
-    <t>9.57</t>
-  </si>
-  <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>10.03</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>6.15</t>
+  </si>
+  <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>6.15</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
     <t>10.23</t>
   </si>
   <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>5.05</t>
   </si>
   <si>
-    <t>9.09</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -681,12 +723,12 @@
     <t>10.41</t>
   </si>
   <si>
+    <t>9.28</t>
+  </si>
+  <si>
     <t>9.8</t>
   </si>
   <si>
-    <t>9.28</t>
-  </si>
-  <si>
     <t>9.36</t>
   </si>
   <si>
@@ -714,15 +756,15 @@
     <t>6.58</t>
   </si>
   <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
     <t>9.31</t>
   </si>
   <si>
-    <t>10.56</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -735,24 +777,24 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
     <t>9.14</t>
   </si>
   <si>
+    <t>10.3</t>
+  </si>
+  <si>
     <t>7.37</t>
   </si>
   <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>6.27</t>
+    <t>11.73</t>
   </si>
   <si>
     <t>6.36</t>
   </si>
   <si>
-    <t>11.73</t>
-  </si>
-  <si>
     <t>6.89</t>
   </si>
   <si>
@@ -762,21 +804,24 @@
     <t>8.25</t>
   </si>
   <si>
+    <t>12.62</t>
+  </si>
+  <si>
     <t>8.12</t>
   </si>
   <si>
-    <t>12.62</t>
-  </si>
-  <si>
     <t>5.49</t>
   </si>
   <si>
+    <t>8.11</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
     <t>10.52</t>
   </si>
   <si>
-    <t>6.05</t>
-  </si>
-  <si>
     <t>10.51</t>
   </si>
   <si>
@@ -789,13 +834,43 @@
     <t>9.29</t>
   </si>
   <si>
+    <t>8.09</t>
+  </si>
+  <si>
     <t>8.19</t>
   </si>
   <si>
+    <t>5.43</t>
+  </si>
+  <si>
     <t>10.64</t>
   </si>
   <si>
+    <t>10.26</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>9.81</t>
+  </si>
+  <si>
+    <t>9.38</t>
+  </si>
+  <si>
     <t>4.1</t>
+  </si>
+  <si>
+    <t>8.06</t>
   </si>
   <si>
     <t>9.25</t>
@@ -846,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,22 +932,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -880,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -895,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -903,13 +978,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -918,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +1001,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -941,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -949,13 +1024,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -964,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +1047,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -987,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -995,13 +1070,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -1010,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
@@ -1018,13 +1093,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -1033,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
@@ -1041,13 +1116,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -1056,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -1064,13 +1139,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -1079,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
@@ -1087,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -1102,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1185,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -1125,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
@@ -1133,13 +1208,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -1148,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1231,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -1171,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
@@ -1179,13 +1254,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -1194,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
@@ -1202,13 +1277,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1217,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
@@ -1225,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1240,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
@@ -1248,13 +1323,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1263,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
@@ -1271,13 +1346,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1286,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
@@ -1294,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1309,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -1317,13 +1392,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1332,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
@@ -1340,13 +1415,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1355,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -1363,13 +1438,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1378,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
@@ -1386,13 +1461,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1401,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -1409,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1424,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
@@ -1432,13 +1507,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1447,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1530,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1470,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
@@ -1478,13 +1553,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1493,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
@@ -1501,13 +1576,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1516,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30">
@@ -1524,13 +1599,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1539,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31">
@@ -1547,13 +1622,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1562,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32">
@@ -1570,13 +1645,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1585,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33">
@@ -1593,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1608,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
@@ -1616,13 +1691,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1631,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35">
@@ -1639,13 +1714,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1654,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
@@ -1662,13 +1737,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1677,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37">
@@ -1685,13 +1760,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1700,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38">
@@ -1708,13 +1783,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1723,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
@@ -1731,13 +1806,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1746,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
@@ -1754,13 +1829,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1769,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41">
@@ -1777,13 +1852,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1792,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42">
@@ -1800,13 +1875,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1815,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -1823,13 +1898,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1838,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44">
@@ -1846,13 +1921,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1861,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45">
@@ -1869,13 +1944,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E45" s="1">
         <v>44951</v>
@@ -1884,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46">
@@ -1892,13 +1967,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E46" s="1">
         <v>44951</v>
@@ -1907,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
@@ -1915,13 +1990,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E47" s="1">
         <v>44936</v>
@@ -1930,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48">
@@ -1938,13 +2013,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E48" s="1">
         <v>44935</v>
@@ -1953,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49">
@@ -1961,13 +2036,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E49" s="1">
         <v>44935</v>
@@ -1976,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50">
@@ -1984,13 +2059,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -1999,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51">
@@ -2007,13 +2082,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -2022,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52">
@@ -2030,13 +2105,13 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -2045,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53">
@@ -2053,13 +2128,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -2068,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54">
@@ -2076,13 +2151,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -2091,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
@@ -2099,13 +2174,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E55" s="1">
         <v>44931</v>
@@ -2114,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56">
@@ -2122,13 +2197,13 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E56" s="1">
         <v>44931</v>
@@ -2137,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57">
@@ -2145,13 +2220,13 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E57" s="1">
         <v>44956</v>
@@ -2160,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58">
@@ -2168,13 +2243,13 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E58" s="1">
         <v>44956</v>
@@ -2183,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59">
@@ -2191,13 +2266,13 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E59" s="1">
         <v>44956</v>
@@ -2206,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60">
@@ -2214,13 +2289,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E60" s="1">
         <v>44951</v>
@@ -2229,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61">
@@ -2237,13 +2312,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E61" s="1">
         <v>44935</v>
@@ -2252,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62">
@@ -2260,13 +2335,13 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E62" s="1">
         <v>44930</v>
@@ -2275,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63">
@@ -2283,13 +2358,13 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E63" s="1">
         <v>44930</v>
@@ -2298,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
@@ -2306,13 +2381,13 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E64" s="1">
         <v>44930</v>
@@ -2321,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
@@ -2329,13 +2404,13 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E65" s="1">
         <v>44951</v>
@@ -2344,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66">
@@ -2352,13 +2427,13 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E66" s="1">
         <v>44951</v>
@@ -2367,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67">
@@ -2375,13 +2450,13 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E67" s="1">
         <v>44951</v>
@@ -2390,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68">
@@ -2398,13 +2473,13 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E68" s="1">
         <v>44951</v>
@@ -2413,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69">
@@ -2421,13 +2496,13 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E69" s="1">
         <v>44951</v>
@@ -2436,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70">
@@ -2444,13 +2519,13 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E70" s="1">
         <v>44935</v>
@@ -2459,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71">
@@ -2467,13 +2542,13 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E71" s="1">
         <v>44935</v>
@@ -2482,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72">
@@ -2490,13 +2565,13 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E72" s="1">
         <v>44952</v>
@@ -2505,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73">
@@ -2513,22 +2588,22 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E73" s="1">
-        <v>44952</v>
+        <v>45001</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74">
@@ -2536,22 +2611,22 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E74" s="1">
-        <v>44952</v>
+        <v>45001</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
@@ -2559,22 +2634,22 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E75" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76">
@@ -2582,36 +2657,36 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E76" s="1">
-        <v>44930</v>
+        <v>44952</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E77" s="1">
         <v>44930</v>
@@ -2620,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78">
@@ -2628,36 +2703,36 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E78" s="1">
-        <v>44957</v>
+        <v>44930</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E79" s="1">
         <v>44930</v>
@@ -2666,30 +2741,30 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E80" s="1">
-        <v>44935</v>
+        <v>44957</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -2697,36 +2772,36 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E81" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E82" s="1">
         <v>44935</v>
@@ -2735,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83">
@@ -2743,22 +2818,22 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E83" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84">
@@ -2766,36 +2841,36 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D84" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E84" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D85" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E85" s="1">
         <v>44951</v>
@@ -2804,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86">
@@ -2812,22 +2887,22 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E86" s="1">
-        <v>44956</v>
+        <v>44951</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87">
@@ -2835,22 +2910,22 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E87" s="1">
-        <v>44956</v>
+        <v>44951</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88">
@@ -2858,13 +2933,13 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E88" s="1">
         <v>44956</v>
@@ -2873,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -2881,13 +2956,13 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E89" s="1">
         <v>44956</v>
@@ -2896,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90">
@@ -2904,22 +2979,22 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D90" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E90" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91">
@@ -2927,36 +3002,36 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E91" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D92" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E92" s="1">
         <v>44951</v>
@@ -2965,21 +3040,21 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E93" s="1">
         <v>44951</v>
@@ -2988,21 +3063,21 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E94" s="1">
         <v>44951</v>
@@ -3011,21 +3086,21 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D95" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E95" s="1">
         <v>44951</v>
@@ -3034,21 +3109,21 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E96" s="1">
         <v>44951</v>
@@ -3057,21 +3132,21 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E97" s="1">
         <v>44951</v>
@@ -3080,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98">
@@ -3088,82 +3163,82 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E98" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E99" s="1">
-        <v>44930</v>
+        <v>44951</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E100" s="1">
-        <v>44957</v>
+        <v>44952</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E101" s="1">
         <v>44930</v>
@@ -3172,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102">
@@ -3180,36 +3255,36 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E102" s="1">
-        <v>44930</v>
+        <v>44957</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E103" s="1">
         <v>44930</v>
@@ -3218,21 +3293,21 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D104" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E104" s="1">
         <v>44930</v>
@@ -3241,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105">
@@ -3249,59 +3324,59 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E105" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D106" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E106" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D107" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E107" s="1">
         <v>44935</v>
@@ -3310,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108">
@@ -3318,13 +3393,13 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D108" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E108" s="1">
         <v>44935</v>
@@ -3333,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109">
@@ -3341,13 +3416,13 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D109" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E109" s="1">
         <v>44935</v>
@@ -3356,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110">
@@ -3364,13 +3439,13 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E110" s="1">
         <v>44935</v>
@@ -3379,21 +3454,21 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E111" s="1">
         <v>44935</v>
@@ -3402,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112">
@@ -3410,45 +3485,45 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E112" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E113" s="1">
-        <v>44951</v>
+        <v>44935</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114">
@@ -3456,36 +3531,36 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D114" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E114" s="1">
-        <v>44951</v>
+        <v>44932</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D115" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E115" s="1">
         <v>44951</v>
@@ -3494,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116">
@@ -3502,13 +3577,13 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D116" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E116" s="1">
         <v>44951</v>
@@ -3517,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117">
@@ -3525,13 +3600,13 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D117" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E117" s="1">
         <v>44951</v>
@@ -3540,21 +3615,21 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D118" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E118" s="1">
         <v>44951</v>
@@ -3563,21 +3638,21 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D119" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E119" s="1">
         <v>44951</v>
@@ -3586,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120">
@@ -3594,13 +3669,13 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E120" s="1">
         <v>44951</v>
@@ -3609,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121">
@@ -3617,13 +3692,13 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D121" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E121" s="1">
         <v>44951</v>
@@ -3632,21 +3707,21 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C122" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E122" s="1">
         <v>44951</v>
@@ -3655,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123">
@@ -3663,22 +3738,22 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D123" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E123" s="1">
-        <v>44931</v>
+        <v>44951</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124">
@@ -3686,36 +3761,36 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D124" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E124" s="1">
-        <v>44931</v>
+        <v>44951</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C125" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D125" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E125" s="1">
         <v>44931</v>
@@ -3724,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126">
@@ -3732,13 +3807,13 @@
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D126" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E126" s="1">
         <v>44931</v>
@@ -3747,30 +3822,30 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C127" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E127" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128">
@@ -3778,36 +3853,36 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D128" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E128" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E129" s="1">
         <v>44930</v>
@@ -3816,21 +3891,21 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E130" s="1">
         <v>44930</v>
@@ -3839,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131">
@@ -3847,82 +3922,82 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D131" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E131" s="1">
-        <v>44957</v>
+        <v>44930</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D132" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E132" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D133" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E133" s="1">
-        <v>44930</v>
+        <v>44957</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D134" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E134" s="1">
         <v>44935</v>
@@ -3931,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135">
@@ -3939,22 +4014,22 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D135" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E135" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136">
@@ -3962,13 +4037,13 @@
         <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D136" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E136" s="1">
         <v>44935</v>
@@ -3977,21 +4052,21 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D137" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E137" s="1">
         <v>44935</v>
@@ -4000,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138">
@@ -4008,13 +4083,13 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E138" s="1">
         <v>44935</v>
@@ -4023,21 +4098,21 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D139" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E139" s="1">
         <v>44935</v>
@@ -4046,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140">
@@ -4054,22 +4129,22 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C140" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D140" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E140" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141">
@@ -4077,36 +4152,36 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D141" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E141" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D142" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E142" s="1">
         <v>44936</v>
@@ -4115,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143">
@@ -4123,22 +4198,22 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C143" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D143" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E143" s="1">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144">
@@ -4146,22 +4221,22 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C144" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E144" s="1">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145">
@@ -4169,45 +4244,45 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D145" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E145" s="1">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B146" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E146" s="1">
-        <v>44936</v>
+        <v>44931</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147">
@@ -4215,36 +4290,36 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D147" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E147" s="1">
-        <v>44936</v>
+        <v>44935</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D148" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E148" s="1">
         <v>44936</v>
@@ -4253,21 +4328,21 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D149" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E149" s="1">
         <v>44936</v>
@@ -4276,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150">
@@ -4284,22 +4359,22 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D150" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E150" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151">
@@ -4307,22 +4382,22 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C151" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D151" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E151" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152">
@@ -4330,13 +4405,13 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C152" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D152" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E152" s="1">
         <v>44951</v>
@@ -4345,30 +4420,30 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D153" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E153" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F153" s="2">
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="154">
@@ -4376,36 +4451,36 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D154" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E154" s="1">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B155" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C155" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D155" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E155" s="1">
         <v>44952</v>
@@ -4414,21 +4489,21 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B156" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D156" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E156" s="1">
         <v>44952</v>
@@ -4437,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157">
@@ -4445,68 +4520,68 @@
         <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C157" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D157" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E157" s="1">
-        <v>44936</v>
+        <v>44952</v>
       </c>
       <c r="F157" s="2">
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C158" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D158" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E158" s="1">
-        <v>44935</v>
+        <v>44952</v>
       </c>
       <c r="F158" s="2">
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E159" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F159" s="2">
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160">
@@ -4514,22 +4589,22 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="C160" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D160" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E160" s="1">
-        <v>44930</v>
+        <v>45001</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161">
@@ -4537,36 +4612,36 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D161" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E161" s="1">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="F161" s="2">
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B162" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C162" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D162" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E162" s="1">
         <v>44930</v>
@@ -4575,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163">
@@ -4583,45 +4658,45 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C163" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D163" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E163" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F163" s="2">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B164" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C164" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D164" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E164" s="1">
-        <v>44932</v>
+        <v>44930</v>
       </c>
       <c r="F164" s="2">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165">
@@ -4629,22 +4704,22 @@
         <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C165" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D165" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E165" s="1">
-        <v>44931</v>
+        <v>44930</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166">
@@ -4652,22 +4727,22 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="C166" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D166" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E166" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F166" s="2">
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167">
@@ -4675,59 +4750,59 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C167" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D167" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E167" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="F167" s="2">
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C168" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D168" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E168" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F168" s="2">
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B169" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C169" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D169" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E169" s="1">
         <v>44930</v>
@@ -4736,21 +4811,21 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B170" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C170" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D170" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E170" s="1">
         <v>44930</v>
@@ -4759,21 +4834,21 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C171" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D171" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E171" s="1">
         <v>44930</v>
@@ -4782,90 +4857,90 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B172" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D172" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E172" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F172" s="2">
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B173" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C173" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D173" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E173" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F173" s="2">
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B174" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C174" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D174" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E174" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F174" s="2">
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B175" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C175" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D175" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E175" s="1">
         <v>44935</v>
@@ -4874,21 +4949,21 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B176" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C176" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D176" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E176" s="1">
         <v>44935</v>
@@ -4897,21 +4972,21 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B177" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C177" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D177" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E177" s="1">
         <v>44935</v>
@@ -4920,21 +4995,21 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C178" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D178" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E178" s="1">
         <v>44935</v>
@@ -4943,21 +5018,21 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C179" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D179" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E179" s="1">
         <v>44935</v>
@@ -4966,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180">
@@ -4974,22 +5049,22 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C180" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D180" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E180" s="1">
-        <v>44952</v>
+        <v>44935</v>
       </c>
       <c r="F180" s="2">
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181">
@@ -4997,22 +5072,22 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C181" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D181" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E181" s="1">
-        <v>44957</v>
+        <v>45001</v>
       </c>
       <c r="F181" s="2">
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182">
@@ -5020,105 +5095,105 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C182" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D182" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E182" s="1">
-        <v>44957</v>
+        <v>45001</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B183" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C183" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D183" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E183" s="1">
-        <v>44957</v>
+        <v>44935</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B184" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C184" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D184" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E184" s="1">
-        <v>44957</v>
+        <v>44935</v>
       </c>
       <c r="F184" s="2">
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C185" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D185" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E185" s="1">
-        <v>44957</v>
+        <v>44952</v>
       </c>
       <c r="F185" s="2">
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B186" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C186" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D186" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E186" s="1">
         <v>44957</v>
@@ -5127,21 +5202,21 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B187" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C187" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D187" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E187" s="1">
         <v>44957</v>
@@ -5150,21 +5225,21 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C188" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D188" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E188" s="1">
         <v>44957</v>
@@ -5173,21 +5248,21 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B189" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C189" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D189" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E189" s="1">
         <v>44957</v>
@@ -5196,21 +5271,21 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B190" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C190" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D190" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E190" s="1">
         <v>44957</v>
@@ -5219,21 +5294,21 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B191" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C191" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D191" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E191" s="1">
         <v>44957</v>
@@ -5242,53 +5317,53 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B192" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C192" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D192" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E192" s="1">
-        <v>44932</v>
+        <v>44957</v>
       </c>
       <c r="F192" s="2">
         <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B193" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C193" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D193" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E193" s="1">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="F193" s="2">
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194">
@@ -5296,22 +5371,22 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C194" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D194" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E194" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F194" s="2">
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195">
@@ -5319,22 +5394,22 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C195" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D195" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E195" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196">
@@ -5342,91 +5417,91 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C196" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D196" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E196" s="1">
-        <v>44936</v>
+        <v>44957</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B197" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C197" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D197" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E197" s="1">
-        <v>44936</v>
+        <v>44932</v>
       </c>
       <c r="F197" s="2">
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B198" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C198" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D198" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E198" s="1">
-        <v>44939</v>
+        <v>44951</v>
       </c>
       <c r="F198" s="2">
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B199" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C199" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D199" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E199" s="1">
-        <v>44930</v>
+        <v>44936</v>
       </c>
       <c r="F199" s="2">
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200">
@@ -5434,36 +5509,36 @@
         <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C200" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D200" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E200" s="1">
-        <v>44956</v>
+        <v>44936</v>
       </c>
       <c r="F200" s="2">
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B201" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C201" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D201" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E201" s="1">
         <v>44936</v>
@@ -5472,21 +5547,21 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B202" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C202" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D202" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E202" s="1">
         <v>44936</v>
@@ -5495,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203">
@@ -5503,252 +5578,252 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C203" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D203" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E203" s="1">
-        <v>44936</v>
+        <v>44939</v>
       </c>
       <c r="F203" s="2">
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B204" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C204" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D204" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E204" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F204" s="2">
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B205" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C205" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D205" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E205" s="1">
-        <v>44930</v>
+        <v>44956</v>
       </c>
       <c r="F205" s="2">
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C206" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D206" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E206" s="1">
-        <v>44930</v>
+        <v>45002</v>
       </c>
       <c r="F206" s="2">
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C207" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D207" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E207" s="1">
-        <v>44930</v>
+        <v>45002</v>
       </c>
       <c r="F207" s="2">
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B208" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C208" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D208" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E208" s="1">
-        <v>44936</v>
+        <v>45002</v>
       </c>
       <c r="F208" s="2">
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C209" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D209" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E209" s="1">
-        <v>44936</v>
+        <v>45002</v>
       </c>
       <c r="F209" s="2">
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C210" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D210" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E210" s="1">
-        <v>44936</v>
+        <v>45002</v>
       </c>
       <c r="F210" s="2">
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B211" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C211" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D211" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E211" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F211" s="2">
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B212" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C212" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D212" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E212" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F212" s="2">
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B213" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C213" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D213" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E213" s="1">
-        <v>44951</v>
+        <v>44936</v>
       </c>
       <c r="F213" s="2">
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214">
@@ -5759,19 +5834,19 @@
         <v>117</v>
       </c>
       <c r="C214" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D214" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E214" s="1">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="F214" s="2">
         <v>1</v>
       </c>
       <c r="G214" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
     </row>
     <row r="215">
@@ -5779,22 +5854,22 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="C215" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D215" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E215" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F215" s="2">
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216">
@@ -5802,275 +5877,275 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C216" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D216" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E216" s="1">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="F216" s="2">
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B217" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C217" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D217" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E217" s="1">
-        <v>44935</v>
+        <v>44930</v>
       </c>
       <c r="F217" s="2">
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B218" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C218" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D218" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E218" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F218" s="2">
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B219" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C219" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D219" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E219" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="F219" s="2">
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B220" t="s">
         <v>117</v>
       </c>
       <c r="C220" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D220" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E220" s="1">
-        <v>44957</v>
+        <v>44936</v>
       </c>
       <c r="F220" s="2">
         <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B221" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C221" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D221" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E221" s="1">
-        <v>44957</v>
+        <v>44951</v>
       </c>
       <c r="F221" s="2">
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B222" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C222" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D222" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E222" s="1">
-        <v>44957</v>
+        <v>44951</v>
       </c>
       <c r="F222" s="2">
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B223" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C223" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D223" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E223" s="1">
-        <v>44957</v>
+        <v>44951</v>
       </c>
       <c r="F223" s="2">
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B224" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C224" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D224" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E224" s="1">
-        <v>44957</v>
+        <v>44932</v>
       </c>
       <c r="F224" s="2">
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C225" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D225" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E225" s="1">
-        <v>44956</v>
+        <v>44936</v>
       </c>
       <c r="F225" s="2">
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B226" t="s">
         <v>128</v>
       </c>
       <c r="C226" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D226" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E226" s="1">
-        <v>44956</v>
+        <v>44936</v>
       </c>
       <c r="F226" s="2">
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B227" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C227" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D227" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E227" s="1">
-        <v>44956</v>
+        <v>44935</v>
       </c>
       <c r="F227" s="2">
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228">
@@ -6078,22 +6153,22 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C228" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D228" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E228" s="1">
-        <v>44956</v>
+        <v>44935</v>
       </c>
       <c r="F228" s="2">
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229">
@@ -6101,22 +6176,22 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C229" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D229" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E229" s="1">
-        <v>44956</v>
+        <v>44935</v>
       </c>
       <c r="F229" s="2">
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230">
@@ -6124,13 +6199,13 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C230" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D230" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E230" s="1">
         <v>44957</v>
@@ -6139,21 +6214,21 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C231" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D231" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E231" s="1">
         <v>44957</v>
@@ -6162,237 +6237,1111 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B232" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C232" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D232" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E232" s="1">
-        <v>44957</v>
+        <v>45002</v>
       </c>
       <c r="F232" s="2">
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B233" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C233" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D233" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E233" s="1">
-        <v>44964</v>
+        <v>45002</v>
       </c>
       <c r="F233" s="2">
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B234" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C234" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D234" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E234" s="1">
-        <v>44964</v>
+        <v>45002</v>
       </c>
       <c r="F234" s="2">
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B235" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C235" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D235" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E235" s="1">
-        <v>44964</v>
+        <v>45002</v>
       </c>
       <c r="F235" s="2">
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B236" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C236" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D236" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E236" s="1">
-        <v>44964</v>
+        <v>44957</v>
       </c>
       <c r="F236" s="2">
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B237" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C237" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D237" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E237" s="1">
-        <v>44964</v>
+        <v>44957</v>
       </c>
       <c r="F237" s="2">
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B238" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C238" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D238" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E238" s="1">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="F238" s="2">
         <v>1</v>
       </c>
       <c r="G238" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B239" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C239" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D239" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E239" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F239" s="2">
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B240" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C240" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D240" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E240" s="1">
-        <v>44964</v>
+        <v>44956</v>
       </c>
       <c r="F240" s="2">
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B241" t="s">
+        <v>119</v>
+      </c>
+      <c r="C241" t="s">
+        <v>163</v>
+      </c>
+      <c r="D241" t="s">
+        <v>165</v>
+      </c>
+      <c r="E241" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F241" s="2">
+        <v>1</v>
+      </c>
+      <c r="G241" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>98</v>
+      </c>
+      <c r="B242" t="s">
+        <v>135</v>
+      </c>
+      <c r="C242" t="s">
+        <v>163</v>
+      </c>
+      <c r="D242" t="s">
+        <v>165</v>
+      </c>
+      <c r="E242" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F242" s="2">
+        <v>1</v>
+      </c>
+      <c r="G242" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>98</v>
+      </c>
+      <c r="B243" t="s">
+        <v>156</v>
+      </c>
+      <c r="C243" t="s">
+        <v>163</v>
+      </c>
+      <c r="D243" t="s">
+        <v>165</v>
+      </c>
+      <c r="E243" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F243" s="2">
+        <v>1</v>
+      </c>
+      <c r="G243" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>98</v>
+      </c>
+      <c r="B244" t="s">
+        <v>136</v>
+      </c>
+      <c r="C244" t="s">
+        <v>163</v>
+      </c>
+      <c r="D244" t="s">
+        <v>165</v>
+      </c>
+      <c r="E244" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F244" s="2">
+        <v>1</v>
+      </c>
+      <c r="G244" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245" t="s">
+        <v>135</v>
+      </c>
+      <c r="C245" t="s">
+        <v>163</v>
+      </c>
+      <c r="D245" t="s">
+        <v>165</v>
+      </c>
+      <c r="E245" s="1">
+        <v>45002</v>
+      </c>
+      <c r="F245" s="2">
+        <v>1</v>
+      </c>
+      <c r="G245" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>99</v>
+      </c>
+      <c r="B246" t="s">
+        <v>137</v>
+      </c>
+      <c r="C246" t="s">
+        <v>162</v>
+      </c>
+      <c r="D246" t="s">
+        <v>165</v>
+      </c>
+      <c r="E246" s="1">
+        <v>45002</v>
+      </c>
+      <c r="F246" s="2">
+        <v>1</v>
+      </c>
+      <c r="G246" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>100</v>
+      </c>
+      <c r="B247" t="s">
+        <v>116</v>
+      </c>
+      <c r="C247" t="s">
+        <v>162</v>
+      </c>
+      <c r="D247" t="s">
+        <v>165</v>
+      </c>
+      <c r="E247" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F247" s="2">
+        <v>1</v>
+      </c>
+      <c r="G247" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>100</v>
+      </c>
+      <c r="B248" t="s">
+        <v>117</v>
+      </c>
+      <c r="C248" t="s">
+        <v>163</v>
+      </c>
+      <c r="D248" t="s">
+        <v>165</v>
+      </c>
+      <c r="E248" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F248" s="2">
+        <v>1</v>
+      </c>
+      <c r="G248" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>100</v>
+      </c>
+      <c r="B249" t="s">
+        <v>125</v>
+      </c>
+      <c r="C249" t="s">
+        <v>163</v>
+      </c>
+      <c r="D249" t="s">
+        <v>165</v>
+      </c>
+      <c r="E249" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F249" s="2">
+        <v>1</v>
+      </c>
+      <c r="G249" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>101</v>
+      </c>
+      <c r="B250" t="s">
+        <v>116</v>
+      </c>
+      <c r="C250" t="s">
+        <v>162</v>
+      </c>
+      <c r="D250" t="s">
+        <v>165</v>
+      </c>
+      <c r="E250" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F250" s="2">
+        <v>1</v>
+      </c>
+      <c r="G250" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>101</v>
+      </c>
+      <c r="B251" t="s">
+        <v>113</v>
+      </c>
+      <c r="C251" t="s">
+        <v>162</v>
+      </c>
+      <c r="D251" t="s">
+        <v>165</v>
+      </c>
+      <c r="E251" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F251" s="2">
+        <v>1</v>
+      </c>
+      <c r="G251" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>101</v>
+      </c>
+      <c r="B252" t="s">
+        <v>112</v>
+      </c>
+      <c r="C252" t="s">
+        <v>162</v>
+      </c>
+      <c r="D252" t="s">
+        <v>165</v>
+      </c>
+      <c r="E252" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F252" s="2">
+        <v>1</v>
+      </c>
+      <c r="G252" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>101</v>
+      </c>
+      <c r="B253" t="s">
+        <v>130</v>
+      </c>
+      <c r="C253" t="s">
+        <v>162</v>
+      </c>
+      <c r="D253" t="s">
+        <v>165</v>
+      </c>
+      <c r="E253" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F253" s="2">
+        <v>1</v>
+      </c>
+      <c r="G253" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>101</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
+      <c r="C254" t="s">
+        <v>162</v>
+      </c>
+      <c r="D254" t="s">
+        <v>165</v>
+      </c>
+      <c r="E254" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F254" s="2">
+        <v>1</v>
+      </c>
+      <c r="G254" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>101</v>
+      </c>
+      <c r="B255" t="s">
+        <v>132</v>
+      </c>
+      <c r="C255" t="s">
+        <v>162</v>
+      </c>
+      <c r="D255" t="s">
+        <v>165</v>
+      </c>
+      <c r="E255" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F255" s="2">
+        <v>1</v>
+      </c>
+      <c r="G255" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>101</v>
+      </c>
+      <c r="B256" t="s">
+        <v>110</v>
+      </c>
+      <c r="C256" t="s">
+        <v>162</v>
+      </c>
+      <c r="D256" t="s">
+        <v>165</v>
+      </c>
+      <c r="E256" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F256" s="2">
+        <v>1</v>
+      </c>
+      <c r="G256" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>101</v>
+      </c>
+      <c r="B257" t="s">
+        <v>129</v>
+      </c>
+      <c r="C257" t="s">
+        <v>163</v>
+      </c>
+      <c r="D257" t="s">
+        <v>165</v>
+      </c>
+      <c r="E257" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F257" s="2">
+        <v>1</v>
+      </c>
+      <c r="G257" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>101</v>
+      </c>
+      <c r="B258" t="s">
+        <v>117</v>
+      </c>
+      <c r="C258" t="s">
+        <v>163</v>
+      </c>
+      <c r="D258" t="s">
+        <v>165</v>
+      </c>
+      <c r="E258" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F258" s="2">
+        <v>1</v>
+      </c>
+      <c r="G258" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>102</v>
+      </c>
+      <c r="B259" t="s">
+        <v>130</v>
+      </c>
+      <c r="C259" t="s">
+        <v>163</v>
+      </c>
+      <c r="D259" t="s">
+        <v>165</v>
+      </c>
+      <c r="E259" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F259" s="2">
+        <v>1</v>
+      </c>
+      <c r="G259" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>102</v>
+      </c>
+      <c r="B260" t="s">
+        <v>113</v>
+      </c>
+      <c r="C260" t="s">
+        <v>162</v>
+      </c>
+      <c r="D260" t="s">
+        <v>165</v>
+      </c>
+      <c r="E260" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F260" s="2">
+        <v>1</v>
+      </c>
+      <c r="G260" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>102</v>
+      </c>
+      <c r="B261" t="s">
+        <v>110</v>
+      </c>
+      <c r="C261" t="s">
+        <v>162</v>
+      </c>
+      <c r="D261" t="s">
+        <v>165</v>
+      </c>
+      <c r="E261" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F261" s="2">
+        <v>1</v>
+      </c>
+      <c r="G261" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>102</v>
+      </c>
+      <c r="B262" t="s">
+        <v>112</v>
+      </c>
+      <c r="C262" t="s">
+        <v>162</v>
+      </c>
+      <c r="D262" t="s">
+        <v>165</v>
+      </c>
+      <c r="E262" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F262" s="2">
+        <v>1</v>
+      </c>
+      <c r="G262" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>102</v>
+      </c>
+      <c r="B263" t="s">
+        <v>129</v>
+      </c>
+      <c r="C263" t="s">
+        <v>163</v>
+      </c>
+      <c r="D263" t="s">
+        <v>165</v>
+      </c>
+      <c r="E263" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F263" s="2">
+        <v>1</v>
+      </c>
+      <c r="G263" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>103</v>
+      </c>
+      <c r="B264" t="s">
+        <v>109</v>
+      </c>
+      <c r="C264" t="s">
+        <v>162</v>
+      </c>
+      <c r="D264" t="s">
+        <v>165</v>
+      </c>
+      <c r="E264" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F264" s="2">
+        <v>1</v>
+      </c>
+      <c r="G264" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>103</v>
+      </c>
+      <c r="B265" t="s">
+        <v>116</v>
+      </c>
+      <c r="C265" t="s">
+        <v>162</v>
+      </c>
+      <c r="D265" t="s">
+        <v>165</v>
+      </c>
+      <c r="E265" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F265" s="2">
+        <v>1</v>
+      </c>
+      <c r="G265" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>103</v>
+      </c>
+      <c r="B266" t="s">
+        <v>152</v>
+      </c>
+      <c r="C266" t="s">
+        <v>163</v>
+      </c>
+      <c r="D266" t="s">
+        <v>165</v>
+      </c>
+      <c r="E266" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F266" s="2">
+        <v>1</v>
+      </c>
+      <c r="G266" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>103</v>
+      </c>
+      <c r="B267" t="s">
+        <v>125</v>
+      </c>
+      <c r="C267" t="s">
+        <v>163</v>
+      </c>
+      <c r="D267" t="s">
+        <v>165</v>
+      </c>
+      <c r="E267" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F267" s="2">
+        <v>1</v>
+      </c>
+      <c r="G267" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>103</v>
+      </c>
+      <c r="B268" t="s">
+        <v>117</v>
+      </c>
+      <c r="C268" t="s">
+        <v>163</v>
+      </c>
+      <c r="D268" t="s">
+        <v>165</v>
+      </c>
+      <c r="E268" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F268" s="2">
+        <v>1</v>
+      </c>
+      <c r="G268" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
         <v>104</v>
       </c>
-      <c r="C241" t="s">
-        <v>150</v>
-      </c>
-      <c r="D241" t="s">
-        <v>153</v>
-      </c>
-      <c r="E241" s="1">
+      <c r="B269" t="s">
+        <v>119</v>
+      </c>
+      <c r="C269" t="s">
+        <v>162</v>
+      </c>
+      <c r="D269" t="s">
+        <v>165</v>
+      </c>
+      <c r="E269" s="1">
+        <v>44956</v>
+      </c>
+      <c r="F269" s="2">
+        <v>1</v>
+      </c>
+      <c r="G269" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>105</v>
+      </c>
+      <c r="B270" t="s">
+        <v>135</v>
+      </c>
+      <c r="C270" t="s">
+        <v>163</v>
+      </c>
+      <c r="D270" t="s">
+        <v>165</v>
+      </c>
+      <c r="E270" s="1">
+        <v>45002</v>
+      </c>
+      <c r="F270" s="2">
+        <v>1</v>
+      </c>
+      <c r="G270" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>105</v>
+      </c>
+      <c r="B271" t="s">
+        <v>137</v>
+      </c>
+      <c r="C271" t="s">
+        <v>162</v>
+      </c>
+      <c r="D271" t="s">
+        <v>165</v>
+      </c>
+      <c r="E271" s="1">
+        <v>45002</v>
+      </c>
+      <c r="F271" s="2">
+        <v>1</v>
+      </c>
+      <c r="G271" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>106</v>
+      </c>
+      <c r="B272" t="s">
+        <v>137</v>
+      </c>
+      <c r="C272" t="s">
+        <v>163</v>
+      </c>
+      <c r="D272" t="s">
+        <v>165</v>
+      </c>
+      <c r="E272" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F272" s="2">
+        <v>1</v>
+      </c>
+      <c r="G272" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>106</v>
+      </c>
+      <c r="B273" t="s">
+        <v>129</v>
+      </c>
+      <c r="C273" t="s">
+        <v>163</v>
+      </c>
+      <c r="D273" t="s">
+        <v>165</v>
+      </c>
+      <c r="E273" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F273" s="2">
+        <v>1</v>
+      </c>
+      <c r="G273" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>106</v>
+      </c>
+      <c r="B274" t="s">
+        <v>110</v>
+      </c>
+      <c r="C274" t="s">
+        <v>162</v>
+      </c>
+      <c r="D274" t="s">
+        <v>165</v>
+      </c>
+      <c r="E274" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F274" s="2">
+        <v>1</v>
+      </c>
+      <c r="G274" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>106</v>
+      </c>
+      <c r="B275" t="s">
+        <v>113</v>
+      </c>
+      <c r="C275" t="s">
+        <v>162</v>
+      </c>
+      <c r="D275" t="s">
+        <v>165</v>
+      </c>
+      <c r="E275" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F275" s="2">
+        <v>1</v>
+      </c>
+      <c r="G275" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>106</v>
+      </c>
+      <c r="B276" t="s">
+        <v>111</v>
+      </c>
+      <c r="C276" t="s">
+        <v>163</v>
+      </c>
+      <c r="D276" t="s">
+        <v>165</v>
+      </c>
+      <c r="E276" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F276" s="2">
+        <v>1</v>
+      </c>
+      <c r="G276" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>107</v>
+      </c>
+      <c r="B277" t="s">
+        <v>117</v>
+      </c>
+      <c r="C277" t="s">
+        <v>162</v>
+      </c>
+      <c r="D277" t="s">
+        <v>165</v>
+      </c>
+      <c r="E277" s="1">
         <v>44964</v>
       </c>
-      <c r="F241" s="2">
-        <v>1</v>
-      </c>
-      <c r="G241" t="s">
-        <v>261</v>
+      <c r="F277" s="2">
+        <v>1</v>
+      </c>
+      <c r="G277" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>107</v>
+      </c>
+      <c r="B278" t="s">
+        <v>126</v>
+      </c>
+      <c r="C278" t="s">
+        <v>163</v>
+      </c>
+      <c r="D278" t="s">
+        <v>165</v>
+      </c>
+      <c r="E278" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F278" s="2">
+        <v>1</v>
+      </c>
+      <c r="G278" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>107</v>
+      </c>
+      <c r="B279" t="s">
+        <v>116</v>
+      </c>
+      <c r="C279" t="s">
+        <v>162</v>
+      </c>
+      <c r="D279" t="s">
+        <v>165</v>
+      </c>
+      <c r="E279" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F279" s="2">
+        <v>1</v>
+      </c>
+      <c r="G279" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1397" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1412" uniqueCount="288">
   <si>
     <t>sampleid</t>
   </si>
@@ -306,6 +306,9 @@
     <t>800277</t>
   </si>
   <si>
+    <t>800303</t>
+  </si>
+  <si>
     <t>800312</t>
   </si>
   <si>
@@ -345,15 +348,15 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>inositol</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>inositol</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>heroin</t>
   </si>
   <si>
@@ -363,21 +366,21 @@
     <t>acetaminophen</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>sucrose</t>
   </si>
   <si>
+    <t>non-specific organic acids</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>non-specific organic acids</t>
-  </si>
-  <si>
     <t>meclonazepam</t>
   </si>
   <si>
@@ -402,63 +405,63 @@
     <t>3,4-MDMA</t>
   </si>
   <si>
+    <t>meconin</t>
+  </si>
+  <si>
+    <t>noscapine</t>
+  </si>
+  <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>meconin</t>
-  </si>
-  <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
-    <t>noscapine</t>
-  </si>
-  <si>
     <t>bromazolam</t>
   </si>
   <si>
     <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>levamisole</t>
+  </si>
+  <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
+    <t>N-methyltryptamine</t>
+  </si>
+  <si>
     <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
-    <t>N-methyltryptamine</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
+    <t>MDA</t>
+  </si>
+  <si>
     <t>caffeine</t>
   </si>
   <si>
-    <t>MDA</t>
-  </si>
-  <si>
     <t>ortho-chlorofentanyl</t>
   </si>
   <si>
@@ -483,12 +486,12 @@
     <t>delta-9-THC</t>
   </si>
   <si>
+    <t>ecgonidine (ED)</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>ecgonidine (ED)</t>
-  </si>
-  <si>
     <t>flubromazolam</t>
   </si>
   <si>
@@ -528,12 +531,12 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>8.53</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>8.92</t>
   </si>
   <si>
@@ -543,37 +546,40 @@
     <t>5.81</t>
   </si>
   <si>
+    <t>8.37</t>
+  </si>
+  <si>
     <t>9.23</t>
   </si>
   <si>
-    <t>8.37</t>
-  </si>
-  <si>
     <t>9.94</t>
   </si>
   <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
     <t>6.48</t>
   </si>
   <si>
     <t>7.3</t>
   </si>
   <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
     <t>9.74</t>
   </si>
   <si>
     <t>12.33</t>
   </si>
   <si>
+    <t>10.25</t>
+  </si>
+  <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>10.25</t>
+    <t>9.27</t>
   </si>
   <si>
     <t>6.11</t>
@@ -582,9 +588,6 @@
     <t>8.49</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>3.28</t>
   </si>
   <si>
@@ -600,15 +603,15 @@
     <t>5.47</t>
   </si>
   <si>
+    <t>8.61</t>
+  </si>
+  <si>
     <t>8.54</t>
   </si>
   <si>
     <t>8.95</t>
   </si>
   <si>
-    <t>8.61</t>
-  </si>
-  <si>
     <t>11.03</t>
   </si>
   <si>
@@ -624,12 +627,12 @@
     <t>6.86</t>
   </si>
   <si>
+    <t>6.12</t>
+  </si>
+  <si>
     <t>8.15</t>
   </si>
   <si>
-    <t>6.12</t>
-  </si>
-  <si>
     <t>8.17</t>
   </si>
   <si>
@@ -678,18 +681,18 @@
     <t>10.49</t>
   </si>
   <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
     <t>9.57</t>
   </si>
   <si>
-    <t>10.03</t>
-  </si>
-  <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>9.85</t>
-  </si>
-  <si>
     <t>3.88</t>
   </si>
   <si>
@@ -702,15 +705,15 @@
     <t>15.12</t>
   </si>
   <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>10.23</t>
   </si>
   <si>
-    <t>9.09</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
     <t>14.13</t>
   </si>
   <si>
@@ -726,12 +729,12 @@
     <t>9.28</t>
   </si>
   <si>
+    <t>9.36</t>
+  </si>
+  <si>
     <t>9.8</t>
   </si>
   <si>
-    <t>9.36</t>
-  </si>
-  <si>
     <t>3.86</t>
   </si>
   <si>
@@ -744,27 +747,27 @@
     <t>8.08</t>
   </si>
   <si>
+    <t>10.47</t>
+  </si>
+  <si>
     <t>6.04</t>
   </si>
   <si>
-    <t>10.47</t>
-  </si>
-  <si>
     <t>9.78</t>
   </si>
   <si>
     <t>6.58</t>
   </si>
   <si>
+    <t>9.31</t>
+  </si>
+  <si>
     <t>3.18</t>
   </si>
   <si>
     <t>10.56</t>
   </si>
   <si>
-    <t>9.31</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -783,18 +786,18 @@
     <t>9.14</t>
   </si>
   <si>
+    <t>7.37</t>
+  </si>
+  <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>7.37</t>
+    <t>6.36</t>
   </si>
   <si>
     <t>11.73</t>
   </si>
   <si>
-    <t>6.36</t>
-  </si>
-  <si>
     <t>6.89</t>
   </si>
   <si>
@@ -804,24 +807,24 @@
     <t>8.25</t>
   </si>
   <si>
+    <t>8.12</t>
+  </si>
+  <si>
     <t>12.62</t>
   </si>
   <si>
-    <t>8.12</t>
-  </si>
-  <si>
     <t>5.49</t>
   </si>
   <si>
     <t>8.11</t>
   </si>
   <si>
+    <t>10.52</t>
+  </si>
+  <si>
     <t>6.05</t>
   </si>
   <si>
-    <t>10.52</t>
-  </si>
-  <si>
     <t>10.51</t>
   </si>
   <si>
@@ -840,27 +843,30 @@
     <t>8.19</t>
   </si>
   <si>
+    <t>8.06</t>
+  </si>
+  <si>
     <t>5.43</t>
   </si>
   <si>
     <t>10.64</t>
   </si>
   <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
     <t>10.26</t>
   </si>
   <si>
     <t>9.4</t>
   </si>
   <si>
-    <t>6.29</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
     <t>9.81</t>
   </si>
   <si>
@@ -868,9 +874,6 @@
   </si>
   <si>
     <t>4.1</t>
-  </si>
-  <si>
-    <t>8.06</t>
   </si>
   <si>
     <t>9.25</t>
@@ -921,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G279"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -932,22 +935,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -955,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -970,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -978,13 +981,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -993,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -1001,13 +1004,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -1024,13 +1027,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -1039,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -1047,13 +1050,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -1062,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
@@ -1070,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -1085,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1096,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -1108,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -1116,13 +1119,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -1131,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
@@ -1139,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -1154,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
@@ -1162,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -1177,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
@@ -1185,13 +1188,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -1200,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
@@ -1211,10 +1214,10 @@
         <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -1223,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
@@ -1231,13 +1234,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -1246,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -1254,13 +1257,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -1269,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
@@ -1277,13 +1280,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1292,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
@@ -1300,13 +1303,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1315,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -1323,13 +1326,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1338,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -1346,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1361,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -1369,13 +1372,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1384,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -1392,13 +1395,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1407,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
@@ -1415,13 +1418,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1430,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
@@ -1438,13 +1441,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1453,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -1461,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1476,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
@@ -1484,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1499,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -1507,13 +1510,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1530,13 +1533,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
         <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1545,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28">
@@ -1553,13 +1556,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1576,13 +1579,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1591,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
@@ -1599,13 +1602,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1614,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1622,13 +1625,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
         <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1637,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
@@ -1645,13 +1648,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1668,13 +1671,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1683,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34">
@@ -1691,13 +1694,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1706,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
@@ -1714,13 +1717,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1737,13 +1740,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1752,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37">
@@ -1760,13 +1763,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1783,13 +1786,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1806,13 +1809,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
         <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1821,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40">
@@ -1829,13 +1832,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1844,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41">
@@ -1852,13 +1855,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1867,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42">
@@ -1875,13 +1878,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1898,13 +1901,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1913,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44">
@@ -1921,13 +1924,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1936,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45">
@@ -1944,13 +1947,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E45" s="1">
         <v>44951</v>
@@ -1967,13 +1970,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E46" s="1">
         <v>44951</v>
@@ -1982,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47">
@@ -1990,13 +1993,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E47" s="1">
         <v>44936</v>
@@ -2005,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48">
@@ -2013,13 +2016,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E48" s="1">
         <v>44935</v>
@@ -2028,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49">
@@ -2036,13 +2039,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E49" s="1">
         <v>44935</v>
@@ -2059,13 +2062,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -2082,13 +2085,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -2105,13 +2108,13 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -2120,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53">
@@ -2128,13 +2131,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
         <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -2143,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54">
@@ -2151,13 +2154,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -2174,13 +2177,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E55" s="1">
         <v>44931</v>
@@ -2189,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56">
@@ -2197,13 +2200,13 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E56" s="1">
         <v>44931</v>
@@ -2212,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57">
@@ -2220,13 +2223,13 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
         <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E57" s="1">
         <v>44956</v>
@@ -2235,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58">
@@ -2243,13 +2246,13 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E58" s="1">
         <v>44956</v>
@@ -2269,10 +2272,10 @@
         <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E59" s="1">
         <v>44956</v>
@@ -2281,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60">
@@ -2289,13 +2292,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E60" s="1">
         <v>44951</v>
@@ -2304,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
@@ -2312,13 +2315,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E61" s="1">
         <v>44935</v>
@@ -2327,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62">
@@ -2335,13 +2338,13 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E62" s="1">
         <v>44930</v>
@@ -2350,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63">
@@ -2358,13 +2361,13 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E63" s="1">
         <v>44930</v>
@@ -2381,13 +2384,13 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E64" s="1">
         <v>44930</v>
@@ -2404,13 +2407,13 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E65" s="1">
         <v>44951</v>
@@ -2419,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66">
@@ -2427,13 +2430,13 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E66" s="1">
         <v>44951</v>
@@ -2442,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67">
@@ -2450,13 +2453,13 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
         <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E67" s="1">
         <v>44951</v>
@@ -2465,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68">
@@ -2473,13 +2476,13 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E68" s="1">
         <v>44951</v>
@@ -2496,13 +2499,13 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E69" s="1">
         <v>44951</v>
@@ -2519,13 +2522,13 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E70" s="1">
         <v>44935</v>
@@ -2534,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
@@ -2542,13 +2545,13 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E71" s="1">
         <v>44935</v>
@@ -2565,13 +2568,13 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E72" s="1">
         <v>44952</v>
@@ -2580,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73">
@@ -2588,13 +2591,13 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E73" s="1">
         <v>45001</v>
@@ -2603,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
@@ -2611,13 +2614,13 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
         <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E74" s="1">
         <v>45001</v>
@@ -2626,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75">
@@ -2634,13 +2637,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E75" s="1">
         <v>44952</v>
@@ -2649,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76">
@@ -2657,13 +2660,13 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E76" s="1">
         <v>44952</v>
@@ -2672,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77">
@@ -2680,13 +2683,13 @@
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E77" s="1">
         <v>44930</v>
@@ -2695,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78">
@@ -2703,13 +2706,13 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E78" s="1">
         <v>44930</v>
@@ -2726,13 +2729,13 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
         <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E79" s="1">
         <v>44930</v>
@@ -2741,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
@@ -2749,13 +2752,13 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E80" s="1">
         <v>44957</v>
@@ -2764,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -2772,13 +2775,13 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E81" s="1">
         <v>44930</v>
@@ -2787,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -2795,13 +2798,13 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
         <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E82" s="1">
         <v>44935</v>
@@ -2810,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83">
@@ -2818,13 +2821,13 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E83" s="1">
         <v>44935</v>
@@ -2841,13 +2844,13 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E84" s="1">
         <v>44935</v>
@@ -2856,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -2864,13 +2867,13 @@
         <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E85" s="1">
         <v>44951</v>
@@ -2879,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
@@ -2890,10 +2893,10 @@
         <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E86" s="1">
         <v>44951</v>
@@ -2902,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87">
@@ -2910,13 +2913,13 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E87" s="1">
         <v>44951</v>
@@ -2925,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88">
@@ -2933,13 +2936,13 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E88" s="1">
         <v>44956</v>
@@ -2948,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89">
@@ -2956,13 +2959,13 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E89" s="1">
         <v>44956</v>
@@ -2971,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -2982,10 +2985,10 @@
         <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E90" s="1">
         <v>44956</v>
@@ -2994,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91">
@@ -3002,13 +3005,13 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E91" s="1">
         <v>44956</v>
@@ -3017,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92">
@@ -3025,13 +3028,13 @@
         <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E92" s="1">
         <v>44951</v>
@@ -3048,13 +3051,13 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E93" s="1">
         <v>44951</v>
@@ -3063,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94">
@@ -3071,13 +3074,13 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E94" s="1">
         <v>44951</v>
@@ -3086,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95">
@@ -3094,13 +3097,13 @@
         <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E95" s="1">
         <v>44951</v>
@@ -3117,13 +3120,13 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
         <v>163</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E96" s="1">
         <v>44951</v>
@@ -3132,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97">
@@ -3140,13 +3143,13 @@
         <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
         <v>163</v>
       </c>
       <c r="D97" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E97" s="1">
         <v>44951</v>
@@ -3155,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98">
@@ -3163,13 +3166,13 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E98" s="1">
         <v>44951</v>
@@ -3178,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99">
@@ -3186,13 +3189,13 @@
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D99" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E99" s="1">
         <v>44951</v>
@@ -3201,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100">
@@ -3209,13 +3212,13 @@
         <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D100" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E100" s="1">
         <v>44952</v>
@@ -3224,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
@@ -3232,13 +3235,13 @@
         <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E101" s="1">
         <v>44930</v>
@@ -3247,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102">
@@ -3255,13 +3258,13 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E102" s="1">
         <v>44957</v>
@@ -3270,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103">
@@ -3278,13 +3281,13 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E103" s="1">
         <v>44930</v>
@@ -3293,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104">
@@ -3301,13 +3304,13 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D104" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E104" s="1">
         <v>44930</v>
@@ -3316,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105">
@@ -3324,13 +3327,13 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E105" s="1">
         <v>44930</v>
@@ -3339,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106">
@@ -3347,13 +3350,13 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C106" t="s">
         <v>163</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E106" s="1">
         <v>44930</v>
@@ -3362,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107">
@@ -3370,13 +3373,13 @@
         <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D107" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E107" s="1">
         <v>44935</v>
@@ -3393,13 +3396,13 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D108" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E108" s="1">
         <v>44935</v>
@@ -3408,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109">
@@ -3416,13 +3419,13 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D109" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E109" s="1">
         <v>44935</v>
@@ -3431,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110">
@@ -3439,13 +3442,13 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D110" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E110" s="1">
         <v>44935</v>
@@ -3462,13 +3465,13 @@
         <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C111" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D111" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E111" s="1">
         <v>44935</v>
@@ -3477,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112">
@@ -3488,10 +3491,10 @@
         <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E112" s="1">
         <v>44935</v>
@@ -3500,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113">
@@ -3508,13 +3511,13 @@
         <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E113" s="1">
         <v>44935</v>
@@ -3523,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114">
@@ -3531,13 +3534,13 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E114" s="1">
         <v>44932</v>
@@ -3546,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115">
@@ -3554,13 +3557,13 @@
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C115" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E115" s="1">
         <v>44951</v>
@@ -3569,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116">
@@ -3577,13 +3580,13 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
         <v>163</v>
       </c>
       <c r="D116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E116" s="1">
         <v>44951</v>
@@ -3592,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117">
@@ -3600,13 +3603,13 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E117" s="1">
         <v>44951</v>
@@ -3623,13 +3626,13 @@
         <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D118" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E118" s="1">
         <v>44951</v>
@@ -3649,10 +3652,10 @@
         <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E119" s="1">
         <v>44951</v>
@@ -3669,13 +3672,13 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C120" t="s">
         <v>163</v>
       </c>
       <c r="D120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E120" s="1">
         <v>44951</v>
@@ -3684,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121">
@@ -3695,10 +3698,10 @@
         <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D121" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E121" s="1">
         <v>44951</v>
@@ -3707,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122">
@@ -3715,13 +3718,13 @@
         <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D122" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E122" s="1">
         <v>44951</v>
@@ -3730,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123">
@@ -3738,13 +3741,13 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D123" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E123" s="1">
         <v>44951</v>
@@ -3761,13 +3764,13 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C124" t="s">
         <v>163</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E124" s="1">
         <v>44951</v>
@@ -3776,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125">
@@ -3784,13 +3787,13 @@
         <v>48</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D125" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E125" s="1">
         <v>44931</v>
@@ -3799,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126">
@@ -3807,13 +3810,13 @@
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C126" t="s">
         <v>163</v>
       </c>
       <c r="D126" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E126" s="1">
         <v>44931</v>
@@ -3822,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127">
@@ -3830,13 +3833,13 @@
         <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D127" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E127" s="1">
         <v>44931</v>
@@ -3853,13 +3856,13 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D128" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E128" s="1">
         <v>44931</v>
@@ -3868,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129">
@@ -3876,13 +3879,13 @@
         <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E129" s="1">
         <v>44930</v>
@@ -3891,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130">
@@ -3899,13 +3902,13 @@
         <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E130" s="1">
         <v>44930</v>
@@ -3914,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131">
@@ -3922,13 +3925,13 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C131" t="s">
         <v>163</v>
       </c>
       <c r="D131" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E131" s="1">
         <v>44930</v>
@@ -3937,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132">
@@ -3945,13 +3948,13 @@
         <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D132" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E132" s="1">
         <v>44930</v>
@@ -3960,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133">
@@ -3968,13 +3971,13 @@
         <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C133" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D133" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E133" s="1">
         <v>44957</v>
@@ -3983,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134">
@@ -3991,13 +3994,13 @@
         <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D134" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E134" s="1">
         <v>44935</v>
@@ -4006,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135">
@@ -4014,13 +4017,13 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D135" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E135" s="1">
         <v>44930</v>
@@ -4029,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136">
@@ -4037,13 +4040,13 @@
         <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D136" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E136" s="1">
         <v>44935</v>
@@ -4052,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137">
@@ -4060,13 +4063,13 @@
         <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E137" s="1">
         <v>44935</v>
@@ -4083,13 +4086,13 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C138" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D138" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E138" s="1">
         <v>44935</v>
@@ -4098,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139">
@@ -4106,13 +4109,13 @@
         <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
         <v>163</v>
       </c>
       <c r="D139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E139" s="1">
         <v>44935</v>
@@ -4121,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140">
@@ -4129,13 +4132,13 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D140" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E140" s="1">
         <v>44935</v>
@@ -4152,13 +4155,13 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D141" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E141" s="1">
         <v>44935</v>
@@ -4167,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142">
@@ -4175,13 +4178,13 @@
         <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C142" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D142" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E142" s="1">
         <v>44936</v>
@@ -4190,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143">
@@ -4198,13 +4201,13 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C143" t="s">
         <v>163</v>
       </c>
       <c r="D143" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E143" s="1">
         <v>44936</v>
@@ -4213,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144">
@@ -4224,10 +4227,10 @@
         <v>116</v>
       </c>
       <c r="C144" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E144" s="1">
         <v>44936</v>
@@ -4236,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145">
@@ -4244,13 +4247,13 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C145" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D145" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E145" s="1">
         <v>44931</v>
@@ -4259,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146">
@@ -4267,13 +4270,13 @@
         <v>58</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C146" t="s">
         <v>163</v>
       </c>
       <c r="D146" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E146" s="1">
         <v>44931</v>
@@ -4282,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147">
@@ -4290,13 +4293,13 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D147" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E147" s="1">
         <v>44935</v>
@@ -4313,13 +4316,13 @@
         <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D148" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E148" s="1">
         <v>44936</v>
@@ -4336,13 +4339,13 @@
         <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D149" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E149" s="1">
         <v>44936</v>
@@ -4351,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150">
@@ -4359,13 +4362,13 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C150" t="s">
         <v>163</v>
       </c>
       <c r="D150" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E150" s="1">
         <v>44936</v>
@@ -4374,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
     </row>
     <row r="151">
@@ -4382,13 +4385,13 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D151" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E151" s="1">
         <v>44936</v>
@@ -4397,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152">
@@ -4405,13 +4408,13 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D152" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E152" s="1">
         <v>44951</v>
@@ -4428,13 +4431,13 @@
         <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E153" s="1">
         <v>44951</v>
@@ -4443,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154">
@@ -4451,13 +4454,13 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C154" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D154" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E154" s="1">
         <v>44951</v>
@@ -4466,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155">
@@ -4474,13 +4477,13 @@
         <v>63</v>
       </c>
       <c r="B155" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D155" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E155" s="1">
         <v>44952</v>
@@ -4489,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="156">
@@ -4497,13 +4500,13 @@
         <v>63</v>
       </c>
       <c r="B156" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C156" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D156" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E156" s="1">
         <v>44952</v>
@@ -4523,10 +4526,10 @@
         <v>116</v>
       </c>
       <c r="C157" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D157" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E157" s="1">
         <v>44952</v>
@@ -4535,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="158">
@@ -4543,13 +4546,13 @@
         <v>63</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E158" s="1">
         <v>44952</v>
@@ -4558,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="159">
@@ -4566,13 +4569,13 @@
         <v>64</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D159" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E159" s="1">
         <v>44936</v>
@@ -4581,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160">
@@ -4589,13 +4592,13 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E160" s="1">
         <v>45001</v>
@@ -4604,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161">
@@ -4612,13 +4615,13 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D161" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E161" s="1">
         <v>44935</v>
@@ -4627,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="162">
@@ -4635,13 +4638,13 @@
         <v>67</v>
       </c>
       <c r="B162" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E162" s="1">
         <v>44930</v>
@@ -4650,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163">
@@ -4658,13 +4661,13 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D163" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E163" s="1">
         <v>44930</v>
@@ -4673,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164">
@@ -4681,13 +4684,13 @@
         <v>68</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C164" t="s">
         <v>163</v>
       </c>
       <c r="D164" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E164" s="1">
         <v>44930</v>
@@ -4696,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165">
@@ -4704,13 +4707,13 @@
         <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C165" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E165" s="1">
         <v>44930</v>
@@ -4719,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166">
@@ -4727,13 +4730,13 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C166" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E166" s="1">
         <v>44932</v>
@@ -4742,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167">
@@ -4750,13 +4753,13 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C167" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D167" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E167" s="1">
         <v>44932</v>
@@ -4765,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168">
@@ -4773,13 +4776,13 @@
         <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C168" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D168" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E168" s="1">
         <v>44931</v>
@@ -4788,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169">
@@ -4796,13 +4799,13 @@
         <v>71</v>
       </c>
       <c r="B169" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C169" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D169" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E169" s="1">
         <v>44930</v>
@@ -4811,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170">
@@ -4819,13 +4822,13 @@
         <v>71</v>
       </c>
       <c r="B170" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C170" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D170" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E170" s="1">
         <v>44930</v>
@@ -4834,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171">
@@ -4842,13 +4845,13 @@
         <v>71</v>
       </c>
       <c r="B171" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C171" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D171" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E171" s="1">
         <v>44930</v>
@@ -4865,13 +4868,13 @@
         <v>71</v>
       </c>
       <c r="B172" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C172" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D172" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E172" s="1">
         <v>44930</v>
@@ -4880,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173">
@@ -4888,13 +4891,13 @@
         <v>71</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C173" t="s">
         <v>163</v>
       </c>
       <c r="D173" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E173" s="1">
         <v>44930</v>
@@ -4903,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174">
@@ -4911,13 +4914,13 @@
         <v>71</v>
       </c>
       <c r="B174" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C174" t="s">
         <v>163</v>
       </c>
       <c r="D174" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E174" s="1">
         <v>44930</v>
@@ -4926,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175">
@@ -4934,13 +4937,13 @@
         <v>72</v>
       </c>
       <c r="B175" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C175" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D175" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E175" s="1">
         <v>44935</v>
@@ -4949,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176">
@@ -4957,13 +4960,13 @@
         <v>72</v>
       </c>
       <c r="B176" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C176" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D176" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E176" s="1">
         <v>44935</v>
@@ -4972,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177">
@@ -4980,13 +4983,13 @@
         <v>72</v>
       </c>
       <c r="B177" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C177" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D177" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E177" s="1">
         <v>44935</v>
@@ -4995,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178">
@@ -5003,13 +5006,13 @@
         <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C178" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D178" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E178" s="1">
         <v>44935</v>
@@ -5026,13 +5029,13 @@
         <v>73</v>
       </c>
       <c r="B179" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C179" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D179" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E179" s="1">
         <v>44935</v>
@@ -5041,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180">
@@ -5049,13 +5052,13 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C180" t="s">
         <v>163</v>
       </c>
       <c r="D180" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E180" s="1">
         <v>44935</v>
@@ -5064,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181">
@@ -5072,13 +5075,13 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C181" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D181" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E181" s="1">
         <v>45001</v>
@@ -5095,13 +5098,13 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C182" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D182" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E182" s="1">
         <v>45001</v>
@@ -5110,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183">
@@ -5118,13 +5121,13 @@
         <v>75</v>
       </c>
       <c r="B183" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C183" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D183" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E183" s="1">
         <v>44935</v>
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184">
@@ -5141,13 +5144,13 @@
         <v>75</v>
       </c>
       <c r="B184" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C184" t="s">
         <v>163</v>
       </c>
       <c r="D184" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E184" s="1">
         <v>44935</v>
@@ -5156,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185">
@@ -5164,13 +5167,13 @@
         <v>76</v>
       </c>
       <c r="B185" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C185" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D185" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E185" s="1">
         <v>44952</v>
@@ -5179,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186">
@@ -5187,13 +5190,13 @@
         <v>77</v>
       </c>
       <c r="B186" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C186" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D186" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E186" s="1">
         <v>44957</v>
@@ -5210,13 +5213,13 @@
         <v>77</v>
       </c>
       <c r="B187" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C187" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D187" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E187" s="1">
         <v>44957</v>
@@ -5233,13 +5236,13 @@
         <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C188" t="s">
         <v>163</v>
       </c>
       <c r="D188" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E188" s="1">
         <v>44957</v>
@@ -5248,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
     </row>
     <row r="189">
@@ -5256,13 +5259,13 @@
         <v>77</v>
       </c>
       <c r="B189" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C189" t="s">
         <v>163</v>
       </c>
       <c r="D189" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E189" s="1">
         <v>44957</v>
@@ -5271,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
     </row>
     <row r="190">
@@ -5279,13 +5282,13 @@
         <v>77</v>
       </c>
       <c r="B190" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C190" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D190" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E190" s="1">
         <v>44957</v>
@@ -5294,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191">
@@ -5302,13 +5305,13 @@
         <v>77</v>
       </c>
       <c r="B191" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C191" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D191" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E191" s="1">
         <v>44957</v>
@@ -5317,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192">
@@ -5325,13 +5328,13 @@
         <v>77</v>
       </c>
       <c r="B192" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C192" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D192" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E192" s="1">
         <v>44957</v>
@@ -5348,13 +5351,13 @@
         <v>77</v>
       </c>
       <c r="B193" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C193" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D193" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E193" s="1">
         <v>44957</v>
@@ -5371,13 +5374,13 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C194" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D194" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E194" s="1">
         <v>44957</v>
@@ -5394,13 +5397,13 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C195" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D195" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E195" s="1">
         <v>44957</v>
@@ -5417,13 +5420,13 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C196" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D196" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E196" s="1">
         <v>44957</v>
@@ -5440,13 +5443,13 @@
         <v>78</v>
       </c>
       <c r="B197" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C197" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D197" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E197" s="1">
         <v>44932</v>
@@ -5455,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198">
@@ -5463,13 +5466,13 @@
         <v>79</v>
       </c>
       <c r="B198" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C198" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D198" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E198" s="1">
         <v>44951</v>
@@ -5478,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199">
@@ -5486,13 +5489,13 @@
         <v>80</v>
       </c>
       <c r="B199" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C199" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D199" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E199" s="1">
         <v>44936</v>
@@ -5501,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200">
@@ -5509,13 +5512,13 @@
         <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C200" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D200" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E200" s="1">
         <v>44936</v>
@@ -5532,13 +5535,13 @@
         <v>80</v>
       </c>
       <c r="B201" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="C201" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D201" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E201" s="1">
         <v>44936</v>
@@ -5547,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202">
@@ -5555,13 +5558,13 @@
         <v>80</v>
       </c>
       <c r="B202" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C202" t="s">
         <v>163</v>
       </c>
       <c r="D202" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E202" s="1">
         <v>44936</v>
@@ -5570,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203">
@@ -5578,13 +5581,13 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C203" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D203" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E203" s="1">
         <v>44939</v>
@@ -5593,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204">
@@ -5601,13 +5604,13 @@
         <v>82</v>
       </c>
       <c r="B204" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C204" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D204" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E204" s="1">
         <v>44930</v>
@@ -5616,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205">
@@ -5624,13 +5627,13 @@
         <v>83</v>
       </c>
       <c r="B205" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C205" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D205" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E205" s="1">
         <v>44956</v>
@@ -5639,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206">
@@ -5647,13 +5650,13 @@
         <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C206" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D206" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E206" s="1">
         <v>45002</v>
@@ -5670,13 +5673,13 @@
         <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C207" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D207" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E207" s="1">
         <v>45002</v>
@@ -5693,13 +5696,13 @@
         <v>84</v>
       </c>
       <c r="B208" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C208" t="s">
         <v>163</v>
       </c>
       <c r="D208" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E208" s="1">
         <v>45002</v>
@@ -5708,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="209">
@@ -5716,13 +5719,13 @@
         <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C209" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D209" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E209" s="1">
         <v>45002</v>
@@ -5731,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210">
@@ -5739,13 +5742,13 @@
         <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C210" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D210" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E210" s="1">
         <v>45002</v>
@@ -5762,13 +5765,13 @@
         <v>85</v>
       </c>
       <c r="B211" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C211" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D211" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E211" s="1">
         <v>44936</v>
@@ -5777,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212">
@@ -5785,13 +5788,13 @@
         <v>85</v>
       </c>
       <c r="B212" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C212" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D212" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E212" s="1">
         <v>44936</v>
@@ -5800,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213">
@@ -5808,13 +5811,13 @@
         <v>85</v>
       </c>
       <c r="B213" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C213" t="s">
         <v>163</v>
       </c>
       <c r="D213" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E213" s="1">
         <v>44936</v>
@@ -5823,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>172</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214">
@@ -5834,10 +5837,10 @@
         <v>117</v>
       </c>
       <c r="C214" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D214" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E214" s="1">
         <v>44936</v>
@@ -5854,13 +5857,13 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C215" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D215" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E215" s="1">
         <v>44930</v>
@@ -5869,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216">
@@ -5877,13 +5880,13 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C216" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D216" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E216" s="1">
         <v>44930</v>
@@ -5892,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="217">
@@ -5900,13 +5903,13 @@
         <v>86</v>
       </c>
       <c r="B217" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C217" t="s">
         <v>163</v>
       </c>
       <c r="D217" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E217" s="1">
         <v>44930</v>
@@ -5915,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218">
@@ -5923,13 +5926,13 @@
         <v>87</v>
       </c>
       <c r="B218" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D218" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E218" s="1">
         <v>44936</v>
@@ -5938,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219">
@@ -5949,10 +5952,10 @@
         <v>116</v>
       </c>
       <c r="C219" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D219" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E219" s="1">
         <v>44936</v>
@@ -5972,10 +5975,10 @@
         <v>117</v>
       </c>
       <c r="C220" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D220" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E220" s="1">
         <v>44936</v>
@@ -5992,13 +5995,13 @@
         <v>88</v>
       </c>
       <c r="B221" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C221" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D221" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E221" s="1">
         <v>44951</v>
@@ -6015,13 +6018,13 @@
         <v>88</v>
       </c>
       <c r="B222" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C222" t="s">
         <v>163</v>
       </c>
       <c r="D222" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E222" s="1">
         <v>44951</v>
@@ -6030,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
     </row>
     <row r="223">
@@ -6041,10 +6044,10 @@
         <v>137</v>
       </c>
       <c r="C223" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D223" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E223" s="1">
         <v>44951</v>
@@ -6053,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224">
@@ -6061,13 +6064,13 @@
         <v>89</v>
       </c>
       <c r="B224" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C224" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D224" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E224" s="1">
         <v>44932</v>
@@ -6076,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225">
@@ -6084,13 +6087,13 @@
         <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C225" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D225" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E225" s="1">
         <v>44936</v>
@@ -6107,13 +6110,13 @@
         <v>90</v>
       </c>
       <c r="B226" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C226" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D226" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E226" s="1">
         <v>44936</v>
@@ -6122,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="227">
@@ -6130,13 +6133,13 @@
         <v>91</v>
       </c>
       <c r="B227" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C227" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D227" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E227" s="1">
         <v>44935</v>
@@ -6145,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228">
@@ -6153,13 +6156,13 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C228" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D228" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E228" s="1">
         <v>44935</v>
@@ -6168,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="229">
@@ -6176,13 +6179,13 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C229" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D229" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E229" s="1">
         <v>44935</v>
@@ -6199,13 +6202,13 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C230" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D230" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E230" s="1">
         <v>44957</v>
@@ -6214,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="231">
@@ -6222,13 +6225,13 @@
         <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C231" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D231" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E231" s="1">
         <v>44957</v>
@@ -6237,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="232">
@@ -6245,7 +6248,7 @@
         <v>95</v>
       </c>
       <c r="B232" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C232" t="s">
         <v>163</v>
@@ -6260,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>172</v>
+        <v>274</v>
       </c>
     </row>
     <row r="233">
@@ -6268,13 +6271,13 @@
         <v>95</v>
       </c>
       <c r="B233" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C233" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D233" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E233" s="1">
         <v>45002</v>
@@ -6283,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>273</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234">
@@ -6291,13 +6294,13 @@
         <v>95</v>
       </c>
       <c r="B234" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C234" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D234" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E234" s="1">
         <v>45002</v>
@@ -6314,13 +6317,13 @@
         <v>95</v>
       </c>
       <c r="B235" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C235" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D235" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E235" s="1">
         <v>45002</v>
@@ -6337,13 +6340,13 @@
         <v>96</v>
       </c>
       <c r="B236" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C236" t="s">
         <v>163</v>
       </c>
       <c r="D236" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E236" s="1">
         <v>44957</v>
@@ -6352,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
     </row>
     <row r="237">
@@ -6360,13 +6363,13 @@
         <v>96</v>
       </c>
       <c r="B237" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C237" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D237" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E237" s="1">
         <v>44957</v>
@@ -6375,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
     </row>
     <row r="238">
@@ -6383,13 +6386,13 @@
         <v>96</v>
       </c>
       <c r="B238" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C238" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D238" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E238" s="1">
         <v>44957</v>
@@ -6406,68 +6409,68 @@
         <v>97</v>
       </c>
       <c r="B239" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C239" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D239" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E239" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="F239" s="2">
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B240" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C240" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D240" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E240" s="1">
-        <v>44956</v>
+        <v>45002</v>
       </c>
       <c r="F240" s="2">
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B241" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C241" t="s">
         <v>163</v>
       </c>
       <c r="D241" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E241" s="1">
-        <v>44956</v>
+        <v>45002</v>
       </c>
       <c r="F241" s="2">
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
     </row>
     <row r="242">
@@ -6475,36 +6478,36 @@
         <v>98</v>
       </c>
       <c r="B242" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C242" t="s">
         <v>163</v>
       </c>
       <c r="D242" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E242" s="1">
-        <v>44956</v>
+        <v>45001</v>
       </c>
       <c r="F242" s="2">
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B243" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C243" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D243" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E243" s="1">
         <v>44956</v>
@@ -6518,16 +6521,16 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B244" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C244" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D244" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E244" s="1">
         <v>44956</v>
@@ -6544,16 +6547,16 @@
         <v>99</v>
       </c>
       <c r="B245" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C245" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D245" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E245" s="1">
-        <v>45002</v>
+        <v>44956</v>
       </c>
       <c r="F245" s="2">
         <v>1</v>
@@ -6567,45 +6570,45 @@
         <v>99</v>
       </c>
       <c r="B246" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C246" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D246" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E246" s="1">
-        <v>45002</v>
+        <v>44956</v>
       </c>
       <c r="F246" s="2">
         <v>1</v>
       </c>
       <c r="G246" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B247" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C247" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D247" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E247" s="1">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="F247" s="2">
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
     </row>
     <row r="248">
@@ -6613,16 +6616,16 @@
         <v>100</v>
       </c>
       <c r="B248" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C248" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D248" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E248" s="1">
-        <v>44957</v>
+        <v>45002</v>
       </c>
       <c r="F248" s="2">
         <v>1</v>
@@ -6636,22 +6639,22 @@
         <v>100</v>
       </c>
       <c r="B249" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C249" t="s">
         <v>163</v>
       </c>
       <c r="D249" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E249" s="1">
-        <v>44957</v>
+        <v>45002</v>
       </c>
       <c r="F249" s="2">
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
     </row>
     <row r="250">
@@ -6659,22 +6662,22 @@
         <v>101</v>
       </c>
       <c r="B250" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C250" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D250" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E250" s="1">
-        <v>45001</v>
+        <v>44957</v>
       </c>
       <c r="F250" s="2">
         <v>1</v>
       </c>
       <c r="G250" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
     </row>
     <row r="251">
@@ -6682,22 +6685,22 @@
         <v>101</v>
       </c>
       <c r="B251" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C251" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D251" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E251" s="1">
-        <v>45001</v>
+        <v>44957</v>
       </c>
       <c r="F251" s="2">
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="252">
@@ -6705,16 +6708,16 @@
         <v>101</v>
       </c>
       <c r="B252" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C252" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D252" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E252" s="1">
-        <v>45001</v>
+        <v>44957</v>
       </c>
       <c r="F252" s="2">
         <v>1</v>
@@ -6725,16 +6728,16 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B253" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C253" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D253" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E253" s="1">
         <v>45001</v>
@@ -6743,21 +6746,21 @@
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B254" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C254" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D254" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E254" s="1">
         <v>45001</v>
@@ -6766,21 +6769,21 @@
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B255" t="s">
         <v>132</v>
       </c>
       <c r="C255" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D255" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E255" s="1">
         <v>45001</v>
@@ -6789,21 +6792,21 @@
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B256" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C256" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D256" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E256" s="1">
         <v>45001</v>
@@ -6812,21 +6815,21 @@
         <v>1</v>
       </c>
       <c r="G256" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B257" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C257" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D257" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E257" s="1">
         <v>45001</v>
@@ -6840,16 +6843,16 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B258" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C258" t="s">
         <v>163</v>
       </c>
       <c r="D258" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E258" s="1">
         <v>45001</v>
@@ -6858,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="G258" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259">
@@ -6866,13 +6869,13 @@
         <v>102</v>
       </c>
       <c r="B259" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C259" t="s">
         <v>163</v>
       </c>
       <c r="D259" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E259" s="1">
         <v>45001</v>
@@ -6881,7 +6884,7 @@
         <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="260">
@@ -6889,13 +6892,13 @@
         <v>102</v>
       </c>
       <c r="B260" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C260" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D260" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E260" s="1">
         <v>45001</v>
@@ -6912,13 +6915,13 @@
         <v>102</v>
       </c>
       <c r="B261" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C261" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D261" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E261" s="1">
         <v>45001</v>
@@ -6927,21 +6930,21 @@
         <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B262" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C262" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D262" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E262" s="1">
         <v>45001</v>
@@ -6950,21 +6953,21 @@
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B263" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C263" t="s">
         <v>163</v>
       </c>
       <c r="D263" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E263" s="1">
         <v>45001</v>
@@ -6973,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264">
@@ -6981,22 +6984,22 @@
         <v>103</v>
       </c>
       <c r="B264" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C264" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D264" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E264" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F264" s="2">
         <v>1</v>
       </c>
       <c r="G264" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265">
@@ -7004,22 +7007,22 @@
         <v>103</v>
       </c>
       <c r="B265" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C265" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D265" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E265" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F265" s="2">
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="266">
@@ -7027,36 +7030,36 @@
         <v>103</v>
       </c>
       <c r="B266" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C266" t="s">
         <v>163</v>
       </c>
       <c r="D266" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E266" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F266" s="2">
         <v>1</v>
       </c>
       <c r="G266" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B267" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C267" t="s">
         <v>163</v>
       </c>
       <c r="D267" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E267" s="1">
         <v>44964</v>
@@ -7065,21 +7068,21 @@
         <v>1</v>
       </c>
       <c r="G267" t="s">
-        <v>172</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B268" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C268" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D268" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E268" s="1">
         <v>44964</v>
@@ -7096,39 +7099,39 @@
         <v>104</v>
       </c>
       <c r="B269" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C269" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D269" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E269" s="1">
-        <v>44956</v>
+        <v>44964</v>
       </c>
       <c r="F269" s="2">
         <v>1</v>
       </c>
       <c r="G269" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B270" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C270" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D270" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E270" s="1">
-        <v>45002</v>
+        <v>44964</v>
       </c>
       <c r="F270" s="2">
         <v>1</v>
@@ -7139,48 +7142,48 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B271" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C271" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D271" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E271" s="1">
-        <v>45002</v>
+        <v>44964</v>
       </c>
       <c r="F271" s="2">
         <v>1</v>
       </c>
       <c r="G271" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B272" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C272" t="s">
         <v>163</v>
       </c>
       <c r="D272" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E272" s="1">
-        <v>45001</v>
+        <v>44956</v>
       </c>
       <c r="F272" s="2">
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="273">
@@ -7188,22 +7191,22 @@
         <v>106</v>
       </c>
       <c r="B273" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C273" t="s">
         <v>163</v>
       </c>
       <c r="D273" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E273" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="F273" s="2">
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
     </row>
     <row r="274">
@@ -7211,36 +7214,36 @@
         <v>106</v>
       </c>
       <c r="B274" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C274" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D274" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E274" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="F274" s="2">
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B275" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C275" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D275" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E275" s="1">
         <v>45001</v>
@@ -7249,21 +7252,21 @@
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B276" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C276" t="s">
         <v>163</v>
       </c>
       <c r="D276" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E276" s="1">
         <v>45001</v>
@@ -7272,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
     </row>
     <row r="277">
@@ -7280,22 +7283,22 @@
         <v>107</v>
       </c>
       <c r="B277" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C277" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D277" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E277" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F277" s="2">
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
     </row>
     <row r="278">
@@ -7303,22 +7306,22 @@
         <v>107</v>
       </c>
       <c r="B278" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C278" t="s">
         <v>163</v>
       </c>
       <c r="D278" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E278" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F278" s="2">
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
     </row>
     <row r="279">
@@ -7326,22 +7329,91 @@
         <v>107</v>
       </c>
       <c r="B279" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C279" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D279" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E279" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F279" s="2">
+        <v>1</v>
+      </c>
+      <c r="G279" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>108</v>
+      </c>
+      <c r="B280" t="s">
+        <v>127</v>
+      </c>
+      <c r="C280" t="s">
+        <v>164</v>
+      </c>
+      <c r="D280" t="s">
+        <v>166</v>
+      </c>
+      <c r="E280" s="1">
         <v>44964</v>
       </c>
-      <c r="F279" s="2">
-        <v>1</v>
-      </c>
-      <c r="G279" t="s">
+      <c r="F280" s="2">
+        <v>1</v>
+      </c>
+      <c r="G280" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>108</v>
+      </c>
+      <c r="B281" t="s">
+        <v>118</v>
+      </c>
+      <c r="C281" t="s">
+        <v>163</v>
+      </c>
+      <c r="D281" t="s">
+        <v>166</v>
+      </c>
+      <c r="E281" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F281" s="2">
+        <v>1</v>
+      </c>
+      <c r="G281" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>108</v>
+      </c>
+      <c r="B282" t="s">
+        <v>117</v>
+      </c>
+      <c r="C282" t="s">
+        <v>163</v>
+      </c>
+      <c r="D282" t="s">
+        <v>166</v>
+      </c>
+      <c r="E282" s="1">
+        <v>44964</v>
+      </c>
+      <c r="F282" s="2">
+        <v>1</v>
+      </c>
+      <c r="G282" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/labservice/unc_gcms.xlsx
+++ b/datasets/labservice/unc_gcms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1412" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1427" uniqueCount="292">
   <si>
     <t>sampleid</t>
   </si>
@@ -312,6 +312,12 @@
     <t>800312</t>
   </si>
   <si>
+    <t>800315</t>
+  </si>
+  <si>
+    <t>800318</t>
+  </si>
+  <si>
     <t>800342</t>
   </si>
   <si>
@@ -348,28 +354,31 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>inositol</t>
   </si>
   <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>meclonazepam</t>
   </si>
   <si>
     <t>sucrose</t>
@@ -381,9 +390,6 @@
     <t>ketamine</t>
   </si>
   <si>
-    <t>meclonazepam</t>
-  </si>
-  <si>
     <t>clonazolam</t>
   </si>
   <si>
@@ -408,12 +414,12 @@
     <t>meconin</t>
   </si>
   <si>
+    <t>hydrocotarnine</t>
+  </si>
+  <si>
     <t>noscapine</t>
   </si>
   <si>
-    <t>hydrocotarnine</t>
-  </si>
-  <si>
     <t>papaverine</t>
   </si>
   <si>
@@ -426,33 +432,33 @@
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
+    <t>phenacetin</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>levamisole</t>
+  </si>
+  <si>
     <t>tropacocaine</t>
   </si>
   <si>
-    <t>levamisole</t>
-  </si>
-  <si>
-    <t>phenacetin</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
+  </si>
+  <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -462,12 +468,12 @@
     <t>caffeine</t>
   </si>
   <si>
+    <t>despropionyl ortho-chlorofentanyl</t>
+  </si>
+  <si>
     <t>ortho-chlorofentanyl</t>
   </si>
   <si>
-    <t>despropionyl ortho-chlorofentanyl</t>
-  </si>
-  <si>
     <t>noramidopyrine</t>
   </si>
   <si>
@@ -501,6 +507,9 @@
     <t>tianeptine</t>
   </si>
   <si>
+    <t>menthol</t>
+  </si>
+  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -531,33 +540,36 @@
     <t>3.3</t>
   </si>
   <si>
+    <t>8.92</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
     <t>8.53</t>
   </si>
   <si>
-    <t>8.92</t>
-  </si>
-  <si>
     <t>10.36</t>
   </si>
   <si>
+    <t>8.37</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
     <t>5.81</t>
   </si>
   <si>
-    <t>8.37</t>
-  </si>
-  <si>
-    <t>9.23</t>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>9.74</t>
   </si>
   <si>
     <t>9.94</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
     <t>6.66</t>
   </si>
   <si>
@@ -567,9 +579,6 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>9.74</t>
-  </si>
-  <si>
     <t>12.33</t>
   </si>
   <si>
@@ -603,12 +612,12 @@
     <t>5.47</t>
   </si>
   <si>
+    <t>8.54</t>
+  </si>
+  <si>
     <t>8.61</t>
   </si>
   <si>
-    <t>8.54</t>
-  </si>
-  <si>
     <t>8.95</t>
   </si>
   <si>
@@ -645,24 +654,24 @@
     <t>6.54</t>
   </si>
   <si>
+    <t>9.04</t>
+  </si>
+  <si>
     <t>10.17</t>
   </si>
   <si>
-    <t>9.04</t>
-  </si>
-  <si>
     <t>6.72</t>
   </si>
   <si>
     <t>10.45</t>
   </si>
   <si>
+    <t>9.83</t>
+  </si>
+  <si>
     <t>9.32</t>
   </si>
   <si>
-    <t>9.83</t>
-  </si>
-  <si>
     <t>3.62</t>
   </si>
   <si>
@@ -684,24 +693,24 @@
     <t>10.03</t>
   </si>
   <si>
+    <t>9.49</t>
+  </si>
+  <si>
     <t>9.85</t>
   </si>
   <si>
-    <t>9.49</t>
-  </si>
-  <si>
     <t>9.57</t>
   </si>
   <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>9.11</t>
+  </si>
+  <si>
     <t>6.15</t>
   </si>
   <si>
-    <t>9.11</t>
-  </si>
-  <si>
     <t>15.12</t>
   </si>
   <si>
@@ -726,12 +735,12 @@
     <t>10.41</t>
   </si>
   <si>
+    <t>9.36</t>
+  </si>
+  <si>
     <t>9.28</t>
   </si>
   <si>
-    <t>9.36</t>
-  </si>
-  <si>
     <t>9.8</t>
   </si>
   <si>
@@ -759,15 +768,15 @@
     <t>6.58</t>
   </si>
   <si>
+    <t>10.56</t>
+  </si>
+  <si>
     <t>9.31</t>
   </si>
   <si>
     <t>3.18</t>
   </si>
   <si>
-    <t>10.56</t>
-  </si>
-  <si>
     <t>12.81</t>
   </si>
   <si>
@@ -780,24 +789,24 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
     <t>6.27</t>
   </si>
   <si>
     <t>9.14</t>
   </si>
   <si>
-    <t>7.37</t>
-  </si>
-  <si>
-    <t>10.3</t>
+    <t>11.73</t>
   </si>
   <si>
     <t>6.36</t>
   </si>
   <si>
-    <t>11.73</t>
-  </si>
-  <si>
     <t>6.89</t>
   </si>
   <si>
@@ -807,24 +816,24 @@
     <t>8.25</t>
   </si>
   <si>
+    <t>12.62</t>
+  </si>
+  <si>
     <t>8.12</t>
   </si>
   <si>
-    <t>12.62</t>
-  </si>
-  <si>
     <t>5.49</t>
   </si>
   <si>
     <t>8.11</t>
   </si>
   <si>
+    <t>6.05</t>
+  </si>
+  <si>
     <t>10.52</t>
   </si>
   <si>
-    <t>6.05</t>
-  </si>
-  <si>
     <t>10.51</t>
   </si>
   <si>
@@ -849,22 +858,25 @@
     <t>5.43</t>
   </si>
   <si>
+    <t>3.54</t>
+  </si>
+  <si>
     <t>10.64</t>
   </si>
   <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>10.26</t>
+  </si>
+  <si>
     <t>9.33</t>
   </si>
   <si>
+    <t>6.29</t>
+  </si>
+  <si>
     <t>6.6</t>
-  </si>
-  <si>
-    <t>6.29</t>
-  </si>
-  <si>
-    <t>10.26</t>
-  </si>
-  <si>
-    <t>9.4</t>
   </si>
   <si>
     <t>9.81</t>
@@ -924,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -935,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -958,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1">
         <v>44803</v>
@@ -973,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -981,13 +993,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1">
         <v>44803</v>
@@ -996,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -1004,13 +1016,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1">
         <v>44803</v>
@@ -1019,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -1027,13 +1039,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1">
         <v>44803</v>
@@ -1042,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
@@ -1050,13 +1062,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E6" s="1">
         <v>44803</v>
@@ -1065,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -1073,13 +1085,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1">
         <v>44803</v>
@@ -1088,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8">
@@ -1096,13 +1108,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1">
         <v>44803</v>
@@ -1111,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -1119,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1">
         <v>44803</v>
@@ -1134,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -1142,13 +1154,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1">
         <v>44803</v>
@@ -1157,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
@@ -1168,10 +1180,10 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1">
         <v>44854</v>
@@ -1180,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
@@ -1188,13 +1200,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1">
         <v>44854</v>
@@ -1203,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13">
@@ -1211,13 +1223,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1">
         <v>44854</v>
@@ -1226,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14">
@@ -1234,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E14" s="1">
         <v>44854</v>
@@ -1249,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
@@ -1257,13 +1269,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E15" s="1">
         <v>44854</v>
@@ -1272,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
@@ -1280,13 +1292,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1">
         <v>44854</v>
@@ -1295,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
@@ -1303,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E17" s="1">
         <v>44854</v>
@@ -1318,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -1326,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E18" s="1">
         <v>44932</v>
@@ -1341,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -1349,13 +1361,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E19" s="1">
         <v>44932</v>
@@ -1364,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -1372,13 +1384,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1">
         <v>44932</v>
@@ -1387,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -1395,13 +1407,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E21" s="1">
         <v>44845</v>
@@ -1410,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
@@ -1418,13 +1430,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E22" s="1">
         <v>44845</v>
@@ -1433,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
@@ -1441,13 +1453,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E23" s="1">
         <v>44845</v>
@@ -1456,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -1464,13 +1476,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E24" s="1">
         <v>44845</v>
@@ -1479,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
@@ -1487,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E25" s="1">
         <v>44840</v>
@@ -1502,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
@@ -1510,13 +1522,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E26" s="1">
         <v>44932</v>
@@ -1525,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -1533,13 +1545,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E27" s="1">
         <v>44932</v>
@@ -1548,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
@@ -1556,13 +1568,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E28" s="1">
         <v>44932</v>
@@ -1571,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
@@ -1579,13 +1591,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E29" s="1">
         <v>44932</v>
@@ -1594,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
@@ -1602,13 +1614,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E30" s="1">
         <v>44932</v>
@@ -1617,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
@@ -1625,13 +1637,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E31" s="1">
         <v>44932</v>
@@ -1640,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32">
@@ -1648,13 +1660,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1">
         <v>44840</v>
@@ -1663,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
@@ -1671,13 +1683,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E33" s="1">
         <v>44840</v>
@@ -1686,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
@@ -1694,13 +1706,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1">
         <v>44931</v>
@@ -1709,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35">
@@ -1717,13 +1729,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E35" s="1">
         <v>44839</v>
@@ -1732,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36">
@@ -1740,13 +1752,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E36" s="1">
         <v>44839</v>
@@ -1755,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
@@ -1763,13 +1775,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E37" s="1">
         <v>44839</v>
@@ -1778,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38">
@@ -1786,13 +1798,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E38" s="1">
         <v>44839</v>
@@ -1801,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
@@ -1812,10 +1824,10 @@
         <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1">
         <v>44839</v>
@@ -1824,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40">
@@ -1832,13 +1844,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E40" s="1">
         <v>44839</v>
@@ -1847,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -1855,13 +1867,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E41" s="1">
         <v>44839</v>
@@ -1870,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42">
@@ -1878,13 +1890,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E42" s="1">
         <v>44839</v>
@@ -1893,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43">
@@ -1901,13 +1913,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E43" s="1">
         <v>44840</v>
@@ -1916,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44">
@@ -1924,13 +1936,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E44" s="1">
         <v>44932</v>
@@ -1939,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45">
@@ -1947,13 +1959,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E45" s="1">
         <v>44951</v>
@@ -1962,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46">
@@ -1970,13 +1982,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E46" s="1">
         <v>44951</v>
@@ -1985,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47">
@@ -1993,13 +2005,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E47" s="1">
         <v>44936</v>
@@ -2008,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48">
@@ -2016,13 +2028,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1">
         <v>44935</v>
@@ -2031,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49">
@@ -2039,13 +2051,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E49" s="1">
         <v>44935</v>
@@ -2054,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50">
@@ -2062,13 +2074,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E50" s="1">
         <v>44931</v>
@@ -2077,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51">
@@ -2085,13 +2097,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E51" s="1">
         <v>44931</v>
@@ -2100,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52">
@@ -2108,13 +2120,13 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E52" s="1">
         <v>44931</v>
@@ -2123,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53">
@@ -2131,13 +2143,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E53" s="1">
         <v>44931</v>
@@ -2146,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54">
@@ -2154,13 +2166,13 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E54" s="1">
         <v>44931</v>
@@ -2169,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55">
@@ -2177,13 +2189,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E55" s="1">
         <v>44931</v>
@@ -2192,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56">
@@ -2200,13 +2212,13 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E56" s="1">
         <v>44931</v>
@@ -2215,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57">
@@ -2223,13 +2235,13 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E57" s="1">
         <v>44956</v>
@@ -2238,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58">
@@ -2246,13 +2258,13 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E58" s="1">
         <v>44956</v>
@@ -2261,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59">
@@ -2269,13 +2281,13 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E59" s="1">
         <v>44956</v>
@@ -2284,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60">
@@ -2292,13 +2304,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E60" s="1">
         <v>44951</v>
@@ -2307,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61">
@@ -2315,13 +2327,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E61" s="1">
         <v>44935</v>
@@ -2330,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62">
@@ -2338,13 +2350,13 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E62" s="1">
         <v>44930</v>
@@ -2353,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63">
@@ -2361,13 +2373,13 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E63" s="1">
         <v>44930</v>
@@ -2376,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64">
@@ -2384,13 +2396,13 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E64" s="1">
         <v>44930</v>
@@ -2399,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -2407,13 +2419,13 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E65" s="1">
         <v>44951</v>
@@ -2422,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66">
@@ -2430,13 +2442,13 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E66" s="1">
         <v>44951</v>
@@ -2445,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67">
@@ -2453,13 +2465,13 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E67" s="1">
         <v>44951</v>
@@ -2468,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68">
@@ -2476,13 +2488,13 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E68" s="1">
         <v>44951</v>
@@ -2491,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69">
@@ -2499,13 +2511,13 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E69" s="1">
         <v>44951</v>
@@ -2514,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70">
@@ -2522,13 +2534,13 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E70" s="1">
         <v>44935</v>
@@ -2537,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71">
@@ -2545,13 +2557,13 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E71" s="1">
         <v>44935</v>
@@ -2560,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72">
@@ -2568,13 +2580,13 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E72" s="1">
         <v>44952</v>
@@ -2583,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73">
@@ -2591,13 +2603,13 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E73" s="1">
         <v>45001</v>
@@ -2606,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74">
@@ -2614,13 +2626,13 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E74" s="1">
         <v>45001</v>
@@ -2629,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75">
@@ -2637,13 +2649,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E75" s="1">
         <v>44952</v>
@@ -2652,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76">
@@ -2660,13 +2672,13 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E76" s="1">
         <v>44952</v>
@@ -2675,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77">
@@ -2683,13 +2695,13 @@
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E77" s="1">
         <v>44930</v>
@@ -2698,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78">
@@ -2706,13 +2718,13 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E78" s="1">
         <v>44930</v>
@@ -2721,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79">
@@ -2729,13 +2741,13 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E79" s="1">
         <v>44930</v>
@@ -2744,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80">
@@ -2752,13 +2764,13 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E80" s="1">
         <v>44957</v>
@@ -2767,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -2775,13 +2787,13 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E81" s="1">
         <v>44930</v>
@@ -2790,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82">
@@ -2798,13 +2810,13 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E82" s="1">
         <v>44935</v>
@@ -2813,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83">
@@ -2824,10 +2836,10 @@
         <v>140</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E83" s="1">
         <v>44935</v>
@@ -2836,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84">
@@ -2844,13 +2856,13 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E84" s="1">
         <v>44935</v>
@@ -2859,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85">
@@ -2867,13 +2879,13 @@
         <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E85" s="1">
         <v>44951</v>
@@ -2882,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86">
@@ -2890,13 +2902,13 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E86" s="1">
         <v>44951</v>
@@ -2905,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87">
@@ -2916,10 +2928,10 @@
         <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D87" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E87" s="1">
         <v>44951</v>
@@ -2928,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88">
@@ -2936,13 +2948,13 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E88" s="1">
         <v>44956</v>
@@ -2951,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -2959,13 +2971,13 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D89" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E89" s="1">
         <v>44956</v>
@@ -2974,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90">
@@ -2982,13 +2994,13 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D90" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E90" s="1">
         <v>44956</v>
@@ -2997,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91">
@@ -3005,13 +3017,13 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D91" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E91" s="1">
         <v>44956</v>
@@ -3020,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -3028,13 +3040,13 @@
         <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D92" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E92" s="1">
         <v>44951</v>
@@ -3043,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93">
@@ -3051,13 +3063,13 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D93" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E93" s="1">
         <v>44951</v>
@@ -3066,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94">
@@ -3074,13 +3086,13 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E94" s="1">
         <v>44951</v>
@@ -3089,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95">
@@ -3097,13 +3109,13 @@
         <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D95" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E95" s="1">
         <v>44951</v>
@@ -3112,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96">
@@ -3120,13 +3132,13 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D96" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E96" s="1">
         <v>44951</v>
@@ -3135,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97">
@@ -3143,13 +3155,13 @@
         <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D97" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E97" s="1">
         <v>44951</v>
@@ -3158,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98">
@@ -3166,13 +3178,13 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D98" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E98" s="1">
         <v>44951</v>
@@ -3181,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99">
@@ -3189,13 +3201,13 @@
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E99" s="1">
         <v>44951</v>
@@ -3204,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100">
@@ -3212,13 +3224,13 @@
         <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D100" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E100" s="1">
         <v>44952</v>
@@ -3227,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
@@ -3235,13 +3247,13 @@
         <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E101" s="1">
         <v>44930</v>
@@ -3250,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102">
@@ -3258,13 +3270,13 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D102" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E102" s="1">
         <v>44957</v>
@@ -3273,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103">
@@ -3281,13 +3293,13 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E103" s="1">
         <v>44930</v>
@@ -3296,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104">
@@ -3307,10 +3319,10 @@
         <v>118</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E104" s="1">
         <v>44930</v>
@@ -3319,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105">
@@ -3327,13 +3339,13 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E105" s="1">
         <v>44930</v>
@@ -3342,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106">
@@ -3350,13 +3362,13 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E106" s="1">
         <v>44930</v>
@@ -3365,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107">
@@ -3373,13 +3385,13 @@
         <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E107" s="1">
         <v>44935</v>
@@ -3388,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108">
@@ -3396,13 +3408,13 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C108" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D108" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E108" s="1">
         <v>44935</v>
@@ -3411,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109">
@@ -3419,13 +3431,13 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C109" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D109" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E109" s="1">
         <v>44935</v>
@@ -3434,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110">
@@ -3442,13 +3454,13 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D110" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E110" s="1">
         <v>44935</v>
@@ -3457,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111">
@@ -3465,13 +3477,13 @@
         <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D111" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E111" s="1">
         <v>44935</v>
@@ -3480,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112">
@@ -3488,13 +3500,13 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D112" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E112" s="1">
         <v>44935</v>
@@ -3503,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113">
@@ -3511,13 +3523,13 @@
         <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E113" s="1">
         <v>44935</v>
@@ -3526,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114">
@@ -3534,13 +3546,13 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C114" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D114" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E114" s="1">
         <v>44932</v>
@@ -3549,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115">
@@ -3557,13 +3569,13 @@
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C115" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E115" s="1">
         <v>44951</v>
@@ -3572,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116">
@@ -3580,13 +3592,13 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C116" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E116" s="1">
         <v>44951</v>
@@ -3595,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117">
@@ -3603,13 +3615,13 @@
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E117" s="1">
         <v>44951</v>
@@ -3618,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118">
@@ -3626,13 +3638,13 @@
         <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D118" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E118" s="1">
         <v>44951</v>
@@ -3641,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119">
@@ -3649,13 +3661,13 @@
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D119" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E119" s="1">
         <v>44951</v>
@@ -3664,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120">
@@ -3672,13 +3684,13 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D120" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E120" s="1">
         <v>44951</v>
@@ -3687,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121">
@@ -3695,13 +3707,13 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E121" s="1">
         <v>44951</v>
@@ -3710,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122">
@@ -3718,13 +3730,13 @@
         <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D122" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E122" s="1">
         <v>44951</v>
@@ -3733,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123">
@@ -3741,13 +3753,13 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D123" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E123" s="1">
         <v>44951</v>
@@ -3756,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124">
@@ -3764,13 +3776,13 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D124" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E124" s="1">
         <v>44951</v>
@@ -3779,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125">
@@ -3787,13 +3799,13 @@
         <v>48</v>
       </c>
       <c r="B125" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D125" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E125" s="1">
         <v>44931</v>
@@ -3802,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126">
@@ -3810,13 +3822,13 @@
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D126" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E126" s="1">
         <v>44931</v>
@@ -3825,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127">
@@ -3833,13 +3845,13 @@
         <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C127" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D127" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E127" s="1">
         <v>44931</v>
@@ -3848,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128">
@@ -3856,13 +3868,13 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D128" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E128" s="1">
         <v>44931</v>
@@ -3871,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129">
@@ -3879,13 +3891,13 @@
         <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C129" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D129" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E129" s="1">
         <v>44930</v>
@@ -3894,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130">
@@ -3902,13 +3914,13 @@
         <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C130" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E130" s="1">
         <v>44930</v>
@@ -3917,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131">
@@ -3925,13 +3937,13 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E131" s="1">
         <v>44930</v>
@@ -3940,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132">
@@ -3948,13 +3960,13 @@
         <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D132" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E132" s="1">
         <v>44930</v>
@@ -3963,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133">
@@ -3971,13 +3983,13 @@
         <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D133" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E133" s="1">
         <v>44957</v>
@@ -3986,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134">
@@ -3994,13 +4006,13 @@
         <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C134" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D134" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E134" s="1">
         <v>44935</v>
@@ -4009,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135">
@@ -4017,13 +4029,13 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E135" s="1">
         <v>44930</v>
@@ -4032,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136">
@@ -4043,10 +4055,10 @@
         <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D136" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E136" s="1">
         <v>44935</v>
@@ -4055,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137">
@@ -4063,13 +4075,13 @@
         <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D137" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E137" s="1">
         <v>44935</v>
@@ -4078,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138">
@@ -4086,13 +4098,13 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C138" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D138" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E138" s="1">
         <v>44935</v>
@@ -4101,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139">
@@ -4112,10 +4124,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D139" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E139" s="1">
         <v>44935</v>
@@ -4124,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140">
@@ -4132,13 +4144,13 @@
         <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D140" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E140" s="1">
         <v>44935</v>
@@ -4147,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141">
@@ -4155,13 +4167,13 @@
         <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D141" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E141" s="1">
         <v>44935</v>
@@ -4170,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142">
@@ -4178,13 +4190,13 @@
         <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C142" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D142" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E142" s="1">
         <v>44936</v>
@@ -4193,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143">
@@ -4204,10 +4216,10 @@
         <v>118</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D143" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E143" s="1">
         <v>44936</v>
@@ -4216,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144">
@@ -4224,13 +4236,13 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D144" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E144" s="1">
         <v>44936</v>
@@ -4239,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145">
@@ -4247,13 +4259,13 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D145" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E145" s="1">
         <v>44931</v>
@@ -4262,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146">
@@ -4270,13 +4282,13 @@
         <v>58</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C146" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D146" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E146" s="1">
         <v>44931</v>
@@ -4285,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147">
@@ -4293,13 +4305,13 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D147" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E147" s="1">
         <v>44935</v>
@@ -4308,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148">
@@ -4316,13 +4328,13 @@
         <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D148" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E148" s="1">
         <v>44936</v>
@@ -4331,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149">
@@ -4339,13 +4351,13 @@
         <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C149" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D149" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E149" s="1">
         <v>44936</v>
@@ -4354,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="150">
@@ -4362,13 +4374,13 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D150" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E150" s="1">
         <v>44936</v>
@@ -4377,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151">
@@ -4385,13 +4397,13 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E151" s="1">
         <v>44936</v>
@@ -4400,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152">
@@ -4408,13 +4420,13 @@
         <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C152" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D152" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E152" s="1">
         <v>44951</v>
@@ -4423,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153">
@@ -4431,13 +4443,13 @@
         <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D153" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E153" s="1">
         <v>44951</v>
@@ -4446,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154">
@@ -4454,13 +4466,13 @@
         <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C154" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D154" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E154" s="1">
         <v>44951</v>
@@ -4469,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155">
@@ -4477,13 +4489,13 @@
         <v>63</v>
       </c>
       <c r="B155" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C155" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D155" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E155" s="1">
         <v>44952</v>
@@ -4492,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156">
@@ -4500,13 +4512,13 @@
         <v>63</v>
       </c>
       <c r="B156" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C156" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D156" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E156" s="1">
         <v>44952</v>
@@ -4515,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157">
@@ -4523,13 +4535,13 @@
         <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C157" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D157" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E157" s="1">
         <v>44952</v>
@@ -4538,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158">
@@ -4546,13 +4558,13 @@
         <v>63</v>
       </c>
       <c r="B158" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C158" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D158" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E158" s="1">
         <v>44952</v>
@@ -4561,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159">
@@ -4569,13 +4581,13 @@
         <v>64</v>
       </c>
       <c r="B159" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D159" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E159" s="1">
         <v>44936</v>
@@ -4584,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160">
@@ -4592,13 +4604,13 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E160" s="1">
         <v>45001</v>
@@ -4607,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161">
@@ -4615,13 +4627,13 @@
         <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D161" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E161" s="1">
         <v>44935</v>
@@ -4630,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162">
@@ -4638,13 +4650,13 @@
         <v>67</v>
       </c>
       <c r="B162" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D162" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E162" s="1">
         <v>44930</v>
@@ -4653,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="163">
@@ -4661,13 +4673,13 @@
         <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E163" s="1">
         <v>44930</v>
@@ -4676,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164">
@@ -4684,13 +4696,13 @@
         <v>68</v>
       </c>
       <c r="B164" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C164" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D164" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E164" s="1">
         <v>44930</v>
@@ -4699,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="165">
@@ -4707,13 +4719,13 @@
         <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C165" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E165" s="1">
         <v>44930</v>
@@ -4722,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166">
@@ -4730,13 +4742,13 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C166" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D166" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E166" s="1">
         <v>44932</v>
@@ -4745,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167">
@@ -4753,13 +4765,13 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C167" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D167" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E167" s="1">
         <v>44932</v>
@@ -4768,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168">
@@ -4776,13 +4788,13 @@
         <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C168" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D168" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E168" s="1">
         <v>44931</v>
@@ -4791,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169">
@@ -4799,13 +4811,13 @@
         <v>71</v>
       </c>
       <c r="B169" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D169" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E169" s="1">
         <v>44930</v>
@@ -4814,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170">
@@ -4822,13 +4834,13 @@
         <v>71</v>
       </c>
       <c r="B170" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C170" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D170" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E170" s="1">
         <v>44930</v>
@@ -4837,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171">
@@ -4845,13 +4857,13 @@
         <v>71</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C171" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D171" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E171" s="1">
         <v>44930</v>
@@ -4860,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="172">
@@ -4868,13 +4880,13 @@
         <v>71</v>
       </c>
       <c r="B172" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C172" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D172" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E172" s="1">
         <v>44930</v>
@@ -4883,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
     </row>
     <row r="173">
@@ -4891,13 +4903,13 @@
         <v>71</v>
       </c>
       <c r="B173" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C173" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D173" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E173" s="1">
         <v>44930</v>
@@ -4906,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174">
@@ -4917,10 +4929,10 @@
         <v>118</v>
       </c>
       <c r="C174" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D174" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E174" s="1">
         <v>44930</v>
@@ -4929,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175">
@@ -4937,13 +4949,13 @@
         <v>72</v>
       </c>
       <c r="B175" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C175" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D175" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E175" s="1">
         <v>44935</v>
@@ -4952,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176">
@@ -4960,13 +4972,13 @@
         <v>72</v>
       </c>
       <c r="B176" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C176" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D176" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E176" s="1">
         <v>44935</v>
@@ -4975,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177">
@@ -4983,13 +4995,13 @@
         <v>72</v>
       </c>
       <c r="B177" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C177" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D177" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E177" s="1">
         <v>44935</v>
@@ -4998,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="178">
@@ -5006,13 +5018,13 @@
         <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C178" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D178" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E178" s="1">
         <v>44935</v>
@@ -5021,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179">
@@ -5029,13 +5041,13 @@
         <v>73</v>
       </c>
       <c r="B179" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C179" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D179" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E179" s="1">
         <v>44935</v>
@@ -5044,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180">
@@ -5052,13 +5064,13 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C180" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D180" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E180" s="1">
         <v>44935</v>
@@ -5067,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181">
@@ -5075,13 +5087,13 @@
         <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C181" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D181" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E181" s="1">
         <v>45001</v>
@@ -5090,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182">
@@ -5098,13 +5110,13 @@
         <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C182" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D182" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E182" s="1">
         <v>45001</v>
@@ -5113,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183">
@@ -5121,13 +5133,13 @@
         <v>75</v>
       </c>
       <c r="B183" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C183" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D183" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E183" s="1">
         <v>44935</v>
@@ -5136,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184">
@@ -5144,13 +5156,13 @@
         <v>75</v>
       </c>
       <c r="B184" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C184" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D184" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E184" s="1">
         <v>44935</v>
@@ -5159,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185">
@@ -5167,13 +5179,13 @@
         <v>76</v>
       </c>
       <c r="B185" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C185" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D185" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E185" s="1">
         <v>44952</v>
@@ -5182,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186">
@@ -5190,13 +5202,13 @@
         <v>77</v>
       </c>
       <c r="B186" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C186" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D186" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E186" s="1">
         <v>44957</v>
@@ -5205,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187">
@@ -5213,13 +5225,13 @@
         <v>77</v>
       </c>
       <c r="B187" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C187" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D187" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E187" s="1">
         <v>44957</v>
@@ -5228,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="188">
@@ -5236,13 +5248,13 @@
         <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C188" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D188" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E188" s="1">
         <v>44957</v>
@@ -5251,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
     </row>
     <row r="189">
@@ -5259,13 +5271,13 @@
         <v>77</v>
       </c>
       <c r="B189" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C189" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D189" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E189" s="1">
         <v>44957</v>
@@ -5274,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190">
@@ -5285,10 +5297,10 @@
         <v>113</v>
       </c>
       <c r="C190" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D190" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E190" s="1">
         <v>44957</v>
@@ -5297,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191">
@@ -5305,13 +5317,13 @@
         <v>77</v>
       </c>
       <c r="B191" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C191" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D191" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E191" s="1">
         <v>44957</v>
@@ -5320,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192">
@@ -5328,13 +5340,13 @@
         <v>77</v>
       </c>
       <c r="B192" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C192" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D192" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E192" s="1">
         <v>44957</v>
@@ -5343,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193">
@@ -5351,13 +5363,13 @@
         <v>77</v>
       </c>
       <c r="B193" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C193" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D193" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E193" s="1">
         <v>44957</v>
@@ -5366,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194">
@@ -5374,13 +5386,13 @@
         <v>77</v>
       </c>
       <c r="B194" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C194" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D194" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E194" s="1">
         <v>44957</v>
@@ -5389,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195">
@@ -5397,13 +5409,13 @@
         <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C195" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D195" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E195" s="1">
         <v>44957</v>
@@ -5412,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196">
@@ -5420,13 +5432,13 @@
         <v>77</v>
       </c>
       <c r="B196" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C196" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D196" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E196" s="1">
         <v>44957</v>
@@ -5435,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197">
@@ -5443,13 +5455,13 @@
         <v>78</v>
       </c>
       <c r="B197" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C197" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D197" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E197" s="1">
         <v>44932</v>
@@ -5458,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198">
@@ -5466,13 +5478,13 @@
         <v>79</v>
       </c>
       <c r="B198" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C198" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D198" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E198" s="1">
         <v>44951</v>
@@ -5481,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199">
@@ -5489,13 +5501,13 @@
         <v>80</v>
       </c>
       <c r="B199" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C199" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D199" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E199" s="1">
         <v>44936</v>
@@ -5504,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="200">
@@ -5512,13 +5524,13 @@
         <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C200" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D200" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E200" s="1">
         <v>44936</v>
@@ -5527,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="201">
@@ -5535,13 +5547,13 @@
         <v>80</v>
       </c>
       <c r="B201" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C201" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D201" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E201" s="1">
         <v>44936</v>
@@ -5550,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="202">
@@ -5558,13 +5570,13 @@
         <v>80</v>
       </c>
       <c r="B202" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C202" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D202" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E202" s="1">
         <v>44936</v>
@@ -5573,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="203">
@@ -5581,13 +5593,13 @@
         <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C203" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D203" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E203" s="1">
         <v>44939</v>
@@ -5596,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204">
@@ -5604,13 +5616,13 @@
         <v>82</v>
       </c>
       <c r="B204" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C204" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D204" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E204" s="1">
         <v>44930</v>
@@ -5619,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205">
@@ -5627,13 +5639,13 @@
         <v>83</v>
       </c>
       <c r="B205" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C205" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D205" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E205" s="1">
         <v>44956</v>
@@ -5642,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206">
@@ -5650,13 +5662,13 @@
         <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C206" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D206" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E206" s="1">
         <v>45002</v>
@@ -5665,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="207">
@@ -5673,13 +5685,13 @@
         <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C207" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D207" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E207" s="1">
         <v>45002</v>
@@ -5688,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="208">
@@ -5699,10 +5711,10 @@
         <v>141</v>
       </c>
       <c r="C208" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D208" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E208" s="1">
         <v>45002</v>
@@ -5711,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209">
@@ -5719,13 +5731,13 @@
         <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C209" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D209" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E209" s="1">
         <v>45002</v>
@@ -5734,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>172</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210">
@@ -5742,13 +5754,13 @@
         <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C210" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D210" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E210" s="1">
         <v>45002</v>
@@ -5757,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211">
@@ -5765,13 +5777,13 @@
         <v>85</v>
       </c>
       <c r="B211" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C211" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D211" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E211" s="1">
         <v>44936</v>
@@ -5780,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="212">
@@ -5788,13 +5800,13 @@
         <v>85</v>
       </c>
       <c r="B212" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C212" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D212" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E212" s="1">
         <v>44936</v>
@@ -5803,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213">
@@ -5811,13 +5823,13 @@
         <v>85</v>
       </c>
       <c r="B213" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C213" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D213" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E213" s="1">
         <v>44936</v>
@@ -5826,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214">
@@ -5834,13 +5846,13 @@
         <v>85</v>
       </c>
       <c r="B214" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C214" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D214" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E214" s="1">
         <v>44936</v>
@@ -5849,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="G214" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215">
@@ -5857,13 +5869,13 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C215" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D215" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E215" s="1">
         <v>44930</v>
@@ -5872,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>172</v>
+        <v>269</v>
       </c>
     </row>
     <row r="216">
@@ -5880,13 +5892,13 @@
         <v>86</v>
       </c>
       <c r="B216" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C216" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D216" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E216" s="1">
         <v>44930</v>
@@ -5895,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>266</v>
+        <v>176</v>
       </c>
     </row>
     <row r="217">
@@ -5903,13 +5915,13 @@
         <v>86</v>
       </c>
       <c r="B217" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C217" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D217" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E217" s="1">
         <v>44930</v>
@@ -5918,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218">
@@ -5929,10 +5941,10 @@
         <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D218" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E218" s="1">
         <v>44936</v>
@@ -5941,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219">
@@ -5949,13 +5961,13 @@
         <v>87</v>
       </c>
       <c r="B219" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C219" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D219" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E219" s="1">
         <v>44936</v>
@@ -5964,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="220">
@@ -5972,13 +5984,13 @@
         <v>87</v>
       </c>
       <c r="B220" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C220" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D220" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E220" s="1">
         <v>44936</v>
@@ -5987,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>172</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221">
@@ -5995,13 +6007,13 @@
         <v>88</v>
       </c>
       <c r="B221" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C221" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D221" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E221" s="1">
         <v>44951</v>
@@ -6010,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222">
@@ -6018,13 +6030,13 @@
         <v>88</v>
       </c>
       <c r="B222" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C222" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D222" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E222" s="1">
         <v>44951</v>
@@ -6033,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223">
@@ -6041,13 +6053,13 @@
         <v>88</v>
       </c>
       <c r="B223" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C223" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D223" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E223" s="1">
         <v>44951</v>
@@ -6056,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="224">
@@ -6064,13 +6076,13 @@
         <v>89</v>
       </c>
       <c r="B224" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C224" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D224" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E224" s="1">
         <v>44932</v>
@@ -6079,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225">
@@ -6087,13 +6099,13 @@
         <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C225" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D225" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E225" s="1">
         <v>44936</v>
@@ -6102,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226">
@@ -6110,13 +6122,13 @@
         <v>90</v>
       </c>
       <c r="B226" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C226" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D226" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E226" s="1">
         <v>44936</v>
@@ -6125,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
     </row>
     <row r="227">
@@ -6133,13 +6145,13 @@
         <v>91</v>
       </c>
       <c r="B227" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C227" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D227" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E227" s="1">
         <v>44935</v>
@@ -6148,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="228">
@@ -6156,13 +6168,13 @@
         <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C228" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D228" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E228" s="1">
         <v>44935</v>
@@ -6171,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229">
@@ -6179,13 +6191,13 @@
         <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C229" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D229" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E229" s="1">
         <v>44935</v>
@@ -6194,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="230">
@@ -6202,13 +6214,13 @@
         <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D230" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E230" s="1">
         <v>44957</v>
@@ -6217,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="231">
@@ -6225,13 +6237,13 @@
         <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C231" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D231" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E231" s="1">
         <v>44957</v>
@@ -6240,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232">
@@ -6248,13 +6260,13 @@
         <v>95</v>
       </c>
       <c r="B232" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C232" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D232" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E232" s="1">
         <v>45002</v>
@@ -6263,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
     </row>
     <row r="233">
@@ -6271,13 +6283,13 @@
         <v>95</v>
       </c>
       <c r="B233" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C233" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D233" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E233" s="1">
         <v>45002</v>
@@ -6286,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="234">
@@ -6294,13 +6306,13 @@
         <v>95</v>
       </c>
       <c r="B234" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C234" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D234" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E234" s="1">
         <v>45002</v>
@@ -6309,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="235">
@@ -6317,13 +6329,13 @@
         <v>95</v>
       </c>
       <c r="B235" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C235" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D235" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E235" s="1">
         <v>45002</v>
@@ -6332,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236">
@@ -6340,13 +6352,13 @@
         <v>96</v>
       </c>
       <c r="B236" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C236" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D236" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E236" s="1">
         <v>44957</v>
@@ -6355,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
     </row>
     <row r="237">
@@ -6363,13 +6375,13 @@
         <v>96</v>
       </c>
       <c r="B237" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C237" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D237" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E237" s="1">
         <v>44957</v>
@@ -6378,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
     </row>
     <row r="238">
@@ -6386,13 +6398,13 @@
         <v>96</v>
       </c>
       <c r="B238" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C238" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D238" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E238" s="1">
         <v>44957</v>
@@ -6401,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="G238" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="239">
@@ -6409,13 +6421,13 @@
         <v>97</v>
       </c>
       <c r="B239" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C239" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D239" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E239" s="1">
         <v>45002</v>
@@ -6424,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
     </row>
     <row r="240">
@@ -6435,10 +6447,10 @@
         <v>140</v>
       </c>
       <c r="C240" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D240" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E240" s="1">
         <v>45002</v>
@@ -6447,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="241">
@@ -6458,10 +6470,10 @@
         <v>141</v>
       </c>
       <c r="C241" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D241" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E241" s="1">
         <v>45002</v>
@@ -6470,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
     </row>
     <row r="242">
@@ -6478,13 +6490,13 @@
         <v>98</v>
       </c>
       <c r="B242" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C242" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D242" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E242" s="1">
         <v>45001</v>
@@ -6493,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="243">
@@ -6501,22 +6513,22 @@
         <v>99</v>
       </c>
       <c r="B243" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C243" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D243" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E243" s="1">
-        <v>44956</v>
+        <v>45002</v>
       </c>
       <c r="F243" s="2">
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="244">
@@ -6524,59 +6536,59 @@
         <v>99</v>
       </c>
       <c r="B244" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C244" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D244" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E244" s="1">
-        <v>44956</v>
+        <v>45002</v>
       </c>
       <c r="F244" s="2">
         <v>1</v>
       </c>
       <c r="G244" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B245" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C245" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D245" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E245" s="1">
-        <v>44956</v>
+        <v>45002</v>
       </c>
       <c r="F245" s="2">
         <v>1</v>
       </c>
       <c r="G245" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B246" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C246" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D246" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E246" s="1">
         <v>44956</v>
@@ -6585,21 +6597,21 @@
         <v>1</v>
       </c>
       <c r="G246" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B247" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C247" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D247" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E247" s="1">
         <v>44956</v>
@@ -6608,53 +6620,53 @@
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B248" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C248" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D248" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E248" s="1">
-        <v>45002</v>
+        <v>44956</v>
       </c>
       <c r="F248" s="2">
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B249" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C249" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D249" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E249" s="1">
-        <v>45002</v>
+        <v>44956</v>
       </c>
       <c r="F249" s="2">
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="250">
@@ -6662,151 +6674,151 @@
         <v>101</v>
       </c>
       <c r="B250" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C250" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D250" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E250" s="1">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="F250" s="2">
         <v>1</v>
       </c>
       <c r="G250" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B251" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C251" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D251" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E251" s="1">
-        <v>44957</v>
+        <v>45002</v>
       </c>
       <c r="F251" s="2">
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B252" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C252" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D252" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E252" s="1">
-        <v>44957</v>
+        <v>45002</v>
       </c>
       <c r="F252" s="2">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B253" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C253" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D253" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E253" s="1">
-        <v>45001</v>
+        <v>44957</v>
       </c>
       <c r="F253" s="2">
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>172</v>
+        <v>282</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B254" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C254" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D254" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E254" s="1">
-        <v>45001</v>
+        <v>44957</v>
       </c>
       <c r="F254" s="2">
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B255" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C255" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D255" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E255" s="1">
-        <v>45001</v>
+        <v>44957</v>
       </c>
       <c r="F255" s="2">
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B256" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C256" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D256" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E256" s="1">
         <v>45001</v>
@@ -6815,21 +6827,21 @@
         <v>1</v>
       </c>
       <c r="G256" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B257" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C257" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D257" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E257" s="1">
         <v>45001</v>
@@ -6838,21 +6850,21 @@
         <v>1</v>
       </c>
       <c r="G257" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B258" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C258" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D258" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E258" s="1">
         <v>45001</v>
@@ -6861,21 +6873,21 @@
         <v>1</v>
       </c>
       <c r="G258" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B259" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C259" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D259" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E259" s="1">
         <v>45001</v>
@@ -6884,21 +6896,21 @@
         <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B260" t="s">
         <v>118</v>
       </c>
       <c r="C260" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D260" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E260" s="1">
         <v>45001</v>
@@ -6907,21 +6919,21 @@
         <v>1</v>
       </c>
       <c r="G260" t="s">
-        <v>282</v>
+        <v>176</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B261" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C261" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D261" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E261" s="1">
         <v>45001</v>
@@ -6930,21 +6942,21 @@
         <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B262" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C262" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D262" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E262" s="1">
         <v>45001</v>
@@ -6953,21 +6965,21 @@
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B263" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C263" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D263" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E263" s="1">
         <v>45001</v>
@@ -6976,21 +6988,21 @@
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C264" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D264" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E264" s="1">
         <v>45001</v>
@@ -6999,21 +7011,21 @@
         <v>1</v>
       </c>
       <c r="G264" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B265" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C265" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D265" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E265" s="1">
         <v>45001</v>
@@ -7022,21 +7034,21 @@
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B266" t="s">
         <v>113</v>
       </c>
       <c r="C266" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D266" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E266" s="1">
         <v>45001</v>
@@ -7045,90 +7057,90 @@
         <v>1</v>
       </c>
       <c r="G266" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B267" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C267" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D267" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E267" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F267" s="2">
         <v>1</v>
       </c>
       <c r="G267" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B268" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C268" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D268" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E268" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F268" s="2">
         <v>1</v>
       </c>
       <c r="G268" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B269" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C269" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D269" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E269" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F269" s="2">
         <v>1</v>
       </c>
       <c r="G269" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B270" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C270" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D270" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E270" s="1">
         <v>44964</v>
@@ -7137,21 +7149,21 @@
         <v>1</v>
       </c>
       <c r="G270" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B271" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C271" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D271" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E271" s="1">
         <v>44964</v>
@@ -7160,30 +7172,30 @@
         <v>1</v>
       </c>
       <c r="G271" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B272" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C272" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D272" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E272" s="1">
-        <v>44956</v>
+        <v>44964</v>
       </c>
       <c r="F272" s="2">
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
     </row>
     <row r="273">
@@ -7191,22 +7203,22 @@
         <v>106</v>
       </c>
       <c r="B273" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C273" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D273" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E273" s="1">
-        <v>45002</v>
+        <v>44964</v>
       </c>
       <c r="F273" s="2">
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
     </row>
     <row r="274">
@@ -7214,22 +7226,22 @@
         <v>106</v>
       </c>
       <c r="B274" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C274" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D274" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E274" s="1">
-        <v>45002</v>
+        <v>44964</v>
       </c>
       <c r="F274" s="2">
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="275">
@@ -7237,82 +7249,82 @@
         <v>107</v>
       </c>
       <c r="B275" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C275" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D275" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E275" s="1">
-        <v>45001</v>
+        <v>44956</v>
       </c>
       <c r="F275" s="2">
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B276" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C276" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D276" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E276" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="F276" s="2">
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B277" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C277" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D277" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E277" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="F277" s="2">
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B278" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C278" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D278" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E278" s="1">
         <v>45001</v>
@@ -7321,21 +7333,21 @@
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B279" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C279" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D279" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E279" s="1">
         <v>45001</v>
@@ -7344,76 +7356,145 @@
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B280" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C280" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D280" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E280" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F280" s="2">
         <v>1</v>
       </c>
       <c r="G280" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B281" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C281" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D281" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E281" s="1">
-        <v>44964</v>
+        <v>45001</v>
       </c>
       <c r="F281" s="2">
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B282" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C282" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D282" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E282" s="1">
+        <v>45001</v>
+      </c>
+      <c r="F282" s="2">
+        <v>1</v>
+      </c>
+      <c r="G282" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>110</v>
+      </c>
+      <c r="B283" t="s">
+        <v>118</v>
+      </c>
+      <c r="C283" t="s">
+        <v>166</v>
+      </c>
+      <c r="D283" t="s">
+        <v>169</v>
+      </c>
+      <c r="E283" s="1">
         <v>44964</v>
       </c>
-      <c r="F282" s="2">
-        <v>1</v>
-      </c>
-      <c r="G282" t="s">
-        <v>287</v>
+      <c r="F283" s="2">
+        <v>1</v>
+      </c>
+      <c r="G283" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  